--- a/기사데이터/토스/엑셀파일/news(토스, 2022.06.16~2022.06.30).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.06.16~2022.06.30).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,2506 +2955,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2022.06.23.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>'8조원' 씨티은행 신용대출, KB국민·토스 어디로 갈아탈까</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000825215?sid=101</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>한국씨티은행의 국내 소비자금융 사업 철수에 따라 8조원 규모의 신용대출에 대한 대환(대출 갈아타기)이 다음달부터 시작된다. 사진은 서울 종로구 새문안로 한국씨티은행 본사./사진=뉴스1 한국씨티은행의 개인 신용대출 잔액 8조원 대환업무를 KB국민은행과 토스뱅크가 담당하게 됐다. 한국씨티은행의 개인신용대출잔액(3월말 기준)은 8조409억원 수준이다.한국씨티은행 고객은 두 은행 중에서 자신의 입맛에 맞는 은행을 선택해 대출을 대환하면 된다. 22일 금융권에 따르면 한국씨티은행 신용대출 고객은 '차주별 총부채원리금분할상환비율(DSR)' 및 '연소득 100% 이내 대출한도 제한'과 관계없이 기존 신용대출 잔액 범위 내에서 KB국민은행과 토스뱅크의 신용대출 상품으로 갈아탈 수 있다. 특히 금리우대뿐만 아니라 대출시 발생하는 중도상환수수료와 대환 과정에서 부담하는 인지세는 KB국민은행과 토스뱅크가 부담할 예정이다.KB국민은행은 대환 전 대출 금리 대비 최대 0.4%포인트의 우대금리를 지원할 예정이다. '웰컴 우대금리(0.2%포인트)'는 일괄적용하고 KB국민은행 자체 신용평가 결과 6등급 이내 고객에게는 우대금리 최대 0.2%포인트를 추가 적용해 최대 0.4%포인트의 혜택을 받을 수 있다.토스뱅크는 대환 고객을 대상으로 0.3%포인트 금리를 할인해준다. 한국씨티은행에서 연 3.8% 금리로 대출을 받은 고객은 토스뱅크에서 대환대출을 하게 될 경우 연 3.5% 금리로 대출서비스를 이용하게 된다.토스뱅크 관계자는 "대환고객을 위한 대환대출 시스템을 별도로 구축했다"며 "토스 애플리케이션 미설치 및 토스뱅크 미가입 고객도 한국씨티은행의 모바일 앱과 홈페이지를 통해서도 클릭 한 번으로 대환 대출을 할 수 있도록 했다"고 설명했다. 이어 "대환고객은 기존 한국씨티은행에서의 같은 조건으로 최소 5년 간 대출 만기 연장이 가능하다"며 "이후에는 토스뱅크가 정한 조건에 따라 추가로 5년 더 연장이 가능하다"고 덧붙였다.한국씨티은행은 소비자금융 사업의 안정적인 철수를 위해 개인신용대출상품에 대해 2026년말까지 기존과 동일하게 은행이 정한 심사 기준에 따라 만기를 연장해준다. 2027년 이후에도 전액 상환 또는 다른 금융기관을 통한 대환이 어려운 고객의 경우 분할 상환을 지원할 계획이다.한국씨티은행 관계자는 "제휴를 통한 개인신용대출 대환대출은 한국씨티은행의 대출 잔액과 같은 금액으로만 가능하다"며 "대환을 원하는 금융회사의 심사 결과에 따라 대환이 거절될 수 있으므로 대환 가능 여부와 구체적인 대출 조건 등은 개별 확인이 필요하다"고 설명했다.한편 한국씨티은행 개인신용대출 고객의 타행 대환은 제휴 은행뿐 아니라 비제휴 은행 및 타 금융회사에서도 신청할 수 있다. 비제휴 은행이나 다른 금융회사로 대환을 원하는 고객은 해당 금융회사에 문의하면 상세한 내용과 절차를 알 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2022.06.23.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>씨티은행 고객 대환, 어디가 유리할까</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011264254?sid=101</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>기사내용 요약7월부터 대환 제휴 프로그램 시행국민은행, 일괄 0.2%p 우대금리에 최대 0.2%p 추가토스뱅크, 일괄 0.3%p 우대금리 적용해 맞불우리은행, 최대 1.5%p 우대금리 경쟁력농협?신한?SC제일은행 등도 환승고객 혜택[서울=뉴시스] 정병혁 기자 = 비대면 업무 확대와 점포 구조정이 이뤄지면서 지난해 국내 은행의 점포 수가 줄어든 것으로 나타났다. 금융감독원에 2021년 국내은행 점포 운영현황에 따르면 국내은행의 점포는 총 6094개로 전년말보다 311개 감소했다. 31일 오전 서울시내 은행 ATM기의 모습. 2022.03.31. jhope@newsis.com[서울=뉴시스] 이정필 기자 = 한국씨티은행이 다음 달부터 본격적인 개인신용대출 대환에 들어가면서 고객을 잡기 위한 시중은행들의 경쟁이 치열하다. 우대금리 적용과 수수료 면제 등의 혜택을 내세워 고객 확보전에 잇달아 가세하는 모습이다.23일 금융권과 각사에 따르면 씨티은행은 소비자금융 업무의 단계적 폐지에 맞춰 오는 7월1일부터 개인신용대출 대환 제휴 프로그램을 시행한다. 씨티은행의 개인신용대출 잔액은 8조원 규모다.대환 제휴사로는 KB국민은행과 토스뱅크를 선정했다. 씨티은행 개인신용대출 고객이 해당 제휴 프로그램을 이용하는 경우 금리 우대, 중도상환수수료/대환대출 금액에 따른 인지세 면제 등의 혜택을 받을 수 있다. 씨티은행 관계자는 선정 배경에 대해 "은행 이용자 보호를 위해 당행 개인신용대출의 제휴 대환에 관심을 가진 은행 중 많은 고객에게 최대의 혜택을 제공할 수 있는 은행을 선정했다"고 밝혔다.이어 "대환 시 한도 유지와 금리, 인지세 등의 우대 조건 뿐 아니라, 대환 이후 연장 시점에도 고객이 현재 당행과 체결한 대출 조건과 연장 기간 등이 최대한 반영됐는지까지 다각적으로 검토했다"며 "가장 포괄적이고 경쟁력 있는 혜택을 제안한 은행을 선정했다"고 설명했다.국민은행은 대환 전 대출 금리 대비 최대 0.4%포인트(p)의 우대금리를 지원한다. 웰컴 우대금리 0.2%p는 별도 조건 없이 일괄 적용된다. 국민은행 자체 신용평가 결과 6등급 이내 고객에게는 우대금리 최대 0.2%p가 추가 적용된다. 대환 시 발생하는 인지세는 은행이 전액 부담한다. 대출기간 중 상환 시 발생하는 중도상환수수료도 면제한다.토스뱅크는 모든 고객에 일괄적으로 0.3%p 금리 할인 혜택을 제공한다. 예를 들어 연 3.8% 금리로 대출을 받은 고객은 토스뱅크에서 대환대출을 하게 될 경우 연 3.5% 금리로 대출서비스를 이용하게 된다.일반 신용대출 상품을 이용하는 고객은 개인 신용대출로, 마이너스통장을 이용 중인 고객은 마이너스통장으로 대환하게 된다.토스뱅크는 대환 시 5000만 원 이상 대출을 받을 경우 고객이 부담해야 하는 인지세를 전액 부담한다. 대출 기간 중 중도 상환 시 발생하는 수수료도 면제한다.[뉴욕=AP/뉴시스]미국 뉴욕에 있는 시티은행 사무실. 2022.04.26.photo@newsis.com씨티은행 개인신용대출 고객의 타행 대환은 제휴 은행뿐 아니라 비 제휴 은행이나 타 금융회사에서도 신청 가능하다. 이에 각사는 씨티은행 출신의 프라이빗뱅커(PB)를 잇달아 영입하고 대환 전용상품을 준비하며 고객 유치에 나서고 있다. 우리은행은 씨티은행 대출 대환 전용상품 출시를 앞두고 있다. 최대 1.5%의 우대금리 제공으로 당사 신용대출 중 최저수준의 금리를 제공할 예정이다. 또 상환해약금, 인지세 등 수수료를 면제하고 씨티은행 대출 대환이 가능한 수준의 한도를 부여할 계획이다.앞서 우리은행은 13명의 씨티은행 출신 PB를 영입해 TCE시그니처 센터에 배치했다. 씨티은행의 고액자산가 유치를 위한 전략이다.NH농협은행은 대환 우대금리와 중도상환해약금 면제, 전용상품 출시 등을 검토 중이다. 농협은행 우수고객(하나로가족고객)에 준하는 각종 우대 서비스를 제공할 예정이다.우대 서비스에는 최장 3개월간 여수신관련 수수료, 창구송금수수료, 전자금융수수료 면제와 외환우대서비스 제공 등이 포함된다. 농협은행은 고액자산가 유치를 위해 전국 자산관리(WM) 특화점포와 자문센터를 활용한 종합자산관리 상담 서비스를 제공할 계획이다.신한은행은 7월 중 씨티은행 고객 대환 시 혜택을 담은 전용상품 출시를 목표로 준비 중이다.씨티은행에서 받은 주택담보대출과 신용대출을 이전하면 중도 상환 해약금과 인지대 면제 혜택을 제공한다. 대여금고를 갈아타면 임차보증금과 수수료를 면제한다.SC제일은행은 씨티은행 출신의 PB를 영입하며 고액자산가 유치를 준비하고 있다. 제일은행은 씨티은행의 철수로 국내 소비자금융 부문에서 유일하게 남은 외국계 은행이 됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2022.06.23.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>토스뱅크 체크카드 캐시백, 7월부터 '매일 최대 3500원'</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004762290?sid=101</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>토스뱅크가 매일 최대 3500원의 캐시백 혜택을 받는 체크카드 이벤트를 다음달부터 연말까지 운영한다. 토스뱅크는 기존보다 혜택을 강화하는 한편으로 제한 조건을 없앤 '체크카드 에피소드3'를 시작한다고 23일 밝혔다. 우선 기존 캐시백 영역에 영화(CGV, 롯데시네마, 메가박스)와 디저트(던킨도너츠, 베스킨라빈스)를 추가했다. 결제 횟수가 높은 영역을 분석한 결과다. 기존에는 커피, 편의점, 택시, 패스트푸드, 대중교통 등 5개 영역에서 캐시백 혜택을 제공했다. 당초 3000원 이상 결제시 300원의 캐시백 혜택을 제공했는데 앞으로는 1만원 이상 결제하면 500원의 혜택을 준다. 1만원 미만의 경우 100원의 캐시백 혜택이 적용된다. 일 최대 캐시백 금액도 늘었다. 기존에는 5개 영역에서 매일 최대 1300원의 캐시백이 가능했는데 앞으로는 7개 영역에서 매일 최대 3500원의 혜택을 받을 수 있게 됐다. 토스뱅크는 전월실적에 제한을 두지 않았던 조건을 유지하면서 최소 결제액에 대한 제한도 없앴다. 원래는 3000원 이상을 결제해야 캐시백 혜택이 적용됐지만 금액 제한이 사라졌다. 해외이용금액 무제한 3% 캐시백 혜택을 유지된다. 해외이용금액에 대해서는 캐시백 횟수와 금액에 제한이 없다. 토스뱅크 관계자는 "혜택은 더욱 강화하고 불편함은 아예 없애는 방향으로 상품 구성을 바꿨다"며 "고객의 기대와 호응에 보답하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2022.06.30.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>보릿고개에도 투자 많이 받은 스타트업 10곳, 어디?</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/050/0000061199?sid=101</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>상반기 프리 IPO 투자 규모 전년비 60% 줄어버킷플레이스 · 쏘카 · 크래프트테크놀로지스 ‘최상위’[비즈니스 포커스]그래픽=송영 기자‘스타트업 투자 시장에 혹한기가 다가오고 있다.’인플레이션과 금리 인상 등 글로벌 경기 침체 속에서 스타트업 투자 위축을 우려하는 목소리가 커지고 있다. 지난해까지 전례 없는 호황을 누리며 전 세계적으로 수많은 유니콘 기업(기업 가치가 1조원 이상인 스타트업)을 탄생시켰던 유동성 잔치가 끝나가고 있다.월스트리트저널은 “테크 스타트업의 파티는 끝났다”고 분석했다. 세계 최대 스타트업 액셀러레이터인 와이콤비네이터(YC)는 창업자들에게 “최악에 대비하라”며 “목표는 살아남는 것”이라고 경고했다.전 세계적인 투자 위축 분위기에 상장을 추진하던 한국의 스타트업들도 기업공개(IPO) 일정을 연기하는 분위기다. 새벽 배송 이커머스 업체인 오아시스도 지난해 상장 주간사 회사 선정을 마쳤지만 아직 상장 예비 심사 청구는 하지 않고 있다.마켓컬리 운영사인 컬리는 올해 3월 말 한국거래소에 상장 예비 심사를 청구하고 결과를 기다리고 있다. 벤처캐피털 관계자는 “아직 투자액이 크게 줄어든 것은 아니지만 시장 분위기가 워낙 좋지 않아 IPO 일정을 내년으로 미루는 곳들도 있다”고 전했다.  얼어붙은 투자 심리, IPO 시장에도 찬물한경비즈니스가 스타트업 투자 데이터베이스 더브이씨(The VC)와 함께 2022년 상반기(1~6월 16일) 한국 스타트업 투자 단계별 투자 규모 현황을 분석한 결과 IPO를 앞둔 스타트업이 진행하는 프리 IPO 투자 규모는 지난해 같은 기간보다 약 60% 감소했다. 2021년 상반기 프리 IPO 투자 규모는 총 1조496억원(21건)이었던 반면 올해 상반기에는 4222억원(16건)으로 대폭 감소했다.스타트업 인수·합병(M&amp;A) 시장도 얼어붙었다. 지난해 상반기 스타트업 M&amp;A 건수는 52건에서 올해 상반기 72건으로 증가했지만 총금액은 5조230억원에서 1조630억원으로 약 78.8% 감소했다.최근 몇 년간 스타트업 투자 붐을 주도해 온 타이거글로벌과 소프트뱅크는 지난해 대규모 손실을 기록했다. 크런치베이스에 따르면 타이거글로벌은 올해 5월 말까지 주력 헤지펀드가 52% 손실을 기록했고 소프트뱅크비전펀드는 지난해 3분기 230억 달러(약 29조9000억원) 투자로 최대치를 기록한 이후 4분기부터 올해 2분기까지 투자 규모가 크게 줄었다.투자 건수도 3분기 65건에서 올해 2분기 25건으로 절반 이하로 줄었다. 손정의 소프트뱅크그룹 창업자는 올해 5월 실적 발표회에서 “신규 투자 규모를 작년 대비 절반 또는 4분의 1(25%) 수준으로 줄일 수 있다”고 말했다.스타트업들은 생존을 위한 비용 절감에 나서고 있다. 전 세계 스타트업에 감원의 칼바람이 불어닥쳤다. 전 세계 스타트업 정리 해고 현황을 집계하는 레이오프에 따르면 올해 1분기 스타트업에서 정리 해고된 인원은 9700명으로 전 분기 3292명보다 3배 가까이 늘었다. 올해 5월 해고된 스타트업 인원은 1만4708명에 달한다.한국 스타트업들도 스케일업에서 수익성 확보로 전략을 선회하고 있다. 무신사는 최근 일본 패션 전자 상거래 플랫폼 ‘디홀릭’을 운영하는 디홀릭커머스를 인수하려던 계획을 철회했다.업계에선 지금처럼 어려운 시기가 옥석을 가리는 기회가 될 것이라고 보는 시각도 있다. 최인혁 보스턴컨설팅그룹(BCG) 대표파트너는 올해 6월 스타트업 생태계 콘퍼런스에서 “좋을 때는 모두가 투자하려고 하고 모두가 꺼릴 때는 더 좋은 투자를 할 수 있다”고 했다.쿠팡·크래프톤·우아한형제들 등 유니콘 기업의 초기 투자자 미국계 벤처캐피털인 알토스벤처스의 김한준 대표는 소셜 네트워크 서비스(SNS)를 통해 “좋은 회사들은 어려운 시기에 탄생하고 이럴 때 더욱 강해진다”며 “2001년 닷컴 버블이 꺼진 어려운 상황에서 가장 빨리 성장해 2004년 상장한 기업이 구글이고 그때 가장 큰 덕을 본 회사가 아마존이라는 것을 기억해야 한다”고 말했다.그래픽=송영 기자  버킷플레이스·리벨리온, 불경기 뚫고 투자 유치올해 상반기 스타트업 투자 혹한기에도 대규모 투자 유치에 성공한 스타트업들도 있다. 더브이씨에 따르면 버킷플레이스(2350억원), 쏘카(1832억원), 크래프트테크놀로지스(1746억원), 두나무(1700억원) 등 10곳이 1000억원 이상을 유치했다.인공지능(AI) 기반의 팹리스(반도체 설계 회사) 스타트업 리벨리온은 싱가포르 국부펀드 테마섹의 자회사인 파빌리온캐피털을 비롯해 KDB산업은행·카카오벤처스·KT인베스트먼트 등에서 620억원 규모의 시리즈A 투자를 유치해 기업 가치 3500억원을 인정받았다.2021년은 대규모 투자 유치에 성공한 스타트업이 또 다른 스타트업을 인수·합병(M&amp;A)하거나  글로벌 기업에 인수되는 사례가 늘면서 스타트업 M&amp;A 시장이 역대급으로 활발했다.하이퍼커넥트는 지난해 틴더 운영사인 매치그룹에 17억2500만 달러(약 2조2500억원)에 인수됐다. 웹소설·웹툰 플랫폼 타파스미디어와 래디쉬를 인수한 카카오는 지그재그 운영사 크로키닷컴, 라이브커머스 플랫폼 그립컴퍼니도 인수했다.스타트업 간 M&amp;A도 활발해 오늘의집 운영사인 버킷플레이스가 지난해 집수리 업체 집다를 인수했고 토스 운영사인 비바리퍼블리카는 타다를 운영하는 VCNC의 지분 60%를 인수하기도 했다. 컬리는 올해 1월 여성 커리어 성장 지원 커뮤니티 헤이조이스 운영사인 플래너리를 인수했다.새우가 고래를 삼키는 사례도 늘었다. 스타트업이 중견기업이나 대기업 사업부를 인수하는 경우다. 야놀자가 인터파크를, 직방이 삼성SDS의 사물인터넷(IoT)사업부를, 런드리고 운영사인 의식주컴퍼니가 아워홈 자회사인 크린누리를 인수한 것이 대표적이다.대규모 투자를 유치한 스타트업들은 투자금을 바탕으로 사업 영역 확장, 인재 확보, 기술 확보, 시장 선점을 위해 원천 기술을 갖고 있는 기업들을 인수하고 있다.하지만 올해 시장 상황이 좋지 않은 만큼 스타트업 간 M&amp;A는 주춤할 것으로 보인다. 벤처캐피털 관계자는 “스타트업은 M&amp;A를 통해 새로운 성장 동력을 마련할 수 있다”면서도 “자금 경색 상황이 지속된다면 M&amp;A 시장도 위축될 수밖에 없다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2022.06.24.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>3인가족 35만원으로 한달 삽니다… 짠테크 열풍</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003699513?sid=101</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>강제저축 챌린지·냉장고 파먹기커뮤니티 올리며 서로 격려‘앱테크’로 월 60만원 벌기도							주부 A씨는 요즘 가계부를 혼자 관리하지 않고 3~4일마다 온라인 재테크 커뮤니티에 올리고 있다. 남편과 아이까지 3인 가족이 고정비를 제외하고 월 35만원으로 사는 게 목표다. 쓸데없는 지출은 절대 하지 않겠다는 각오다.A씨가 지난 나흘간 산 생필품들의 가격은 8만3000원어치였지만 실제 지출한 돈은 1만5000원에 불과하다. 그간 모아온 적립금이나 상품권을 적용하고, 각종 온라인 쇼핑몰 행사 할인도 받았다. 산 상품 목록과 할인 적용된 최종 가격을 모두 캡처한 사진을 온라인에 올리자 댓글 창이 뜨겁게 달아올랐다. ‘궁상스럽다’보다는 “알뜰함이 존경스럽다” “할인 축하드려요” 등의 반응이 주를 이룬다. 코로나 이후 시중에 돈이 넘치던 시절 유행했던 과시적 소비 문화(플렉스)가 고물가 시대에 접어들며 알뜰 소비를 자랑하는 문화로 바뀌고 있다는 분석이다.일러스트=박상훈 “견뎌야 한다” 극단적 생활비 긴축 나서는 가정 늘어							A씨 사례처럼 고강도 ‘생활비 줄이기’ 챌린지가 최근 인터넷상에서 빠르게 퍼지고 있다. ‘외벌이 4인 가족 한 달 40만원으로 살아가기’처럼 극단적인 긴축 목표를 여러 사람과 공유하고 이행 과정을 함께 체크하는 방식이다. 사들인 물건의 가치에 대비해 실제 지출한 금액이 적을수록 큰 환호를 받는다. 서로 응원하며 절약하겠다는 마음을 다잡는다.이는 기록적 인플레이션이 당분간 지속될 거란 전망과 무관하지 않다. 허리띠를 바짝 졸라매지 않으면 생존이 어려울 수 있다는 공포가 퍼지면서 불필요한 지출은 줄이고 저축하는 습관은 기르려는 금융 소비자가 늘고 있는 것이다.최근 재테크 카페에 가입한 B씨는 “주식과 코인으로 날린 돈도 많은데 물가까지 올라 특단의 대책 없이는 카드 값 내기도 벅찰 지경”이라며 “짠테크(아낀다는 뜻의 ‘짜다’+재테크)는 요즘 생존하려면 필수”라고 했다.소액을 주기적으로 저축하기로 약속하는 ‘강제 저축’ 챌린지 열풍도 뜨겁다. 직장인 B씨는 한 달 전부터 매일 3000원씩 파킹통장에 저축한 뒤 온라인 재테크 카페에 인증샷을 올리고 있다. 그는 “소액인데도 인증샷을 올릴 때마다 ‘성공 축하한다’는 댓글 응원을 받으니 든든한 힘이 생긴다”고 했다. 이들은 마라톤의 ‘페이스메이커’처럼 서로를 응원해가며 목돈 마련이라는 목표를 향해 간다.앱테크, ‘푼돈’에서 ‘부수입’으로 격상							‘푼돈 모으기’ 취급을 받았던 앱테크(애플리케이션+재테크)의 위상도 달라졌다. 이제는 엄연한 ‘부수입’으로 각광받고 있다. “경품 룰렛 돌려서 포인트 1000원” “1만보 걷고 100원” “앱에서 광고 보고 20원” “카드사 캐시백” 등의 비용을 다 더해 부수입으로 계산한다. 앞다퉈 월간 부수입을 자랑하는데 한 달에 60만원 이상 되는 경우도 있다.금융사들은 이와 같은 트렌드를 겨냥한 소액 짠테크 상품을 발 빠르게 내놓고 있다. 토스뱅크의 ‘키워봐요 적금’은 6개월 동안 매주 적금하기만 하면 연 3% 금리를 제공한다. 한 번에 1000원부터 100만원까지 저금할 수 있는데 출시 3일 만에 10만계좌나 개설됐다. 우리은행의 ‘우리 200일 적금’은 200일 동안 하루도 빠짐없이 3만원 이하를 저축하고 오픈뱅킹 가입 조건을 유지하면 최대 연 2.3% 금리를 제공한다. 카카오뱅크의 ‘저금통’이나 케이뱅크의 ‘챌린지 박스’도 소액을 꾸준히 저축하면 높은 우대금리를 주는 비슷한 구조다. NH농협은행의 ‘샀다 치고 적금’은 소비를 참고 그 돈을 입금해 저축하면 매월 30만원까지 연 3.35% 금리를 제공한다. 주원 현대경제연구원 경제연구실장은 “최근의 인플레이션은 글로벌 현상이기 때문에 뾰족한 해법이 없다”며 “다양한 방식을 동원해 버티는 수밖에 없다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2022.06.17.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>산은, ‘넥스트라이즈 2022’ 마무리…기업·스타트업 미팅 2300회</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005244395?sid=101</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>"오프라인으로 진행으로 큰 호응을 받은 듯”[이데일리 김정현 기자] 산업은행·무역협회가 주최한 글로벌 스타트업 페어 ‘넥스트 라이즈 2022 서울’에 대·중견기업·벤처캐피털(VC) 175개사와 스타트업 700여개사가 참여하는 등 성황리에 이뤄졌다.산은은 17일 “16~17일 양일간 서울 삼성동 코엑스에서 진행된 ‘넥스트라이즈 2022 서울’이 성공적으로 마무리됐다”면서 이같이 밝혔다. 넥스트라이즈 2022 서울 개회식에서 참석자들이 기념사진을 촬영하고 있다. (사진=산업은행 제공)올해로 4회차를 맞은 넥스트라이즈는 유망 스타트업의 투자유치와 더불어 국내외 대·중견기업들과의 사업협력 확대를 목적으로 개최한 스타트업 지원 행사다. 국가과학기술연구회, 벤처기업협회, 벤처캐피탈협회도 공동 주최기관으로 참여하고 있다. 올해에는 그동안 코로나19로 인해 온라인으로만 참석했던 해외 유명 스타트업과 VC 등 글로벌 벤처생태계 관계자가 대거 현장 참석했다. 16일 개회식에서 강석훈 산업은행 회장은 “변화의  중심에는 늘 스타트업이 있고, 스타트업의 새로운 아이디어와 대담한 도전이 지금도 세상을 바꾸고 있다”며 벤처·스타트업의 중요성을 강조했다. 윤재옥 전반기 국회 정무위원장은 “국회도 새정부의 국정과제를 적극 뒷받침해 CVC제도 개선 등 기업의 모래주머니를 걷어내는 창조적 규제 파괴자로 거듭나겠다”고 축사했다. 김소영 금융위원회 부위원장은  “벤처창업이 우리나라 국가 경제에 큰 기여를 하고 있다”며 “벤처·스타트업이 더욱 활성화 될 수 있도록 규제개혁과 성장단계별 지원체계 고도화에 힘쓰겠다”고 밝혔다. 올해는 총 310개의 스타트업 부스와 대·중견기업, 협회 등의 독립부스 16개가 설치됐다. 9개 대학이 참여한 ‘대학관’과 해외 스타트업과의 교류를 위해 미국, 스페인 등 11개 국가의 스타트업이 참여한 ‘글로벌 존’에 각각 부스 30개가 설치됐다. 스타트업 창업자, 투자자, 대기업 관계자 등 국내외 저명한 인사들이 대거 참여한 강연도 52개 진행됐다. 송창현 현대자동차 사장은 ‘자율주행 모빌리티의 미래’라는 주제로 기조연설에 나섰다. 이광형 카이스트 총장이 ‘세상은 넓다’라는 주제로, 이승건 비바리퍼블리카(토스) 대표가 스타트업의 생존전략을, 싱가포르의 유명 벤처캐피탈 버텍스홀딩스(Vertex Holdings)의 추아키락 회장이 글로벌 스타트업 생태계의 성장에 대한 의견을 공유했다.벤처 참여자들을 위한 사업협력 및 오픈이노베이션도 진행됐다. 현대차, LG사이언스파크, 아산나눔재단, AWS, 메가존클라우드, 메르세데스-벤츠, 테크스타 등 국내외 대기업과 벤처 관련 기관이 독립부스를 설치했다.별도로 마련된 밋업 부스에서는 총 175개 대·중견기업, 글로벌 기업 등이 700여개 스타트업과 2300여회 1대1 미팅을 실시했다.넥스트라이즈에서는 작년에 이어 올해에도 스타트업들의 채용설명회가 개최됐다. 직방, 뤼이드 등 59개 스타트업이 릴레이 설명회를 실시했고, 이와 함께 관람객이 체험할 수 있는 ‘인공지능(AI) 모의면접 부스’도 운영됐다. 산은 관계자는 “올해 넥스트라이즈가 대부분 오프라인으로 진행되면서 더 큰 호응을 받은 것 같다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2022.06.29.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>토스 ‘병원비 돌려받기’ 연평균 10만명 찾았다</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002009094?sid=101</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>간편 보험금 청구 서비스가계부담 덜기 위해 수요 몰려토스의 ‘병원비 돌려받기’ 서비스가 연평균 10만명 안팎의 이용자들을 모으며 인기를 끌고 있다. 보험금을 간편하게 청구할 수 있는데다, 물가 및 금리 인상 등으로 가처분소득이 줄면서 가계부담을 덜기 위해 한 푼 두 푼이라도 찾으려는 수요가 몰린 영향으로 풀이된다.29일 토스에 따르면 2019년 하반기 내놓은 ‘병원비 돌려받기’ 이용자수가 약 27만명을 넘어섰다. 서비스 시작 후 3년이 안된 시점임을 고려하면 빠른 시간내 이용자 확대에 성공한 셈이다. 이에 따라 서비스 이용건수도 매년 수십만건씩 증가하고 있다.‘병원비 돌려받기’는 고객들이 보험금을 간편하게 청구할 수 있도록 토스가 제공하는 서비스다. 통상적으로 고객들은 각 보험사 홈페이지나 앱을 일일이 다운받아야만 보험금 청구가 가능했다. 이 과정에서 보험비를 청구하고 싶어도 어느 보험사, 어떤 상품에 가입돼있는지 등을 찾아야해 병원 등에 문의해야하는 번거로움이 있었다.해당 서비스를 이용하면 토스 앱을 통해 손해보험사 18개, 생명보험사 24개 등 보험사별로 정해진 청구서 양식을 작성하기만 하면 토스가 알아서 보험사에 접수하거나, 팩스로 전송해준다. 증빙 서류는 사진 촬영을 통해 첨부하면 된다. 고객들 입장에서는 병원, 약국에서 지출한 내역을 손쉽게 확인할 수 있고 30초만에 청구가 가능해 한층 편리함을 누릴 수 있다.이처럼 서비스가 활성화된 배경에는 편리함 뿐 아니라 한 푼이라도 찾아 가계 부담을 덜려는 욕구도 반영된 것으로 풀이된다. 토스 관계자는 “물가, 금리 인상 등 여러 측면에서 가계 부담이 생기다 보면 조금이라도 가처분소득을 늘릴 수 있는 방안을 찾게 된다”며 “이렇다보니 간편하고, 손쉽게 병원비를 찾아갈 수 있는 서비스가 더욱 인기를 끄는 것으로 보인다”고 말했다. 실제 금융위원회에 따르면 지난 한해 ‘숨은 보험금 찾기’ 캠페인 결과 한 해에만 약 3조8000억원(126만6000건)의 숨은 보험금이 주인 품으로 돌아갔다. 아직 12조원이 넘는 금액이 남아있긴 하지만 매년 보험금을 찾는 규모는 늘어날 것으로 보인다. 이에 따라 토스를 필두로 4대 시중 은행 뿐 아니라 핀테크 업체들도 보험금 청구 서비스 제공, ‘숨은 보험금 찾기’ 등 보험 관련 서비스를 활성화하고 있다. 복잡했던 병원비 청구나, 숨은 보험금 등을 찾아줌으로써 비교적 손쉽게 고객들을 확보할 수 있어서다. 서정은 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2022.06.30.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>[책꽂이] '애자일 조직' 성공적 구축 방법</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004071293?sid=103</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>■애자일 조직은 이렇게 일합니다스티브 매코널 지음, 인사이트 펴냄[서울경제] 최근 한국은행이 ‘애자일(Agile)’ 조직을 만들기로 했다고 발표했다. 한은 총재의 권한을 대폭 축소하고, 계급장 떼고 할 말 하는 조직 문화를 만들겠다는 선언이었다. ‘애자일’ 조직이란 변화에 민첩하게 대응하는 게 특징이다. 수많은 실험과 실패에서 학습하는 피드백 과정에서 태어난 토스의 송금 서비스와 쿠팡의 새벽배송이 대표적이다.책은 애자일 조직의 리더에게 던지는 질문으로 시작한다. 지금 해결해야 하는 문제가 난해한 것이냐, 복잡한 것이냐? 난해한 문제는 전문가를 통해 답을 얻을 수 있지만 복잡한 문제라면 전문가도 해결책을 선뜻 말하기 어렵다. 저자는 ‘커네빈 프레임워크’로 상황의 복잡성과 불확실성에 따른 유용한 전략을 소개하고, 각 조직에 맞는 애자일 경계를 그리는 방법을 알려준다. 무조건 애자일을 추구하지 않고, 비전과 우선순위에 따라 자율적으로 일하고 성과를 내는 조직의 핵심 애자일 원칙 28가지도 설득력있게 제시한다. 2만원</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2022.06.25.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>잇단 대출금리 인하 압박…은행권 '관치금융' 논란</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000008730?sid=101</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>[금융 핫&amp;뉴]은행권, 관치금융 볼멘소리 나오는 까닭 AIA생명 전 대표 횡령 의혹 "사실무근"정부·당국, 은행 이자장사에 '경고장'금융권에 관치 논란이 거세다. 대통령, 여당을 비롯해 감독당국마저 연일 은행들을 상대로 대출이자를 낮추라고 압박하고 있어서다. 지난 20일 윤석열 대통령의 "금리 상승기 금융소비자 이자부담이 가중되지 않도록 방안을 강구하라"는 발언이 신호탄이 됐다. 같은날 이복현 금융감독원장은 은행장들과 첫 간담회를 갖고 "은행들의 지나친 이익 추구에 대한 비판이 커지고 있다"고 지적했다.이에 NH농협은행과 케이뱅크가 즉각 대출금리를 인하했다. KB국민은행·신한은행·하나은행·우리은행 등도 가산금리 인하와 우대금리를 확대하는 형태로 대출금리 낮추기에 돌입한 상황이다. 여기서 멈추지 않고 지난 23일 권성동 국민의힘 원내대표는 최고위원회에서 "시중은행들이 예금과 대출금리 차이로 과도한 폭리를 취했다는 비판이 계속돼 왔다"고 목소리를 높였다.시장 자율을 중시하는 현 정부가 이런 발언을 내놓은 배경에는 은행권의 '이자 장사'가 도를 넘었다는 판단이 깔려있다. 금융권에 따르면 1분기 국내 은행이 벌어들인 이자이익은 12조6000억원에 달한다. 전년동기대비 1조8000억원(16.9%) 증가한 수치다.계속된 '경고장'에 겉보기엔 은행이 자발적으로 금리를 내리는 모양새지만 한쪽에선 '신 관치시대가 도래 했다'며 볼멘소리가 나온다. 은행권 한 관계자는 "오는 9월 코로나19(신종 코로나바이러스 감염증) 대출지원 종료로 대규모 부실 가능성이 큰 상황에서 직접적인 시장 압박은 부적절하다"고 말했다.AIA생명 "전 임원 횡령 의혹 '사실무근'"AIA생명은 전 임원진에 제기된 의혹에 대해 '사실무근'이라고 밝혔다. 최근 일부 매체에서 이들이 회삿돈 150억원가량을 횡령했다고 보도한 데 대한 반박이다. AIA생명은 입장문을 통해 "최근 리더십 변화에 대해 의문을 제기한 일련의 보도는 사실무근"이라며 "해당 임원은 개인 사유로 사임한 것"이라고 강조했다. 그러면서 "이들의 사임은 원만히 이뤄졌고 AIA그룹은 그들의 건승을 기원하고 있다"고 했다.AIA생명은 이어 "전 세계에서 가장 큰 생명보험 회사인 AIA그룹은 한국 사업에 지속적으로 헌신할 것"이라며 최근 일각에서 제기되고 있는 매각설에 대해서도 에둘러 반박했다. AIA생명은 빠른 시일 내에 새 임원진을 선임해 경영 공백을 최소화할 계획이다.우리금융-AFoCO, 산림 통한 탄소중립실현 업무 협약손태승 우리금융그룹 회장(사진 왼쪽)과 리카르도 칼데론(Ricardo L. Calderon) 아시아산림협력기구(AFoCO) 사무총장이 지난 21일 서울 중구 우리금융그룹 본사에서 ‘지속가능한 산림관리를 통한 기후위기 대응과 ESG경영 상호협력’을 위한 업무협약을 체결한 뒤 기념촬영 하고 있다./사진=우리금융우리금융그룹은 아시아산림협력기구(AFoCO)와 '지속가능한 산림 관리를 통한 기후 위기 대응과 환경·사회·지배구조(ESG) 경영 상호협력'을 위한 업무협약을 체결했다. 이번 업무협약에는 손태승 우리금융 회장과 리카르도 칼데론 AFoCO 사무총장이 참여했다. AFoCO는 우리나라 주도로 설립된 산림분야 최초 정부간 국제기구다. 아시아 지역의 기후변화에 대응하고 있다.이번 협약을 통해 우리금융과 AFoCO는 △산림 전용·황폐화 방지 사업(REDD+) 등 산림 복원 △생물다양성 보전에 기여하는 프로그램 개발·시행 △기업의 환경·사회적 책임 이행 등 ESG 경영 강화를 위한 민관협력 활동 추진 등에 나선다. 손 회장은 "AFoCO와 함께 국경을 초월한 산림 협력을 통해 우리 아이들이 더 나은 세상에서 살 수 있도록 바로 지금 행동할 것"이라고 말했다.토스뱅크 체크카드 캐시백, 하루 최대 3500원토스뱅크는 매일 최대 3500원까지 캐시백 혜택을 받을 수 있는 체크카드 에피소드3를 시작한다. 에피소드3 혜택은 다음달 1일부터 올해 말까지 운영된다. 에피소드 2에서 매일 최대 1300원까지 캐시백을 받을 수 있었다면 에피소드 3에서는 매일 최대 3500원까지 혜택을 받을 수 있다.캐시백 영역은 기존 5대 영역(커피·편의점·택시·패스트푸드·대중교통)에 결제 횟수가 높은 영화(CGV·롯데시네마·메가박스)와 디저트(던킨도너츠·배스킨라빈스) 영역이 추가됐다. 캐시백 금액은 1만원 이상 결제 건에 대해 500원 혜택이 제공된다. 단, 1만원 미만 결제 건에 대해서는 100원 혜택이 제공된다.KB국민은행, 5억유로 글로벌 커버드본드 발행KB국민은행은 5억유로 규모의 글로벌 이중상환청구권부 채권(커버드본드) 발행에 성공했다. 2020년 7월, 2021년 10월에 이어 세 번째 발행한 유로화 커버드본드다. 발행금리는 유로화 미드스왑(MS) 금리에 27베이시스포인트(bp, 1bp=0.01%포인트)를 가산한 연 2.405%로 결정됐으며, 싱가포르와 프랑크푸르트 거래소에 상장된다.이번에 발행된 유로화 커버드본드는 지속가능채권 형태다. 조달된 자금은 국민은행 지속가능금융 관리체계에 해당하는 친환경 및 사회적 프로젝트에 사용될 예정이다. 국민은행 관계자는 "인플레이션 우려와 각국 중앙은행의 금리 인상 움직임으로 시장 변동이 확대된 가운데, 안전자산으로 인식되는 커버드본드 발행을 통해 외화를 조달할 수 있었다"고 말했다.한화생명, 3000억원 규모 우리금융 지분 전량 매각한화생명이 보유한 우리금융지주 지분 3.16%(2298만주) 전량을 시간외 대량매매(블록딜) 방식으로 매각했다. 매각가는 종가 기준 약 3000억원이다. 2% 후반의 할인율이 적용된 것으로 알려졌다. 지분 전량 매각은 한화생명이 우리금융 과점주주에 이름을 올린지 약 6년 만이다. 지난 2016년 12월 한화생명은 예금보험공사가 우리은행 지분 29.7%를 매각하는 과정에 참여해 우리금융 지분을 처음 획득했다.최근 건전성 우려가 제기된 데 따라 한화생명이 우리금융 지분 매각에 나섰다는 게 업계의 분석이다. 한국기업평가, 한국신용평가, 나이스신용평가 등 국내 3대 신용평가사는 한화생명의 보험금지급능력평가 신용등급을 'AAA'(부정적)에서 'AA+'(안정적)으로 하향조정했다. 이번 거래에 따라 우리금융의 과점주주는 기존 6곳에서 5곳(IMM PE·한국투자증권·키움증권·푸본현대생명·유진PE)으로 줄었다. 한화생명의 우리금융 사외이사 추천권도 사라졌다. 카카오페이 경영진, 자사주 2만3052주 매입카카오페이는 나호열 기술협의체 부문장을 비롯한 경영진 4명이 자사주 총 2만3052주를 매입했다고 밝혔다. 해당 경영진들이 사들이 자사주는 약 18억원 규모다. 앞서 신원근 카카오페이 대표가 매입한 자사주(1만5000주)가 약 12억원 규모였던 점을 고려하면, 경영진들이 총 30억원 가량을 사들인 셈이다.이번에 주식을 매입한 경영진 4명은 신 대표와 마찬가지로 추후 주식을 매도할 경우 발생하는 차익 전액을 회사 성장과 공익을 위해 환원한다. 구체적인 사용 방안은 사외이사와 노사가 함께 참여하는 '신뢰회복협의체'에서 결정된다.카카오페이는 "신 대표에 이어 경영진 4명의 주식 매입과 추후 차익 환원 약속은 신뢰회복과 책임경영에 대한 의지이자, 현재 주가보다 카카오페이의 기업 가치는 더 성장할 것이라는 믿음을 보여주는 것"이라고 설명했다.'금융 핫&amp;뉴'는 한 주간 선보인 새로운 금융상품과 은행·보험·카드 등 금융사들의 눈에 띄는 움직임을 간추린 비즈워치 경제부의 주말 코너입니다. [편집자]</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2022.06.22.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>씨티은행 "신용대출, 국민·토스뱅크로 갈아타세요"</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000682182?sid=101</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>금리 우대, 중도상환 수수료 면제 등 혜택씨티은행 로고.소비자금융 업무를 단계적으로 폐지하기로 한 한국씨티은행이 KB국민은행, 토스뱅크와 신용대출 대환(대출 갈아타기) 제휴를 체결했다. 이에 따라 씨티은행 개인 신용대출 고객은 다음 달부터 두 은행의 신용대출 상품으로 갈아탈 수 있고, 금리 우대 등의 혜택을 받을 수 있다.씨티은행은 22일 KB국민은행, 토스뱅크와의 업무제휴 계약을 체결하고 7월 1일부터 '개인 신용대출 대환 제휴 프로그램'을 시행한다고 밝혔다. 기존 씨티은행 개인 신용대출 고객이 해당 프로그램을 이용할 경우, 금리 우대 및 중도상환 수수료, 대환대출 금액에 따른 인지세 면제 등의 혜택을 받을 수 있다.KB국민은행은 대환 전 대출금리 대비 최대 0.4%포인트의 우대금리를 주기로 했다. 토스뱅크는 0.3%포인트 우대금리를 제공한다는 계획이다.이번 제휴를 통한 개인 신용대출 대환대출은 씨티은행의 대출 잔액(한도대출의 경우 대출 한도)과 동일한 금액으로만 진행이 가능하다. 물론 두 은행 외에 비제휴 은행 및 다른 금융사에서도 대환을 신청할 수 있다.다른 금융사로 대환을 희망하는 고객은 대출 금액의 증액이 없다면, 차주별 총부채원리금상환비율(DSR) 등 가계대출 규제가 적용되지 않는다. 다만 대환을 원하는 금융사의 심사 결과에 따라 대환이 거절될 수 있어 미리 가능 여부와 대출 조건 등을 확인해야 한다.씨티은행은 고객의 개인 신용대출 상품에 대해 2026년 말까지는 기존과 동일하게 은행이 정한 심사 기준(신용도와 채무 상환능력을 재평가)에 따라 만기를 연장할 예정이다. 2027년 이후에도 전액 상환 또는 다른 금융기관을 통한 대환이 어려운 고객의 경우엔 분할 상환을 지원하기로 했다.앞서 은행권에선 고신용자 비중이 높은 씨티은행의 대출자산을 끌어오기 위한 관심이 뜨거웠다. 지난 3월 말 기준 씨티은행의 개인 신용대출 잔액은 8조409억 원이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2022.06.23.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>서울바이오시스, 영국 정수장에 에너지 절약형 바이오레즈 공급</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000822762?sid=105</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>서울바이오시스의 바이오레즈 기술이 적용된 영국 컴브리아 정수장 리액터 모습. /서울바이오시스 제공        광반도체 소자 전문기업 서울바이오시스는 23일 성능과 수명을 개선하고 기존 수은램프보다 바이러스·유해균 살균력이 향상된 바이오레즈(Violeds) 기술을 영국 컴브리아 정수장에 적용했다고 밝혔다.서울바이오시스에 따르면 회사는 바이오레즈 기술을 영국 수처리 전문 기업 타이픈을 통해 3만톤 규모의 컴브리아 정수장에 도입했다.광반도체 자외선(UV) 발광다이오드(LED)는 수은램프 대비 낮은 출력과 비싼 가격으로 보급화에 어려움이 있었다. 특히 24시간 최대 출력으로 사용하기 때문에 전기 에너지가 낭비되고 환경오염까지 유발했다.서울바이오시스는 도심의 물 사용량이 시간대별로 큰 차이가 나는 것에 착안해 수도관의 유속 변동에 따른 나노초 단위로 광출력을 조정했다. 전력 소모를 획기적으로 줄일 수 있는 UV 응용기술 바이오레즈다. 이를 통해 서울바이오시스는 영국 대규모 정수장에 바이오레즈를 공급하게 됐고, 앞으로 전 세계 수처리 시장을 공략할 계획이다.UV LED는 기술이 향상되면서 큰 큐모의 대용량 수처리에도 적용되고 있다. 특히 유해 바이러스와 세균을 넘어 염소 살균이 어려운 크립토스토르디움 제거가 가능해 전 세계 정수장으로의 확대 적용이 기대된다.이승규 서울바이오시스 영업본부장은 “안전하게 물을 믿고 마실 수 있도록 바이오레즈 기술 연구개발에 더욱 박차를 가하겠다”라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2022.06.23.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>모바일시장 큰손 4050, 넷플릭스 이용 1위</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003699279?sid=105</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>스마트 기기에도 익숙한 A세대전자책 단말기로 짬짬이 책읽고 스마트워치로 골프 비거리 측정…배민·토스·쿠팡·당근·유튜브 등 5대앱 이용자 셋중 하나는 A세대							경기도 남양주시에서 개인 의원을 운영하는 최모(54) 원장은 평소 스마트 기기 5개를 활용한다. 매일 아침 병원으로 출근할 때 ‘에어팟’으로 음악을 듣고, 도착하면 태블릿PC ‘아이패드’로 뉴스를 본다. 진료가 없을 때는 전자책 단말기로 짬짬이 독서를 한다. 최 원장은 “전자잉크라 태블릿PC와 다르게 눈이 편안해서 좋다”고 했다. 주말에 동료와 골프를 치러가면 캐디에게 묻는 대신 손목에 찬 스마트워치로 핀까지 거리를 파악한다. 집에 돌아와선 스마트폰으로 마켓컬리 앱을 켜 다음 날 가족들과 먹을 소고기 등 식사거리를 주문하고 잠든다.‘구매력 있고 자기 투자에 적극적인 중년’을 뜻하는 A세대는 스마트 기기를 자유자재로 활용하는 모바일 경제의 핵심 소비층이다. 이들 상당수는 30대 때 아이폰이 출시돼 스마트폰을 자연스럽게 받아들였다. 덕분에 날 때부터 스마트 기기를 접한 ‘디지털 네이티브’ Z세대 자녀와도 원활하게 소통한다. 막연히 중년층은 스마트 기기에 익숙하지 않을 것이란 통념을 깨고, 적극적이고 충성도 높은 고객으로 주목받고 있다.◇모바일 앱 주축이 된 A세대22일 모바일 시장조사 업체 와이즈앱이 최근 2년 새(2020년 5월~2022년 5월) 배달의민족(음식 주문), 토스(금융), 당근마켓(중고·지역 SNS), 쿠팡(쇼핑), 유튜브(동영상) 등 주요 5대 앱의 이용자를 분석한 결과, 50대 이상 중년층의 증가세가 뚜렷한 것으로 나타났다.주요 앱별 50대 이상 이용자										이 기간 50대 이상 이용자는 배달의민족(85만→265만명), 토스(155만→317만명), 당근마켓(169만→496만명), 쿠팡(360만→804만명), 유튜브(1098만→1399만명) 등에서 최대 3배가량 급증했다. 전체 이용자에서 차지하는 비율도 크게 늘어 셋 중 하나꼴로 ‘50대 이상’일 정도다. 이는 와이즈앱이 안드로이드폰 이용자 7만여 명을 표본으로 이용량을 분석, 추정한 결과다. 이 회사 차양명 대표는 “코로나를 계기로 재택 생활이 늘고 비대면 서비스 이용이 활발해지면서, 쇼핑·영상·배달·금융 등 분야를 가리지 않고 50대 이상 연령층 이용자 비율이 크게 늘었다”고 했다.지난 4월 과학기술정보통신부 발표 역시 한국의 중년층이 모바일 경제의 핵심축이 됐다는 것을 잘 보여준다. 50대의 모바일 인터넷 이용률은 99.2%, 60대는 94.4%였다. 70대 이상 역시 49.6%로 거의 절반이 이용하는 것으로 나타났다. 특히 60대, 70대 이상은 최근 5년 새 이용률이 각각 21.4%포인트, 25.1%포인트 급격히 늘었다.이들은 이리저리 혜택을 찾아 옮겨다녀 소위 ‘메뚜기족’으로 불리는 젊은 세대와 달리 ‘충성 고객’의 특징을 보인다. 시장조사 업체 모바일인덱스의 5월 통계는 ‘40·50대의 재발견’으로 요약된다. 연령별 월간 넷플릭스 이용 시간은 40대(659분), 50대(578분), 30대(551분), 20대(405분) 순이었다. 유튜브 일평균 이용 시간에서도 20대(77분), 50대(65분), 40대(61분), 30대(60분) 순으로 조사됐다.◇손쉬운 사용법 펴내고, 중년 모델 도입스타트업들 사이에선 A세대를 잡으려는 노력이 치열하게 벌어지고 있다. 배달의민족은 작년 말 앱 설치부터 회원 가입, 주문, 결제 등을 손쉽게 보고 따라 할 수 있는 36페이지짜리 ‘쉬운 배달앱 사용법’이란 책자를 내놨다.쿠팡은 지난해 75세 여성 고객을 모델로 출연시켜 “이렇게 편한 걸 왜 안 하고 사는지 모르겠다. 절대 포기하지 말고 도전해보라”고 동년배에게 권유하는 광고를 만들었다. 쿠팡 관계자는 “내부 조사를 해보니 이들의 구매를 가로막는 가장 큰 장애물 중 하나가 결제였다”며 “비밀번호나 지문 추가 입력 없이 한 번에 결제할 수 있는 ‘원터치 간편 결제’를 도입해 좋은 반응을 얻고 있다”고 했다. 중년 이용자 비율이 높은 당근마켓 역시 “서비스 화면, 게시글 간격, 버튼 위치와 폰트 크기 하나까지 이용에 불편함이 없도록 꼼꼼하게 설계한다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2022.06.22.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>韓씨티은행 8조 신용대출 대환, KB국민・토스뱅크서 진행</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002614699?sid=101</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>‘개인신용대출 대환 제휴 프로그램’대출 증액 없으면 DSR규제 적용 안받아한국씨티은행 사옥 ⓒ 한국씨티은행[데일리안 = 이호연 기자] 한국씨티은행은 소비자금융 업무 단계적 폐지에 따른 은행 이용자 보호와 개인신용대출 고객의 편의 제공을 위해 KB국민은행, 토스뱅크와 업무제휴계약을 체결했다고 22일 밝혔다. 다음달 1일부터 해당 은행으로의 ‘개인신용대출 대환 제휴 프로그램’을 시행한다.한국씨티은행 개인신용대출 고객이 해당 제휴 프로그램을 이용하는 경우, 금리 우대, 중도상환수수료・대환대출 금액에 따른 인지세 면제 등의 혜택을 받을 수 있다. 대환 제휴 프로그램은 KB국민은행 앱 또는 영업점, 토스뱅크 앱에서 편리하게 신청할 수 있다.이번 제휴를 통한 개인신용대출 대환대출은 한국씨티은행의 대출 잔액(한도대출의 경우 대출한도)과 동일한 금액으로만 진행이 가능하다. 고객이 제휴 은행으로부터 대환대출을 받으면 추가적인 절차 없이 제휴 은행과 한국씨티은행 간 대출상환이 진행된다.한국씨티은행 개인신용대출 고객의 타행 대환은 제휴 은행뿐 아니라 비 제휴 은행 및 타 금융회사에서도 신청 가능하다. 비 제휴 은행 및 타 금융회사로 대환을 원하는 고객은 해당 금융회사에 문의하면 상세한 내용과 절차를 알 수 있다.특히 1일부터 한국씨티은행 개인신용대출 고객이 다른 금융회사로 대환 시에, 대출금액의 증액이 없는 경우에 한해 차주 별 총부채원리금상환 비율(DSR) 등 가계대출 규제가 적용되지 않는다.다만 대환을 원하는 금융회사의 심사 결과에 따라 대환이 거절이 될 수도 있으므로 대환 가능 여부와 구체적인 대출 조건 등은 사전에 대환을 원하는 금융회사를 통해 개별 확인이 필요하다. 대환대출 신청 시 한국씨티은행 대출 잔액보다 적은 금액으로 대환을 원하는 경우는 한국씨티은행 대출을 일부 상환 후 대환대출을 신청할 수 있다.한국씨티은행은 고객의 개인신용대출상품에 대해 2026년 말까지는 기존과 동일하게 은행이 정한 심사 기준(신용도와 채무상환능력을 재평가)에 따라 만기를 연장하고, 2027년 이후에도 전액 상환 또는 타금융기관을 통한 대환이 어려운 고객의 경우 분할 상환을 지원할 계획이다.한국씨티은행이 제안하는 분할 상환은 기존과 동일하게 최대 5년간 분할 상환하는 프로그램이며, 상담 과정에서 상환능력이 충분하지 않는 것으로 판단되는 고객의 경우 최대 7년까지 상환기간을 부여할 예정이다.개인신용대출 이외 기타 대출상품에 대한 문의사항은 한국씨티은행 홈페이지와 모바일앱 및 별도의 안내 페이지 등을 참고하시거나, 거래하고 있는 영업점 혹은 고객센터로 연락하면 상세히 안내 받을 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2022.06.20.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>핀테크 기업들이 ‘콘텐츠 에디터’ 채용 늘리는 까닭은?</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002595366?sid=105</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>핀테크 앱 콘텐츠 경쟁 가속화“금융 서비스 문턱은 낮추고이용자 체류 시간은 늘려야”게티이미지뱅크핀테크 애플리케이션(앱)들이 콘텐츠 서비스 경쟁에 나서면서 기존 홍보·마케팅 인력과 별도로 ‘콘텐츠 에디터’를 채용하는 사례가 늘고 있다. 전통 금융 서비스에 비해 간편하고 직관적인 이용자 경험(UX)을 제공하며 고객을 늘린 핀테크 서비스들이 쉽고 재미있는 금융 콘텐츠를 앞세워 한 번 더 ‘락인 효과’를 내려는 노력으로 풀이된다.20일 업계 설명을 종합하면, 카카오뱅크는 지난주 모바일 애플리케이션(앱) 안에 ‘이야기’ 메뉴를 신설했다. 이 메뉴에 들어가면 경제 뉴스, 재테크 팁, 금융 에세이 같은 콘텐츠를 함께 볼 수 있다. 특히 정여울, 배순탁, 김혼비, 김애란, 장강명 등 인기 작가가 직접 돈에 대한 경험을 ‘돈, 에세이를 만나다’라는 제목으로 연재해 눈길을 끈다. 카카오뱅크는 이전에도 카카오의 콘텐츠 퍼블리싱 플랫폼 ‘브런치’에 자체 채널을 운영해 왔다. 이번에 이야기 메뉴를 신설하면서, 별도로 제공되던 콘텐츠를 앱 안에서도 읽을 수 있게 했다. 카카오뱅크 관계자는 “고객들이 예·적금 서비스를 이용하거나 대출을 받을 때뿐만 아니라 평상시에도 자주 찾아와 머무르는 ‘생활금융플랫폼’을 만들기 위해, 금융과 관련된 다양한 읽을거리를 앱 안에서 제공하기로 했다”고 설명했다.카카오뱅크에 따르면, 이야기 메뉴와 브런치에 실리는 콘텐츠 발굴·제작·편집 전담 인력은 열명 안팎이다. 콘텐츠 플랫폼 에디터, 포털 콘텐츠 플랫폼 운영자, 마케터 등 다양한 경력을 가진 직원들이 이 업무를 맡고 있다.카카오뱅크 앱 화면 갈무리또다른 핀테크 기업 토스는 자체 블로그 누리집 ’토스피드’를 2018년부터 운영하고 있다. ‘금융이 알고 싶을 때, 토스피드’라는 구호 아래 절세 노하우, 초보 주식 투자자 대상 조언, 가상자산·대체불가능토큰(NFT) 기초 지식 등 다양한 콘텐츠를 제공한다. 토스 앱 안의 ‘오늘의 머니 팁’ 메뉴에서도 고객별 맞춤 금융 팁과 금융 정보 콘텐츠를 제공한다. 토스 관계자는 “금융의 외연을 넓힌다는 목표 의식을 가지고 금융과 라이프스타일을 엮어 만든 ‘사소한 질문들’ 시리즈와 토스 직원 복지를 소개한 ‘출근 첫 날 만나는 토스 복지 패키지’, 시의성 있게 제공한 ‘2차 재난지원금, 나도 받을 수 있을까?’ 등 콘텐츠가 특히 좋은 반응을 얻었다”고 설명했다. 토스는 2018년 하반기부터 콘텐츠 제작 업무에 집중하는 ‘콘텐츠 매니저’ 직군을 채용해 왔다. 카카오뱅크와 마찬가지로 언론사, 스타트업, 출판사, 공공기관 등 다양한 배경을 가진 이들이 잇따라 합류했다. 현재는 토스뱅크와 토스증권, 토스페이먼츠 등 계열사를 포함해 총 13명이 콘텐츠 매니저로 일하고 있다 .토스 제공카카오페이는 지난해 10월 앱 전면 개편과 함께 ‘금융 팁’ 메뉴를 처음 선보였다. 카카오페이에 따르면, ‘이주에 놓치지 말아야 할 뉴스’, ‘요일별 금융 캘린더’ 등 시의성 있는 콘텐츠가 특히 많이 읽힌다. 카카오페이 관계자는 “콘텐츠를 뷔페식으로 나열하기보다 개별 고객의 서비스 이용 데이터를 기반으로 필요한 순간에 관심 있을만한 콘텐츠를 보여주는 ‘맞춤형 서비스’로 다른 핀테크 앱 콘텐츠와 차별화를 꾀했다”고 설명했다.카카오페이도 최근 콘텐츠 제작·편집을 전담할 에디터를 채용했다. 카카오페이 관계자는 “지금까지는 공식 블로그와 사회관계망서비스(SNS) 계정 등을 관리하는 팀이 금융 팁 메뉴에 들어가는 콘텐츠도 함께 만들었지만, 앞으로 금융 콘텐츠 제작을 전담할 인력을 계속해서 추가 채용해 새로운 콘텐츠 기획을 늘릴 계획”이라고 말했다.카카오페이 앱 화면 갈무리가상자산 거래소 업비트 역시 ‘투자자보호센터’ 누리집을 통해 가상자산·블록체인 관련 콘텐츠를 제공한다. 다만, 가격 변동성이 큰 가상자산의 특성 탓에, 콘텐츠를 통해 새 이용자를 확보하려는 목적보다는 투자자 보호·교육 목적이 더 크다는 점에서 다른 기업들과 차이가 있다. 업비트 관계자는 “투자자들이 가상자산 산업과 블록체인 기술을 더 잘 이해해 현명한 투자를 할 수 있도록 디딤돌 역할을 하는 콘텐츠를 제공하려 한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2022.06.20.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>[중기소식]브랜드 체험 '소노시즌 NC대전유성점' 운영 등</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011256931?sid=101</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] '소노시즌 NC대전유성점’ 매장. (사진=소노시즌 제공) 2022.06.20. photo@newsis.com[서울=뉴시스] 배민욱 기자 = 20일 중소기업계 소식.▲대명소노시즌의 라이프스타일 브랜드 소노시즌은 지난 17일 대전 유성구에 브랜드 체험 매장 '소노시즌 NC대전유성점'을 오픈했다. 소노시즌은 NC대전유성점에서 프레임과 매트리스, 필로우, 침구 등 다양한 제품을 선보인다. 또 전문 상담직원이 상주해 체압분석기 테스트를 통한 고객별 맞춤 매트리스를 추천하는 1대1 상담 서비스도 제공한다. ▲디지털 인쇄기 기업 리소코리아는 분당 출력 속도가 165매로 오피스용 프린터 기준 세계에서 가장 빠른 컴컬러 GL 시리즈 중 고사양 모델인 'GL9730' 모델을 선보였다. 이 모델은 문서 출력량이 많은 사무실과 관공서뿐만 아니라 상업용 인쇄업계의 라이트 이용자를 대상으로 하는 프린터 제품이다. 빠른 속도를 자랑해온 전 세대 모델인 'GD9630'보다 시간당 300장을 더 출력할 수 있다. 오피스용 프린터 기준 세계 최고 속도를 구현했다는 점이 가장 큰 특징이다.▲테크 액세서리 브랜드 케이스티파이는 인기 애니메이션 시리즈인 미소녀 전사 세일러 문과 협업한 컬렉션을 선보인다. 미소녀 전사들의 변치 않는 우정에서 영감 받아 탄생한 이 제품들은 30일 공식 웹사이트에서 만나볼 수 있다. ▲윙크스톤파트너스는 인공지능(AI)을 이용한 중·소상공인(SME)사업자 대상 신용대출 방법과 이를 이용하는 시스템에 대한 특허를 출원했다. 이번 특허는 기존 금융 서비스에서 소외되고 있는 프랜차이즈 예비 창업자, 이커머스 온라인 판매자를 대상으로 신용대출과 이를 이용한 시스템 등에 대한 내용이다. 공공데이터, 금융데이터, 비금융 데이터를 활용한 AI복합신용평가 모델이 구체화됐다.▲천재교육은 소외 이웃들을 위한 지속적인 나눔 활동의 공로로 '2022 희망온돌 따뜻한 겨울나기' 우수 기부자 표창을 수상했다. 표창은 서울시장이 도움이 필요한 이웃들을 위해 나눔을 실천해 준 민간·기업, 사회단체 등에 감사의 의미를 전하는 수상이다. ▲모두의연구소는 금융 인공지능 분야 핵심 인재 양성을 위해 지난 17일 에프앤가이드와 전문 교육 및 취업 지원 서비스를 위한 업무협약을 체결했다. 양 기관은 금융 인공지능 분야의 인재 양성을 위한 협력 네트워킹 구축·운영, 금융 인공지능 분야의 교육과정 기획·개발·운영, 채용세미나 등 취업역량 지원 행사 공동 수행과 상호 지원 등을 협력한다.▲마플코퍼레이션은 뉴욕에서 열리는 'HY NFT' 행사의 공식 후원사로 참여한다. 후원 주체는 마플코퍼레이션의 크리에이터 커머스 플랫폼 '마플샵'과 올인원 NFT(대체불가토큰) 제작 툴 '옴뉴움'이다. 20일(현지시간) 뉴욕에서 열리는 'HY NFT'는 세계 최대 NFT 콘퍼런스 'NFT.NYC 2022'에 참여한 국내 작가·관계자들이 세계 각국의 참여자들과 교류할 수 있도록 마련된 소통의 장이다.▲착용형 로봇 개발 스타트업 위로보틱스는 대우건설, 근로복지공단 재활공학연구소와 함께 한국로봇산업진흥원이 주관한 2022년도 '수요기반 맞춤형 서비스 로봇 개발·보급사업'에 선정됐다. 이 사업은 산업, 상업, 의료 등 서비스 분야별 실증을 통해 수요 맞춤형 로봇 솔루션을 제시하고 안전성, 효과성 등을 검증하는 문제 해결형 보급 모델을 마련하는 것을 목표로 한다.▲수출입 운송 플랫폼 '욜카고'를 운영하는 와이오엘(YOL)이 중소벤처기업부의 기술 창업 투자 프로그램 팁스(TIPS)에 선정됐다. 팁스는 정부의 강소기업 육성정책이다. 유망한 기술창업팀을 선정해 민간투자사와 함께 2년간 최대 7억원의 연구개발(R&amp;D) 자금 등을 지원한다. 욜카고는 24시간 자동견적을 비롯해 화물예약, 통관, 보험, 화물트래킹까지 국제운송의 전 과정을 온라인상에서 확인할 수 있다. 장기간 누적된 운송 데이터를 기반으로 최적의 운송도 제공한다. ▲반려동물 신원정보 서비스 페오펫은 토스가 주최한 국내 최대 규모 스타트업 서바이벌 대회인 '파운드'에서 최종 우승 3개 회사에 선정됐다. 파운드는 10억원의 투자금을 걸고 토스가 직접 기획·제작한 스타트업 경연 대회다. 페오펫은 토스로부터 1억원의 투자금을 받는다. 페오펫은 반려동물 보험, 반려동물을 위한 서비스와 제품 결제 전용 '펫카드' 등을 출시하는 등 다양한 협력 방안을 토스에 제안해 나갈 계획이다.▲블록체인 기반 부동산 조각투자 서비스 기업 펀블은 자산관리 컨설팅 기업인 에이치에스엔피엘인베스트먼트와 업무 협약을 체결했다. 양사는 디지털 부동산 조각투자 플랫폼 활성화를 위한 협업과제 발굴, 실물자산 투자에 특화된 블록체인 플랫폼과 경·공매 기반의 부동산 투자 서비스를 공동으로 개발하고 협업한다.▲에스티유니타스의 공무원시험 전문 브랜드 공단기는 수험생의 공부 환경에 도움을 줄 '공메모박스' 증정 이벤트를 20일부터 7월13일까지 홈페이지에서 진행한다. 공메모박스는 두개로 분리된 아크릴 박스, 떡 메모지 3종으로 구성된 상품이다. 공메모박스 이벤트 참여를 위해서는 신규 회원으로 가입 후 응모하거나 기존 회원이라면 신규 회원으로 가입한 친구를 등록하면 된다. 이벤트에 대한 자세한 사항은 홈페이지에서 확인할 수 있다.▲아테나스랩은 학교생활 앱 '오늘학교'가 지난달 회원 수 100만명을 돌파했다고 발표했다. 오늘학교는 학교생활과 관련된 정보와 일상을 공유할 수 있는 모바일 앱 서비스다. 교육행정정보시스템(NEIS)의 공공데이터를 기반으로 자가 진단 바로가기, 자동 시간표·급식표, 커뮤니티 등 다양한 기능을 제공한다. 사용자는 등교 전·후 시간표와 급식표를 실시간으로 확인하고 하교 후 커뮤니티를 통해 소통이 가능하다. ▲IT 인재양성 스타트업 코드스테이츠는 지난 17일 코드스테이츠 마곡 캠퍼스에서 차세대 커리어 파트너 플랫폼으로 도약하기 위한 새로운 기업 비전 '휴먼 캐피탈 : 한계를 넘어 잠재력을 실현하는 교육'을 선포했다. 새로운 비전은 개인이 잠재력을 발휘하는 모든 수단을 함께 탐구하고 잠재력을 가두는 모든 장벽을 허물겠다는 의미다. 이를 뒷받침하는 세 가지 핵심 로드맵은 교육, 금융, 일자리다.▲로보어드바이저 기업 쿼터백은 소액으로 꾸준한 수익을 추구할 수 있는 자산배분 투자 전략을 소개한 재테크 도서 '50만원으로 시작하는 돈 굴리기 기술'을 출간했다. 쿼터백은 이번 신간을 통해 최근 전 세계적인 인플레이션과 금리 인상 등 시시각각 변하는 투자 환경에서 꾸준히 자산을 증식할 수 있는 전략으로 다양한 자산배분 투자법을 소개한다.▲기술보증기금(기보)은 지난 18일 대구광역시 북구 대구시각장애인연합회 북구지회(지회)에서 온누리상품권과 방역물품 등을 전달하는 지역사회 나눔을 실천했다. 기보 대구경북지역본부는 행사에 앞서 관할 영업점 직원들을 대상으로 사전 나눔 캠페인을 진행해 마스크 1340개, 자가진단키트 240개 등을 기부받아 지회에 전달했다. 또 기보와 보증거래중인 대구광역시 제과명장 박기태 대표와 연계해 '빵장수 소보로 단팥빵' 210박스를 기부했다. ▲여성기업종합지원센터는 여성기업이 겪고 있는 경영애로를 무료로 해결해주기 위해 창업, 수출, 금융 등 분야별 전문위원을 활용하는 여성경제인 DESK 서비스를 운영하고 있다. 여성경제인 DESK 전문위원은 서울, 인천, 경기, 부산, 대구, 광주 등 6개 거점센터에 상주하면서 여성기업의 경영애로를 상담하고 해결방안을 찾아주기 위해 관계기관 협의, 제도개선 규제발굴 등을 통해 여성기업의 경영애로 해소를 위한 지원을 하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2022.06.20.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>대출비교플랫폼 통한 은행 가계대출 3조원대…토스, 카카오페이 이용 가장 많아</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/468/0000857886?sid=101</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>사진|카카오페이, 토스[스포츠서울 | 홍성효기자] 지난해 온라인 대출 비교·중개 등 서비스를 제공하는 플랫폼을 통해 은행에서 실행된 가계대출 규모는 약 3조원으로 나타났다.금융감독원이 최근 국내은행의 온라인 대출 플랫폼 활용 실태를 점검한 결과, 지난해 온라인 대출 플랫폼을 통한 가계대출 모집규모는 총 3조1000억원으로 나타났다. 이는 전체 신규 대출(181조8000억원)의 1.7% 수준이다. 특히 상대적으로 영업망 제약이 큰 지방은행에서 실행된 대출이 2조3000억원으로, 시중은행(7000억원)보다  많았다.올해 3월 말 기준 국내 은행 13곳이 온라인 대출 플랫폼과 위탁계약을 체결한 것으로 나타났다. KB국민·NH농협은행을 제외한 대부분의 주요 은행이 대출모집 채널을 다변화하기 위해 플랫폼들과 위탁계약을 체결한 것이다. 플랫폼별로는 온라인 대출 플랫폼 14곳 가운데 카카오페이와 비바리퍼블리카(토스)가 차지하는 비중이 전체 모집규모의 86.8%에 달했다.지난해 4월 금융위원회가 발표한 ‘중금리대출 제도개선방안’에 따르면 비대면 대출 플랫폼을 통한 대출 조회 건수와 차주 수는 2020년 이후 꾸준히 증가하고 있다. 특히 중·저신용층이 대출 플랫폼을 이용해 비교적 낮은 금리로 대출을 실행하는 현상이 관측됐다.온라인 플랫폼을 통한 대출 조회·비교 서비스는 초기에는 금융 샌드박스 형태로 허용됐지만 지난해 9월 금융소비자보호법 시행으로 정식 도입됐다. 이에 따라 대출상품에 대한 판매대리 중개업자로 등록하면 영업할 수 있어, 향후 후발주자의 진출도 이어질 것이란 전망이다.금감원은 지방은행을 중심으로 대출 플랫폼을 통한 대출이 증가세를 보이는 점, 플랫폼을 통해 대출을 실행하는 차주 가운데 중금리로 대출을 받는 20∼30대 비중이 높은 점 등을 고려해 잠재리스크를 관리하고 관련 모니터링을 강화해나갈 계획이다.shhong0820@sportsseoul.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2022.06.18.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>당신의 개인 정보는 6만 9000원입니다 [뉴스 쉽게보기]</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004979367?sid=103</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>매일경제 '디그(dig)'팀이 연재하는 '뉴스 쉽게보기'는 술술 읽히는 뉴스를 지향합니다. 복잡한 이슈는 정리하고, 어려운 정보는 풀어서 쉽게 전달하겠습니다.간편 송금 서비스로 유명한 토스(toss)가 고객들의 개인정보를 팔아넘겼다는 논란에 휩싸였어요. 토스는 누적 가입자가 2100만 명 이상인 우리나라 대표 핀테크 업체인데요. 워낙 많은 사람이 사용 중인 앱이다 보니 '내 정보도 팔린 거 아니야?' 하고 걱정하시는 분들도 많을 거예요. 그런데 토스는 '우린 고객들의 동의를 받았고, 합법적으로 판매했다'고 주장하죠. 대체 무슨 일이 벌어진 걸까요?  내 정보는 괜찮은 거야?결론부터 말하자면 이 글을 읽고 있는 여러분의 정보는 판매되지 않았을 가능성이 커요. 토스 앱을 이용한 모든 고객의 정보가 판매된 건 아니거든요. 토스는 간편 송금 외에도 주식 투자나 대출 등과 관련된 다양한 금융 서비스를 제공하는데요. 이번에 판매된 정보는 토스 앱에서 보험 관련 서비스를 이용한 고객 중 일부의 개인 정보예요.토스 앱에서 '내 보험'이란 항목을 찾아 들어가 보면 '5분 상담 신청하기'라는 게 있어요. 내가 가입한 보험을 분석해서 필요한 것과 필요하지 않은 것을 구분해주고, 적합한 상품을 안내해주는 서비스죠. 그런데 토스는 이 서비스를 이용한 고객 중 일부의 개인정보를 1건당 6만9000원을 받고 보험 설계사에게 제공했어요. 지금까지 1700여 명의 고객 정보가 600여 명의 보험 설계사에게 판매됐다고 해요.토스가 판매한 고객 데이터는 이름, 휴대폰 번호, 생년월일, 성별, 가입한 보험 상품, 보험 가입일, 보험료 등이에요. 사실상 보험 영업에 필요한 모든 개인정보가 포함된 셈이죠. 보험 영업뿐 아니라 더 많은 곳에 활용될 수 있는 민감한 정보들이기도 하고요.토스의 입장은 뭐야?토스는 고객들에게 미리 동의를 받았고, 법적으로도 문제가 없다는 입장이에요.▶우리가 파트너십을 맺은 보험 설계사 중 우수한 평가를 받은, 검증된 3만명에게만 개인정보를 구매할 기회를 줬다.▶이들에게 판매한 정보 중 휴대폰 번호는 안심번호(가상번호)로 제공했다.▶서비스를 이용하는 고객들에게 사전 동의를 받았고, 정보를 유출한 게 아니라 판매한 것이라 법적으로 문제가 없다.  토스 앱에서 '5분 상담 신청하기'를 선택하면 위와 같이 보험 전문가가 보험을 분석하고 적합한 상품을 안내해 줄 거라는 설명이 나와요. 동시에 '개인정보 제3자 정보 제공' 등에 동의해야 서비스를 이용할 수 있다고 안내하죠. 해당 항목을 터치해보면 상담 신청을 위해 각종 정보를 보험 설계사에게 제공한다는 세부 설명이 나오고요.그런데 뭐가 문제야?토스가 보험 설계사에게 정보를 제공한다고 했지, 판매한다고는 미리 고지하지 않았다는 게 문제예요. 고객들은 자신의 보험 정보를 제공하면서 보험료는 적당한지, 불필요한 상품에 가입한 건 아닌지 등을 확인하고 싶었던 것이잖아요. 그래서 정보 제공에 동의한 건데, 이걸 보험 영업을 하고자 하는 보험 설계사들에게 내 정보를 팔아도 된다는 허락으로 봐도 되냐는 거죠. 혹여나 이 보험 설계사들이 정보를 유출하면 또 다른 피해로 이어질 수도 있고요.이처럼 내 정보가 팔려나갔다는 사실에 분노하는 고객들이 있지만, 토스의 행위는 법적으로는 문제가 되지 않을 가능성이 더 높대요. 토스는 동의를 받은 경우, 고객의 금융 개인 정보를 판매할 수 있는 자격을 획득했거든요.법적으로는 문제가 없다고?토스가 고객들의 개인정보를 판매할 수 있었던 건 '본인신용정보관리업' 사업자 자격을 획득했기 때문이에요. 올해 1월부터 효력이 인정되기 시작한 자격인데요, 토스를 비롯한 여러 핀테크 업체들과 금융회사들이 자격을 획득했죠. 보통 '마이데이터' 사업자 자격이라고 불러요. 이 자격을 획득한 회사는 고객들로부터 동의를 받은 경우 금융 개인 정보를 판매할 수 있어요.마이데이터가 뭐야?마이데이터 서비스는 개인이 본인의 데이터를 적극적으로 관리하고 활용하도록 해주는 서비스를 의미해요. 요즘 각 은행 앱이나 토스, 카카오페이, 뱅크샐러드 같은 앱을 실행해보면 내 자산을 한눈에 볼 수 있게 해주는 서비스를 제공하잖아요. 흩어진 데이터를 한눈에 볼 수 있게 해주는 마이데이터 서비스/자료=토스 마이데이터 서비스는 은행이나 보험사, 증권사 등 여기저기 흩어진 데이터를 수집해 사용자가 한눈에 보게 해주는 거예요. 자신의 소비성향이나 자산 상태를 보고 그에 맞는 금융 서비스를 선택할 수 있게 하는 거죠. 이렇게 수집한 데이터를 기업이 활용할 경우 개인 맞춤형 상품을 개발하는 것도 가능하고요. 이런 마이데이터 서비스가 가능해진 건 앞서 발생한 '데이터 3법 개정'이라고 불리는 변화 덕이에요. 재작년(2020년) 8월에 이뤄진 변화죠.데이터 3법 개정?'데이터 3법'은 개인정보보호법, 신용정보법, 정보통신망법을 의미해요. 기존의 데이터 3법은 개인의 데이터를 안전하게 보호하는 게 가장 중요한 목적이었는데요. 최근 데이터의 중요성이 커졌잖아요. 수많은 데이터를 잘 모아서 가공하면 과거엔 생각지도 못했던 상품이나 서비스를 만들 수 있고, 이걸로 큰돈을 버는 것도 가능하죠.그래서 앞으로 데이터를 더 잘 활용할 수 있도록 과도한 규제를 풀어주자는 게 데이터 3법 개정의 목적이에요. 대신 확실한 규정을 만들고 문제가 생겼을 때 책임 소재는 명확히 하자는 거죠. 데이터 3법 개정의 주요 내용은 다음과 같아요.▶개인정보 보호하는 통합 기관을 만들자여러 정부 기관에 분산됐던 개인 정보 보호 관련 업무를 '개인정보보호위원회'라는 곳을 만들어 통합 관리·감독하기로 한 거예요.▶개인 정보를 구분하자개인에 대한 정보를 '개인 정보'와 '가명 정보' '익명 정보'로 구분하기로 했어요. 여기서 말하는 개인 정보는 이름이나 전화번호, 주민등록번호 등이 포함돼 있어 특정 개인을 알아볼 수 있게 하는 정보를 의미하는데요. 예를 들면 '김디그, 28세, 여성, 010-1234-5678, 서울시 강남구 거주, 보험 가입 건수 3건' 등으로 구성된 정보인 거죠. 가명 정보는 이런 개인 정보에 조치를 취해서 추가 정보 없이는 누군지 알아볼 수 없게 해 놓은 정보인데요. 예를 들면 '홍길동(가명), 20대, 여성, 010-○○○-○○○○, 서울 거주, 보험 가입 건수 3건' 등으로 가명 처리하거나 일부 정보를 가린 거예요. 여기서 이름이나 전화번호 등을 알아내면 누구인지 알아볼 수 있겠죠. 익명 정보는 '서울에 거주하며 3건의 보험에 가입한 여성'처럼 더 이상 개인을 알아볼 수 없게 복원 불가능할 정도로 조치한 정보를 의미해요. 그런데 왜 굳이 이렇게 구분해 놓은 걸까요? 가명 정보와 익명 정보를 더 자유롭게 활용하도록 하기 위해서예요.▶가명·익명 정보는 마음대로 써도 돼데이터 3법이 개정됐지만 '개인 정보'는 여전히 정보 제공자의 동의를 받아야만 활용할 수 있어요. 토스와 관련된 이번 논란은 이 경우에 속하죠. 사실 이번 논란은 토스가 정보를 판매하겠다고 미리 안내만 했다면 문제없이 지나갔을지도 몰라요.더 큰 논란이 발생할 수 있는 분야는 '가명 정보'예요. 데이터 3법이 개정되면서 가명 정보는 정보 제공자의 동의 없이도 활용하는 게 가능해졌거든요. 개인 정보에서 몇몇 정보를 삭제해 가명 정보로 만든 뒤, 이를 이용해도 된다는 거죠. 물론 아무 때나 사용할 수 있는 건 아니에요. 이 정보를 보고 직접 고객들에게 연락해서 상품 판매를 유도한다든가 하는 건 불법이죠.하지만 연구 등을 위한 목적인 경우에는 사용이 가능해요. 기업들이 신사업 발굴을 위한 연구를 한다면서 이 정보를 활용할 수 있는 거죠. 게다가 연구를 위한 목적이라면 이 정보를 돈을 받고 판매해도 돼요. 물론 허락 없이도요. 이 글을 읽고 있는 순간에도 내 정보가 여기저기서 활용되는 중일지도 모른다는 거예요. '익명 정보'는 아무런 제한 없이 활용 가능하고요.이래도 되는 거야?그래서 이에 대해 문제를 제기하는 사람들도 있어요. 개인 정보와 가명 정보, 익명 정보를 나누는 기준이 모호하다는 거죠. 이를 악용해 개인 정보를 가명 정보처럼 활용하거나, 가명 정보를 익명 정보처럼 제한 없이 이용할지도 모른다는 거예요.또 다양한 서비스를 이용하다 보면 여러 업체가 우리의 정보를 보유하게 되잖아요. 여러 업체가 보유한 가명 정보들을 결합할 경우에는 이게 누구의 정보인지를 특정할 수 있고, 이는 우리의 사생활을 심각하게 침해할지도 모른다는 지적이에요.그래서 이번 사태를 두고 데이터 3법을 개정하고, 마이데이터 사업을 도입하는 과정에서 나타날 수 있는 부작용이 처음으로 수면 위로 드러난 거라는 분석도 나와요. 그나마 이번엔 동의를 받아야 활용 가능한 개인 정보라 비교적 빨리 공론화가 됐지만, 가명 정보와 관련된 부작용은 오랜 기간 문제가 발생했는지조차도 알기 어려울 거란 얘기죠.물론 데이터 3법 개정은 데이터 산업 발전을 위해서 필요한 것이었어요. 전 세계적인 추세이기도 하죠. 하지만 기업들이 '데이터 활용을 극대화해 우리 삶을 더 풍족하게 만들자'는 취지보다는, 개인 정보를 활용한 돈벌기에만 집중하는 것은 아닌지 경계해야겠네요.&lt;뉴미디어팀 디그(dig)&gt;[뉴스 쉽게보기]는 매일경제 뉴미디어팀 '디그(dig)'의 주말 연재물입니다. 디그가 만든 무료 뉴스레터를 구독하시면 술술 읽히는 다른 이야기들을 월·수·금 아침 이메일로 받아보실 수 있습니다. '매일경제 뉴스레터'를 검색하고, 정성껏 쓴 디그의 편지들을 만나보세요. 아래 두 기자 페이지의 '채널' 링크를 누르셔도 구독 페이지로 연결됩니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2022.06.17.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>금감원 '수시검사 2호'는 카카오페이…이달말 검사 착수</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000290561?sid=101</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>금융감독원이 토스에 이어 카카오페이에 대한 수시검사에 들어갑니다.오늘(29일) 금융권에 따르면 금융감독원은 오는 27일부터 카카오페이에 대한 수시검사를 시작합니다. 올해 종합검사를 폐지하고 정기·수시검사 체계로 전환한 뒤 진행되는 두 번째 수시검사입니다. 앞서 토스가 금감원의 첫 수시검사를 받은 바 있습니다.이번 수시검사는 특정 사고나 민원 등으로 진행되는 것은 아니며, 전자금융거래법 위반이나 소비자 보호 이행 여부 등을 살펴보는 것으로 알려졌습니다.전자금융업자로 등록된 카카오페이 등 빅테크는 정기검사 대상으로 분류되지 않아 수시검사를 받게 됩니다. 금감원의 정기검사는 은행과 금융지주, 금융투자, 보험 등 기존 금융사를 대상으로 진행되기 때문입니다.금감원은 올해 초 검사업무 계획을 통해 빅테크와 핀테크의 사업 확장에 따른 소비자 피해 예방에 초점을 맞추겠다고 발표했습니다. 거래 규모와 신규 사업 진출 등 위험 요소를 분석해 대형 전자금융업자를 대상으로 현장검사를 병행하겠다고 밝힌 바 있습니다.지난 3월 말 토스에 이어 카카오페이까지 금감원 수시검사를 받게 되면서, 다음 수시검사 대상은 네이버파이낸셜이 될 것이란 전망이 나옵니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2022.06.28.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>토스뱅크, 하반기 '고객중심 상품' 늘린다</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003026559?sid=101</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>'토스뱅크 모임통장' 상품부터'캐시백' 최소결제금액 조건 없앤체크카드 '에피소드3' 선보여금융상품 추천 서비스도 제공28일 서울 중구 커뮤니티하우스에서 열린 토스뱅크 미디어데이 행사에서 홍민택 토스뱅크 대표가 출범 후 성과를 리뷰하고 하반기 주요 상품에 대해 발표하고 있다.토스뱅크(대표 홍민택)가 올해 하반기 상품 라인업을 대폭 확장한다. 고객 관점에서 새롭게 해석한 '토스뱅크 모임통장' 상품을 출시하고, 고객 혜택을 강화한 체크카드 '에피소드3'를 선보인다. 시티은행 대환대출, 다양한 금융상품 추천 서비스도 시작한다.28일 홍민택 토스뱅크 대표는 미디어데이 행사에서 “시장에 있는 좋은 상품들을 발굴해 토스뱅크 고객들이 더욱 현명하게 투자하거나 더 좋은 상품에 예치할 수 있도록 준비하고 있다”고 말했다.그는 “금융플랫폼으로서 실질적으로 고객에게 가장 좋은 혜택을 주는 상품들을 한 눈에 볼 수 있도록 모아둘 예정”이라며 “토스뱅크 상품과 서비스 포트폴리오를 단계별로 확장해 나가며, 고객들이 가장 선호하는 은행으로 만들어나갈 것”이라고 덧붙였다.다음달 1일부터 '토스뱅크 체크카드 에피소드3'를 출시한다. 에피소드3는 카드를 많이 쓰는 고객에게 더욱 많은 혜택이 돌아갈 수 있도록 구성됐으며, 영화와 디저트 등 캐시백 영역 추가와 캐시백 금액 강화 등 혜택을 담았다. 또 3000원 이상 결제 시 혜택을 주던 최소결제금액 조건도 과감히 없앴다.토스뱅크는 지난해 10월 출범 이후 대출 총량 규제로 인해 9일 만에 대출 한도를 소진하고 여신영업을 중단한 바 있다. 올해 1월부터 본격적인 여신영업을 재개했으며 6월 현재 기준 대출 잔액 4조원을 돌파했다. 이 중 중저신용자 대출 비중은 36%로서 출범 당시 약속했던 34.9% 약속을 지켜냈다.그는 토스뱅크의 급속한 성장 배경으로 공급자가 아닌 사용자의 관점에서 새로운 혁신 서비스를 선보이고 있기 때문이라고 분석했다. 사례로 수시입출금 통장으로서 연 2%의 금리를 제공하는 통장, 매일 고객이 원할 때 이자를 받을 수 있는 지금 이자받기 서비스를 소개했다. 특히 지금 이자받기 서비스는 현재까지 약 150만명 고객이 사용하고 있으며, 이자로 총 667억원이 지급됐다고 덧붙였다.이 외에 홍 대표는 인터넷전문은행 최초로 선보인 비대면 무보증·무담보 개인사업자 대출상품을 소개하고 개인사업자 대상 맞춤형 금리와 한도를 제공해 출시 4개월여 만에 5300억원을 달성했다고 발표했다. 또 고객한테 금리인하 기회를 먼저 알려주는 상시 금리인하권, 은행권 최초 외국인 고객 비대면 계좌개설 서비스 등을 혁신 서비스 사례로 소개했다.홍민택 대표는 “토스뱅크는 그 동안 평가가 어려워 제대로 된 권리를 누릴 수 없었던 중저신용고객을 위해 자체 개발한 신용평가모형인 TSS(토스 스코어링 시스템)를 적용하고 있다”며 “이를 통해 중저신용고객 4명 중 1명이 고신용자로 재평가되는 크레딧 빌딩 효과를 누릴 수 있는 기회를 드릴 수 있었다”고 설명했다.토스뱅크 가입고객은 이날 기준 가입고객 360만명을 돌파했다. 이는 지난해 말 110만명 대비 250만명이 증가한 숫자로 6개월 만에 고객 수가 세 배를 넘겼다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2022.06.30.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>KB모바일인증서 2년만에 본궤도...국민은행 “올해 대외확대 원년”</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003027018?sid=101</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>은행권에서 처음으로 자체 개발해 선보인 KB국민은행의 'KB모바일인증서'가 사업 2년 만에 본궤도에 오를 수 있게 됐다. 전자서명인증사업자, 공인전자문서중계자에 이어 본인확인기관 지정까지 획득함에 따라 국민생활 영역에서 널리 쓰이는 종합인증서비스로 도약하는데 속도를 낸다.국민은행(행장 이재근)은 지난해에 이어 올해 본인확인기관 지정에 다시 도전한 결과 가장 높은 900점대 평가점수를 획득하며 심사를 통과했다.전자서명인증사업자, 공인전자문서중계자에 이어 본인확인기관 지정까지 획득하면서 KB모바일인증서는 범용 사설인증서로서 완성도를 갖추게 됐다. 무엇보다 KB스타뱅킹이 단순한 은행 앱이 아닌 각종 전자문서 고지·수신·보관이 가능한 생활금융 플랫폼으로 한 단계 도약하는데 힘을 실을 수 있게 됐다.KB모바일인증서는 현재 KB금융그룹 계열인 KB국민은행을 비롯해 KB증권, KB국민카드, KB손해보험, KB생명보험, KB저축은행, 푸르덴셜생명 등에서도 이용할 수 있다. KB금융 계열사 서비스에서 인증이 필요한 업무에 간편하게 이용할 수 있어 계열사 사용빈도가 상당히 높다고 알려졌다. KB증권과 푸르덴셜생명에서는 전자서명기능도 도입해 증권 매매나 보험료 납입 등 거래도 지원한다.국민은행 관계자는 “연내 다른 계열사에도 전자서명기능을 도입할 예정”이라며 “KB모바일인증서 하나로 다양한 서비스를 이용할 수 있도록 통합인증체계를 구축하게 된다”고 설명했다.KB금융 계열을 넘어 타 금융권과 비금융 분야로도 인증서 적용 범위를 확대하고 있다.마이데이터 서비스에서는 키움증권, 한국투자증권 등이 KB모바일인증서를 도입했다. 이미 지난 2년간 금융권에서 검증받은 만큼 금융권과 핀테크 등 다양한 마이데이터 사업자와 추가 제휴가 논의되고 있다고 회사는 설명했다.국민은행은 전자서명인증사업자, 공인전자문서중계자, 본인확인기관 자격을 발판으로 올해 하반기부터 본격적으로 KB모바일인증서 범용성 확대에 속도를 낼 방침이다.특히 공인전자문서중계자는 금융권에서 국민은행이 최초로 자격을 획득해 플랫폼 차별화를 추진할 수 있게 됐다. 네이버, 카카오페이, NHN페이코, 비바리퍼블리카(토스) 등 빅테크 기업이 자사 앱에서 다양한 생활요금 고지서 등을 전자문서로 수신·관리하는 서비스를 제공하고 있다. 국민은행은 본인확인기관과 전자서명인증사업자로서 제공할 수 있는 인증서 서비스를 더해 KB스타뱅킹의 플랫폼 경쟁력을 빠르게 높여나간다는 전략이다.국민은행 관계자는 “다양한 분야 공공기관과 기업에서 국민과 고객 대상 전자문서 발송과 인증이 필요한 서비스를 제공하고 있다”며 “사실상 네이버·카카오 중심 시장에서 KB모바일인증서가 비용 절감과 효율성 제고 효과를 제공할 수 있는 실질적 대안이 될 수 있도록 협업에 속도를 내겠다”고 말했다.표. 주요 사설인증서 제공 기업 현황</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2022.06.16.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>보험설계사에 상담DB 제공한 토스, 사실상 징계 어려울 듯</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003023752?sid=101</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>ⓒ게티이미지뱅크금융감독원이 사용자 개인정보를 보험설계사에 유상 판매한 토스에 대해 사실상 징계하지 않을 전망이다. 마이데이터(본인신용정보관리업) 정책 상 정보주체로부터 제3제 정보제공 동의를 받았고 안심번호 등 안전장치를 추가로 적용했기 때문이다.업계에 따르면 금융감독원은 토스가 '내 보험' 서비스에서 보험상담을 선택한 사용자 개인정보를 보험설계사에게 중개 수수료 명목으로 유상 판매한 것 외에 다른 내용이 있는지 더 살펴보고 있다. 마이데이터 사업자인 토스가 정보주체인 고객 동의를 거쳐 정보를 제공한 만큼 사실상 토스가 법 규제를 어긴 것은 아니라고 봤다.토스는 의무정보제공자인 보험사가 제공하는 API로 데이터를 연결하지 않고 있다. 당국이 일부 반영되지 않은 정보를 제공하기 위해 한시적으로 허용한 신용정보원(신정원) '내보험다보여'의 데이터를 긁어오는 스크린 스크레이핑 방식으로 관련 개인정보를 제공하고 있다.내보험다보여 약관에서는 신정원 동의없이 제3자에게 개인정보를 제공할 수 없도록 규정했다. 하지만 정보주체가 정보제공에 동의한 만큼 규정 위반으로 보기 어렵다는 분위기다.금감원에 따르면 토스는 데이터 판매·중개업에 대한 겸영부수업무를 당국에 신고해 영위해왔다. 이후 마이데이터 사업계획 제출 시 관련 내용을 포함해 정보주체 동의를 거친 제3자 정보제공에는 문제가 없는 것으로 파악됐다.다만 금감원은 개인정보를 설계사가 유료로 조회하는 점이 사용자 동의 과정에 빠진 것은 문제가 될 수 있다고 봤다.이에 대해 토스는 “내 보험 서비스 중 보험상담 선택 시 '설계사가 유료로 고객정보를 조회한다'는 점을 동의 과정에 명시할 예정”이라며 기존 개인정보 제3자 정보제공 동의를 보완하겠다는 입장을 내놨다.금감원은 이 내용 외에 추가로 문제가 될 만한 사안이 있는지 조사하고 있지만 아직 별다른 변화는 없는 것으로 보인다. 토스가 설계사에게 1건당 6만9000원 수수료를 받고 넘긴 연락처는 별도 안심번호 처리를 했고 동의를 철회하면 해당 정보도 파기된다는 점도 문제가 없다고 보고 있다.금감원 시정명령·징계 여부와 관계없이 업계는 이번 논란이 자칫 마이데이터 업계 전반에 걸친 사용자 불신으로 이어지지 않을까 우려하고 있다. 정보주체가 자신의 정보를 제3자에게 적합하게 제공하고 관련 보안성을 높인 것이 마이데이터 핵심인데 '마이데이터 사업자=개인정보 판매사'라는 잘못된 시각을 심어줄 수 있기 때문이다.업계 한 관계자는 “아직 마이데이터를 이용한 수익 체계가 가시화되지 않은 상황에서 데이터 수집·판매로 단기에 수익을 추구하는 모양새로 보일 수 있어 우려된다”며 “마이데이터에 대한 사용자의 긍정적 경험이 충분히 쌓이지 않은 상태이므로 업계 전체에 미칠 영향도 함께 고려하는 게 필요하다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2022.06.22.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>씨티은행 대출자산 8조...KB국민·토스뱅크로 갈아탄다</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000291251?sid=101</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>국내에서 소비자금융 사업을 철수하는 한국씨티은행의 개인신용대출잔액 8조원 대환업무를 KB국민은행과 토스뱅크가 담당하게 됐습니다.앞서 한국씨티은행은 소비자금융 업무 단계적 폐지에 따른 은행 이용자 보호와 개인신용대출 고객의 편의 제공을 위해 두 은행과 협의를 진행해왔습니다.한국씨티은행의 개인신용대출잔액(3월말 기준)은 8조409억원 수준입니다.한국씨티은행은 오늘(22일) “KB국민은행, 토스뱅크와 업무제휴계약을 체결하고 다음달 1일부터 ‘개인신용대출 대환 제휴 프로그램’을 시행한다”고 밝혔습니다.이에 따라 기존에 한국씨티은행에서 개인신용대출을 받은 고객은 ‘차주별 총부채원리금분할상환비율(DSR)’ 및 ‘연소득 100% 이내 대출한도 제한’과 관계없이 기존 신용대출 잔액 범위 내에서 KB국민은행과 토스뱅크의 신용대출 상품으로 갈아탈 수 있습니다.금리우대뿐만 아니라 대출시 발생하는 중도상환수수료와 대환 과정에서 부담하는 인지세는 KB국민은행과 토스뱅크가 부담할 예정입니다.대환은 한국씨티은행의 대출 잔액(한도대출의 경우 대출한도)과 동일한 금액으로만 진행이 가능하며, 고객이 제휴 은행에서 대출받으면 자동으로 한국씨티은행의 대출이 상환됩니다.한국씨티은행 대출 잔액보다 적은 금액으로 대환을 원하는 경우에는 한국씨티은행 대출을 일부 상환 후 대환대출 신청이 가능합니다.또 금융당국의 소비자보호 계획에 따라 7월부터 다른 금융사로의 대환을 희망하는 씨티은행 신용대출 고객은 대출금액의 증액이 없다면 차주별 총부채원리금상환 비율(DSR) 등 가계대출 규제가 적용되지 않습니다.다만 대환을 원하는 금융회사의 심사 결과에 따라 대환이 거절될 수 있으므로 대환 가능 여부와 구체적인 대출 조건 등은 개별 확인이 필요합니다.대환 제휴 프로그램은 KB국민은행 앱(애플리케이션) 또는 영업점, 토스뱅크 앱에서 신청할 수 있습니다.한국씨티은행은 "고객의 개인신용대출상품에 대해 2026년 말까지는 기존과 동일하게 은행이 정한 심사 기준(신용도와 채무 상환능력을 재평가)에 따라 만기를 연장하기로 했다"며 "2027년 이후에도 전액 상환 또는 타 금융기관을 통한 대환이 어려운 고객의 경우 분할 상환을 지원할 계획"이라고 설명했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2022.06.29.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>고금리 시대…대출이자 내리는 방법은</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011274179?sid=101</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>기사내용 요약금리인하요구권, 신청 매년 증가세은행권 청구 몰리면서 수용률은 내려가[서울=뉴시스] 정병혁 기자 = 물가 상승 등의 이유로 재료비가 오르면서 컵밥 가격도 오른 것으로 나타난 28일 오후 서울 동작구 노량진 컵밥거리를 찾은 시민들이 컵밥을 주문하고 있다. 2022.06.28. jhope@newsis.com[서울=뉴시스] 이정필 기자 = 고금리와 고물가, 고유가가 겹치면서 은행 대출을 받은 서민층의 부담이 갈수록 커지고 있다. 매달 갚는 이자 상환액을 낮추기 위해 금리인하요구권을 신청하는 차주도 급증하는 추세다. 신청이 몰리면서 승인이 나는 수용률은 내려가고 있다.29일 금융당국과 관련업계에 따르면 금리인하요구권은 은행 등 금융사에서 대출을 받은 개인이나 기업이 신용도가 개선됐을 때 대출 이자를 낮춰달라고 요구할 수 있는 권리를 말한다. 사회초년생의 취업이나 직장인의 승진, 자영업자의 매출 확대 등으로 소득이 증가했을 경우 이를 신청해 금리를 내릴 수 있다.금리인하요구권 신청 건수는 2017년 19만7927건, 2018년 35만9611건, 2019년 66만8591건, 2020년 91만519건 등으로 해마다 늘고 있다. 반면 은행 등 금융사의 수용률은 2017년 61.8%, 2018년 47.0%, 2019년 42.6%, 2020년 37.1% 등으로 낮아지는 추세다.한 시중은행의 경우 금리인하요구권 신청건수가 지난해 12만9398건으로 전년(1만6350건) 대비 8배 가까이 급증했다. 이 기간 수용 건수는 7063건에서 4만3071건으로 6배 넘게 늘어났다.수용대출금액은 5006억원에서 2조2216억원으로 4.4배 증가했다. 수용률은 43.2%에서 33.3%로 10%포인트(p) 가까이 내려갔다.빠르게 성장하는 인터넷전문은행에도 금리인하를 신청하는 고객이 몰리고 있다. 케이뱅크를 보면 지난해 13만211건이 청구돼 1만6054건 대출의 금리가 인하됐다. 수용대출금액은 4793억원 규모다.토스뱅크는 상시 금리인하권 서비스를 도입해 운영하고 있다. 정기적으로 신용도가 오른 고객을 평가하고 이를 자동으로 알리는 시스템이다.업계에서는 본격적인 고물가와 고금리 기조가 이어지면서 금리 인하를 신청하는 고객 수요가 늘어날 것으로 보고 있다. 다음달 5일부터는 농협이나 신협 등 상호금융업권에서 대출을 받은 차주들도 금리인하요구권을 행사할 수 있게 된다. 신용협동조합법 시행령 개정안에 따르면 조합, 중앙회와 대출 등의 계약을 체결한 개인의 경우 취업, 승진, 재산 증가 또는 개인신용평점 상승 등 신용상태의 개선이 나타났다고 인정될 때 금리인하를 요구할 수 있다. 재무상태 개선, 신용등급 또는 개인신용평점 상승 등 신용상태의 개선이 나타났다고 인정되는 법인이나 개인사업자도 요구할 수 있다.금융소비자가 금리인하요구권을 제대로 행사할 수 있도록 '금리인하 비교 공시 제도'도 도입된다. 올해 상반기 실적부터 금융업협회 홈페이지를 통해 매 반기마다 정기적으로 운용실적이 비교 공시된다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2022.06.23.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>내달부터 시중은행서 신용대출 연소득 2배 넘게 받는다</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000291501?sid=101</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>다음달 1일부터 주요 시중은행에서 자신의 연소득보다 많은 신용대출을 받을 수 있습니다. 오늘(23일) 금융권에 따르면 KB국민은행과 NH농협은행 등 시중 5대은행과 인터넷전문은행 케이뱅크와 토스뱅크 등은 다음달 1일자로 신용대출 최대 한도를 대출자의 '연봉 이내'로 제한하는 규정을 없애기로 했습니다.이에 따라 KB국민은행은 신용등급·소득 등을 종합적으로 판단해 최대 연봉의 2배까지 신용대출을 내줄 예정입니다.NH농협은행도 개인 신용대출의 한도를 기존 10∼100%에서 30∼270%로 변경한다고 밝혔습니다. 농협은행은 개인사업자 신용대출 한도도 '연봉의 305%'까지 올렸습니다. 다만 개인 신용대출과 소호 신용대출이 각 2억5000만원, 1억6000만원을 넘을 수 없습니다.신한은행도 '연봉 이내' 한도 규제를 폐지하기로 방침을 정했습니다. 우리은행과 하나은행, 인터넷 은행 케이뱅크와 토스뱅크도 같은 날부터 신용대출 관련 연소득 규제를 풀기로 했습니다. 앞서 지난해 8월 금융당국은 시중은행 여신 담당 임원들과의 회의에서 "개인 신용대출 한도를 연 소득 수준으로 줄여달라"고 요청했고, 실제로 은행들은 8∼9월에 걸쳐 순차적으로 이 구두지침을 따랐습니다.지난해 12월에는 금융위원회가 아예 신용대출 연 소득 이내 취급 제한 규정을 금융행정지도로서 '가계대출에 대한 리스크 관리기준'에 명시하고 효력 기한을 올해 6월 30일로 뒀습니다. 이에 따라 은행들은 지난해 8월 이후 지금까지 약 10개월 동안 신용대출을 철저하게 연 소득 범위에서 묶어왔습니다. 하지만 이 규정이 오는 6월 말 이후로 연장되지 않으면서 다음달부터 총부채원리금상환비율(DSR) 기준만 충족하면 은행권에서 다시 연봉보다 많은 신용대출을 받을 수 있게 된 겁니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2022.06.21.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>'자이낸스' 라이프...Z세대, 투자·금융도 취향·재미 반영</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011257600?sid=101</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>기사내용 요약새로운 기반의 투자와 금융 자연스럽게 즐겨간편함은 기본, 놀이 즐기듯 라이프테크 각광[서울=뉴시스] 마일즈 알드리지 사진전. (사진=펀더풀 제공) 2022.06.21. photo@newsis.com[서울=뉴시스] 배민욱 기자 = 20대 대학생 홍모씨는 아침에 일어나 해외 주식 시장을 살펴본 후 '토스증권' 앱의 미국 주식 소수점 투자 서비스를 통해 빅테크 우량주를 부담 없이 매수했다. 오후에는 드로우로 당첨된 한정판 운동화를 리셀 플랫폼 '크림'을 통해 팔아 차익을 얻었다. '자이낸스(Zinance)'가 주목받고 있다. Z세대의 'Z'와 '금융(Finance)'의 합성어다. Z세대가 이끄는 새로운 기반의 금융 트렌드를 의미한다. Z세대는 투자와 금융의 영역을 자연스러운 생활로 받아들이며 모바일 기반의 다양한 금융 서비스들을 적극 활용한다. 디지털 네이티브로 모바일 플랫폼에 익숙할 뿐 아니라 '재미'와 '간편함'을 중시하는 Z세대의 성향이 재테크 생활에도 고스란히 반영되고 있는 것이다. 특히 Z세대는 좋아하는 콘텐츠에 투자해 혜택을 챙기고 관심있는 기업에 소액 투자하고 리셀을 통해 차익을 실현한다. 자신만의 취향까지 투자의 수단으로 활용하는 모습이다. 자이낸스 시대가 도래하면서 보다 재미있고 편리한 투자까지 가능케 하는 라이프테크 서비스들도 관심을 받고 있다. 21일 관련 업계에 따르면 문화 콘텐츠의 경우 이전에는 단순히 보고 즐기는 것이 전부였다. 하지만 이제는 원하는 콘텐츠를 선택해 투자하고 새로운 경험까지 가져갈 수 있는 정도로 범주가 확장됐다. K-콘텐츠 증권투자 플랫폼 '펀더풀'은 온라인 소액 공모 형식으로 영화, 공연, 전시, 드라마 등 다양한 카테고리의 문화 콘텐츠에 투자할 수 있는 중개 서비스를 제공한다.지난 3월 말 진행됐던 전시 '마일즈 알드리지 사진전' 프로젝트의 경우 투자 모집 시작 약 6분만에 목표 모집액을 초과 달성했다. 투자자의 약 76%가 MZ세대였다. 이 가운데 Z세대는 약 17%로 나타났다. 평균 투자금액이 1인당 124만원이었다.해외주식 거래에 있어서도 Z세대는 모바일 플랫폼을 적극 이용한다. 해외 주요 기업의 주식은 1주당 가격이 높아 자본금이 적은 이들에게는 부담이 될 수 있다. 토스증권은 주문 즉시 체결되는 실시간 방식의 미국주식 소수점 거래 서비스를 선보였다. 미국 우량 주식을 1주 미만으로 조각구매 할 수 있게 된 것이다. 토스증권 해외주식 투자자의 34%는 Z세대다.리셀 플랫폼도 자이낸스 트렌드를 견인하는 데 한몫하고 있다. 운동화부터 희귀식물까지 관심 있는 품목에 대해 온라인 플랫폼에서 쉽게 거래하고 차익을 챙길 수 있어 Z세대들의 참여가 높은 편이다. 리셀 플랫폼 크림은 상품 검수와 보관, 시세 예측, 배송까지 올인원으로 서비스한다. 판매자와 구매자 모두의 편의성을 높였다. 크림의 1분기(1~3월) 거래액은 전년 동기 대비 194% 증가했다. 월간 이용자 수도 300만 이상을 확보했다. 업계 관계자는 "Z세대들은 거창한 것에 투자하기 보다는 적은 금액이라도 자기가 좋아하는 것에 투자하고 금전적 이득과 함께 재미 요소를 찾는 걸 즐기는 세대"라며 "그들이 문화를 소비하듯 투자와 금융 생활을 쉽게 할 수 있게 된 배경에는 직관적이고 손쉬운 금융 서비스를 구현한 핀테크 플랫폼들의 공이 크다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2022.06.17.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>토스뱅크, 3% 금리 '키워봐요 적금' 출시 3일만에 10만좌 돌파</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000823533?sid=101</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>사진=토스뱅크 토스뱅크는 지난 14일 내놓은 '키워봐요 적금'이 출시 3일 만에 누적 계좌개설 10만좌를 돌파했다고 17일 밝혔다.'키워봐요 적금'은 토스뱅크의 출범 후 첫 적금 상품으로 6개월 만기 시 최고 3%의 금리를 제공한다. 납입한도는 월 최대 100만원이며, 매주 1천원부터 20만원까지 납입 가능하다.'키워봐요 적금'은 가입 시 지급된 동물의 알이 이튿날 부화되면서 6개월 동안 열 단계에 거처 자란다. 동물은 유령, 거북이, 문어, 망아지 네 종으로 랜덤 지급되며, 매주 적금 자동이체 달성하면 최종 만기 시 전설의 동물로 진화한다.토스뱅크 관계자는 "이번 '키워봐요 적금'을 출시한 후 보객들이 보다 즐겁게  금융 서비스를 이용하고 싶다는 니즈를 확인할 수 있었다"며 "앞으로도 고객들에게 보다 즐겁게 금융을 이용하고 유용한 혜택을 받아가실 수 있도록 노력하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2022.06.22.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>토스뱅크 1천억원 유상증자 결의</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002260397?sid=105</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>29일 주금납입일…총 자본금 9천500억원인터넷전문은행 '토스뱅크'는 21일 열린 이사회서 1천억원 규모의 유상증자를 추진하기로 결의했다고 22일 밝혔다.올해 2월 두 번째 유상증자 이후 4개월 만에 진행됐으며, 출범 후 지금까지 총 세 차례에 걸쳐 7천억원의 자본을 추가 확보했다.이번 1천억원 증자를 통해 총 2천만 주가 신규 발행되며 주당 발행가는 5천원이다. 2천만 주 가운데 보통주는 1천500만 주, 전환주는 500만 주로 발행된다.유상증자 납입일은 6월 29일이며, 증자를 마치면 토스뱅크의 납입자본금은 총 9천500억원으로 늘어난다.토스뱅크 관계자는 "자본 건전성을 강화하고 혁신적인 서비스를 선보여 은행에 대한 고객 경험을 바꾸어 나갈 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2022.06.20.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>팀스파르타, 개발자 채용 전문 플랫폼 'Port99' 정식 론칭</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013256984?sid=102</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>카카오벤처스 패밀리사, 토스·우아한형제들·오늘의집 등 350개 협력사개발자 채용 전문플랫폼 포트99[팀스파르타 제공. 재판매 및 DB 금지]    (서울=연합뉴스) 임성호 기자 = 코딩 교육 스타트업 팀스파르타는 개발자 채용 전문 플랫폼 'Port99(포트99)'를 정식 론칭한다고 20일 밝혔다.    포트99는 복잡한 절차 없이 개발 직군의 지원자를 간편하게 관리하고 면접 일정을 조율하는 서비스를 제공한다. 개발자들의 이력서를 다운로드할 필요 없이 개발 직무·기술 스택 별로 조회할 수 있고, 여러 명의 구직자에게 한 번에 면접을 제안할 수도 있다.    포트99는 올해 4월 팀스파르타가 운영하는 개발자 부트캠프 '항해99'의 수료생과 협력사를 연결해주는 베타 서비스로 시작됐다. 채용 매칭률이 높아지고 참여 기업의 수가 빠르게 늘면서 일반 구직자들도 적극적으로 기업의 문을 두드릴 수 있도록 서비스 범위를 확장했다고 팀스파르타는 설명했다.    포트99에는 현재 카카오벤처스 패밀리사를 비롯해 토스, 오늘의집, 우아한형제들 등 350개 기업이 협력사로 등록돼 있다.     협력사에는 2개월에 1회씩 사전 동의를 받은 항해99 수료생들의 이력서가 제공되며, 최종 프로젝트 발표회에서는 지원자들과 직접 네트워킹할 기회도 주어진다. 협력사 등록에는 별도로 비용이 들지 않고, 이들이 지원자들을 채용할 의무도 없다.     팀스파르타 이범규 대표는 "포트99 서비스가 완성되면서 개발 인재 양성부터 채용까지 원스톱으로 연계할 수 있는 인프라를 구축하게 됐다"면서 "개발 채용 분야 생태계가 안착하는 데 중요한 역할을 하게 될 것"이라고 말했다.팀스파르타 로고[팀스파르타 제공. 재판매 및 DB 금지]    sh@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2022.06.23.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>씨티銀 신용대출 고객, 내달 DSR 규제 없이 갈아타기 가능</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003435917?sid=101</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>씨티銀, 소매금융 철수에 제휴 협약국민銀-토스 이용땐 금리우대 혜택8조 잔액… 은행간 쟁탈전 뜨거울 듯한국씨티은행에서 신용대출을 받은 고객은 다음 달부터 총부채원리금상환비율(DSR) 규제 등 각종 대출 규제를 적용받지 않고 다른 은행으로 대출을 갈아탈 수 있게 된다. 씨티은행과 제휴한 KB국민은행과 토스뱅크를 이용하면 금리 우대 등의 혜택을 받을 수 있다. 국내 소매금융 사업에서 철수하는 씨티은행은 국민은행, 토스뱅크와 제휴 협약을 맺고 ‘개인신용대출 대환 제휴 프로그램’을 시행한다고 22일 밝혔다. 이에 따라 씨티은행의 개인 신용대출 고객은 7월 1일부터 국민은행 영업점이나 애플리케이션, 토스뱅크 앱에서 대출 갈아타기를 신청할 수 있다.  제휴 프로그램을 이용하는 고객은 중도상환수수료와 인지세 면제, 우대금리 등의 혜택을 받는다. 국민은행은 최대 0.4%포인트의 우대금리를, 토스뱅크는 0.3%포인트 수준의 우대금리를 제공한다. 다만 갈아타기는 기존 대출 잔액과 동일한 금액으로만 신청이 가능하다. 제휴 은행이 아닌 다른 은행에서도 대출을 갈아탈 수 있다. 이때는 개별 은행에 문의해 대환 조건과 절차 등을 확인해야 한다. 씨티은행 고객이 다른 은행으로 대출을 갈아탈 때 대출 금액을 늘리지 않는다면 DSR 규제나 연소득 이내 한도 제한 등의 대출 규제를 적용받지 않는다. 대출 갈아타기를 원하지 않는 씨티은행 고객은 2026년 말까지 만기를 연장할 수 있다.  다음 달부터 씨티은행 고객들의 대출 갈아타기가 본격화하면서 우량 자산을 확보하기 위한 은행들의 쟁탈전이 이어질 것으로 보인다. 씨티은행은 고신용자 대출이 많아 자산 건전성이 높은 데다 규제에 구애받지 않고 대출 자산을 확보할 수 있기 때문이다. 씨티은행의 신용대출 잔액은 3월 말 현재 8조409억 원이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2022.06.22.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>씨티은행 "신용대출, 국민은행·토스뱅크로 갈아타세요"</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004714902?sid=101</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>8조원대 대환 프로그램 시행금리 우대·인지세 면제 등 혜택은행 점포·앱에서 신청 가능국민은행과 인터넷전문은행 토스뱅크가 국내 소비자금융 사업의 단계적 폐지 절차를 밟고 있는 한국씨티은행의 개인 신용대출 대환 제휴 은행으로 선정됐다.씨티은행은 22일 국민은행·토스뱅크와 협약을 맺고 다음달 1일 ‘개인 신용대출 대환 제휴 프로그램’을 시행한다고 발표했다. 씨티은행에서 신용대출을 받은 고객이 이 프로그램을 이용하면 금리 우대, 중도상환 수수료 면제, 대환대출 금액에 따른 인지세 면제 등의 혜택을 받을 수 있다.국민은행은 대환 전 대출 금리 대비 최대 0.4%포인트의 우대금리를 주기로 했다. ‘웰컴 우대금리’ 0.2%포인트는 조건 없이 일괄 적용하고, 국민은행 자체 신용평가 결과 6등급 이내 고객에겐 최대 0.2%포인트의 우대금리가 추가로 주어진다. 토스뱅크는 0.3%포인트 우대금리를 제공할 계획이다.대환 제휴 프로그램은 국민은행 앱과 영업점 또는 토스뱅크 앱에서 신청할 수 있다. 대환 금액은 씨티은행 대출 잔액과 같은 금액까지만 신청 가능하다. 더 적은 금액으로 대환을 원하는 고객은 씨티은행 대출을 일부 상환한 뒤 대환을 신청할 수 있다.씨티은행과 제휴를 맺은 국민은행과 토스뱅크에서만 대환할 수 있는 건 아니다. 다른 은행과 금융회사에서도 대환을 신청할 수 있다. 다만 해당 금융사의 심사 결과에 따라 대환이 거절될 수 있기 때문에 대환 가능 여부와 구체적인 대출 조건을 꼼꼼히 따져봐야 한다.씨티은행은 2026년 말까지는 기존과 동일하게 은행이 정한 심사 기준에 따라 개인 신용대출 상품 만기를 연장해줄 방침이다. 2027년 이후에도 전액 상환 또는 다른 금융회사를 통한 대환이 어려운 고객의 경우 분할 상환을 지원하기로 했다.앞서 금융당국은 씨티은행 신용대출 고객이 다른 금융사 대출로 대환을 원하면 총부채원리금상환비율(DSR) 등 가계대출 규제에서 예외 적용을 받을 수 있다고 밝혔다. 이에 고신용자 위주로 구성된 씨티은행의 대출자산을 끌어오기 위한 은행들의 경쟁이 치열했다. 지난 3월 말 기준 씨티은행의 개인 신용대출 잔액은 8조409억원이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2022.06.22.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>토스뱅크 1000억대 유상증자…자본금 총 9500억 확보</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000156467?sid=101</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>세 번째 증자…영업 확대 위한 자본금 확보토스뱅크는 지난 21일 이사회를 열고 1000억 원 규모의 유상증자를 추진하기로 결의했다고 22일 밝혔다. /토스뱅크 제공토스뱅크는 지난 21일 이사회를 열고 1000억 원 규모의 유상증자를 추진하기로 결의했다고 22일 밝혔다. 출범 이래 세 번째 유상증자로 이를 통해 총 7000억 원의 자본을 추가 확보했다. 토스뱅크에 따르면 이번 1000억 원 증자로 총 2000만주를 신규 발행한다. 주당 발행가는 5000원이다. 2000만주 가운데 보통주는 1500만주, 전환주는 500만주로 발행된다. 유상증자 납입일은 이달 29일이며, 증자를 마치면 토스뱅크의 납입자본금은 총 9500억 원으로 늘어난다.회사는 유상증자로 확보한 자본을 기반으로 대출 영업을 확대할 계획이다. 토스뱅크는 올해 1월 여신영업 재개와 함께 성장세를 보이고 있다. 개인 신용대출 상품의 중저신용자 대출 비중은 35.2%(5월 말 기준)를 달성했고 인터넷은행 3사 중 유일하게 30%대를 기록 중이다.토스뱅크 관계자는 "여수신 영업을 확대할 수 있는 추가 자본금을 확보할 수 있게 됐다"면서 "이를 바탕으로 자본건전성을 강화하고 혁신적인 서비스를 선보여 은행에 대한 고객 경험을 바꿔가겠다"고 말했다.발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2022.06.24.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>토스-초록우산어린이재단, MZ세대 기부 촉진 나선다</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003708455?sid=101</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>23일 열린 토스-초록우산 어린이재단 플랫폼 서비스 확대를 위한 공동협력 업무협약 체결식에서 이제훈 초록우산 어린이재단 회장(왼쪽)과 이승건 토스 대표가 기념촬영을 하고 있다. 토스 제공    모바일 금융플랫폼 ‘토스’를 운영하는 비바리퍼블리카는 초록우산 어린이재단과 업무협약(MOU)을 체결했다고 23일 밝혔다.   이번 협약으로 양측은 MZ세대(밀레니얼+Z세대)의 기부 활동을 촉진하기 위한 다양한 서비스를 선보인다. 구체적으로는 △사회적 가치를 실현하기 위해 상호 추진하는 사업 분야·서비스 협력 △각 기관의 디지털 플랫폼 서비스 확대를 위한 협력 및 상호 지원 등이다.   토스는 머니알림, 브랜드 캐시백 등 MZ세대 이용 빈도가 높은 토스 애플리케이션(앱) 내 ‘혜택’ 서비스 영역에 초록우산 어린이재단의 활동을 소개할 계획이다. 또 초록우산어린이재단은 운영 결과를 토대로 아동복지 서비스를 고도화하고, 토스의 간편결제 서비스인 ‘토스페이’를 재단 홈페이지 등에 연동할 예정이다.   토스 관계자는 “핀테크사와 비정부기구(NGO)가 업무협약을 체결한 건 이번이 처음”이라면서 “이번 협약이 어린이·청소년에 대한 사회적 관심을 촉진하는 데 이바지할 수 있길 바란다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2022.06.30.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>[단독] 사이버보안 벤처 '티오리'…두나무 등서 200억 유치</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004985258?sid=101</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>유능한 화이트해커 인력 주축MS·구글 등이 글로벌 고객사◆ 레이더M ◆세계 최대 해킹 대회 우승자 출신의 유명 해커들이 설립한 사이버 보안 전문스타트업 티오리가 국내 주요 정보기술(IT)·금융사·벤처캐피탈(VC) 등으로부터 수백억 원대 자금을 수혈해 이목이 쏠린다.30일 투자은행(IB)업계에 따르면 미국 텍사스 오스틴에 본사를 둔 티오리는 최근 실리콘밸리 소재 투자사인 K2G, 두나무, 오티엄캐피탈, 하나은행, 엑스퀘어드 등으로부터 약 200억원 규모의 자금을 유치하는 데 성공했다. 티오리는 2016년 카네기멜런대 동문인 박세준 대표와 앤드루 웨시 최고기술책임자(CTO)가 공동 설립했다. 주요 사업은 사이버 보안 컨설팅과 관련 연구개발(R&amp;D) 등이다.티오리는 그동안 50여 개 기업과 100여 개 프로젝트를 수행했다. 구글, 마이크로소프트(MS), 삼성전자, LG전자, 네이버, 카카오 등 국내외 주요 IT 대기업들이 티오리의 주요 고객사다. 여기에 카카오뱅크, 토스, 두나무, 코인원 등 온라인 금융 업체와 넥슨, 엔씨소프트, 크래프톤 등 게임 업체들도 티오리의 보안 컨설팅을 활용하고 있다. 특히 미국 국방연구소(DARPA), 대한민국 국방부, 한국전자통신연구원(ETRI) 등 국내외 공공기관들도 티오리의 파트너 기관으로서 공동 연구 프로젝트를 수행하고 있다.티오리의 가장 큰 경쟁력은 보안 컨설팅 분야에서 세계 최고 수준의 인력풀을 갖췄다는 점이다. 세계 최대 사이버 보안 콘퍼런스이자 해킹 대회인 데프콘(DEF CON)에서 지난 10년간 역대 최다인 5차례 우승을 차지한 화이트 해커 출신의 우수 인력이 주축을 이루고 있다. 현재 티오리의 미국 텍사스 본사와 서울 지사에는 직원 총 40여 명이 근무하고 있다.티오리는 이번 투자 유치를 통해 확보한 자금을 사업 확장과 우수 인재 확보·양성 등에 활용할 계획이다. 우선 보안 컨설팅 사업 고도화에 힘쓸 방침이다. 그동안 수작업 비율이 높았던 보안 컨설팅 사업을 자동화한 서비스형 소프트웨어(SaaS) 상품으로 선보여 보다 많은 기업이 저렴한 비용으로 보안 컨설팅 서비스를 이용할 수 있도록 한다는 구상이다. 박 대표는 "급성장 중인 사이버 보안 수요에 대응해 적기적소에 필요한 서비스를 제공하기 위해 힘쓰겠다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2022.06.20.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>워케이션에 격주 놀금제… ‘일과 휴식’ 두 토끼 잡는 IT기업</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003706877?sid=101</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>새로운 ‘유연 근무제’ 속속 도입4박 5일간 도쿄 등 근무하면서 휴가 네이버, 7월부터 매주 10명씩 혜택 카카오는 장소 자유롭게 선택해 근무 격주로 주 4일 일해…안식휴가제 병행무신사, 재택 포함한 하이브리드 방식 원하는 시간 출근…金엔 4시간만 일해 직방, 가상오피스 ‘소마’에 본사 마련 우아한형제들은 주 32시간 근무 실시   카카오와 네이버 등 국내 정보기술(IT) 기업들이 새로운 근무 제도 도입에 나선다. 신종 코로나바이러스 감염증(코로나19) 장기화로 원격 근무가 또 하나의 업무 형태로 자리 잡으면서 코로나19 엔데믹(풍토병화) 이후에도 사무실 출근 횟수나 근무 일정을 유연하게 조정하는 방식으로 ‘일하는 문화’를 개선하고 있다. ‘보여주기식 출근’보다는 ‘어떻게 일하는가’라는 일의 효율성이 중요하다는 판단에서다.  19일 IT업계에 따르면 네이버는 오는 7월부터 새 근무제 ‘커넥티드 워크’를 실시한다.  커넥티드워크는 주 3회 이상 사무실을 출근하는 형태인 ‘타입O’와 재택근무인 ‘타입R’ 중 하나를 직원들이 자율적으로 선택하는 방식으로, 6개월에 한 번씩 형태를 변경할 수 있다.  네이버는 한 단계 더 나아가 ‘워케이션’을 도입한다. 워케이션은 일(Work)과 휴가(Vacation)의 합성어로, 일정 기간 휴양지에서 근무하면서 퇴근 후에는 휴가를 즐기는 새로운 근무 형태다. 네이버는 최근 내부 공지를 통해 다음달부터 일본 도쿄와 강원 춘천 등 국내외 거점 도시에서 직원을 매주 10명 추첨해 최대 4박5일의 워케이션을 지원한다고 밝혔다.  이밖에 임직원의 장시간 근무를 없애기 위해 월 연장 근로 시간의 최대 한도를 줄이고, 그 후 내부 시스템 접속을 완전히 차단하는 ‘셧다운제’도 도입할 예정이다.  네이버와 함께 국내 IT업계 양대산맥인 카카오도 다음달 4일부터 새로운 근무제를 시범 운영하기로 했다. 또 격주로 금요일에 쉰다.  파일럿 형태로 운영될 새 근무제에 따르면 임직원은 임의로 선택한 장소에서 자유롭게 일할 수 있지만 오후 2∼5시에는 ‘집중 근무’를 해야 한다.    카카오는 또 새 근무제에서 온라인으로 해결하기 어려운 부분을 보완하기 위해 주 1회 오프라인 만남과 임직원 간 상호 소통을 위한 음성 채널 활용을 권장하되, 의무사항은 아니다.  카카오는 다음 달 8일부터 격주로 금요일에 쉬는 ‘격주 놀금’ 제도도 도입한다고 알렸다. 이에 따라 직원들은 격주로 주 4일만 근무하면 된다. 아울러 카카오는 만 3년 근무한 임직원을 대상으로 30일의 휴가를 제공하는 안식·리프레시 휴가제를 그대로 유지한다고 덧붙였다.  카카오는 “근무제 파일럿 기간 근무 형태에 대한 데이터 분석과 설문조사 등을 통해 적극적으로 임직원의 의견을 듣고 투명하게 소통하며 근무 제도를 더욱 발전시킬 것”이라며 “이를 통해 2023년 1월 정식으로 (새 근무제를) 시행하는 것이 목표”라고 말했다.  온라인 패션 플랫폼 무신사도 지난달부터 하이브리드 근무 방식을 도입했다. 무신사는 우선 주 2회 재택근무를 기본으로 하고 부서별 상황에 맞춰 조정할 수 있도록 했다.  임직원들이 각자 업무에 집중할 수 있는 시간을 선택하는 자율 출근제도 확대했다. 오전 8시부터 11시까지 각자 원하는 시간에 출근해 점심시간을 제외하고 8시간을 근무한 뒤 퇴근하면 된다. 재택근무 때도 자율 출근제는 적용된다. 매월 마지막 주 금요일에는 4시간만 근무하면 되는 ‘얼리 프라이데이’ 제도도 신설했다.  프롭테크 스타트업 직방은 서울 강남역 인근 본사를 없애고, 최근 메타버스 공간 안 가상오피스 ‘소마’에 새로 본사를 마련했다. 가상오피스에선 아바타와 거리가 가까워지면 얼굴을 비추는 화상 캠이 떠 대화를 나눌 수 있고, 회의 공간에선 영상 창이나 이미지를 띄워 공동 주제에 대한 토론을 할 수 있게 해준다. 서로 감정을 표현하기 위해 웃거나 박수치는 이모티콘을 활용할 수도 있다. 대면 만남과 근무가 불가피한 경우에는 수도권 50여개 거점 오피스를 활용할 수 있다.  메타버스 원격근무가 늘면서 가상 사무 공간을 임대하거나 원격근무 서비스를 제공하는 사업도 확대하고 있다. 직방은 자체 개발한 소마를 국내외 다른 기업에도 임대하는 사업을 진행하고 있다. 현재 아워홈과 에이아이에프(AIF) 등 20여개 기업이 입주한 상태다.  스타트업 토스를 운영하는 비바리퍼블리카는 계열사 전체에서 ‘얼리 프라이데이’ 제도를 운용 중이다. 얼리 프라이데이는 법정 근로시간인 주 40시간을 유지하되 매주 금요일에는 오후 2시에 퇴근하는 제도다. ‘배달의민족’을 운영하는 우아한형제들은 올해 1월부터 주 32시간으로 근무시간을 단축했다. 월요일은 오후 1시부터 5시까지 근무하고 화∼금요일에는 오전 9시30분부터 오후 5시30분까지 근무하는 형태다.  IT·플랫폼 기업들이 이처럼 잇따라 ‘근무 방식’ 개선에 나서는 것은 업무 효율성을 중시하는 분위기와 자율적이고 수평적인 조직문화가 바탕에 자리 잡고 있다. 전통적인 대기업들과 달리 빠른 의사 결정이 가능한 IT 기업들이 코로나19 기간에 재택근무로 업무 효율성을 학습하고 이를 적극적으로 실시하고 있다는 분석이 나온다. 동시에 IT 기업 특성상 유능한 인재를 확보하는 것이 가장 중요한데, 인재 확보를 위해 이들이 원하는 근무 환경과 복지 제도 개선에 힘을 싣고 있다는 평가다.  업계 한 관계자는 “근무시간을 개인에게 맞게 유연하게 조정할 수 있게 되면서 일할 때는 일하고 쉴 때는 쉴 수 있는 환경이 마련돼 좋다”며 “이를 통해 직원들의 만족도도 높아졌다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2022.06.27.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>토스뱅크, 내달부터 카드론 대환대출 카드사 확대</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002615738?sid=101</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>토스뱅크 로고 ⓒ토스뱅크[데일리안 = 김효숙 기자] 토스뱅크가 내달부터 카드론 대환대출 서비스를 확대한다.27일 금융권에 따르면 토스뱅크는 '카드론 대환대출 서비스'를 이달 초부터 시범적으로 출시했으며, 이르면 다음 달 초부터 확장할 예정이다.대환대출은 금융사에서 대출을 받아 이전 대출금을 갚는 제도로, '대출 갈아타기'로 불린다. 은행권에서 대환대출 서비스 자체는 새롭지 않지만, 카드론을 은행 신용대출로 바꿔주는 서비스를 내놓은 것은 토스뱅크가 처음이다.현재는 삼성카드사의 카드론에 대한 대환대출만 가능하지만, 토스뱅크는 내달부터 대상 카드사를 늘려 본격적으로 서비스를 확장할 계획이다.카드론 이용 고객 중 상당수는 중간 수준의 신용도와 리스크를 가진 경우가 대부분인데, 토스뱅크는 이들을 1금융권의 테두리 안으로 들여와 중·저신용 고객으로 포용하겠다는 것이다.토스뱅크 관계자는 "인터넷 전문은행은 중·저신용 고객의 포용과 혁신을 위해 설립됐다"며 "이번 카드론 대환 대출 상품은 중·저신용 고객의 금융이자 부담을 덜고 금융소비자의 선택 기회를 확장하기 위한 상품"이라고 밝혔다.토스뱅크에 따르면 카드론 대환대출 서비스 이용 고객은 평균 7.75% 금리로 대출을 받았으며, 카드론 이용 시와 비교하면 금리가 평균 6.83%p 인하됐다.평균 대출 한도는 약 1470만원으로, 평균적으로 750만원 늘어나는 효과가 있었다.최근 본격적인 금리 상승기에 들어서며 취약 차주의 이자 상환 부담이 커진 상황에서, 금융권에 취약 차주의 부담 경감을 주문한 금융당국의 정책 기조에도 걸맞은 상품이라는 평가가 나온다.최근 금융당국은 고금리 대출의 저금리 대환 프로그램을 추진하고 있다. 이에 더해 지난 20일 이복현 금융감독원장은 은행장들과의 간담회에서 "은행 자체적으로도 대출금리의 급격한 인상 조정 시 연체가 우려되는 차주 등에 대해서는 여타 저금리 대출로 전환해주거나 금리조정 폭과 속도를 완화해 주는 방안도 강구해 볼 필요가 있다"고 강조한 바 있다.이 서비스는 토스뱅크가 중·저신용자 신용대출 비중을 끌어올리는 데도 도움이 될 전망이다. 토스뱅크는 올해 연말까지 중·저신용자 신용대출 비중을 42%까지 높이겠다는 계획을 금융당국에 제출했다. 지난 3월 말 기준 이 비중은 31.4%였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2022.06.19.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>돈줄 끊긴 스타트업 "희망고문도 이젠 한계"</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004066627?sid=101</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>투심 냉각에 추가 투자 막히고토스 등 장외시장 주가 반토막개발자마저 줄퇴사···생존 기로[서울경제] 경기 악화 속에 투자시장 침체가 장기화할 것이라는 예상이 나오면서 스타트업 업계도 위기 경영 체제에 돌입한 양상이다. 몸집이 큰 유니콘(기업가치 1000억 원 이상 스타트업)을 비롯해 외형 확대에 안간힘을 쏟던 예비 유니콘들 역시 투자심리가 급속히 얼어붙으면서 생존의 기로에 놓였다는 위기감이 높다. 대박을 꿈꿨던 스타트업의 젊은 인재들도 분위기가 악화하자 회사를 하나둘 떠나기 시작했다. 비싼 개발자 몸값에 비용 부담이 커진 경영진들이 거품이 확인된 인력을 대거 정리하는 모습도 나타나고 있다.19일 업계에 따르면 지난 2년 동안 급성장해 기업공개(IPO)를 준비하며 투자를 유치하던 스타트업에 비상이 걸렸다. 비대면 서비스로 롯데 등 유통 공룡보다 높은 기업가치를 인정받았던 컬리(마켓컬리)의 상장 일정이 계속해서 연기되고 있고 장외에서 거래되는 야놀자·두나무·비바리퍼블리카의 주가도 반 토막이 났다. 토스 운영사인 비바리퍼블리카의 경우 비상장 시장에서 지난해 말 주당 14만 원 선에서 거래됐지만 최근 7만 원 선으로 뚝 떨어졌다. K-OTC 시장 또한 월간 거래 대금이 지난해 1월 1400억 원 수준에서 올 5월 약 600억 원 수준으로 급감했다.상장 일정이 미뤄지고 기업가치가 곤두박질치면서 벤처·스타트업 업계는 허리띠를 졸라매고 나섰다. 원룸을 중심으로 한 주거 중개 플랫폼 ‘J’ 사는 ‘프롭테크(부동산+테크)’ 업계 유망주로 꼽혔지만 최근 개발자 등 직원들이 잇달아 퇴사했다. 연매출 30억 원 수준에 누적 투자금은 약 90억 원에 달하지만 추가 투자 유치에 실패한 것이 적지 않은 영향을 준 것으로 풀이된다. 한 업계 관계자는 “미래 가치만으로는 살아남을 수 없다는 인식이 커지면서 희망 고문도 이제 한계에 달한 것으로 보인다”며 “수익성을 겸비한 확실한 사업 모델이 뒷받침되지 않으면 추가 투자 유치가 힘들어질 수밖에 없는 상황”이라고 말했다.현금을 쌓아놓은 유니콘들은 업계 1위 자리를 수성하면서 후발 주자를 따돌리기 위해 치킨게임의 마지막 액셀을 밟는 가운데 후발 스타트업은 생존을 위협받으면서 성장보다는 내실을 기하면서 위기를 넘기겠다는 전략에 방점을 찍는 양상이다. 적자를 내고 있는 플랫폼 스타트업들의 경우 투자자들이 노골적으로 수익성 압박에 나서자 채용을 축소하거나 마케팅비를 줄이고 단기에 수익을 낼 수 있는 사업 분야에 기웃거리는 현상도 나타나고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2022.06.22.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>토스뱅크, 1000억원 유상증자…자본금 9500억원 확보</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002614506?sid=101</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>토스뱅크 로고 ⓒ토스뱅크[데일리안 = 김효숙 기자] 토스뱅크는 1000억원 규모의 유상증자를 추진하기로 결의했다고 22일 밝혔다. 올해 2월 두 번째 유상증자 이후 4개월 만에 진행됐으며, 출범 후 지금까지 총 세 차례에 걸쳐 7000억원의 자본을 추가 확보했다.이번 1000억원의 증자를 통해 총 2000만주가 신규 발행되며 주당 발행가는 5000원이다. 2000만주 가운데 보통주는 1500만주, 전환주는 500만주로 발행된다. 유상증자 납입일은 이번 달 29일이며, 증자를 마치면 토스뱅크의 납입자본금은 총 9500억원으로 늘어난다.토스뱅크는 지난 1월 여신영업 재개와 함께 뚜렷한 성장세를 보이고 있다. 개인 신용대출 상품의 중저신용자 대출 비중은 5월 말 기준 35.2%를 달성했으며, 인터넷전문은행 3사 중에서 유일하게 30%대를 기록하고 있다. 인터넷은행 설립 본연의 취지인 중저신용 고객의 포용금융에 가장 집중하고 있다는 설명이다.토스뱅크 관계자는 "주주사의 적극적인 지원으로 여수신 영업을 확대할 수 있는 추가 자본금을 확보할 수 있게 됐다"며 "이를 바탕으로 자본건전성을 강화하고 혁신적인 서비스를 선보여 은행에 대한 고객 경험을 바꿔 나갈 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2022.06.18.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>'평균연봉 8800만원' 휴양지 근무·보육비 지원…MZ세대 혹할 만하네</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004760087?sid=103</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>[야놀자 "반기 평가로 보상 체계 마련-재택근무·워케이션도 적극 도입"]/사진제공=야놀자여가 플랫폼 기업 야놀자가 파격적인 복지와 인센티브를 통해 공격적인 인재 영입에 나서면서 '네카라쿠배당토' 대열에 합류했다는 평가를 받고 있다. 네카라쿠배당토는 MZ세대가 취업하고 싶어하는 직장으로 네이버와 카카오, 라인, 쿠팡, 배달의 민족, 당근마켓, 토스 등 7개 회사를 일컫는다. 여기에 최근 '직야'가 붙었는데 직방에 이어 가장 마지막에 붙은 '야'가 바로 야놀자를 뜻한다. 18일 관련업계 따르면 크레딧잡에서 추정한 야놀자의 임직원 평균연봉은 8800여만원이다. 하지만 직급과 업무에 따라 연봉 격차가 크고, 핵심 개발자들의 연봉이 가장 높은 것으로 알려졌다. 대기업과 스타트업을 가리지 않고 인재 유치 경쟁에 나서면서 개발자들을 중심으로 몸값이 크게 오른 덕분이다.야놀자는 특히 1년 중 절반이 지나면 반기 평가와 함께 임직원들에게 인센티브를 지급한다. 올해 초부터 이달말까지 쌓은 실적이나 성과를 평가받는데 대부분의 임직원들에게 우리사주 등이 지급돼 만족도가 높다. 지난해에도 1000만원 상당의 우리사주를 모든 임직원들에게 나눠주면서 주목을 받은 바 있다.올해는 차별화된 사내 복지 마련에 초점을 맞추고 있다. 코로나19가 유행하는 동안 안착한 재택근무로 인해 개발자들이 고연봉 요구는 물론 각종 근무환경을 더욱 따지는 추세로 바뀌어가고 있는데다 업계 전체가 앞다퉈 사내 복지 경쟁에 뛰어들고 있어서다.야놀자는 우선 유연한 근무환경 도입을 통해 네카라쿠배당토와 어깨를 견주고 있다. 여가플랫폼 회사 답게 상시 재택근무와 휴양지에서 근무가 가능한 워케이션 도입, 각종 도심에 있는 패스트파이브를 이용할 수 있는 거점오피스 등에서 경쟁사들보다 가장 앞서나가겠다는 의지가 강하다. 게다가 임산부나 출산을 앞둔 가족들에게 보내는 각종 맘스킷과 어린이집 보육비 지원 등은 대기업에서도 쉽게 찾아볼 수 없는 복지로 알려졌다.야놀자 관계자는 "인재들의 연봉은 개인차가 있을 수밖에 없고 전 직장 대비 상한선 없이 책정하고 있고, 경쟁사들과 비교해선 확실히 높은 것으로 알고 있다"면서 "복지 분야에서도 유연한 업무환경을 만들기 위해 노력하고 있고, 실제 임직원들의 만족도도 높게 나타나고 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2022.06.29.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>자이낸스 열기… Z세대, 비상장 주식 투자 바람</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000683352?sid=101</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>두나무#20대 직장인 A 씨는 최근 토스, 배달의민족, 야놀자 등 일상에서 자주 사용하던 모바일 플랫폼 운영사들이 대부분 비상장 기업이라는 걸 알고 비상장 주식 투자에 관심을 갖게 됐다. 비상장 주식에 투자할 수 있는 방법을 찾던 중 재테크 고수인 주변 친구들을 통해 ‘증권플러스 비상장’을 추천받았다. 증권플러스 비상장을 이용하면서 A씨는 자신처럼 모바일로 쉽고 간편하게 비상장 주식에 투자하는 Z세대가 많다는 걸 알게 됐고, 자연스럽게 자이낸스 열풍에 합류했다.이처럼 자이낸스(Zinance)가 차세대 금융의 축으로 부상했다. 자이낸스는 Z세대의 Z와 금융(Finance)의 합성어로 Z세대가 이끄는 금융 트렌드를 의미한다. 이들은 모바일 네이티브로 ‘재미’와 ‘간편함’을 중시하며 모바일 앱을 이용해 투자한다. 금융에서도 자신의 가치에 잘 맞고 일상에서 익숙한 서비스들을 선호하며, 자산과 소득은 적지만 다양한 재테크에 과감하게 뛰어드는 경향이 있다.최근 자이낸스가 비상장 주식 시장에도 상륙했다. 실제로 ‘증권플러스 비상장’의 이용자 비율을 살펴보면, 20대가 2021년 5월 19.12%에서 2022년 1월 22.55%로 증가했다. 회원 수도 2021년 6월 50만 명 이상에서 올해 3월 기준 약 120만 명 이상으로 늘었으며 누적 거래 건수는 현재 30만 3,000건을 돌파했다. Z세대 성향에 따라 50만원 이하 소액 거래자도 지난해 3월 대비 올해 3월 66% 증가했다.자이낸스의 중심에는 증권플러스 비상장의 혁신 서비스가 있다. 업계 최초로 증권사 안전거래 서비스를 연계, 기존 비상장 주식 시장이 갖고 있던 거래 불안정성, 허위 매물, 높은 유통마진 등의 고질적인 병폐들을 해소하고 시장의 접근성을 높였다. 또한 3,000만원 이하 바로주문 기능, 공휴일 포함 24시간 예약주문 기능 등으로 이용자 경험을 획기적으로 개선함으로써 ‘간편함’을 최우선 가치로 생각하는 Z세대의 취향을 저격했다. 실시간 업데이트되는 인기토론 메뉴와 종목별 토론방은 소통과 교류를 중시하는 Z세대 사이에서 재테크 정보 공유 창구로 주목받고 있다. 2020년 말부터 이어진 대규모 IPO와 일상에서 자주 쓰는 모바일, 핀테크 서비스 운영사들이 대부분 비상장 기업인 점도 Z세대의 투심에 불을 지폈다. 한편, 증권플러스 비상장은 2019년 11월 두나무와 삼성증권이 의기투합해 선보인 비상장 안전 거래 플랫폼이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2022.06.23.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>내달부터 시중은행서 신용대출 연소득 2배 이상도 받는다</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/214/0001204649?sid=101</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>사진 제공: 연합뉴스다음 달 1일부터 주요 시중은행에서 금융 소비자는 자신의 연소득보다 많은 신용대출을 받을 수 있게 됩니다.  금융권에 따르면 5대 시중은행과 인터넷 전문은행 케이뱅크와 토스뱅크 등은 7월 1일자로 신용대출 최대 한도를 대출자의 `연봉 이내`로 제한하는 규정을 없애기로 했습니다.  이에 따라 KB국민은행의 경우 신용등급·소득 등을 종합적으로 판단해 최대 연봉의 2배까지 신용대출을 내줄 예정입니다.  NH농협은행은 다음달 1일부터 개인 신용대출의 한도를 기존 10∼100%에서 30∼270%로 변경한다고 밝혔습니다.  대출자에 따라서는 연봉의 최대 2.7배까지 신용대출을 받을 수 있다는 뜻입니다.  신한은행도 내부적으로 7월 1일부터 `연봉 이내` 한도 규제를 폐지하기로 방침을 정한 것으로 알려졌습니다.  앞서 지난해 8월 금융당국은 시중은행 여신 담당 임원들과의 회의에서 "개인 신용대출 한도를 연 소득 수준으로 줄여달라"고 요청했고, 실제로 은행들은 8∼9월에 걸쳐 순차적으로 이 구두 지침을 이행했습니다.  작년 12월에는 금융위원회가 아예 신용대출 연 소득 이내 취급 제한 규정을 금융행정지도로서 `가계대출에 대한 리스크 관리기준`에 명시하고 효력 기한을 올해 6월 30일로 뒀습니다.  이에 따라 은행들은 작년 8월 이후 지금까지 약 10개월 동안 신용대출을 철저하게 연 소득 범위에서 묶어왔습니다.  하지만 이 규정이 오는 6월 말 이후로 연장되지 않았기 때문에, 다음 달부터는 금융 소비자가 총부채원리금상환비율 기준만 충족하면 은행권에서 다시 연봉보다 많은 신용대출을 받을 수 있게 됐습니다.  다만 시스템을 규제 이전으로 복원하는데 점검 시간이 필요한만큼, 개별 은행에 따라 신용대출 한도 확대 시점은 다를 것으로 예상됩니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2022.06.23.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>씨티銀 신용대출, 국민은행·토스뱅크와 대환 제휴</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/021/0002518944?sid=101</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>한국씨티은행이 소비자금융 업무를 단계적으로 폐지하면서 KB국민은행, 토스뱅크와 신용대출 대환(대출 갈아타기) 제휴를 체결했다.23일 금융권에 따르면 씨티은행은 전날 KB국민은행·토스뱅크와 업무 제휴 협약을 체결하고 다음 달 1일부터 ‘개인신용대출 대환 제휴 프로그램’을 시행한다고 밝혔다. 앞서 씨티은행과 두 은행 간 협의 진행 과정에서 미 연방준비제도(Fed)의 가파른 금리 인상 기조가 막판 변수로 작용해 예상보다 협의가 길어진 것으로 전해졌으나, 제휴 은행 선정 결과에 이변은 없었다.씨티은행 개인신용대출 고객이 제휴 프로그램을 이용하는 경우 금리 우대, 중도상환수수료 면제, 대환대출 금액에 따른 인지세 면제 등 혜택을 받을 수 있다. 대환 제휴 프로그램은 KB국민은행 앱(애플리케이션) 또는 영업점, 토스뱅크 앱에서 신청할 수 있다. 제휴를 통한 개인신용대출 대환대출은 씨티은행의 대출 잔액(한도 대출의 경우 대출한도)과 동일한 금액으로만 가능하다. 제휴 은행이 아닌 다른 은행에서도 대출을 갈아탈 수 있다. 이때는 개별 은행에 문의해 대환 조건과 절차 등을 확인해야 한다.금융당국의 소비자보호 계획에 따라 7월부터 다른 금융사로의 대환을 희망하는 씨티은행 신용대출 고객은 대출금액의 증액이 없다면 차주별 총부채원리금상환 비율(DSR) 등 가계대출 규제가 적용되지 않는다. 씨티은행은 고객의 개인신용대출상품에 대해 2026년 말까지는 기존과 동일하게 은행이 정한 심사 기준(신용도와 채무 상환능력을 재평가)에 따라 만기를 연장해준다. 2027년 이후에도 전액 상환 또는 타 금융기관을 통한 대환이 어려운 고객의 경우 분할 상환을 지원할 계획이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2022.06.21.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>"눈뜨기가 무섭다"…2030세대 은행대출 '이것' 보고 이자 부담던다</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004980604?sid=101</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>대출비교플랫폼 은행 가계대출 3조원 돌파[사진 = 연합뉴스] 대출을 비교·중개해 주는 디지털 플랫폼을 통해 은행에서 나간 대출이 3조원을 돌파한 것으로 나타났다. 대출 플랫폼을 통해 대출을 조회하고 실제 대출을 받은 건수는 2020년 이후 꾸준히 늘어나고 있다. 특히, 중금리로 대출을 받는 2030세대가 플랫폼을 적극 활용, 비교적 낮은 금리로 대출을 받고있다.21일 금융권에 따르면 금융감독원이 최근 국내 은행의 온라인 대출 플랫폼 활용 실태를 점검한 결과 지난해 플랫폼을 통한 가계대출 모집 규모는 총 3조1000억원으로 집계됐다. 전체 은행 신규 대출(181조8000억 원)의 1.7%에 해당하는 규모다.올해 3월 말 현재 국내 은행 13곳이 온라인 대출 플랫폼과 위탁계약을 체결했다. 특히, 지방은행에서 대출 플랫폼을 통해 실행된 가계대출이 2조3000억원으로 시중은행(7000억원)에 비해 3배 이상 많았다. 상대적으로 영업이 힘든 지방은행들이 대출모집 채널 다변화 차원에서 온라인 플랫폼을 적극 활용하고 있는 것으로 보인다.온라인 대출 플랫폼 중에서는 카카오페이, 비바리퍼블리카(토스)를 이용하는 금융소비자가 많았다. 대출 플랫폼 14곳 가운데 이 2곳의 대출이 차지하는 비중이 전체의 86.8%를 기록했다.금감원 관계자는 "2030세대와 지방은행을 중심으로 대출 플랫폼이 증가하는 점 등을 고려해 잠재리스크를 관리하고 관련 모니터링을 강화해 나갈 계획"이라고 말했다.한편 온라인 플랫폼을 통한 대출 조회·비교 서비스는 초기에는 금융 샌드박스 형태였다. 이후 지난해 9월 금융소비자보호법 시행으로 정식 도입됐다. 금소법에 따라 대출상품에 대한 판매대리 중개업자로 등록하면 영업이 가능해 향후 후발주자의 진출도 잇따를 전망이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2022.06.22.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>토스뱅크, 1000억원 규모 유상증자</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005248569?sid=101</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>자본금 9500억원으로 늘어"신규서비스 출시 여력 확보"[이데일리 서대웅 기자] 토스뱅크는 21일 이사회를 열고 1000억원 규모의 유상증자를 추진키로 결의했다고 22일 밝혔다. 올해 2월 두 번째 유상증자 이후 4개월 만이다. 토스뱅크는 출범 후 지금까지 총 세 차례에 걸쳐 7000억원의 자본을 추가 확보했다.이번 증자를 통해 총 2000만주가 신규 발행되며 주당 발행가는 5000원이다. 2000만주 가운데 보통주는 1500만주, 전환주는 500만주다. 유상증자 납입일은 오는 29일로 증자를 마치면 토스뱅크 납입자본금은 총 9500억원으로 늘어난다.토스뱅크 관계자는 “주주사의 적극적인 지원으로 여·수신 영업을 확대할 수 있는 추가 자본금을 확보할 수 있게 됐다”며 “이를 바탕으로 자본건전성을 강화하고 혁신적인 서비스를 선보일 계획”이라고 말했다.토스뱅크는 지난 1월 여신영업을 재개하며 개인 신용대출 상품의 중·저신용자 대출 비중을 35.2%(5월말 기준)까지 올렸다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2022.06.22.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>시장금리 오르는데…증권사들, 예탁금이용료 인상 '찔끔'</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005248362?sid=101</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>예탁금이용료 줄인상했지만…여전히 0%대5월 운용수익률 1.62% 대비 격차 여전"이용료율 책정 방식 투명하게 공개해야"[이데일리 김응태 기자] 증권사들이 시장금리 상승에도 예탁금 이용료율 인상에는 미온적이라는 비판이 나온다. 기준금리 인상 여파에 증권사들이 예탁금 이용료율을 조정하고 있지만 여전히 0%대 수준인 데다 올리지 않은 곳들도 상당수이기 때문이다. [이데일리 이미나 기자]21일 업계에 따르면 증권사들은 기준금리 인상으로 시장금리가 상승하자 예탁금 이용료를 올리기 시작했다. 키움증권(039490)은 오는 7월10일부터 원화 예탁금 이용료 지급률(평균 잔고 50만원 이상)을 연 0.2%에서 0.25%로 올린다. 앞서 미래에셋증권(006800)은 지난 13일 예탁금 이용료율(평잔 50만원 이상)을 연 0.2%에서 0.4%로 인상했다. 지난 3월 말 0.1%포인트 올린 후 약 2개월여 만이다. NH투자증권(005940)은 이달 초 예탁금 이용료율(평잔 100만원 이상)을 0.3%에서 0.5%로 높였다. KB증권은 지난 3월 말 예탁금 이용료 지급률(평잔 100만원 이상)을 0.15%에서 0.42%로 조정했다. 이밖에도 올 들어 삼성증권(016360)(0.1→0.25%), 신한금융투자(0.1→0.3%), 한국투자증권(0.1→0.25%) 등도 예탁금 이용료 인상에 나선 바 있다.예탁금 이용료는 투자자가 증권 계좌에 예탁한 예수금을 증권사가 이용하는 대가로 지급하는 일종의 이자다. 자본시장법에 따라 증권사는 투자자예탁금을 한국증권금융에 예치한 뒤 한국증권금융으로부터 지급받는 수익금에서 인건비, 전산비 등을 공제한 뒤 이용료를 지불한다. 지급률은 증권사마다 자율적으로 운용하는 기준에 따라 다르게 책정된다. 한 증권사 관계자는 “증권금융 수익금과 공제금 변동사항을 분기 단위로 점검해 투자자예탁금 이용료 지급률 변경이 필요한 경우 변경 내역을 게시하고 있다”고 말했다.최근 증권사들이 연이어 예탁금 이용료율을 인상한 건 기준금리 인상 때문이다. 한국은행 금융통화위원회는 올 들어 0.25%포인트씩 세 차례 기준금리를 인상한 바 있다.다만 예탁금 이용료율 인상률이 한국증권금융의 운용 수익률 상승폭에 비하면 여전히 미미하다는 지적이 나온다. 한국증권금융이 공개한 월별 신탁운용 수익률 추이를 보면 지난 5월 수익률은 1.62%를 기록했다. 올해 1월(1.19%) 대비 0.43%포인트 상승했다. 시장금리가 상승하면서 6월 예상 운용수익률도 1.75~1.8% 수준으로 예상되고 있다. 이에 반해 증권사 예탁금 이용료율을 올린 업체들은 여전히 0%대 수준에 머물러 있다. 올 들어 한 번도 이용료율을 인상하지 않는 업체도 상당수다. 자본기준 상위 10위권 내 증권사 중에서도 올해 예탁금 이용료율 인상 계획을 밝히지 않은 증권사는 메리츠증권(008560), 대신증권(003540), 하나금융투자 등이 있다.증권사별 격차도 점차 커지는 양상이다. 지난달 토스증권은 소비자 혜택을 확대하기 위해 예탁금 이용료율을 0.2%에서 1.0%로 선제적으로 인상한 바 있다. 최저 요율을 적용한 업체들과 비교하면 10배가량 차이가 나는 셈이다. 한 증권사 관계자는 “예탁금 이용료율은 한국증권금융에서 결정되는 금리에 따라 3개월마다 조정될 여지가 있다”면서도 “다만 대출금리처럼 오르는 만큼 연동해 인상하는 개념은 아니다”라고 말했다.전문가들은 예탁금 이용료율이 소비자가 불리하지 않게 책정되려면 구체적인 결정 과정을 공시해야 한다고 제언했다. 강형구 금융소비자연맹 사무처장은 “증권사는 투자자에 기준금리와 운용수익률이 오르는 만큼 예탁금 이용료의 일정 비율을 합리적으로 배분해야 한다”며 “예탁금 이용료율 결정 과정을 투명하게 공시하고 투자자에게 직접적으로 설명하는 장치를 마련할 필요가 있다”고 꼬집었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2022.06.18.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>[금융 D-택트] 인터넷전문은행의 DNA를 찾아서</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002260012?sid=105</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>MAU 늘리려는 기존 은행 전략이 실패하는 이유'인터넷전문은행과 은행은 어떤 차이점이 있을까.' 라는 근본적인 질문을 던져보고자 합니다.공통점1. 은행이다(라이선스를 받고 금융당국의 규제를 받는다)2. 은행이기 때문에 인터넷전문은행과 은행이 할 수 있는 업무는 동일하다.차이점1. 인터넷전문은행은 지점이 없다.2. 인터넷전문은행 전 다른 사업을 진행하고 있었다.3. 업무 범위가 은행은 인터넷전문은행에 비해 넓다.4. 인터넷전문은행에 비해 은행의 역사는 길다.'인터넷전문은행'은 2017년 국내서 처음 출범한 뒤 2021년에는 세 개까지 늘어났습니다. 인터넷전문은행도 결국 은행이다 보니 별 다를게 없을 것이란 예측을 뒤엎는 것이죠. 인터넷전문은행과 은행 간 차이점도 따지고 보면 새로울 것이 없는데 인터넷전문은행은 왜 순항하고 있는 걸까요.차이점을 차별점으로 치환해 생각해봅시다(사진=이미지투데이)1. 인터넷전문은행은 지점이 없다.→신경써야할 영업 채널이 한 개 뿐이다. 심지어 눈 떠서 자기 직전까지 스마트폰을 놓지 않는 이 시대에 모바일 단일 채널의 영업은 여러 채널을 운영하는 기존 은행에 비해 효율적이다.2. 인터넷전문은행 전 다른 사업을 진행하고 있었다.→케이뱅크는 초기 최대주주가 KT였으며, 카카오뱅크는 카카오, 토스뱅크는 비바리퍼블리카다. KT는 광범위한 KT 가입고객을 갖고 있었으며 카카오는 '국민 메신저'인 카카오톡을 서비스하고 있다.  비바리퍼블리카는 간편송금으로 시작해 다양한 금융 서비스를 제공하는 토스를 운영하고 있다. 기존 은행은 그대로 은행업만 해왔다.3. 업무 범위가 은행은 인터넷전문은행에 비해 넓다.→인터넷전문은행 법상 인터넷전문은행은 기업 대출이 제한돼 있다. 산업 자본이 투여된 금융업인 만큼 모 기업의 사금고가 될 수 있다는 우려 때문이다. 인터넷전문은행의 업무 범위가 좁다는 건 할 수 있는 업무를 집약적으로 할 수 있다는 것을 의미하기도 한다.4. 인터넷전문은행에 비해 은행의 역사는 길다.→은행은 인터넷전문은행에 비해 업의 역사가 길다. 이 때문에 규제를 만들면서 업이 같이 발전해온 경향이 있다. 규제산업이라는 점은 반대로 내부 문화를 굉장히 보수적으로 만든다.이 같은 질문을 던져본 것은 최근 인터넷전문은행의 수신 상품들이 아주 색다를 것은 없지만, 호응을 얻고 있기 때문입니다. 기존 은행이 비슷한 상품을 내놨음에도 빛을 발하지 못한 이유를 찾고 싶었습니다.특히 모바일이 우선되는 지금 시점서 은행들은 모바일 뱅킹에 어떻게 하면 더 많은 고객을 유입시킬까를 고민하고 있죠. 푸시 알림 설정을 하면 고객에게 금리를 더 주는 방식으로 잠들어 있던 모바일 뱅킹 애플리케이션(앱)을 찾게끔 하고 있지만, 이 방식은 크게 유효하지 못한 것으로 보입니다.사실상 '무(無) 맥락'인 푸시 알림이 고객을 위한 일이었는지를 따지고 보면, 푸시 알림으로 인한 혜택은 어찌보면 MAU를 올리기 위한 은행 직원 누군가의 안위를 위한 것이 아닌가도 싶습니다. 과거 인터넷전문은행을 차린 A 업체의 기술책임자는 "모바일 시대이다 보니 사용하는 앱 수도 늘어나고 있다. 요새 앱을 이용하는 고객들은 아무리 좋은 보상을 제시하더라도 맥락이 없는, 뜬금없는 것을 좋아하지 않는다"고 분석했습니다.모바일에 더 많은 고객을 유입하고자 하는 방안에 대해 인터넷전문은행은 어느 정도 답을 찾은 것으로 보입니다. 물론, 인터넷전문은행과 은행의 출발선이 다르기 때문에 갖고 있는 플랫폼력(力)을 활용하는 면도 있겠지요. 그렇지만 인터넷전문은행들은 기존 은행이 몰라서 하지 않았던, 알았지만 '보수적' 풍토에 밀려나 서랍 한 구석으로 들어간, 지금 사람들이 좋아하는 일들을 하고 있다는 점을 눈여겨 보면 좋겠습니다.디지털 컨택트(Digital Contact)가 일상으로 자리잡은 지금, 한 주간 금융업권의 디지털 이슈를 물고, 뜯고, 맛보는 지디의 '금융 D-택트'를 격주 토요일 연재합니다. 디지털 전환의 뒷 이야기는 물론이고 기사에 녹여내지 못했던 디테일을 지디넷코리아 독자 여러분에게 소개합니다. [편집자주]</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2022.06.29.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>토스, 상장 연기에 거센 내홍…인력 이탈 조짐도 [마켓인]</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005254360?sid=101</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>토스, 상장 최대 3년 연기내부 불안 격화…인재 이탈 우려 심화장외 시총 6조 폭락…7월부터 비상장 거래도 중단[이데일리 지영의 기자] 토스 운영사 비바리버블리카 측이 상장 일정을 최대 3년까지 미루겠다는 입장을 내놓자 내부에서 거센 동요가 일고 있다. 시장환경 변화에 따라 토스의 기업가치가 급락하고 성장에도 제동이 걸릴 수 있다는 우려가 깊어지면서 핵심 계열사 인력 이탈 조짐도 보이는 양상이다.토스 사옥.(사진=비바리퍼블리카) 성장한다는 믿음에 금 가…이직 타진29일 투자은행(IB) 업계에 따르면 토스 핵심 계열사 내부에서는 최근 집단 인력 이탈 움직임이 일고 있다. 은행과 증권사·사모펀드운용사·보험사 등에서 토스로 넘어온 경력 직원들이 출신 업계로 재이직을 타진하고 있어서다. 특히 핵심 계열사 중 일부에서는 경쟁사 관계인 플랫폼 회사 쪽으로 팀 단위 이직 의사를 타진 중인 것으로 알려졌다. 이처럼 토스 내부에서 내홍이 거세게 이는 이유는 최근 상장 연기 발표 이후 회사 성장성에 대한 불안감이 높아졌기 때문이다. 이승건 비바리퍼블리카 대표는 지난 17일 회사 내부 주간 간담회인 ‘위클리’에서 시장 상황 악화로 2023년 상장 목표를 미뤄야 한다는 입장을 내놨다. 냉담한 시장 분위기 속에 상장을 추진하면 기존 주주들과 재무적투자자(FI)들의 눈높이에 맞는 기업가치를 인정받기 어려울 것이란 우려에서다. 토스는 지난해 6월 시리즈 G 투자유치에서 8조원대 기업가치로 자금을 유치했지만, 최근 급변한 시장 환경에서는 이 수준을 크게 하회할 가능성이 높다는 평가가 나온다. 현재 15조에서 최대 20조 밸류로 추진 중인 상장 전 마지막 투자유치(Pre-IPO)에서도 기한 내에 투자자를 다 모으지 못해 딜 클로징을 7월까지 연장했다. 펀딩 부진과 상장 연기가 내부 불안을 최고조로 끌어올린 상태다. 한참 공격적인 외연 확장이 필요한 시기에 자금 유입이 막히면서 회사가 자금난에 빠져 뿌리째 흔들릴 수 있다는 우려가 높다. 한 내부 계열사 관계자는 이데일리에 “이승건 대표와 경영진이 상장 연기를 거론한 이후 뚜렷한 대책이나 성장 방향성 제시를 못하고 있는 점이 불안을 키우고 있다”며 “기업가치는 거품이라는 지적을 듣고, 엎친 데 덮친 격으로 재무사정까지 악화할 상황인 것 같다. 추진 중이던 계열사 사업도 주춤하고 투자도 대부분 잠정 중단된 상태라 내부 동요가 심각하다”고 전했다. 장외 거래도 난망…묶이는 보유주식특히 토스는 최근 수년간 공격적으로 인력을 충원하면서 다양한 업계에서 핵심 인력을 끌어왔다. 인력을 대거 끌어올 수 있었던 배경에는 기존 임금의 1.5배 인상, 1억원 안팎의 스톡옵션 또는 양도제한 조건부 주식(RSU) 제공이 있었다. 모회사 및 계열사 상장 시 지분 가치가 폭등할 것이라는 기대가 이직 결정 요인 중 하나였다는 것.토스페이먼츠·토스뱅크·토스증권·토스인슈어런스 등 계열사 직원들의 경우 비바리퍼블리카가 아닌 각 회사 지분을 받은 상태다. 토스 상장이 최대 3년 가까이 늦어지는 상황을 감안하면 각 계열사 상장은 그 이후로 미뤄져 장기전이 될 가능성이 높다. 계열사들의 경우 더 장기간 불확실한 상태에 놓이게 되는 셈이다.직원을 비롯해 주주들이 기존에 보유한 지분 거래도 묶일 전망이다. 내달부터 비상장주식 거래 플랫폼에서 거래되는 종목들은 해당 기업이 기업정보 공개에 동의해야만 거래할 수 있다. 동의하지 않은 기업의 주식 거래는 중단된다. 비바리퍼블리카는 비상장 주식 거래 플랫폼에 기업정보 공개하지 않는다는 방침이다. 현재 장외시장에서 비바리퍼블리카 시가총액은 28일 기준 10조 4000억원을 기록했다. 상반기 중 최고 16조원을 넘어섰던 시총이 6조 가량 빠졌다. 토스 관계자는 “상장 연기 결정은 시장 환경을 고려한 조치일 뿐이지 기업 가치에 큰 변화가 있어서가 아니다”라며 “계열사별로 건실한 성장을 지속하고 있고, 직원들이 일부 우려가 있는 부분에 대해서는 계속해서 소통해나가며 해결할 것”이라고 말했다. 이어 비상장 거래 중단 관련해서는 “지금 단계에서 개인 주주가 너무 많아지는 것에 대해서도 부담이 있다. 비상장 주식 주가를 관리할 단계가 아니고 기업가치 향상에 힘써야 할 시기라 투자자 보호를 감안해서 내린 결정”이라고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2022.06.28.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>[THE FINANCE] 씨티銀 신용대출, 어디로 갈아타면 좋을까</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002741321?sid=101</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>한국씨티은행이 국내 소비자금융 업무를 단계적으로 폐지하면서 KB국민은행, 토스뱅크와 신용대출 대환(대출 갈아타기) 제휴를 체결했다. 다음달 1일부터 씨티은행의 '개인신용대출 대환 제휴 프로그램'이 시행되는 가운데 다른 은행들도 다양한 혜택을 제시하면서 씨티은행 고객 끌어오기에 나서고 있다.먼저 제휴를 통한 개인신용대출 대환 대출은 한국씨티은행의 대출 잔액(한도 대출의 경우 대출한도)과 동일한 금액으로만 가능하다. 씨티은행 개인신용대출 고객은 제휴 은행뿐 아니라 비 제휴 은행 및 타 금융회사에서도 대환을 신청할 수 있다.시중은행 가운데 유일한 제휴은행인 국민은행은 대환 대출을 받는 씨티은행 고객에게 최고 0.4%포인트의 우대금리를 제공한다. 대환 대출 모든 고객에게 기본적으로 0.2%포인트의 우대금리를 제공하고, 신용등급 6등급 이내면 추가로 최고 0.2%포인트의 우대금리를 받을 수 있다.인터넷은행인 토스뱅크는 비대면 금융 서비스를 강점으로 내세우고 있다. 대출 갈아타기를 하는 고객들에게 0.3%포인트 우대금리를 일괄 적용한다. 대출 한도는 최대 5억원, 기간은 최대 10년이다. 대환 과정에서 발생하는 인지세와 중도 상환수수료도 면제한다.우리은행도 씨티은행 이용 고객의 원활한 대출 갈아타기를 위한 특화 상품을 선보였다.'우리 씨티 대환 신용대출'은 한국씨티은행에서 사용하고 있는 신용대출을 대환하기 위한 전용 신상품으로, 최고 연 1.5%포인트 우대금리를 제공해 최저 연 3% 초반 수준으로 대출 이용이 가능하다. 특히 우리은행에서 대출 받지 않은 고객이 대환을 신청할 경우 1%포인트가 우대된다.대출한도는 대환금액 범위 내에서 연소득의 최대 230%까지이며, 최대 3억원까지 가능하다. 아울러 올해 말까지 대출을 받는 고객에겐 중도상환해약금과 인지세 100% 면제 헤택을 준다. 대출 신청은 모바일뱅킹 애플리케이션(앱)인 '우리WON뱅킹'은 물론 우리은행 전 영업점에서 할 수 있다.다른 시중은행들도 한국씨티은행 대환 상품 출시를 고려 중인 것으로 알려졌다. 한국씨티은행 고객들로선 각 은행들이 제공하는 우대금리 등 다양한 혜택을 비교하며 맞는 상품을 고를 수 있게 된다.한편 한국씨티은행의 개인 신용대출 잔액은 지난 3월말 기준  8조원 이상이다. 고신용자 위주로 대출이 이뤄져, 이들을 고객으로  끌어들이려는 은행들간 경쟁이 치열하다. 우리은행 제공</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2022.06.22.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>토스뱅크 1000억원 유상증자 추진…납입자본금 9500억원</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003025026?sid=101</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>토스뱅크(대표 홍민택)는 21일 이사회를 열고 1000억원 규모의 유상증자를 추진하기로 결의했다고 22일 밝혔다.올해 2월 두 번째 유상증자 이후 4개월 만에 진행됐으며, 출범 후 지금까지 총 세 차례에 걸쳐 7000억원의 자본을 추가 확보했다.이번 1000억원 증자를 통해 총 2000만주가 신규 발행되며 주당 발행가는 5000원이다. 2000만주 가운데 보통주는 1500만주, 전환주는 500만주로 발행된다. 유상증자 납입일은 6월 29일이며, 증자를 마치면 토스뱅크의 납입자본금은 총 9500억원으로 늘어난다.토스뱅크는 올해 1월 여신영업 재개와 함께 뚜렷한 성장세를 보이고 있다. 개인 신용대출 상품의 중저신용자 대출 비중은 35.2%(5월말 기준)를 달성했으며, 인터넷은행 3사 중에서 유일하게 30%대를 기록하고 있다.토스뱅크 관계자는 “주주사의 적극적인 지원으로 여수신 영업을 확대할 수 있는 추가 자본금을 확보할 수 있게 됐다”며 “이를 바탕으로 자본건전성을 강화하고 혁신적인 서비스를 선보여 은행에 대한 고객 경험을 바꾸어 나갈 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2022.06.20.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>잇따른 금융사고에 이복현 금감원장 “신뢰가 생명...내부통제 강화해야”</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002278441?sid=101</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>DSR 규제안착...대출 증가세 관리취약차주 사전관리...신용대출119 보강예대금리 공시개선, 금리인하요구권 활성화 ◆…이복현 금융감독원장     이복현 금융감독원장은 20일 “금융사고 예방을 위한 내부통제에 만전을 기해야 한다”고 강조했다.   이 원장은 이날 은행회관에서 열린 17개 은행장 간담회에서 “최근 은행을 포함한 금융권에서 거액의 금융사고가 지속 발생하고 있다”며 “금융산업은 고객의 신뢰가 생명이므로 금융사고에 더욱 경각심을 가질 필요가 있다”고 말했다.   이 원장은 “내부통제 자체점검을 확대하고 필요시 내부통제 조직 및 역량을 강화하는 방안을 마련해야 한다”며 “현재 진행 중인 금융사고 검사가 마무리되는 대로 금융위원회와 함께 ‘금융사고 예방을 위한 내부통제제도 개선방안’을 마련해 추진할 계획”이라고 밝혔다.   또 이 원장은 금리·물가상승이 지속하면서 국내외 위기가 증폭될 우려가 있다며 은행권이 경각심을 갖고 리스크 취약요인에 철저히 대비할 것을 당부했다.   그는 “은행의 건전성·유동성 등 시스템리스크 관리에 한치의 소홀함도 없어야 한다”며 “가계부채가 시스템리스크로 현실화하지 않도록 총부채원리금상환비율(DSR) 규제 안착을 통해 대출 증가세를 안정적으로 관리해야 한다”고 강조했다.   구체적으로는 대손충당금을 충분히 적립하고 보통주자본비율을 꾸준히 높여 손실흡수능력을 갖출 것을 제시했다. 외화유동성의 철저한 관리도 당부했다.  취약차주 사전관리...예대금리 투명화 강조   아울러 이 원장은 “취약 차주에 대한 사전관리를 강화해 연착륙을 유도해 나갈 필요가 있다”며 “저신용·다중채무자·고 DSR 차주 등에 대해서는 채무상환능력 변동을 밀착 모니터링해 선제적으로 채무상담 및 맞춤형 지원을 제공해 달라”고 요청했다.   이어 “은행 자체적으로 연체 우려 차주에 대해 저금리대출로 전환하거나, 금리조정 폭과 속도를 완화하는 방안도 강구해야 한다”며 “기업차주의 경우 일시적 유동성 애로에 대해서는 자금지원을, 구조적으로 취약한 기업에는 사업전환·재편 유도 등 구조조정을 추진하도록 지원할 필요가 있다”고 덧붙였다.   금감원은 은행권과 함께 ’신용대출119’ 등 기존의 지원 프로그램을 보강하는 방안을 추진할 계획이다.   이 원장은 예대금리 공시 개선과 금리인하요구권 활성화도 강조했다.   그는 “은행 금리를 보다 합리적이고 투명한 기준과 절차에 따라 산정·운영할 필요가 있다”며 “예대금리 산정체계 및 공시 개선 최종안이 확정되면 실효성 있게 시행되도록 철저히 준비하고, 금리인하요구권 제도운영을 활성화해 소비자의 금리부담을 완화해달라”고 당부했다.   이날 은행장 간담회에는 국민, 신한, 우리, 하나, SC, 씨티, 농협, 수협, 대구, 부산, 경남, 광주, 전북, 제주, 케이, 카카오, 토스 등 17개 국내은행장이 참석해 대내외 위험요인을 점검하고 대응방안을 논의했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2022.06.21.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>[씨줄날줄] 워케이션/김성수 논설위원</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003281457?sid=110</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>“충남을 ‘워케이션 실리콘밸리’로 만들겠다.”6·1 지방선거 때 충남도지사에 출마한 국민의힘 김태흠 후보는 이런 공약을 내걸었다. 충남도 어느 곳에서나 인터넷 기반으로 일할 수 있는 환경을 만들어 지역 관광을 활성화시키겠다는 계획이다. 일시적이나마 별도의 전입지원금 없이 젊은 인구를 끌어들일 수 있다는 점에서 충남뿐 아니라 강원, 제주 등 인구 감소를 걱정하는 지자체들이 최근 앞다퉈 워케이션에 뛰어들고 있다.워케이션(Workation)은 일(Work)과 휴가(Vacation)의 합성어다. 재택근무의 변형된 형태다. 집 대신 휴가지에서 일도 하고 휴식도 즐긴다. 회사가 숙식 비용 등을 전액 지원해 준다. 이제 더이상 ‘어디서’ 일하는지는 중요하지 않다. 기업들로선 워케이션이 직원의 근무 만족도를 끌어올리면서 업무효율을 최고로 높일 수 있다면 도입하지 않을 이유가 없다. 근로자도 업무집중도가 높아지고 가족과 더 시간을 보낼 수 있으니 적극 환영한다.워케이션의 원조 격은 바하마, 바베이도스, 버뮤다, 도미니카, 케이맨제도 등 관광산업 비중이 높은 중남미 카리브해 섬국가들이다. “이왕 집에서 일할 거, 천국에서 일하라”는 슬로건을 내건 이들 국가에 가족과 함께 시간을 보내려는 미국의 전문직들이 대거 몰렸다. 이들을 대상으로 일반 관광비자보다 훨씬 긴 3~18개월짜리 ‘워케이션비자’ 발급 경쟁도 치열하다. 코로나 확산 이후엔 가족을 동반한 정규직 중년층이 늘고 있다. 요즘엔 남미, 중동, 유럽 가리지 않고 디지털노마드족이 전 세계를 무대로 일하고 있다.국내에선 티몬, 야놀자, 토스 같은 스타트업에서 시작한 워케이션 근무가 최근엔 한화생명, CJ ENM 등 대기업까지 확산됐다. 네이버는 7월부터 도쿄와 춘천에서 워케이션 프로그램을 처음 시작한다. 신청 직원 중 매주 10명씩 추첨으로 뽑아 4박 5일간 원격근무를 지원할 예정이다.작년 한국관광공사가 발표한 보고서에 따르면 한국의 기업 인사담당자 63.4%가 워케이션 제도 도입에 긍정적이라고 답변했다. 일과 휴가를 함께 즐기는 ‘워케이션’이 보편적인 일상으로 자리잡을 날이 멀지 않았다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2022.06.28.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>만나플러스, 하나카드와 손잡고 제휴 카드 선보여</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004858896?sid=101</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>‘만나_Any PLUS 하나카드’ 출시  토털 모빌리티 플랫폼 기업 만나코퍼레이션이 하나카드와 손잡고 만나플러스 가맹점들이 활용할 수 있는 제휴 카드를 출시했다고 밝혔다.   만나플러스는 만나코퍼레이션의 배달대행 브랜드로, 현재 약 5만 3천여개의 가맹점 보유 및 월 약 1,500만 건의 운행 건수를 기록할 정도로 업계 선두를 달리고 있다.   이번에 선보인 ‘만나_Any PLUS 하나카드’는 만나플러스 플랫폼을 이용하는 가맹점 즉, 음식점들에게 기존 카드 혜택과 더불어 만나플러스 서비스 관련 비용 결제 시 1.7% 청구 할인을 제공한다.   만나플러스 관계자는 “만나_Any PLUS 하나카드는 코로나19로 인해 피해를 입은 소상공인들에게 조금이라도 혜택을 제공하고자 출시하게 됐다”고 전했다.   한편 만나플러스는 추후 삼성카드, 토스 등 다양한 금융그룹과의 협력 관계 구축을 통해 가맹점들에게 당사 서비스 사용 비용을 절감할 수 있도록 노력할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2022.06.22.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>씨티은행 8조원 신용대출 누가 가져가나…은행들 쟁탈전</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013260675?sid=101</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>금리 급등 속 대환 금리 조건 두고 최종 조율고신용자 대출자산 주목…국민은행·토스뱅크 유력한국씨티은행[연합뉴스 자료사진](서울=연합뉴스) 오주현 기자 = 한국씨티은행의 국내 소비자금융 사업 철수에 따라 8조원 규모의 신용대출에 대한 대환(대출 갈아타기)이 다음 달부터 시작된다.    한국씨티은행의 대환 제휴 은행 선정 작업이 막바지에 이르렀으나 미국 연방준비제도(Fed·연준)가 '자이언트 스텝(한 번에 기준금리 0.75%포인트 인상)'을 밟는 등 금리 급등이 막판 변수로 떠올랐다.    22일 금융권에 따르면 한국씨티은행은 개인신용대출 부문의 대환을 받을 제휴 은행으로 KB국민은행과 토스뱅크 등을 유력한 후보로 두고 최종 조율을 진행 중이다.    다음 달부터 대환 작업이 시작되는 만큼 씨티은행은 이번 주 초까지 계약을 마무리 지을 계획이었지만 최근 연준의 가파른 금리 인상 기조가 막판 변수로 작용하고 있다.    대환 제휴를 희망한 일부 은행은 최근 가파른 금리 인상 기조가 이어진다며 당초 합의한 대환금리 조건이라면 향후 역마진이 날 수 있다고 우려를 제기한 것으로 전해졌다.     이 때문에 씨티은행과 제휴 후보 은행 간 구체적인 조건에 대한 합의 절차가 예상보다 길어지는 상황이다.     하지만 다음 달부터 대환이 본격화되어야 하는 만큼 이달 중으로 계약이 최종 마무리될 것으로 보인다.     금융권 관계자는 "이르면 이번 주 내에 (제휴 은행이) 발표될 것으로 알고 있다"고 전했다.    앞서 금융당국은 오는 7월부터 씨티은행 신용대출 고객이 다른 금융사 대출로 대환을 원할 경우 총부채원리상환비율(DSR) 등 가계대출 규제에서 예외 적용을 받을 수 있게 한다고 밝혔다.     이에 고신용자 위주로 구성된 씨티은행의 대출자산을 끌어오고자 하는 은행권의 관심이 뜨거웠다.    지난 3월 말 현재 씨티은행의 개인 신용대출 잔액은 8조409억원 수준이다.    기존 씨티은행 신용대출 고객은 제휴 은행에서의 대환을 선택할 경우 금리 혜택 등의 편의를 받을 수 있게 된다.    토스뱅크는 계약이 최종 성사될 경우 씨티은행 대환 고객에 0.3%포인트의 금리 혜택을 제공할 예정이다. 씨티은행과의 비대면 대환대출 서비스를 구축하고, 5년간 씨티은행과 동일 조건으로 대출만기를 연장할 수 있도록 할 계획이다.    만기일시상환 방식을 선택하고자 하는 고객의 경우 2026년 말까지는 씨티은행에서 기존처럼 대출 만기를 연장받을 수 있다.    viva5@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2022.06.23.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>매일 최대 3500원 환급…토스뱅크, 체크카드 혜택 추가</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005107890?sid=101</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>최소 결제 조건도 없애토스뱅크가 체크카드 이용시 매일 최대 3500원을 환급해주는 혜택을 시작한다.토스뱅크는 매일 최대 3500원까지 캐시백(환급) 혜택을 받을 수 있는 행사 '체크카드 에피소드3'를 시작한다고 23일 밝혔다. 기존 5대 영역(커피, 편의점, 택시, 패스트푸드, 대중교통)에 고객들의 결제 횟수가 높은 ▲영화(CGV, 롯데시네마, 메가박스) ▲디저트(던킨도너츠, 베스킨라빈스) 2개 영역을 추가한 것이다. 또한 이전 '에피소드2'에서 각 영역별 1번씩, 매일 5번까지 받을 수 있었던 캐시백 혜택도 각 영역별 1번, 매일 최대 7번까지 확대된다.캐시백 금액 규모도 커졌다. 기존에는 3000원 이상 결제 시 300원 혜택이 제공된 반면 이제는 1만원 이상 결제건에 대해 500원 혜택이 제공된다. 단, 1만원 미만 결제 건에 대해서는 100원 혜택이 제공된다. 하루 최대 캐시백 가능 금액도 1300원에서 3500원으로 늘어났다.그 밖에 캐시백 혜택 요건인 3000원 이상 결제도 없앴다. 전월실적 제한조건 없음도 유지된다. 여기에 해외이용금액 무제한 3% 캐시백 혜택은 그대로 지속된다.토스뱅크 관계자는 "고객들의 혜택을 더욱 강화하고 불편함은 아예 없애도록 상품 구성을 변경했다"며 "체크카드에 대한 고객들의 경험을 혁신하고 최고의 상품을 제안해 고객들의 기대와 호응에 보답해 나가도록 하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2022.06.28.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>'비상장' 토스·야놀자 투자하고 싶다면? 선학개미 주의할 점</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003205782?sid=101</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>비상장 안전 거래 플랫폼 ‘증권플러스 비상장’에 따르면 지난해 11월 기준 90만 명이었던 회원 수가 올해 5월 130만 명으로 늘며 6개월 만에 45% 급증했다. 제공 게티이미지뱅크           회사원 이모(28)씨는 지난해 9월 비상장 주식인 케이뱅크 주식을 거래로 20%의 수익을 냈다. 게임회사 크래프톤도 상장 전 비상장주식 거래를 통해 이익을 실현했다. 그는 “투자하고 싶은 기업을 찾아보니 아직 상장한 상태가 아니었다”며 “유니콘 기업을 선점한다는 마음으로 비상장 주식에 투자했다”고 말했다.      국내외 주식 시장의 약세 속 동학 개미와서학 개미의 비명이 커지고 있지만, 주식 시장에 아직 이름을 올리지 않은 기업의 가능성과 잠재력에 주목해 이들을 '먼저' 알아보고 비상장 주식 투자에 나서는 '선(先)학 개미'가 늘고 있다.       비상장 주식 안전 거래 플랫폼 ‘증권플러스 비상장’에 따르면 지난해 11월 기준 90만 명이었던 회원 수가 지난 5월 130만 명으로 늘며 6개월 만에 45% 급증했다. 거래 건수도 지난해 6월 10만 건에서 지난 27일 30만4000건으로 3배 넘게 늘었다.       '증권플러스 비상장' 관계자는 “MZ세대에게 익숙한 비바리퍼블리카(토스)와 야놀자, 우아한형제들 등 유망 핀테크 기업과 유니콘 기업 등도 비상장 상태”라며 “이런 기업에 투자하고 싶다는 MZ세대의 요구와 모바일 비상장 주식거래 플랫폼 등장 등이 맞물리며 시장이 커졌다”고 설명했다.       MZ세대 관심이 몰리며 비상장 주식 시장의 성장 속도도 빨라지고 있다. 금융투자협회에서 운영하는 비상장주식 거래시장 K-OTC의 연간 누적 거래대금은 지난 2018년 3월 처음으로 1조원을 돌파한 뒤 1년 6개월 만인 2019년 9월에 2조원을 넘어섰다. 하지만 지난해 2월 4조원에서 지난해 11월 5조원 돌파까지는 9개월밖에 걸리지 않았다.       금융투자협회에서 운영하는 비상장주식 거래시장 K-OTC(Over The Counter)의 연간 누적 거래대금은 지난 2018년 3월 처음으로 1조원을 돌파한 후 2조원 돌파(2019년 9월)까지는 1년 6개월이 걸렸으나, 4조원(지난해 2월)에서 5조원(지난해 11월)을 넘어서기까지는 9개월밖에 걸리지 않았다. 제공 게티이미지뱅크           이처럼 시장이 커지고 투자자도 늘고 있지만, 비상장 주식은 거래 플랫폼마다 거래 방식이 다르다. K-OTC의 경우 비상장 주식은 시장가 주문이 아닌 지정가로만 사고팔 수 있다. 사거나 팔고자 하는 정확한 주가로 주문을 내야 한다는 의미다. 예약주문도 불가능하다. 증권플러스 비상장에서는 1대1 협의 주문, 예약 주문 등 서비스를 제공한다. 상장 기업을 거래할 때 일반적으로 위탁 증거금이 40% 수준이지만 비상장 주식을 거래할 땐 위탁증거금 100%가 필요하다.       상장 주식과 달리 상대적으로 종목 정보를 얻기 어려운 점도 고려해야 한다. 최근 비상장 기업의 정보 비대칭 문제를 해소하기 위해 증권사나 관련 기업이 정보를 제공하는 만큼 이를 활용하는 것도 도움이 된다. 증권플러스 비상장의 경우 ‘두나무콘텐츠벨류팀’이 비상장 종목의 재무 정보와 투자 유치, 분석 보고서 등을 제공한다.       DB금융투자는 지난 2019년부터 주 1~2회 정도 비상장 기업 리포트를 발간하고 있고, 이베스트투자증권은 지난해 20건이 넘는 비상장 기업 리포트를 발간했다. NH투자증권·한국투자증권·신한금융투자 등도 비상장 기업 관련 보고서를 시리즈로 발간한다.       김영규 K-OTC 부장은 “투자하려는 비상장 기업이 사업보고서를 제출하는 곳이라면 금융감독원 전자공시 시스템 등으로 일부 확인할 수 있으나 이를 제출하지 않는 곳도 많다”며 “‘곧 상장한다’는 식의 ‘카더라’만 믿고 투자할 경우 큰 손실을 볼 수 있다”고 말했다. 안전 거래도 신경 써야 한다. 비상장 주식의 시중 가격을 속여 사고팔거나, 매수자에게 돈을 받고 매도자에게 전달하지 않는 사건 등이 발생할 수 있어서다. 이런 문제를 막기 위해 증권플러스 비상장은 업계 최초로 증권사 안전 거래 서비스를 연계하고, 실제 매도자가 해당 주식을 소유했는지 확인할 수 있는 ‘확인 매물’ 기능을 도입했다.       투자 시기를 잘 따져야 한다는 지적도 있었다. 편득현 NH투자증권 WM마스터즈 전문위원은 “금리 인상기를 맞아 위험 자산 회피 심리가 커지는 상황에서 초 위험 자산에 속하는 비상장 주식 투자는 신중히 해야 한다”며 “3분기 이후 전 세계 금리 인상 기조가 꺾여 기업공개(IPO) 시장이 살아나기 전까지 비상장 주식은 큰 변동성 구간을 지날 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2022.06.23.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>씨티은행, 국민·토스뱅크와 신용대출 대환 제휴</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003708058?sid=101</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>국내 소비자금융사업 철수 따라금리우대·인지세 면제 등 혜택    사진=연합뉴스    국내 소비자금융 사업 철수 절차를 밟고 있는 한국씨티은행이 KB국민은행, 토스뱅크와 신용대출 대환(대출 갈아타기) 제휴를 체결했다.   한국씨티은행은 22일 KB국민은행, 토스뱅크와의 업무 제휴 계약을 하고 다음 달 1일부터 ‘개인 신용대출 대환 제휴 프로그램’을 시행한다고 밝혔다. 지난 3월 말 현재 씨티은행의 개인 신용대출 잔액은 8조409억원 수준으로, 고신용자 위주로 구성된 씨티은행의 대출자산을 끌어오고자 하는 은행권의 관심이 뜨거웠다.   앞서 미국 연방준비제도(Fed·연준)의 가파른 금리 인상 기조가 막판 변수로 작용해 역마진 우려가 나오면서 예상보다 협의가 길어진 것으로 알려졌지만, 제휴 은행 선정 결과에 이변은 없었다.   대환 제휴 프로그램은 KB국민은행 애플리케이션(앱) 또는 영업점, 토스뱅크 앱에서 신청할 수 있다. 씨티은행 개인 신용대출 고객이 해당 프로그램을 이용하는 경우 금리 우대, 중도상환수수료 면제, 대환대출 금액에 따른 인지세 면제 등 혜택을 받을 수 있다.   제휴를 통한 개인 신용대출 대환대출은 한국씨티은행의 대출 잔액(한도 대출의 경우 대출 한도)과 동일한 금액으로만 가능하다. 씨티은행 개인 신용대출 고객이 제휴 은행에서 대환대출을 받으면 추가 절차 없이 제휴 은행과 한국씨티은행 간 대출상환이 진행된다. 또 제휴 은행뿐 아니라 비제휴 은행과 다른 금융회사에서도 대환을 신청할 수 있다.   금융당국의 소비자보호 계획에 따라 다음 달부터 타 금융사로의 대환을 희망하는 씨티은행 신용대출 고객은 대출금액의 증액이 없다면 차주별 총부채원리금상환비율(DSR) 등 가계대출 규제가 적용되지 않는다. 다만 대환을 원하는 금융회사의 심사 결과에 따라 대환이 거절될 수 있으므로 대환 가능 여부와 구체적인 대출 조건 등은 개별 확인해야 한다.   씨티은행은 고객의 개인 신용대출 상품에 대해 2026년 말까지는 기존과 동일하게 은행이 정한 심사 기준(신용도와 채무상환 능력을 재평가)에 따라 만기를 연장한다. 2027년 이후에도 전액 상환이나 타 금융기관을 통한 대환이 어려운 고객의 경우 분할 상환을 지원할 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2022.06.27.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>“고객이 재미있어야”… 은행권, 금리보다 뜨거운 콘텐츠 경쟁</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000823345?sid=101</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>수신 금리 올려도 세전 연 3%대…  캐릭터·게임·예능 콘텐츠에 힘주는 은행들        금리가 오르면서 은행으로 다시 돈이 몰리는 현상이 나타나는 가운데, 은행권에서는 예수금을 확보하고 신규 고객을 잡으려는 경쟁이 한층 치열해지고 있다. 은행들은 금리 경쟁은 물론 플랫폼 콘텐츠 경쟁에도 열을 올리는 분위기다.27일 은행권에 따르면, 비대면 금융 거래가 활발해지면서 귀여운 캐릭터를 앞세우거나 이종 업종과의 제휴를 통해 소비자에게 재미와 놀이, 경험을 제공하는 예적금 상품이 잇달아 나오고 있다.인터넷은행 토스뱅크가 이달 14일 내놓은 ‘키워봐요 적금’ 상품이 출시 3일 만에 누적 계좌 개설 10만좌를 돌파하며 2030세대를 중심으로 호응을 얻고 있다. 이는 매주 저금하면 내가 키우는 동물 캐릭터가 자라나는 콘셉트의 6개월 만기 자유적립식 정기적금 상품이다.가입 시 고객은 유령, 거북이, 문어, 망아지 4종 중에서 무작위로 하나의 알을 받는다. 이 알은 이튿날 부화하면서 6개월 동안 열 단계에 거쳐 자란다. 매주 적금 자동이체를 달성하면 이 알은 최종 만기 시 전설의 동물로 진화한다. 친구와 함께 적금할 수 있는 기능도 있다. 해당 상품은 가입금액과 주 납입 이체 한도는 최소 1000원 이상 최대 20만원까지다. 납입한도는 월 최대 100만원까지다. 기본금리는 연 1%로, 6개월 만기 해지 시 금리는 세전 3%다.토스뱅크 관계자는 “긴 시간 인내하며 목돈을 만들어 가는 시간을 즐겁고 재미있게 느낄 수 있도록 기획한 상품”이라면서 “시장의 호응으로 보다 즐겁게 금융 서비스를 이용하고 싶다는 시장 수요자들의 요구도 확인했다”고 말했다. 그는 “SNS에 동물을 키우는 과정을 공유하는 고객들도 늘고 있다”고 덧붙였다.토스뱅크 제공        인터넷은행 케이뱅크는 기분에 따라 감정표현 이모티콘을 선택하고 저금액을 바꿀 수 있는 ‘기분 통장’을 이달 초 출시했다. 이 역시 MZ세대(1980~2000년대 출생)를 겨냥해 재미있게 소액을 저축할 수 있도록 기획한 상품이다.가입자가 매일 감정을 나타내는 ‘이모지’를 선택하고 일기처럼 메시지를 적은 뒤 저금한다. 예를 들어 기분이 좋은 날에는 행복한 이모지를 택하고 ‘뭘 해도 되는 날’이란 메시지와 함께 행운의 숫자인 ‘7′로 구성한 7777원을 저금하고, 우울한 날엔 우울한 이모지와 ‘만사가 귀찮은 하루’란 메시지를 쓰고, 1만4원(10004원)을 저금하는 식이다.케이뱅크 관계자는 “MZ세대 중심으로 SNS상에 인기를 끌고 있는 행복할 때마다 쪽지와 함께 저금하는 ‘해피저금통’을 케이뱅크만의 방식으로 재해석한 것”이라며 “앞으로 재미 요소를 더 추가할 예정”이라고 말했다.인터넷은행 카카오뱅크는 저축과 동시에 집을 꾸밀 수 있는 재미를 주는 ‘26주적금 with 오늘의집’ 적금 상품을 이달 내놨는데, 가입 계좌 수가 출시 3일만에 15만좌를 돌파했다. 이는 일정 적금 회차 납입에 성공할 경우 파트너사인 오늘의 집의 할인 쿠폰이 증정되는데, 고객은 이 쿠폰으로 오늘의집에서 판매 중인 가구, 가전, 생활용품, 캠핑용품 등의 상품을 살 수 있다.카카오뱅크는 카카오프렌즈의 인기 캐릭터인 ‘춘식이’가 새겨진 이중내열 유리컵을 주는 경품 이벤트도 함께 진행했다. 고객이 저축을 하면서 동시에 소비 혜택을 누릴 수 있도록 설계한 상품으로 시장 수요자들의 관심을 끌었다는 평가를 받고 있다. 앞서 카카오뱅크는 2020년 이마트를 시작으로 마켓컬리, 해피포인트, 카카오페이지 등과 함께 파트너적금을 출시한 바 있다.저금리 정책 기조 시기에는 은행보다 주식과 부동산, 가상자산 시장에 돈이 몰렸다. 특히 2030세대들이 적극적으로 투자에 뛰어들었는데, 금리가 오르면서 이들의 발길은 붙잡으려는 은행들의 전략이 깔린 것이다.이들이 이달 내놓은 예적금 상품의 세전 최대 금리는 모두 연 3%대다. 다른 은행 및 저축은행의 수신 상품과 비교했을 때 금리 면에서의 큰 경쟁력은 없다고 볼 수 있다. 다른 시중 은행들도 기존 수신 상품 금리를 상향 조정하고 특판 예적금 상품을 출시하고 있으나, 대체로 세전 금리가 연 3%대다.업계 관계자는 “금리가 오르면서 은행의 자금 조달 비용도 늘고 있고, 금리 차별화 경쟁이 현실적으로 어렵다”면서 “금융업계의 디지털 플랫폼 경쟁이 치열해지면서 고객 유입과 이용을 늘리기 위한 콘텐츠와 영업 마케팅을 지속적으로 강화하는 추세”라고 말했다.같은 맥락에서 은행들이 예능 콘텐츠물 제작하는 시도도 잇따르고 있다.신한금융은 유튜브에 ‘기발한 프로덕션’이란 채널을 개설하고, 청년들의 꿈과 도전을 응원하는 예능 콘텐츠 ‘기발한 꿈’ 시리즈를 선보였는데, 이달 공개된 1편 &lt;인류 평화의 꿈- ‘깻잎 논쟁이 쏘아 올린 과대한 꿈’&gt;이란 제목의 영상물은 게재 2주 만에 조회 수가 228만건에 달하는 등 수요자의 관심을 끄는 데 성공했다는 평가를 받고 있다.신한은행은 신한 쏠 앱에 최초 가입한 고객을 대상으로 MBTI 검사 인증기관 어세스타와 함께 ‘MBTI 정식 검사 쏠게!’ 이벤트를 내달 31일까지 진행하고 있다.KB국민은행은 구독자 68만명을 보유한 유튜버 ‘조나단과 개그맨 ‘신규진’ 등이 출연하는 예능 콘텐츠물 ‘고독한, K식가’를 제작했다. 잘 먹고 잘사는 게 제일 중요한, 맛세권에 진심인 사회 초년생이 취업에 성공 후 서울 자취방을 구한다는 콘셉트로, ‘KB 부동산’의 매물검색, 입지분석 등을 활용해 비대면으로 임장을 하고, 각 지역의 맛집 먹방을 하는 식이다.예고편을 포함해 총 6편으로 구성된 콘텐츠로, 매주 화요일, 금요일 오후 6시에 공개되는데 최근 공개된 영상의 경우 게재 9일 만에 조회 수가 6만9910건을 넘었다.은행 관계자는 “디지털 금융·생활 플랫폼 경쟁이 치열해지다 보니 금리라는 혜택 외에 재미와 경험 등 가치를 제공해 신규 유입과 이용을 늘리는 게 중요해졌다”면서 “금융 플랫폼 경쟁에 초점이 맞춰지면서 게임, 놀이, 소비 등과 연계된 상품과 소비자에게 경험을 제공할 수 있는 서비스는 더 늘어날 것”이라고 전망했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2022.06.28.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>[THE FINANCE] 주식·코인서 발 뺀 김대리, 이자 쏠쏠 파킹통장에 꽂혔다</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002741257?sid=101</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>웰컴·OK저축銀, 우대금리 적용 최고 연 3% 이자토스뱅크·카카오뱅크는 한도 높아 고액 예치 유리신한·NH농협銀 등 연 5%대 적금 상품도 잇따라OK저축은행 제공    갈 곳 잃은 여윳돈 '파킹통장'으로금리 상승이 본격화되면서 시중 자금이 위험자산에서 안전자산인 은행 예금으로 몰리는 '역머니무브' 속도가 빨라지고 있다. 증시 변동성이 커지고 부동산 시장도 냉각 조짐을 보이면서 투자처를 잃은 뭉칫돈들이 하루만 예치해도 이자가 쌓이는 '파킹 통장'을 찾고 있다.파킹통장은 통상 잠시 주차하듯이 목돈을 보관해두는 용도로 쓰이는 통장을 의미하지만, 최근에는 예치기간이 짧은 예·적금이나 소액을 예치해도 높은 금리를 제공하는 수시입출금 통장 등을 뜻하기도 한다. 비교적 높은 금리를 제공한 저축은행들의 보통예금이 요즘 인기있는 파킹 통장으로 꼽힌다. 웰컴저축은행의 '웰컴 직장인사랑 보통예금'은 기본금리 연 1.5%에 우대금리를 더하면 최고 연 3%의 금리를 받을 수 있다. 우대금리는 △100만원 이상 급여이체 실적이 있는 경우 △CMS 또는 지로 자동납부 1건 이상 △개인정보 수집이용에 동의하는 경우 각각 연 0.5%포인트 가산된다. 최대 5000만원까지 적용된다. 웰컴저축은행은 직장인만 가입 가능했던 요건도 완화, 전업주부도 가입할 수 있도록 변경하면서 문턱을 낮췄다.OK저축은행의 'OK읏통장' 도 금리가 올라가며 파킹 통장으로 주목받고 있다. 'OK읏통장'은 500만원 이하 예치금의 경우 아무 조건 없이 받을 수 있는 기본 금리로 연 2.8%를 제공한다. 시중 은행 및 증권사 오픈뱅킹에 계좌를 등록할 경우 연 0.2%포인트의 우대금리를 추가로 받을 수 있다. 500만원 초과분에 대해선 연 1.0%의 금리 혜택만 제공하는 점은 아쉬운 대목이다.OK저축은행의 '중도해지OK정기예금'도 사실상 파킹통장으로 볼 수 있다. 이 상품은 만기 3년의 정기예금이지만 중도 해지하더라도 특별 약정금리인 연 2.5%를 그대로 받을 수 있다. 각종 투자 대기자금을 단기간 맡겨두기에 유리하다. 10만원부터 최대 1억원까지 예치할 수 있다. 하나저축은행의 '하이(High) 하나 보통예금'은 최고 연 2.5%의 금리를 제공한다. 기본금리는 연 1.5%이지만 우대조건 충족 시 최대 1%포인트의 우대금리 혜택을 받을 수 있다. 우대금리는 △개인정보 수집이용 동의 시 연 0.3%포인트 △매월말 잔액에 따라 연 0.2~0.6%포인트 △종이통장 없는 계좌 이용 시 연 0.1%포인트를 각각 적용한다. 우대금리는 최대 3000만원까지 받을 수 있고, 3000만원을 초과한 금액은 기본금리가 적용된다.주요 저축은행들의 파킹통장은 상품별로 최대 납입 금액이 크지 않다는 점이 단점으로 꼽힌다. 여윳돈이 고액이라면 여러 은행에 분산해 예치해두는 것도 좋은 방법이다. 다만 금융사들이 보이스피싱 방지 등을 위해 20영업일 내 다른 금융사에서 수시입출금 계좌를 개설한 이력이 있는 경우 신규 계좌 개설을 제한하고 있어 가입에는 시차를 둬야 한다.상대적으로 많은 금액을 예치해야 한다면 금리는 비교적 낮지만 한도가 높은 1금융권의 문을 두드려볼 만하다. 인터넷 전문은행인 토스뱅크은 수시입출금식 통장에 연 2.0%의 금리를 적용하며 파킹 통장의 최강자로 불린다. 저축은행들의 적극적인 공세로 최근 상대적으로 금리의 매력은 떨어졌지만 1억원까지 연 2%의 금리를 제공하는 것이 장점이다. 또 토스뱅크는 은행권에서 처음으로 '일복리'를 주는 파격적인 시도도 주목을 받고 있다. 토스뱅크의 '지금 이자받기' 서비스는 고객이 매일 통장에 들어있는 금액에 대해 이자를 지급받을 수 있다.카카오뱅크의 '세이프박스'는 쉽고 편리하게 사용할 수 있다는 것이 장점이다. 다만 연 1.2%의 낮은 금리가 아쉽다. 케이뱅크가 MZ세대를 겨냥해 출시한 '기분통장'은 최대 3억원까지 연 1.3%의 금리가 적용된다. '기분통장'는 기존 파킹 통장인 '플러스박스'의 연장선이다. 매일 느끼는 기분을 반영한 메시지 기능으로 재미 요소를 더한 것이 특징이다.SC제일은행은 첫 거래 고객 대상으로 한 일복리저축예금(MMDA) 특별금리 이벤트의 모집 한도를 3000억원으로 늘리고, 이달 말까지 연장 실시한다. 1억원 이상 가입하는 경우 최장 60일간 매일 최고 연 1.9% 금리를 제공한다. 매일 잔액에 따라 금리를 차등 지급하기 때문에 예치 자금이 많을수록 유리하다. KDB산업은행의 'Hi 비대면 입출금통장'은 금리를 최근 연 1.85%로 올렸다. 가입금액에 제한이 없어 고액 자산가에게 유리해 보인다.글로벌 금융 환경의 변동성이 장기화될 경우에 대비해 비교적 장기간 여윳돈을 묶어 놓는데 적합한 예금 상품에도 주목할 필요가 있다. 한국은행의 기준금리 인상에 따라 은행 예금도 '연 3%' 시대에 들어섰다.우리은행은 지난 22일부터 연 최고 3.2% 금리를 제공하는 '2022 우리 특판 정기예금'을 2조원 한도로 판매하고 있다. 가입 만기를 18개월로 선택하면 최고 금리를 적용받을 수 있다. 최소 가입금액은 100만원이다. 우리은행은 또 비대면 전용상품인 '우리 첫거래우대 예금'은 최고 연 3.1%, 'WON 예금'은 최고 연 2.40%를 제공한다.국민은행의 'KB더블모아 예금'의 경우 1년 만기 상품 금리가 최고 연 2.55%다. 신한은행은 대표 정기예금인 'S드림 정기예금' 금리를 만기별 0.2~0.4%포인트 올려 최대 연 1.85%를 제공한다. 하나은행의 '369 정기예금' 1년제의 경우 기본금리가 0.25%p 인상돼 최고 연 2.05%가 적용된다. 농협은행도 정기예금의 금리를 연 0.25∼0.3%포인트 올렸다.신한은행 제공    한편 적금 금리도 큰 폭으로 오르고 있다. 신한은행이 출시한 '신한 쏠만해 적금'은 모바일 뱅킹 신규 가입 또는 올해 첫 접속, 마케팅 동의 등의 우대금리 조건을 갖추면 최고 연 5.0%를 받을 수 있다. NH농협은행은 국립공원공단과 함께 최고 연 5.85% 금리를 주는 'NH걷고 싶은 대한민국 적금'을 출시했다.KB저축은행은 첫 거래 고객에 한해 100일 동안 최대 2000만원까지 넣고 최고 연 5% 금리를 받을 수 있는 'KB꿀적금'을 판매 중이다. 첫거래 우대금리가 연 2.8%로, 선착순 1만좌에만 제공된다. 페퍼저축은행의 모바일 전용 '페퍼스2030적금'도 1년 만기에 최고 금리 연 5%를 제공한다. 기본금리 3.5%에 자동이체, 마케팅 동의만 완료하면 우대금리 1.5%포인트를 준다. NH저축은행의 'NH FIC 올바른지구 정기적금'은 2000 계좌 한정 특판으로 기본금리 연 2.5%에 우대금리를 더하면 최고 연 5%를 받을 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2022.06.27.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>[기자수첩]규제완화 vs 관치부활…모순 빠진 금융당국</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000008761?sid=101</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>윤 정부, 규제 대못 뽑아 금융산업 육성한다더니…금리 오르자 '이자장사' 비판…금융권은 갈팡질팡금융당국 수장의 말 한마디에 금융권이 오락가락하고 있다. 금융산업을 육성하겠다는 청사진을 제시해 '당근을 던져주나' 싶더니, 최근 들어선 "은행들의 과도한 이익 추구에 대한 비판이 커지고 있다"며 '채찍'을 예고했기 때문이다.윤석열 정부는 자유로운 시장경제를 강조하며 출범했다. '민간이 끌고 정부가 미는 역동적 경제'를 주요 국정목표로 삼을 만큼 경제 활력을 저해하는 규제 대못을 뽑겠다는 의지를 드러냈다.대표적 규제 산업인 금융권은 새 정부에 거는 기대가 컸다. 네이버 카카오 같은 빅테크와 토스 등 핀테크 기업들은 금융 시장에 매우 빠르게 발을 들였다. 이들은 금융 규제에서 벗어나 있어 신사업 확장에도 상대적으로 수월했다. 반면 기존 금융사들은 규제 허들을 넘을 수 없어 발만 구르고 있었기 때문이다.윤석열 정부는 금융분야 데이터 수집‧활용 인프라와 금융보안 규제 개선, 금융-비금융 간 융합 활성화를 위한 제도적 기반 강화와 금융회사 업무범위 규제 개선 등을 공약에 담았다. 디지털 환경 변화에 맞춰 기존 금융권도 규제 부담을 덜어주겠다는 의미였다.특히 김주현 금융위원장 내정자는 임명 전부터 기자간담회를 통해 "과거의 금산분리가 현 상황에 맞는지, 개선할 필요가 없는지 검토할 시점"이라고 강조하며 금산분리 완화까지 거론했다. 그런 만큼 김주현 내정자가 금융위원장으로 취임하면 금융사에 대한 규제 완화가 본격화될 수 있을 것이란 기대가 컸다.대출규제 문턱을 낮춘 것도 비슷한 맥락에서였다. 지난 문재인 정부는 치솟는 집값 안정 수단 중 하나인 대출규제를 점점 강화했고, 작년 하반기부터는 가계부채 총량 관리를 위해 대출 문턱을 더 높였다.윤석열 정부는 이를 정상화한다는 명목 아래 생애최초 주택매입 등에 대해선 LTV(주택담보인정비율)를 80%로 낮추고, 신용대출 한도도 연소득 범위 내 제한을 폐지하기로 했다. 은행을 비롯한 금융권이 대출 자산을 다시 늘려나갈 수 있도록 규제를 풀어준 것이었다.하지만 예상치 못한 물가 고공행진으로 기준금리 인상이 당초 계획보다 빨라지면서 새 정부의 규제 완화 스텝이 엉키고 있다. 기준금리가 1년도 채 되지 않아 1.25%포인트 오르자 은행 대출 금리도 두 배 이상 뛰면서 금융 소비자들의 이자 부담이 급증한 것이 배경이다. 규제 완화로 표를 모았던 새 정부의 금융당국은 오히려 은행들에게 예대금리차 축소를 요구하고 있다. 이복현 금융감독원장이 "은행의 과도한 이익 추구에 대한 비판이 커지고 있다"와 "은행의 공공적 기능은 분명히 존재한다"고 언급한 게 대표적이다. ▷관련기사: 정부 경고에 돈 벌수록 눈치보는 은행, '좌불안석'(6월23일)"은행들에게 금리를 몇%로 정하라"고 지시한 게 아니어서 시장에 직접 개입하지 않았다는 게 금감원 입장이다. 하지만 대통령을 비롯한 금감원장의 연이은 발언은 사실상 금리를 조정하라고 직접 나선 것과 다르지 않다는 평가가 나온다. 윤 정부 초기부터 '관치 금융' 우려가 커지는 것도 이런 이유에서다.은행 등 금융사들 사이에선 '뒤통수를 맞은 격'이란 볼멘소리가 나온다. 규제 완화를 통한 신사업 확장 기대감에 부풀어 있다가 돌연 모두가 어려운 시기 나 홀로 돈벌이에 집중하는 세력으로 낙인찍혀서다.은행들은 '울며 겨자 먹기'로 대출 금리를 인하하고 있지만 정부가 원하는 수준으로 낮추기엔 한계가 있다. 기준금리 상승으로 자금조달 비용도 늘어나고 있고, 무작정 대출금리만 낮추면 은행들이 리스크를 대비해 필요한 충당금을 쌓을 여력이 줄어든다.  한 금융권 관계자는 "정부 말 한마디에 금리를 인하한다면 그동안 왜 선제적으로 하지 않았냐는 비판에 직면하게 된다"며 "금리는 은행들의 경영 목표와 자금조달 비용 등 복합적 요인을 고려해 결정하는데, 지금처럼 정부 경고가 반복되면 이에 맞춰 금리를 낮추지 않을 수 없어 곤혹스러운 상황"이라고 토로했다.전 세계적인 고물가 현상에 대응하기 위한 기준금리 인상, 이에 따른 서민경제 위축을 온전히 은행의 금리 인하로만 막을 순 없다. 오히려 이복현 원장이 언급한 '경제의 방파제' 역할을 금융이 제대로 하지 못하면 우리 경제에 더 큰 위기가 닥친다. 김주현 금융위원장 내정자가 그렸던 글로벌 기업으로 도약한 금융사는 한낱 허상으로 그칠 수 있다.당근과 채찍도 시기가 적절히 맞아야 말을 달리게 할 수 있다. 당근 그림만 보여주며 채찍을 내리치면 금융 산업이라는 '경제 대마'는 어디로 뛰어야 할지 갈피를 잡을 수 없다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2022.06.20.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>대출비교플랫폼 통한 은행 가계대출 3조원대…전체 대출의 1.7%</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013255573?sid=101</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>지방은행·중금리 대출 비중 커…금감원 잠재리스크 관리중금리 대출 (PG)[장현경 제작] 일러스트    (서울=연합뉴스) 심재훈 오주현 기자 = 지난해 온라인 대출 비교·중개 등 서비스를 제공하는 플랫폼을 통해 은행에서 실행된 가계대출 규모가 약 3조원이었던 것으로 집계됐다.    20일 금융권에 따르면 금융감독원이 최근 국내은행의 온라인 대출 플랫폼 활용 실태를 점검한 결과, 작년 온라인 대출 플랫폼을 통한 가계대출 모집규모는 총 3조1천억원이었다. 이는 전체 신규 대출(181조8천억원)의 1.7% 수준이다.    올해 3월 말 기준으로 국내 은행 13곳이 온라인 대출 플랫폼과 위탁계약을 체결한 것으로 나타났다.     KB국민·NH농협은행을 제외한 대부분의 주요 은행은 최근 대출모집 채널을 다변화하기 위해 플랫폼들과 위탁계약을 체결하는 추세다.    특히 상대적으로 영업망에 제약이 큰 지방은행에서 실행된 대출이 2조3천억원으로, 시중은행(7천억원)보다 3배 이상 많았다.    플랫폼별로는 온라인 대출 플랫폼 14곳 가운데 카카오페이와 비바리퍼블리카(토스)가 차지하는 비중이 전체 모집규모의 86.8%에 달했다.    지난해 4월 금융위원회가 발표한 '중금리대출 제도개선방안'에 따르면 비대면 대출 플랫폼을 통한 대출 조회 건수와 차주 수는 2020년 이후 꾸준히 증가하고 있다. 특히 중·저신용층이 대출 플랫폼을 이용해 비교적 낮은 금리로 대출을 실행하는 현상이 관측됐다.    온라인 플랫폼을 통한 대출 조회·비교 서비스는 초기에는 금융 샌드박스 형태로 허용됐으나, 작년 9월 금융소비자보호법 시행으로 정식 도입됐다. 금소법에 따라 대출상품에 대한 판매대리 중개업자로 등록하면 영업할 수 있어, 향후 후발주자의 진출도 이어질 것이란 전망이 나온다.    금감원은 지방은행을 중심으로 대출 플랫폼을 통한 대출이 증가세를 보이는 점, 플랫폼을 통해 대출을 실행하는 차주 가운데 중금리로 대출을 받는 20∼30대 비중이 높은 점 등을 고려해 잠재리스크를 관리하고 관련 모니터링을 강화해나갈 계획이다.    viva5@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2022.06.22.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>'소비자 금융 철수' 한국씨티은행, KB국민·토스뱅크와 신용대출 대환 제휴</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006173374?sid=101</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>제휴 은행서 대환 시 금리 우대·중도상환수수료 면제서울 종로구 새문안로 한국씨티은행 본사. 2021.4.27/뉴스1 © News1 이성철 기자(서울=뉴스1) 서상혁 기자 = 한국씨티은행은 소비자금융 업무 단계적 폐지에 돌입함에 따라 KB국민은행, 토스뱅크와 제휴를 맺고 7월 1일부터 '개인신용대출 대환 제휴 프로그램'을 시행한다고 22일 밝혔다.한국씨티은행 개인신용대출 고객이 해당 제휴 프로그램을 이용하는 경우 금리 우대, 중도상환수수료, 대환대출 금액에 따른 인지세 면제 등의 혜택을 받을 수 있다. 대환 제휴 프로그램은 KB국민은행과 토스뱅크 애플리케이션을 통해 신청할 수 있다.대환은 한국씨티은행의 대출 잔액(한도대출의 경우 대출한도)과 동일한 금액으로만 진행이 가능하며, 고객이 제휴 은행에서 대출을 받으면 자동으로 한국씨티은행의 대출이 상환된다.7월1일부터 차주별 총부채원리금상환비율(DSR) 규제 3단계가 시행되지만, 증액이 없는 경우 해당 규제는 적용되지 않는다.대환을 원하는 금융회사의 심사 결과에 따라 대환이 거절이 될 수도 있으므로 대환 가능 여부와 구체적인 대출 조건 등은 사전에 대환을 원하는 금융회사를 통해 개별 확인이 필요하다. 한국씨티은행 대출 잔액보다 적은 금액으로 대환을 원하는 경우는 한국씨티은행 대출을 일부 상환 후 대환대출을 신청할 수 있다.한편 한국씨티은행은 고객의 개인신용대출상품에 대해 2026년말까지 기존과 동일하게 은행이 정한 심사 기준에 따라 만기를 연장한다. 2027년 이후에도 전액 상환 또는 타금융기관을 통한 대환이 어려운 고객의 경우 분할 상환을 지원할 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2022.06.22.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>씨티銀 신용대출, 국민은행·토스뱅크로 갈아타면 금리 할인</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004761796?sid=101</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>서울 종로구 한국씨티은행 본점한국씨티은행의 신용대출 고객은 7월1일부터 KB국민은행, 토스뱅크로 손쉽게 갈아탈 수 있다. 다른 은행으로 대환도 가능하지만 업무제휴에 따라 두 은행에서는 금리 우대 등 혜택을 받는다. 한국씨티은행은 개인신용대출 고객을 위해 국민은행, 토스뱅크와 업무제휴 계약을 맺고 7월1일부터 '대환 제휴 프로그램'을 시행한다고 22일 밝혔다. 한국씨티은행이 국내에서 소매금융을 철수하기로 한 데 따라서다. 제휴 프로그램을 이용하면 금리 우대를 받고 중도상환수수료, 대환대출 금액에 따른 인지세를 면제 받는다. 한 예로 국민은행은 최대 0.4%포인트의 우대금리를 적용한다. 국민은행 앱(애플리케이션)과 영업점, 토스뱅크 앱에서 신청하면 된다. 제휴 프로그램을 통한 대환대출은 한국씨티은행 대출잔액과 동일한 금액으로만 가능하다. 제휴 은행을 이용하면 추가 절차 없이 대출상환이 진행된다. 제휴 은행이 아닌 다른 은행에서 신청하면 해당 은행에 별도로 문의해야 한다. 한국씨티은행 신용대출의 타행 대환은 증액이 없으면 가계대출 규제에서 자유롭다. 대출금액을 소매금융 철수에 따라 소비자를 보호하는 차원에서다. 당장 다음달부터 강화되는 총부채원리금상환비율(DSR) 규제를 받지 않는다. 만약 대환대출을 신청할 때 기존 잔액보다 적은 금액으로 대환을 원하면 일부 상환 후 신청하면 된다. 한국씨티은행에서 대출을 유지하는 방법도 있다. 한국씨티은행은 2026년 말까지 기존과 동일하게 신용대출 만기연장 신청을 받는다. 2027년 이후에 전액 상환이 어렵다면 분할 상환을 지원한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2022.06.24.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>취준생이 가장 취업하고 싶은 금융회사는 ‘카카오뱅크’</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002260652?sid=105</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>잡코리아 조사...2위는 신한은행신입 취업을 준비하는 취준생 10명중 7명이 “금융권 기업에 취업할 의사가 있다”고 답한 가운데, 가장 취업하고 싶은 금융회사로는 ‘카카오뱅크’를 꼽았다.취업 플랫폼 잡코리아(대표 윤병준)가 신입직 취업을 준비하는 취준생 569명을 대상으로 ‘금융권 취업 선호도’에 대해 조사한 결과 전체 응답자 중 72.6%가 '금융권 기업에 취업할 의사가 있다'고 답했다.취준생들은 금융권 중에서도 은행 업계 취업을 선호했다. 금융권에 취업할 의향이 있다고 답한 취준생들에게 금융권 중 가장 취업하고 싶은 업계를 꼽아보게 한 결과 '은행'이라 답한 취준생이 55.7%로 가장 많았다. 증권업계에 취업하고 싶다는 취준생은 19.6%였다.취준생 취업선호 금융사가장 취업하고 싶은 금융회사는 카카오뱅크가 1위에 올랐다.가장 취업하고 싶은 금융회사를 조사한 결과 '카카오뱅크'를 꼽은 취준생이 33.9%(응답률)로 가장 많았다. 카카오뱅크는 지난해 동일 조사 결과에서 가장 취업하고 싶은 금융회사 1위에 랭크된 이래 2년 연속으로 1위를 차지했다.다음으로 취준생들은 ▲신한은행(25.4%) ▲KB국민은행(24.0%) ▲우리은행(18.6%) ▲NH농협은행(18.6%) 순으로 취업하고 싶은 금융회사를 꼽았다.남성 취준생들은 카카오뱅크(34.4%)에 이어 KB국민은행(21.9%), 신한은행(18.8%), 토스뱅크(16.3%), 우리은행(15.6%) 순으로 취업 선호도가 높아, 인터넷 은행에 대한 취업 선호도가 상대적으로 높은 것으로 나타났다. 여성 취준생들도 카카오뱅크(33.6%)를 취업 선호 기업으로 꼽은 응답자가 가장 많았고, 이어 신한은행(29.6%), KB국민은행(25.3%) 순으로 취업 선호도가 높았다.취준생들의 취업 선호도에 영향을 미치는 요인 1위는 '직원 복지'였다. 이들 기업에 취업하고 싶은 가장 큰 이유 한 가지를 꼽아보게 한 결과, '직원 복지가 우수할 것 같아서'라는 답변이 19.1%로 가장 높았다. 이어 ▲연봉이 높을 것 같아서(12.3%) ▲오래전부터 이용해온 회사라서(12.1%) ▲오랫동안 일할 수 있을 것 같아서(10.9%) 순으로 답변이 높았다.금융권 취업을 위해 취준생들은 '금융 분야 자격증 취득'을 가장 많이 준비하는 것으로 나타났다. 금융권 취업을 위해 특히 어떤 노력을 해왔는지에 대해 복수응답으로 조사한 결과, '금융 분야 자격증 취득'이라 답한 취준생이 42.6%(응답률)로 가장 많았다. 이어 '전공 자격증 취득(34.6%)'과 '학점 향상(34.6%)'에 주력했다는 취준생이 다음으로 많아, 금융권 취업을 위해서는 자격증 취득이나 전공 지식 향상을 준비하는 취준생들이 가장 많은 것으로 풀이됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2022.06.28.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>토스뱅크 “5월 예대마진 첫 흑자 달성…2% 금리 인상 가능“</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003283216?sid=101</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>첫 기자간담회 나선 홍민택 대표홍민택 토스뱅크 대표가 28일 서울 중구 커뮤니티 하우스에서 열린 ‘토스뱅크 미디어데이’ 행사에서 발언하고 있다. 토스뱅크 제공출범 9개월을 맞은 토스뱅크가 지난 5월 처음으로 월 예대마진 흑자를 기록했다고 밝혔다.홍민택 토스뱅크 대표는 28일 서울 중구에서 열린 첫 간담회에서 출범 이후 토스뱅크의 성과를 설명하면서 “지난 5월 기준 예대사업 부문에서 적자가 개선됐다”면서 “토스뱅크가 수익성이 개선되는 트랙 위에 올라섰다”고 밝혔다. 수익성 확보는 올해 대출 영업을 재개하며 대출 자산이 성장했기 때문이며, 기준금리가 오르고 있는 부분도 일부 도움이 됐다고 덧붙였다.토스뱅크는 ‘2% 금리’ 수시입출금 통장 등 파격적인 금리 정책으로 수익성 확보가 어려울 거란 전망이 있었다. 홍 대표는 “일반 은행들은 0.1% 정도의 수신금리를 제공하는 것에 비해 (토스뱅크가) 20배를 제공하다보니 20조가 넘는 돈이 몰리기도 했다”면서 “이자가 과도하다는 문제점은 해소되고 있는 상황”이라고 설명했다.이날 토스뱅크는 추가 증자 계획을 밝히기도 했다. 출범 당시 향후 5년간 1조원을 증자하겠다고 했지만 1년이 채 지나기 전에 목표를 거의 달성한 상황이다. 지난 21일엔 1000억원 규모의 유상증사를 추진하기로 하면서 7000억원으로 확보하기도 했다. 홍 대표는 “사업 계획이 당초 세운 것보다 훨씬 빠르게 진행되고 자산도 예상보다 빠르게 성장하고 있어 이를 지원할 자본 확충이 늘어야 하는 상황”이라면서 “주주들과 긴밀히 협의하고 있다”고 했다.토스뱅크에 따르면 지난 27일 기준 토스뱅크 가입 고객 수는 360만명이다. 연령별로는 10대가 6.5%, 20대 25.1%, 30대 25.4%, 40대 23.8%, 50대 이상이 19.2%로 고르게 분포돼 있다. 출범 직후 가계대출 총량 규제로 인해 지난해 9일 만에 대출영업을 종료한 토스뱅크는 올해부터 본격적인 영업을 재개하며 대출 잔액이 4조원을 넘겼다. 중·저신용자 대출 비중도 36%(27일 기준)로 인터넷전문은행 중 가장 높은 수준이다.홍 대표는 “향후 가입자 성장과 함께 지속가능성을 확보할 수 있도록 수익성 개선에 집중할 계획”이라면서 “외적인 성장 외에 내적인 성장에 해당하는 수익성에 중점을 두고 사업을 진행하겠다”고 밝혔다. 이를 위해 하반기 모임통장을 출시하며, 전세자금대출과 주택담보대출의 경우 출시를 검토하고 있다고 했다.시중은행이나 다른 인터넷전문은행과의 차별성이 옅어지는 게 아니냐는 질문에 홍 대표는 “혁신성만을 주장하는 것보다 고객들이 원하는 걸 최선을 다해 제공하는 게 중요하다고 생각한다”고 답했다. 금리 인상에 따라 2%인 수시입출금 통장의 금리 인상 가능성을 묻는 질문에는 “아직 정해진 건 없지만 기대하는 고객들도 있어 사업적 여건이 마련된다면 긍정적으로 검토해야 할 것”이라며 여지를 남겼다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2022.06.23.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>은행 신용대출, 내달부터 연소득 2배 이상도 가능</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002615169?sid=101</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>국내 5대 은행 본점 로고. ⓒ연합뉴스[데일리안 = 부광우 기자] 주요 시중은행에서 다음 달부터 연소득 대비 최대 2배 이상까지 신용대출을 받을 수 있게 된다.23일 금융권에 따르면 KB국민·신한·하나·우리·NH농협은행 등 5대 시중은행과 케이·토스뱅크 등 인터넷전문은행은 다음 달 1일부터 신용대출 최대한도를 대출자의 연봉 이내로 제한하는 규정을 없애기로 했다.국민은행은 신용등급·소득 등을 종합적으로 판단해 최대 연봉의 2배까지 신용대출을 내줄 예정이다.농협은행도 개인 신용대출의 한도를 기존 10~100%에서 30~270%로 변경한다. 대출자에 따라서는 연봉의 최대 2.7배까지 신용대출을 받을 수 있다는 얘기다. 농협은행은 개인사업자 신용대출 한도도 연봉의 305%로 상향 조정했다. 다만 개인과 개인사업자 신용대출은 각각 2억5000만원, 1억6000만원을 넘을 수는 없다.신한은행도 내부적으로 연봉 이내 한도 규제를 폐지하기로 방침을 정했다. 한도는 아직 확정되지 않았지만 직장인에게 연봉의 1.5~2배, 전문직에게 2배 이상의 신용대출을 허용하는 방안 등이 논의되고 있는 것으로 알려졌다.우리은행과 하나은행, 케이뱅크, 토스뱅크도 같은 날부터 신용대출 관련 연소득 규제를 풀기로 했다.금융당국은 지난해 8월 시중은행 여신 담당 임원들에게 개인 신용대출 한도를 연 소득 수준으로 줄여달라고 요청했고, 은행들은 8~9월에 걸쳐 이를 실제 이행했다.이어 같은 해 12월에는 금융위원회가 신용대출 연 소득 이내 취급 제한 규정을 '가계대출에 대한 리스크 관리기준'에 금융행정지도로 명시하고 올해 6월 30일을 효력 기한으로 설정했다.이에 따라 많게는 연 소득 대비 2~3배에 이르던 신용대출 한도는 규제 이전 이후 사실상 2분의 1, 3분의 1로 축소된 상태였다.하지만 해당 규정이 연장되지 않으면서 다음 달부터는 금융 소비자가 총부채원리금상환비율 기준만 충족하면 은행권에서 다시 연봉보다 많은 신용대출을 받을 수 있게 됐다.다만 시스템을 규제 이전으로 복원하는데 점검 시간이 필요한 만큼, 개별 은행에 따라 신용대출 한도 확대 시점은 다를 것으로 보인다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2022.06.20.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>대전 학생스포츠 '토스리그' 역대 최대 규모 운영</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011256361?sid=102</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>기사내용 요약100개교 역대 최다인 2560명 참가토스리그 참가학생들 *재판매 및 DB 금지[대전=뉴시스]유순상 기자 = 대전지역 학생스포츠 '토스리그'에 역대 최대 규모로 운영되고 있다.20일 대전시교육청에 따르면 2년간 코로나-19로 체력저하, 정서불안, 교우관계로 어려움을 겪는 학생들의 건강한 학교생활을 돕기위해 학교 현장의 의견을 적극 반영해 올해부터 본격적인 토스리그를 시작한다. 작년까지 토스리그는 교내에서만 이뤄졌으나  올해는 새롭게 개편,  학교를 벗어나 지역으로 점차 확대하고 다양한 종목으로 구성해 스포츠활동 대상과 장소 변화를 시도했다. 교육청 공모사업으로 신청학교를 받은 결과 호응도가 높았다. 100개 학교를 선정, 역대 최다인 2560명이 참가한다.리그 종목은 넷볼을 비롯해 축구와 농구, 배구, 배드민턴, 피구 종목으로 구성했다. 학교와 지역대학, 생활체육시설 등 학생들의 접근성을 고려해 다양한 장소에서 경기가 열린다.특히 축구는 매 경기 후 대한축구협회 및 대전 우수지도자들이 손수 일일클리닉을 운영, 축구 전술 노하우를 전수하고 축구 심판에 관심있는 학생을 대상으로 심판 강습회를 개최, 리그 심판으로도 활용할 계획이다.대전시교육청 김석중 체육예술건강과장은 “대전학생이면 누구가 원하는 스포츠를 좋은 시설과 환경에서 편리하게 즐길 수 있도록 하겠다"며 " 내년에는 학교 수와 종목을 더욱 확대하고 예산을 증액, 교내와 거점, 지역, 전국 연계 강화로 체계적인 시스템을 구축하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2022.06.22.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>'소비자금융 폐지' 한국씨티은행, 국민은행·토스뱅크와 대환대출 제휴</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000680572?sid=101</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>다음달 1일부터 '개인신용대출 대환 제휴 프로그램' 실시소비자금융을 단계적으로 폐지하는 한국씨티은행이 국민은행·토스뱅크와의 업무 제휴 협약을 체결하고 다음 달 1일부터 '개인신용대출 대환 제휴 프로그램'을 시행한다고 22일 밝혔다.씨티은행 개인신용대출 고객이 제휴 프로그램을 이용하는 경우 금리 우대, 중도상환수수료 면제, 대환대출 금액에 따른 인지세 면제 등 혜택을 받을 수 있다.한국씨티은행 지점 전경. [사진=아이뉴스24 사진DB]대환 제휴 프로그램은 KB국민은행 앱(애플리케이션) 또는 영업점, 토스뱅크 앱에서 신청할 수 있다.제휴를 통한 개인신용대출 대환대출은 한국씨티은행의 대출 잔액(한도 대출의 경우 대출한도)과 동일한 금액으로만 가능하다.씨티은행 개인신용대출 고객은 제휴 은행뿐 아니라 비 제휴 은행 및 타 금융회사에서도 대환을 신청할 수 있다.금융당국의 소비자보호 계획에 따라 7월부터 다른 금융사로의 대환을 희망하는 씨티은행 신용대출 고객은 대출금액의 증액이 없다면 차주별 총부채원리금상환 비율(DSR) 등 가계대출 규제가 적용되지 않는다.다만 대환을 원하는 금융회사의 심사 결과에 따라 대환이 거절될 수 있으므로 대환 가능 여부와 구체적인 대출 조건 등은 개별 확인이 필요하다.한편 씨티은행은 고객의 개인신용대출상품에 대해 2026년 말까지는 기존과 동일하게 은행이 정한 심사 기준(신용도와 채무 상환능력을 재평가)에 따라 만기를 연장한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2022.06.27.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>7월부터 씨티은행 '고객 뺏기' 스타트…국민이냐, 토스냐, 우리냐</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/241/0003217454?sid=101</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>[일간스포츠 권지예]   〈YONHAP PHOTO-2539〉 씨티은행, 소매금융 부문 철수 논의      (서울=연합뉴스) 김인철 기자 = 27일 서울 종로구 한국씨티은행 본점 모습.      국내 소매금융 철수 계획을 밝힌 한국씨티은행은 이날 오후 화상회의 방식으로 씨티그룹의 '13개국 소비자금융 철수' 발표 이후 첫 이사회를 열고 국내 소매금융 출구 전략에 대한 구체적인 방안을 논의한다. 2021.4.27      yatoya@yna.co.kr/2021-04-27 14:40:56/ 〈저작권자 ⓒ 1980-2021 ㈜연합뉴스. 무단 전재 재배포 금지.〉    한국씨티은행의 소비자금융 부문 단계적 폐지에 따라 다음 달부터 소비자들은 본격적인 개인신용대출 대환 수순을 밟게 될 전망이다. 이 규모만 8조원이다. 이에 시중은행은 물론 인터넷전문은행들도 대환 대출 고객에 눈독을 들이고 있다. 우대금리를 적용해주고 수수료 면제 등 혜택을 전면에 내세워 고객 확보에 적극적인 모습이다.     26일 우리은행은 씨티은행을 이용하고 있는 고객의 원활한 대출 갈아타기(대환)를 위한 특화 상품 ‘우리 씨티 대환 신용대출’을 오는 7월 1일 출시한다고 밝혔다.       씨티은행에서 사용하고 있는 신용대출을 대환하기 위한 전용 신상품으로, 최대 1.5%포인트(p) 우대금리를 제공한다. 이에 따라 최저 연 3% 초반 수준으로 대출 이용이 가능할 전망이다. 특히 우리은행 대출을 미보유한 고객이 대환을 신청할 경우 1%p가 우대된다.     대출한도는 씨티은행 대출을 갈아타기에 무리가 없도록 대환금액 범위 내에서 연 소득의 최대 230%까지 부여한다. 최대 3억원까지다.     올해 말까지는 대출을 받은 고객에게 중도상환해약금과 인지세를 100% 면제하는 혜택도 준다.      우리은행 관계자는 “씨티은행을 이용하신 고객이 불편함 없이 주거래은행을 우리은행으로 변경할 수 있도록 다양한 방안을 준비 중”이라고 말했다.      우리은행 씨티은행 대환 대출 상품     우리은행은 일찍부터 씨티은행의 대환 대출을 위한 준비를 해왔다. 앞서 13명의 씨티은행 출신 프라이빗뱅커(PB)를 영입하고, 씨티은행의 고액자산가 유치를 위한 전략을 짜 온 것이다.     하지만 우리은행은 씨티은행의 대환 제휴사에 선정되지 못했다. 앞서 씨티은행의 대환 제휴사는 KB국민은행과 토스뱅크가 선정된 바 있다.     지난 23일 씨티은행은 소비자금융 업무의 단계적 폐지에 맞춰 오는 7월 1일부터 개인신용대출 대환 제휴 프로그램을 시행한다고 밝혔다. 제휴 프로그램을 이용하면 대환 제휴사인 국민은행과 토스뱅크를 통해 금리 우대는 물론 중도상환수수료·대환대출 금액에 따른 인지세 면제 등 혜택을 받을 수 있다.     이에 따라 국민은행은 대환 전 대출 금리 대비 최대 0.4%p의 우대금리를 지원하기로 했다. 웰컴 우대금리 0.2%p는 별도 조건 없이 일괄 적용된다. 더불어 국민은행 자체 신용평가 결과 6등급 이내 고객에게는 우대금리 최대 0.2%p가 추가 적용된다.     또 대환 시 발생하는 인지세는 은행이 전액 부담하며, 대출 기간에 상환 시 발생하는 중도상환수수료 역시 면제해 준다.     토스뱅크는 조건 없이 전 고객에게 0.3%p 금리 할인 혜택을 제공하기로 했다.       예를 들어 씨티은행에서 연 3.5% 금리로 대출을 받은 고객이 토스뱅크로 대환 대출을 하면 연 3.2% 금리로 떨어지게 된다.     토스뱅크는 대환 시 5000만원 이상 대출을 받을 경우에만 고객이 부담해야 하는 인지세를 전액 부담하기로 했다. 대출 기간 중 중도 상환 시 발생하는 수수료는 면제해 준다.      -     아직 씨티은행을 겨냥한 대환 대출 상품을 내놓지 않은 시중은행들도 관련 상품을 내놓을 것으로 보인다.       신한은행은 7월 중 우대 금리 등 혜택을 담은 씨티은행 고객 대환 전용상품 출시를 준비 중이다. 신한은행은 타 은행과 비슷한 내용에 더해 대여금고를 갈아타면 임차보증금과 수수료를 면제하는 혜택도 담을 것으로 보인다.     이 밖에도 씨티은행 출신의 PB를 영입한 SC제일은행 역시 씨티은행의 고액자산가 유치를 준비 중으로 알려졌다.     국민은행 관계자는 "대환 대출 제휴사는 직접 씨티은행과 소통하는 부분이 있기 때문에 빠른 정보 전달이 가능한 면이 있을 것"이라고 말했다.    권지예 기자 kwonjiye@edaily.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2022.06.22.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>씨티銀, 8조 대출자들 고민…다음달 어디로 갈아타나</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000291140?sid=101</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>한국씨티은행의 국내 소비자금융 사업 철수에 따라 8조 원 규모의 신용대출 갈아타기가 다음 달부터 시작됩니다.오늘(22일) 금융권에 따르면 한국씨티은행은 개인신용대출 부문의 대환을 받을 제휴 은행으로 KB국민은행과 토스뱅크 등을 유력한 후보로 두고 최종 조율을 진행 중입니다.다만, 다음 달부터 대환 작업이 시작되는 만큼 씨티은행은 이번주 초까지 계약을 마무리 지을 계획이었지만 최근 연준의 가파른 금리 인상 기조가 막판 변수로 작용하고 있습니다.  일부 은행들은 당초 합의한 대환금리 조건을 받아들으면, 향후 역마진이 날 수 있다고 우려를 제기한 것으로 알려집니다.3월 말 기준, 씨티은행의 개인 신용대출 잔액은 8조 409억 원 수준입니다. 기존 씨티은행 신용대출 고객은 제휴 은행에서의 대환을 선택할 경우 우대금리 혜택 등의 편의를 받을 수 있습니다. 토스뱅크는 계약이 최종 성사될 경우 씨티은행 대환 고객에 0.3%포인트의 금리혜택을 제공할 예정입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2022.06.18.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>‘OO페이’로 잘못 보낸 200만원…끝내 돌려받지 못한 사연 [금융SOS]</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003203215?sid=101</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>[금융SOS]   핀테크 플랫폼 등에서 제공하는 간편 송금 서비스를 이용할 때 부주의로 잘못 송금하지 않도록 소비자의 주의가 요구된다. [사진 셔터스톡]           주부 A씨(63)는 지난해 11월 한 핀테크 플랫폼의 간편 송금 서비스를 이용하다가 낭패를 당했다. "주식 청약금이 필요해 급하게 빌려달라"는 지인의 부탁에 200만원을 송금했는데, 실수로 동명이인에게 돈을 보낸 것이다. 계좌번호 대신 같은 플랫폼의 친구로 추가된 회원의 이름만 입력하면 송금할 수 있는 간편결제 서비스를 이용하다, 수취인을 제대로 확인을 하지 않고 습관적으로 송금 버튼을 누른 게 화근이었다.      문제는 착오송금을 받은 상대방이 돈을 돌려주지도 않고, A씨의 연락조차 피하고 있다는 점이다. 해당 플랫폼의 고객센터에 신고했지만, “상대가 반환 요청을 거부하고 있다”는 답만 돌아왔다. 예금보험공사에서 운영하는 ‘착오송금 반환 지원제도’ 요청을 해봤지만 “연락처를 통한 송금은 지원대상이 아니다”라고 했다. 결국 A씨는 돈을 돌려받는 것을 포기했다.      A씨는 “변호사를 통해 알아보니 부당이익 반환소송을 통해 잘못 보낸 돈을 돌려받을 수 있는데, 시간도 오래 걸리고 소송에 돈을 더 쓸 것 같아서 포기하려 한다”고 말했다.  그래픽=전유진 yuki@joongang.co.kr           핀테크 플랫폼 등에서 제공하는 간편 송금 서비스를 이용할 때 부주의로 인한 착오 송금이 늘고 있다. 윤관석 더불어민주당 의원이 지난해 금융감독원으로부터 제출받은 자료에 따르면, 토스·카카오페이·네이버페이의 간편 송금 서비스로 발생한 착오송금 건수는 2020년 기준 총 2만1595건으로 2017년(2197건) 이후 꾸준히 늘고 있다.      간편 송금은 온라인 금융 플랫폼에서 OTP나 보안카드 없이 비밀번호만으로 쉽게 이체하는 서비스다. 신속하고 편리하게 돈을 보낸다는 장점이 있지만, 송금 절차가 짧아져 착오송금의 가능성도 커진다.     ━  착오 송금, 고객센터 신고 먼저…카카오 ‘송금 취소’ 기능도     특히 일부 플랫폼의 간편 송금 서비스 중 계좌번호 없이 송금이 가능한 기능을 이용할 때는 각별한 주의가 필요하다. 수취인을 오해해 잘못 송금했거나, 잘못된 금액을 보냈을 경우 돈을 돌려받기 까다로울 수 있어서다.      토스의 ‘연락처 송금하기’ 기능을 이용할 때 착오송금이 발생하면 일단 고객센터에 신고해야 한다. 신고가 접수되면 토스 측에서 상대방에게 송금액 반환을 요청한다. 접수 이후 반환 요청까지 수취인이 돈을 입금한 은행의 처리 절차에 따라 짧으면 1~3일, 길게는 한 달이 걸린다.      그러나 상대방이 반환을 거부하면 돈을 돌려 받긴 어렵다. 토스 측에서 반환을 강제할 방법은 없어서다. 이럴 경우 송금인이 부당이득 반환청구소송을 제기하는 것 외에는 별다른 선택지가 없다. 토스 관계자는 “입금인이 반환을 거부해도 회사 측에서 반환을 강제할 방법이 없기 때문에 송금 전 꼼꼼한 수취인 확인이 가장 중요하다”고 말했다.    [사진 독자제공]       카카오페이와 카카오뱅크, 네이버페이의 간편 송금은 ‘송금 취소’ 기능이 있다. 계좌번호가 아닌 카카오톡 아이디나 네이버 아이디를 통해 돈을 보낼 경우, 상대방이 송금한 액수를 확인한 뒤 직접 ‘받기’ 버튼을 누르기 전까지는 송금을 취소할 수 있다. 그러나 상대방이 버튼을 누른 뒤 송금액이 계좌로 입금되면 송금 취소는 불가능하다. 이러면 각 업체의 고객센터 신고 접수를 통해 상대방에게 반환 요청을 해야 하지만, 강제로 반환을 요구할 방법은 없다.      카카오뱅크 관계자는 “송금 취소 기능을 이용할 수 없는 경우, 고객센터가 반환 요청을 전달해주거나 민사소송 등의 절차를 안내해주고 있다”고 말했다. 네이버페이 관계자도 “이미 송금된 경우 송금을 취소하거나 강제 회수할 방법은 없다”며 “오수취인이 송금액 반환을 거부하면 예금보험공사가 시행하는 ‘착오송금 반환지원제도’를 안내하고 있다”고 밝혔다.     ━  ‘착오송금 반환지원제도’, 연락처·카톡 계정 송금 시 불가     ‘착오송금 반환지원 제도’ 절차 그래픽 이미지. [자료제공=예금보험공사]            예금보험공사(예보)가 지난해 7월부터 시행 중인 ‘착오송금 반환지원 제도(예보가 착오송금의 반환을 도와주는 제도)’가 있지만, 핀테크 업체의 간편 송금을 어떤 방식으로 이용했는지에 따라 적용 대상에서 제외될 수 있다. 만약 토스의 연락처 송금을 이용했거나, 카카오톡 메신저 아이디를 통한 송금 등 회원간 거래일 경우 지원 대상에 포함되지 않는다. 이 경우 은행 계좌 이체와 달리 예보가 수취인의 이름과 주민등록번호 등을 확인할 수 없는 구조이기 때문이다.      간편 송금을 이용하더라도 상대방의 계좌를 직접 입력해 돈을 보냈다면 경우가 다르다. 시중은행 계좌 이체처럼 예보가 이름과 주민등록번호 등을 확인할 수 있고, 착오 송금액이 5만~1000만원이면 지원 대상에 포함될 가능성이 크다.      예보의 착오송금 반환제도를 이용하려면 먼저 송금한 금융사를 통해 자진반환 요청을 해야 한다. 고객센터에 신고를 접수해 상대방에게 반환을 요청하는 절차가 여기에 해당한다. 자진 반환을 받지 못했다면 예보의 홈페이지나 예보 본사 상담센터를 방문해 착오송금 반환을 신청할 수 있다.      신청이 접수된 뒤 예보가 지원제도 범위에 포함된다고 판단할 경우 착오송금액에 대한 부당이득반환 채권을 매입한 뒤 회수절차를 진행한다. 수취인 정보 확인과 지급명령 절차 등을 모두 거친 뒤 통상 1~2개월 이내에 착오송금액을 반환한다. 그 다음 실제 회수 금액에서 회수에 들어간 관련 비용을 뺀 잔액을 신청인이 돌려받는다. 우편 안내비용과 지급명령 관련 인지대, 송달료, 인건비 등이다. 회수에 소요되는 비용은 개인별로 달라진다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2022.06.21.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>대출 플랫폼 통한 은행 가계대출, 작년 3조1000억</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003435452?sid=101</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>전체 신규 대출의 1.7% 차지대출을 비교·중개해 주는 디지털 플랫폼을 통해 은행에서 나간 대출이 지난해 3조 원을 넘어선 것으로 나타났다. 전체 신규 대출의 1.7% 수준이다. 20일 금융권에 따르면 금융감독원이 최근 국내 은행의 온라인 대출 플랫폼 활용 실태를 점검한 결과 지난해 플랫폼을 통한 가계대출 모집 규모는 총 3조1000억 원으로 집계됐다. 전체 은행 신규 대출(181조8000억 원)의 1.7%에 해당하는 규모다. 올해 3월 말 현재 국내 은행 13곳이 온라인 대출 플랫폼과 위탁계약을 체결했다. 특히 지방은행에서 대출 플랫폼을 통해 실행된 가계대출이 2조3000억 원으로 시중은행(7000억 원)에 비해 3배 이상 많았다. 상대적으로 영업에 제약이 큰 지방은행들이 대출 모집 채널을 다변화하기 위해 온라인 플랫폼을 적극 활용하고 있는 것으로 풀이된다.  온라인 대출 플랫폼 중에서는 카카오페이, 비바리퍼블리카(토스)를 이용하는 금융소비자가 많았다. 대출 플랫폼 14곳 가운데 이 2곳의 대출이 차지하는 비중이 전체의 86.8%였다. 대출 플랫폼을 통해 대출을 조회하고 실제 대출을 받은 건수는 2020년 이후 꾸준히 증가하고 있다. 특히 중·저신용층이 플랫폼을 활용해 비교적 낮은 금리로 대출을 받아가는 추세다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2022.06.23.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>스페이스베이스, IT스타트업에 특화된 공간 브랜딩 및 인테리어 제공</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004981784?sid=105</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>‘스페이스베이스’는 기존 업무공간 인테리어 회사와 달리 IT스타트업에 특화된 공간 브랜딩 서비스를 제공하는 인테리어 디자인 회사이다. 스페이스베이스만의 브랜드 철학을 바탕으로 각 기업의 브랜딩을 담은 업무 공간 인테리어를 선보여 2021년 11월 설립 이후 2022년 6월까지 7개월간 매출 누적액이 70억원을 돌파하며 오피스 인테리어 시장에서 독보적인 성장세를 보이고 있다.스페이스베이스의 대표인 김영은 디자이너는 국내 인테리어 디자인 스튜디오 아우딘스페이스 총괄을 역임한 인물로, 2017년부터 본격적으로 업무공간 브랜딩 인테리어를 시작하여 많은 스타트업들의 업무 공간을 만들어가며 현재의 IT스타트업 전문 인테리어 기업으로 성장했다.김영은 디자이너는 현재까지 △이커머스(당근마켓, 오늘의집, RXC) △OTT(웨이브) △게임(네이버_라인게임즈, 어썸피스) △소프트웨어(이스트소프트, 스윗코리아, 스틸리언, 스포카) △브랜딩(더워터멜론) △부동산(우대빵) △의료(뉴로게이저, 실비아헬스) △금융(토스) △엔테테인먼트(빅히트, 레페리) △교육(밀리의서재, 트레바리, 탈잉, 디쉐어) △취업(원티드) 등 다양한 분야의 스타트업들을 대상으로 각 업무환경에 최적화된 공간 기획 및 브랜딩, 인테리어 컨설팅을 제공해오고 있다.과거 오피스 인테리어는 업무의 효율적인 동선을 마련하고 회사의 위상을 표현하기 위한 수단으로 사용되어 왔다. 그러나 IT기술의 발달로 스타트업이 급속도로 늘어나면서 오피스 인테리어 트렌드에도 변화가 나타나고 있다. 스타트업 회사의 레이아웃 요청서에 대표실이 없어진 것이 그 중 하나로, 예전에는 대표실을 만들어 대표의 지위를 나타내려 했다면 이제는 팀원들과 함께 앉아 일을 하는 책상으로 자리를 이동하여 회사의 모든 분위기를 파악하고 소통의 중심에 있고자 한다.기성세대와 달리 지금의 문화를 더 잘 이해하는 20~30대 층이 대부분인 스타트업의 젊은 대표들은 더 좋은 인재를 확보하면서 그들의 재능을 이끌어내어 회사와 함께 성장할 수 있는 공간을 조성하는 데 집중하고 있다. 또한 그들은 임원 중심의 우대문화를 지양하고 직원들의 자기개발이 회사가치에 부합될 수 있도록 전 직원의 오피스생활이 윤택해지기를 바란다.스페이스베이스는 이러한 니즈에 발맞춰 수많은 스타트업의 오피스 디자인 현장 경험을 바탕으로 IT스타트업에 특화된 맞춤 공간브랜딩 및 인테리어 디자인 설계를 제공하고 있다. 이를 위해 업무 중 팀원들과 자유롭게 대화할 수 있는 공간, 혼자 집중하여 일할 수 있는 공간, 카페처럼 편한 분위기에서 랩탑을 이용할 수 있는 공간, 화상회의를 진행할 수 있는 공간 등 다양한 형태의 업무공간을 제공하고자 한다.김영은 디자이너는 “스페이스베이스의 목표는 ‘회사의 브랜딩을 담은 기업공간 브랜딩’이다. 일하는 사람에게 천국처럼 느껴지는 업무공간을 만들고자 한다”라며 “트렌디한 브랜딩을 내세워 기업의 목적성을 구성원들에게 알리고 재택근무가 일상화되는 시대에 회사의 근무환경이 집만큼 편하게 느껴질 수 있는 공간을 제공하기 위해 노력하고 있다”고 말했다.이어 “최근의 오피스디자인의 트렌드는 시각적 측면의 트렌드와 기능적인 면을 모두 충족시킬 수 있는 공간 브랜딩이 핵심이다. 수많은 스타트업 오피스 디자인 현장에서의 경험을 통해 축적한 포트폴리오와 스페이스베이스만의 감각을 통해 각 IT기업별로 다른 공간을 창조해내고 싶다. 이와 동시에 고객 니즈를 최대한 반영한 맞춤 인테리어 서비스를 지속적으로 제공할 계획”이라고 덧붙였다.매일경제 조광현 연구원</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2022.06.24.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>“은산분리 만년설이 녹고 있다”…한 자리에 모인 금융권 리더들의 화두는? [헤럴드 금융포럼 2022]</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002007080?sid=101</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>尹정부, 정책 주요 관심사경제 상황에 대한 우려도 있어사제지간 조우하기도‘헤럴드금융포럼 2022’이 23일 오전 서울 중구 소공동 더플라자 호텔 그랜드볼룸에서 '금융, 플랫폼이 되다'를 주제로 열린 가운데 주요내빈들이 티타임을 갖고. 박해묵 기자[헤럴드경제=박병국·서정은·박자연 기자] “은산분리 만년설이 녹고 있다”국내 금융계를 이끄는 인사들이 한자리에 모였다. 23일 오전 서울 소공동 더 플라자호텔에서 열린 ‘헤럴드 금융포럼 2022’에는 올해 주제인 ‘금융, 플랫폼이 되다’에 맞게 금융당국과 은행, 카드, 보험을 비롯해 테크핀·핀테크 최고경영자(CEO)들이 한 자리에 모였다. 금융공기업과 각 업권 협회장들도 함께 했다.'헤럴드금융포럼 2022' 가 23일 오전 서울 중구 소공동 더플라자호텔 그랜드볼룸에서 '금융, 플랫폼이 되다'를 주제로 열린 가운데 주요내빈들이 참석 하고 있다. 박해묵 기자전통 금융과 기술 기업의 벽을 허무는 것은 이들의 가장 큰 관심사였다. 국회 정무위원회 소속 윤창현 국민의힘 의원이 “은산분리 규제가 이번 정권 들어서 약간 눈이 녹는 느낌”이라고 말하자 한 핀테크 회사 대표는 “만년설이었다”고 화답했다.은행권 인사들도 고개를 끄덕이며 이 말에 동의했다. 현행법에 따르면 비금융 회사는 은행 지분을 4% 이상 보유할 수 없다. 김주현 금융위원장 후보 역시 은산분리 완화를 추진하겠다고 밝힌 바 있다.또 은행의 비은행 소유를 통한 서비스 확대도 화두에 올랐다. 김소영 금융위 부위원장도 “업무범위나 자회사 투자제한 등 규제를 개선해 금융사들이 경쟁력 있는 플랫폼으로 발전해나갈 수 있도록 하겠다”고 말했다.실제 전통 금융과 테크핀·핀테크 CEO는 서로에 대한 관심이 높았다. 특히 지난 3월 선임된 박상진 네이버파이낸셜 대표이사가 등장하자, 한 지주사 CEO가 다가와 “임명을 축하드린다. 우리도 네이버와 협약을 맺고 싶다”고 반갑게 인사를 건넸다. 또 다른 은행장은 “우리도 네이버로부터 많이 배워야 한다”고 말하기도 했다.'헤럴드금융포럼 2022' 가 23일 오전 서울 중구 소공동 더플라자호텔 그랜드볼룸에서 '금융, 플랫폼이 되다'를 주제로 열린 가운데 좌장인 김용진 서강대 경영학 교수가 토론을 진행하고 있다. 박해묵 기자한국에서 소매금융업을 철수하는 씨티은행의 8조원 규모 개인신용대출 대환대출을 맡게 된 이재근 KB국민은행장과 홍민택 토스뱅크 대표는 서로 축하의 인사로 환담을 시작했다.새 정부 정책 기조에 대한 이야기도 이어졌다. 전날 윤석열 대통령이 “공공기관 혁신은 더 이상 미룰 수 없는 과제”라며 공공기관 방만경영에 대한 쇄신을 예고한 데 대해, 금융권 인사들은 “이미 주요 공공기관들에서 성과급 반납에 나고 있다”고 언급하며 분위기가 달라졌다고 평했다.'헤럴드금융포럼 2022' 가 23일 오전 서울 중구 소공동 더플라자호텔 그랜드볼룸에서 '금융, 플랫폼이 되다'를 주제로 열린 가운데 참가자가 주제발표 내용을 카메라에 담고 있다. 박해묵 기자그러나 금융권 인사들의 가장 큰 관심은 무엇보다 물가, 금리, 환율이 모두 오르며 나타난 금융시장 불확실성 확대에 대한 것이었다. 이날 원·달러 환율은 13년 만에 처음으로 1300원을 넘기며 상승 압박을 받았다.한 시중은행장이 “세계 경제를 엄중한 상황으로 봐야 된다”며 “실물 경제상황이 안좋은데 인플레이션까지 잡히지 않으면서 대응이 어렵다”고 말했다. 그러나 또 다른 은행장이 “어제 한국은행이 금융안정 프로세스 주의단계를 발표할 정도로 불확실성이 크다”고 걱정을 표했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2022.06.17.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>산은·무협, 스타트업 투자박람회 '넥스트라이즈' 성황리 마무리</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000290567?sid=101</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>산업은행과 무역협회는 어제(16일)와 오늘(17일) 이틀간 서울 삼성동 코엑스에서 국내 최대 스타트업 페어인 '넥스트라이즈(NextRise) 2022 서울'을 성공적으로 마무리했다고 밝혔습니다.올해로 4회차를 맞은 페어는 유망 스타트업의 투자유치와 더불어 국내외 대·중견기업들과의 사업협력 확대를 목적으로 열리는 스타트업 지원 행사로, 국가과학기술연구회, 벤처기업협회, 벤처캐피탈협회도 공동 주최기관으로 참여하고 있습니다. 특히 올해는 그동안 코로나19로 인해 온라인으로만 참석했던 해외 유명 스타트업과 벤처캐피탈(VC) 등 글로벌 벤처생태계 관계자가 대거 현장에 직접 참석했습니다.어제 개회식에서 강석훈 산업은행 회장은 "변화의  중심에는 늘 스타트업이 있고, 스타트업의 새로운 아이디어와 대담한 도전이 지금도 세상을 바꾸고 있다"고 말했습니다.김소영 금융위원회 부위원장도 "벤처창업이 우리나라 국가 경제에 큰 기여를 하고 있다"며, "벤처·스타트업이 더욱 활성화 될 수 있도록 규제개혁과 성장단계별 지원체계 고도화에 힘쓰겠다"고 밝혔습니다. 송창현 현대차 사장은 '자율주행 모빌리티의 미래'라는 주제로 기조연설에 나섰습니다.또 이광형 카이스트 총장이 '세상은 넓다'라는 주제로, 비바리퍼블리카(토스)의 이승건 대표가 스타트업의 생존전략을, 싱가포르의 유명 벤처캐피탈 버텍스홀딩스(Vertex Holdings)의 추아키락 회장이 글로벌 스타트업 생태계의 성장에 대한 의견을 공유하기도 했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2022.06.17.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>토뱅 ‘키워봐요 적금’ 출시 3일 만에 10만좌 돌파</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000290563?sid=101</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>토스뱅크의 '키워봐요 적금'이 출시 3일 만에 누적 계좌개설 10만좌를 돌파했습니다.토스뱅크는 지난 14일 출시된 첫 적금 상품 '키워봐요 적금' 가입자 수가 출시 3일 만인 오늘(17일) 기준 10만명을 넘었다고 밝혔습니다.   '키워봐요 적금'은 6개월 만기 시 최고 3%의 금리 혜택을 제공하는 상품입니다. 납입한도는 월 최대 100만원이며, 매주 1천원부터 20만원까지 납입이 가능합니다.토스뱅크는 이번 상품의 인기 요인 중 하나로 가입 시 지급받은 동물의 알을 6개월 동안 전설의 동물로 진화시키는 등 목돈을 만들어 가는 시간을 즐거움과 재미로 전환하도록 기획된 점을 꼽았습니다.토스뱅크 관계자는 "고객들이 SNS에 귀여운 동물 친구들을 공유하며 인기를 끌었다"며 “앞으로도 고객들이 보다 즐겁게 이용하고 유용한 혜택을 받아갈 수 있도록 할 것”이라고 말했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2022.06.22.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>토스뱅크, 1천억원 규모 유상증자 결의…총 9천500억원 자본금 확보</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000680452?sid=101</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>지난 2월 증자 뒤 넉 달만…신규 서비스 출시 여력 확보토스뱅크가 전날 이사회를 열고 1천억원 규모의 유상증자를 추진한다고 22일 밝혔다. 지난 2월 두 번째 유상증자 이후 4개월 만이다.토스뱅크는 출범 후 지금까지 총 세 차례에 걸쳐 7천억원의 자본을 추가 확보했는데, 이번 증자를 통해 총 납입자본금은 총9천500억원으로 늘어난다.토스뱅크 로고. [사진=토스뱅크]이번 증자 결정으로 총 2천만 주가 신규 발행된다. 주당 발행가는 5천원이다. 2천만주 가운데 보통주는 1천500만 주, 전환주는 500만 주로 발행된다. 유상증자 납입일은 6월 29일이다.토스뱅크 관계자는 "주주사의 적극적인 지원으로 여수신 영업을 확대할 수 있는 추가 자본금을 확보할 수 있게 됐다"며 "이를 바탕으로 자본건전성을 강화하고 혁신적인 서비스를 선보여 은행에 대한 고객 경험을 바꾸어 나갈 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2022.06.22.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>토스뱅크, 1000억 원 규모 유상증자…총 9500억원 자본금 확보</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002278640?sid=101</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>토스뱅크는 지난 21일 이사회를 열고 1000억 원 규모의 유상증자를 추진하기로 결의했다. 올해 2월의 두 번째 유상증자 이후 4개월 만이며, 출범 후 지금까지 총 세 차례에 걸쳐 7000억원의 자본을 추가 확보하게 됐다.   이번 1000억 원 증자를 통해 총 2000만 주가 신규 발행되며 주당 발행가는 5000원이다. 2000만 주 가운데 보통주는 1500만 주, 전환주는 500만 주로 발행된다. 유상증자 납입일은 6월 29일이며, 증자를 마치면 토스뱅크의 납입자본금은 총 9500억원으로 늘어난다.   토스뱅크는 올해 1월 여신영업 재개와 함께 뚜렷한 성장세를 보이고 있다. 개인 신용대출 상품의 중저신용자 대출 비중은 35.2%(5월말 기준)를 달성했으며, 인터넷은행 3사 중에서 유일하게 30%대를 기록하고 있다.   토스뱅크 관계자는 “주주사의 적극적인 지원으로 여수신 영업을 확대할 수 있는 추가 자본금을 확보할 수 있게 됐다”며 “이를 바탕으로 자본건전성을 강화하고 혁신적인 서비스를 선보여 은행에 대한 고객 경험을 바꾸어 나갈 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2022.06.25.</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>취준생 10명 중 7명 "금융권 취업 희망"…1위 '카카오뱅크'</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011267140?sid=101</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 이현주 기자 = 신입 취업을 준비하는 취업준비생 10명 중 7명이 금융권 기업에 취업할 의사가 있는 것으로 나타났다. 25일 취업 플랫폼 잡코리아가 신입직 취업을 준비하는 취준생 569명을 대상으로 금융권 취업 선호도에 대해 조사한 결과 전체 응답자 중 72.6%가 '금융권 기업에 취업할 의사가 있다'고 답했다.금융권 중에서도 은행업계 취업을 선호했다. 금융권에 취업할 의향이 있다고 답한 취준생들에게 금융권 중 가장 취업하고 싶은 업계를 꼽아보게 한 결과, '은행'이라 답한 취준생이 55.7%로 가장 많았다. 이어 증권 업계에 취업하고 싶다는 취준생이 19.6%로 다음으로 많았다.가장 취업하고 싶은 금융회사는 '카카오뱅크'가 1위에 올랐다. 가장 취업하고 싶은 금융회사를 조사한 결과 '카카오뱅크'를 꼽은 취준생이 33.9%로 가장 많았다. 카카오뱅크는 지난해 동일 조사 결과에서 가장 취업하고 싶은 금융회사 1위에 랭크된 이래 2년 연속 1위를 차지했다.다음으로 ▲신한은행 25.4% ▲KB국민은행 24.0% ▲우리은행 18.6% ▲NH농협은행 18.6% 순으로 취업하고 싶은 금융회사를 꼽았다.성별로 보면 남성은 카카오뱅크(34.4%)에 이어 KB국민은행(21.9%), 신한은행(18.8%), 토스뱅크(16.3%), 우리은행(15.6%) 순으로 취업 선호도가 높아, 인터넷 은행에 대한 취업 선호도가 상대적으로 높은 것으로 나타났다. 여성은 카카오뱅크(33.6%)를 취업 선호 기업으로 꼽은 응답자가 가장 많았고, 이어 신한은행(29.6%), KB국민은행(25.3%) 순으로 취업 선호도가 높았다.취업 선호도에 영향을 미치는 요인 1위는 '직원 복지'였다. 이들 기업에 취업하고 싶은 가장 큰 이유 한 가지를 꼽아보게 한 결과 '직원 복지가 우수할 것 같아서'라는 답변이 19.1%로 가장 높았다. 다음으로 ▲연봉이 높을 것 같아서 12.3% ▲오래전부터 이용해온 회사라서 12.1% ▲오랫동안 일할 수 있을 것 같아서 10.9% 순으로 답변이 높았다.금융권 취업을 위해 취준생들은 '금융 분야 자격증 취득'을 가장 많이 준비하는 것으로 나타났다. 금융권 취업을 위해 특히 어떤 노력을 해왔는지에 대해 복수응답으로 조사한 결과 '금융 분야 자격증 취득'이라 답한 취준생이 42.6%로 가장 많았다. 이어 '전공 자격증 취득' 34.6%, '학점 향상' 34.6% 등 자격증 취득이나 전공 지식 향상을 준비하는 취준생들이 많은 것으로 조사됐다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2022.06.22.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>"실탄 9500억 확보했다" 토스뱅크, 1000억 유상증자</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000824864?sid=101</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>/사진=토스뱅크 토스뱅크는 지난 21일 이사회를 열고 1000억원 규모의 유상증자를 추진하기로 결의했다고 22일 밝혔다. 올 2월 두번째 유상증자 이후 4개월만에 진행됐다.토스뱅크는 지난해 10월 출범한 이후 지금까지 총 3차례에 걸쳐 7000억원의 자본을 추가 확보했다.이번 1000억원 증자를 통해 총 2000만주가 신규 발행되며 주당 발행가는 5000원이다. 2000만주 가운데 보통주는 1500만주, 전환주는 500만주로 발행된다. 유상증자 납입일은 오는 29일이며 증자를 마치면 토스뱅크의 납입자본금은 총 9500억원으로 늘어난다. 토스뱅크는 올 1월부터 여신영업을 재개하며 성장세를 보이고 있다. 개인 신용대출 상품의 중저신용자 대출 비중은 5월말 기준 35.2%를 달성했으며 인터넷전문은행 3사 중 유일하게 30%대를 기록하고 있다. 인터넷은행 설립 본연의 취지인 중저신용고객의 포용금융에 집중하고 있다는 평가를 받고 있다. 토스뱅크 관계자는 "주주사의 적극적인 지원으로 여수신 영업을 확대할 수 있는 추가 자본금을 확보할 수 있게 됐다"며 "이를 바탕으로 자본건전성을 강화하고 혁신적인 서비스를 선보여 은행에 대한 고객 경험을 바꾸어 나갈 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2022.06.22.</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>씨티은행 8조 개인신용대출, 국민은행·토스뱅크서 대환(종합)</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011262429?sid=101</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>기사내용 요약국민은행, 최대 0.4%p 우대금리 지원토스뱅크, 일괄 0.3%p 금리혜택과 수수료 무료[서울=뉴시스] 이정필 이주혜 기자 = 한국씨티은행은 소비자금융 업무 단계적 폐지에 따른 은행 이용자 보호와 개인신용대출 고객의 편의 제공을 위해 KB국민은행, 토스뱅크와 업무제휴계약을 22일 체결했다.3사에 따르면 씨티은행은 오는 7월1일부터 개인신용대출 대환 제휴 프로그램을 시행한다. 씨티은행의 개인신용대출 잔액은 8조원 규모다.씨티은행 개인신용대출 고객이 해당 제휴 프로그램을 이용하는 경우 금리 우대, 중도상환수수료/대환대출 금액에 따른 인지세 면제 등의 혜택을 받을 수 있다. 대환 제휴 프로그램은 국민은행 앱이나 영업점, 토스뱅크 앱에서 신청할 수 있다. 이번 제휴를 통한 개인신용대출 대환대출은 씨티은행의 대출 잔액(한도대출의 경우 대출한도)과 동일한 금액으로만 진행이 가능하다. 고객이 제휴 은행으로부터 대환대출을 받으면 추가적인 절차 없이 제휴 은행과 씨티은행 간 대출상환이 진행된다.씨티은행 개인신용대출 고객의 타행 대환은 제휴 은행뿐 아니라 비 제휴 은행이나 타 금융회사에서도 신청 가능하다. 비 제휴 은행 및 타 금융회사로 대환을 원하는 고객은 해당 금융회사에 문의하면 상세한 내용과 절차를 알 수 있다. 7월1일부터 씨티은행 개인신용대출 고객이 다른 금융회사로 대환 시에, 대출금액의 증액이 없는 경우에 한해 차주별 총부채원리금상환 비율(DSR) 등 가계대출 규제가 적용되지 않는다. 대환을 원하는 금융회사의 심사 결과에 따라 대환이 거절이 될 수도 있다. 대환 가능 여부와 구체적인 대출 조건 등은 사전에 대환을 원하는 금융회사를 통해 개별 확인이 필요하다.대환대출 신청 시 씨티은행 대출 잔액보다 적은 금액으로 대환을 원하는 경우는 씨티은행 대출을 일부 상환 후 대환대출을 신청할 수 있다.씨티은행은 고객의 개인신용대출상품에 대해 2026년 말까지는 기존과 동일하게 은행이 정한 심사 기준(신용도와 채무상환능력을 재평가)에 따라 만기를 연장한다. 2027년 이후에도 전액 상환 또는 타금융기관을 통한 대환이 어려운 고객의 경우 분할 상환을 지원할 계획이다. 씨티은행이 제안하는 분할 상환은 기존과 동일하게 최대 5년간 분할 상환하는 프로그램이다. 상담 과정에서 상환능력이 충분하지 않는 것으로 판단되는 고객의 경우 최대 7년까지 상환기간을 부여할 예정이다.국민은행은 대환을 위해 모바일 대환 서비스를 제공하고, 전국 영업점 내 전담 상담창구를 운영한다. 씨티은행 대환대출 전용 상담센터를 운영하는 등 다양한 채널을 통해 지원할 방침이다.대환대출을 신청할 때 씨티은행과 제휴를 통해 재직·소득서류 제출 없이 대출금액과 금리를 확인할 수 있다. 대환을 희망하는 고객의 금융비용 부담을 완화하기 위한 금융지원도 이뤄진다. 대환 전 대출 금리 대비 최대 0.4%포인트(p)의 우대금리를 지원한다.웰컴 우대금리 0.2%p는 별도 조건 없이 일괄 적용된다. 국민은행 자체 신용평가 결과 6등급 이내 고객에게는 우대금리 최대 0.2%p가 추가 적용된다. 대환 시 발생하는 인지세를 은행이 전액 부담한다. 대출기간 중 상환 시 발생하는 중도상환수수료도 면제한다.토스뱅크에서 대환 대출을 이용할 경우 기존 대출 한도도 종전과 동일하게 유지하는 한편, 일괄 0.3%p 금리 할인 혜택을 받을 수 있다. 이용 상품별 조건도 동일하다. 일반 신용대출 상품을 이용하는 고객은 개인 신용대출로, 마이너스통장을 이용 중인 고객은 마이너스통장으로 대환하게 된다.토스뱅크는 대환 고객 대상 0.3%p 금리 할인을 제공한다. 일례로 연 3.8% 금리로 대출을 받은 고객은 토스뱅크에서 대환대출을 하게 될 경우 연 3.5% 금리로 대출서비스를 이용하게 된다. 토스뱅크는 씨티은행의 개인신용대출 고객을 위한 대환대출 시스템을 별도로 구축했다. 고객들은 토스뱅크에서 대환 가능 여부를 확인할 수 있으며, 모바일로 이용할 수 있다. 한국씨티은행의 모바일 앱과 홈페이지를 통해서도 대환 대출이 가능하다.대환 고객들의 경우 기존 씨티은행에서의 동일한 조건에 따라 최소 5년 간 대출 만기 연장이 가능하다. 이후에는 토스뱅크가 정한 조건에 따라 추가로 5년 더 연장(최대 10년)이 가능할 전망이다. 연체가 발생하거나 채권 추심 절차가 진행 중인 고객 등은 예외다. 토스뱅크는 대환 시 5000만 원 이상 대출을 받을 경우 고객이 부담해야 하는 인지세를 전액 부담한다. 대출 기간 중 중도 상환 시 발생하는 수수료도 면제한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2022.06.22.</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>토스뱅크 1000억 유상증자… 자본금 9500억으로 늘어나</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002740203?sid=101</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>인터넷 은행인 토스뱅크는 21일 이사회를 열고 1000억원 규모의 유상증자를 추진하기로 결의했다고 22일 밝혔다. 이번 증자는 지난 2월 두번째 유상증자 이후 4개월 만이다.이로써 토스뱅크는 출범 후 지금까지 세 차례에 걸쳐 7000억원의 자본을 추가 확보했다.이번 증자에선 주당 발행가 5000원에 총 2000만주가 신규 발행된다. 2000만주 가운데 보통주는 1500만주, 전환주는 500만주로 발행된다. 유상증자 납입일은 오는 29일이며, 증자를 마치면 토스뱅크의 납입자본금은 총 9500억원으로 늘어난다. 토스뱅크는 올 1월 여신영업 재개와 함께 성장세에 박차를 가하고 있다. 개인 신용대출 상품의 중저신용자 대출 비중은 35.2%(5월말 기준)에 이른다다. 인터넷은행 설립 본연의 취지인 중저신용 고객의 포용금융에 집중하고 있다는 설명이다.토스뱅크 관계자는 "주주사의 적극적인 지원으로 여수신 영업을 확대할 수 있는 추가 자본금을 확보할 수 있게 됐다"며 "이를 바탕으로 자본건전성을 강화하고 혁신적인 서비스를 선보여 은행에 대한 고객 경험을 바꾸어 나갈 것"이라고 말했다. 토스뱅크가 1000억원 규모 유상증자를 결의했다. 토스뱅크 제공</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2022.06.21.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>이번엔 카드론 대환대출…토스뱅크, 중저신용 대출 '메기' 될까</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004067628?sid=101</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>대환 한도 최대 2억7000만원"이자 부담 덜고 선택 폭 확대"카드업계는 "고객 빼가기" 반발[서울경제] 토스뱅크가 카드사의 고금리 카드론 대출을 대환하는 서비스를 출시했다. 중·저신용자의 높은 이자 부담을 덜고 소비자의 선택 폭을 넓히는 역할을 할 수 있을 것이라는 기대가 큰 반면 카드 업계는 ‘꼼수 영업’ ‘고객 빼가기’라며 반발하고 있다.21일 업계에 따르면 이달 초부터 토스뱅크는 카드론 보유 차주 중 조건이 맞는 일부 대출을 토스뱅크 신용대출로 바꿔주는 카드론 대출 서비스를 출시했다. 대환대출 한도는 최대 2억 7000만 원, 대출 기간은 최대 10년까지이며 적용 금리는 연 3.83%부터 시작한다. 재직 기간 3개월 연소득 1000만 원 이상 직장인이면 누구나 신청할 수 있으며 최소 대출 금액은 100만 원부터다. 토스뱅크에 따르면 이 서비스를 사용할 경우 현재 15.2%의 금리로 1500만 원의 카드론 대출을 이용하고 있는 30대 초반 중·저신용(KCB 신용 점수 기준 766점) 직장인의 경우 5.97%의 금리를 적용 받을 수 있으며 대출 한도도 늘어난다. 토스뱅크는 현재 일부 카드론을 대상으로 서비스를 적용하고 있지만 대상 카드사를 점차 확대할 계획이다. 토스뱅크 관계자는 “중·저신용 고객의 금융 이자 부담을 덜고 금융소비자 선택의 기회를 확장시키기 위한 상품”이라며 “고객의 실질 상환 능력을 중심으로 리스크 관리도 체계적으로 준비하고 있다”고 말했다.반면 카드 업계는 토스뱅크의 카드론 대환 대출 서비스에 불편한 기색이다. 해당 상품이 개인정보 유출 등 보안 문제와 허위 광고, 고객 뺏어가기 등의 문제가 있다는 주장도 나온다. 하지만 토스뱅크 측은 어떤 업권이든 더 유리한 조건의 상품을 선택하고 활용하는 것은 금융소비자로서 고객의 권리며 보안이나 허위 광고, 법 위반 등도 문제가 없다는 입장이다. 토스뱅크 관계자는 “다른 개인 신용정보와 같은 방식으로 관리하고 처리한다”며 “고객의 대리권을 얻어 토스뱅크가 카드사로부터 정보를 제공 받고 토스는 그 정보를 통해 업무를 처리하는 만큼 법률상 가능하다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2022.06.27.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>토스뱅크, 내달부터 카드론 대환대출 카드사 늘린다</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000291913?sid=101</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>토스뱅크가 다음달부터 카드론 대환대출 서비스를 확대합니다. 오늘(27일) 금융권에 따르면, 토스뱅크는 '카드론 대환대출 서비스'를 이달 초부터 시범적으로 출시했으며, 이르면 다음달 초부터 확장할 예정입니다. 은행권에서 대환대출 서비스 자체는 새롭지 않지만, 카드론을 은행 신용대출로 바꿔주는 서비스를 내놓은 건 토스뱅크가 처음입니다.현재는 삼성카드사의 카드론에 대한 대환대출만 가능하지만, 토스뱅크는 내달부터 대상 카드사를 늘려 본격적으로 서비스를 확장할 계획입니다. 카드론 이용 고객 중 상당수는 중간 수준의 신용도와 리스크를 가진 경우가 대부분인데, 이들을 1금융권의 테두리 안으로 들여와 중·저신용 고객으로 포용하겠다는 겁니다.인터넷전문은행의 설립 취지인 '포용금융' 행보로도 풀이됩니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2022.06.28.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>쿠팡깡 네이버깡 들어보셨나요</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003700371?sid=101</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>“쿠팡 대리 결제 80% 급매입니다.” “60만원짜리 TV 사려는데 쿠팡 90% 대리 구매 해주실 분 구해요.”20~30대가 많이 이용하는 한 온라인 중고장터에는 ‘대리 결제’나 ‘대리 구매’를 원하는 게시물들이 수십 건 올라와 있다. 여기에서 말하는 ‘쿠팡 대리’는 쿠팡의 후불 결제 서비스인 ‘나중결제’를 일컫는다. 쿠팡이 직매입해 놓은 상품을 외상으로 구매한 뒤 나중에 대금을 갚는 후불 결제 시스템이다.그래픽=양진경										그런데 이를 악용해 다른 사람이 필요로 하는 물건을 대신 사준 뒤 현금을 입금받는 이용자가 적지 않다. 예를 들어 10만원짜리 물건을 사려는 B씨에게 A씨가 20% 할인된 금액인 8만원만 받고 자신의 아이디로 물건을 대신 사 주는 것이다.핀테크 업계에선 이를 후불 결제를 악용한 ‘현금깡’이라고 부른다. 대금을 갚아야 하는 시점이 오면 A씨는 2만원 손해를 보게 되지만, 마치 ‘카드깡’처럼 현금을 당겨 쓰는 효과가 있기 때문이다. 카드깡은 신용카드로 물건을 사는 것처럼 꾸며 결제한 뒤 현금을 받는 불법 할인 대출이다. 게다가 카드깡은 돈을 갚지 않을 경우 신용점수가 떨어지지만, 현금깡은 외상값을 갚지 않아도 신용도에 영향을 주지 않는다. 금융회사들과 달리 연체 정보가 공유되지 않기 때문이다.현금깡에 악용되는 혁신 서비스…새로 생긴 후불결제 서비스 악용 대리결제 뒤 수수료 떼주고 현금 받아							나중결제 서비스의 경우 쿠팡이 이용자별로 월 한도를 다르게 부여한다. 쿠팡 측은 선정 기준이나 최대 한도액을 밝히고 있지 않지만 유통 업계에서는 최대 200만원까지 가능한 것으로 보고 있다.네이버파이낸셜이나 카카오페이, 토스 같은 핀테크 업체도 후불결제 기능이 있지만, 한도는 월 30만원으로 제한돼 있다. 금융 당국이 핀테크 후불결제를 혁신금융서비스로 지정하고 한도를 마구 늘리지 못하게 규제하고 있기 때문이다. 하지만 쿠팡은 직매입한 물건을 외상으로 파는 개념이라 금융 당국의 규제를 받지 않는다.BNPL(Buy Now Pay Later, 후불결제 서비스)이 대학생이나 주부 등 금융 이력이 부족한 이용자가 물품을 구매한 후 추후 상환할 수 있게 하자는 취지에서 도입됐지만, 오히려 이들의 금융 생활을 취약하게 만들고 있다는 지적이 나온다.쿠팡 측은 “나중결제는 고객이 나중에 (결제 대금을) 주지 않더라도 쿠팡이 손실을 부담하고 있어 신용불량자를 양산하는 카드깡과는 다르다”고 주장하고 있다. 이 논리대로라면 앞선 예시와 같은 현금깡을 한 후 ‘먹튀’를 해도 신용상 불이익이 없다는 뜻이 된다. 다만 쿠팡은 그런 이용자는 “적발 즉시 이용을 중지시킨다”고 했다.핀테크 3사도 연체 정보 공유 안 돼							쿠팡처럼 한도를 높게 주지는 않지만, 네이버파이낸셜·카카오페이·토스 등 핀테크사들의 후불 결제에도 허점이 있다. 본지 취재를 종합하면 이 핀테크 3사는 서로 이용자의 연체 정보를 공유하고 있지 않다.이에 따라 각 사의 후불결제 서비스를 중복으로 이용하면 한달에 최대 수십만원까지 쓸 수 있다. 금융 취약 계층을 야금야금 빚더미에 올릴 수 있다는 우려가 나온다. 핀테크사들과 달리 카드사의 경우 한국신용정보원을 통해 연체 정보가 공유되고 있다.윤창현 국민의힘 의원실이 금융감독원에서 받은 자료에 따르면 네이버페이 후불결제 고객의 지난 3월 연체율은 1.26%로 집계돼, 신용카드 연체율(0.54%)의 두 배가 넘었다. 다만 네이버파이낸셜 측은 “총 연채 채권이 9000만원으로 절댓값 자체가 크지 않다”고 해명했다.카카오페이 측은 “연체율이 0%에 가깝다”고 했고, 토스 측은 “출시 첫 달 연체 건수가 전혀 없었다”고 밝혔다. 하지만 두 회사 모두 올 들어 서비스를 출시했기 때문에 앞으로 연체가 늘어날 가능성이 있다. “제도적 허점이 악용되기 전 핀테크사들이 연체 정보를 공유하는 시스템이 필요하다”는 목소리가 나온다.여신업계 한 관계자는 “신용카드는 발급과 한도 설정을 위해 까다로운 신용 조건을 요구하는 데 비해 BNPL은 그렇지 않다”며 “신용도가 낮거나 소득이 없는 이용자가 주로 쓰는 서비스인 만큼 소액이더라도 신용 관리가 더 철저히 이뤄져야 한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2022.06.17.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>토스뱅크 '키워봐요 적금' 출시 3일 만에 10만좌 돌파</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000679585?sid=101</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>SNS에 귀여운 동물 친구들 공유하며 온라인 바이럴 확산토스뱅크가 지난 14일 출시한 '키워봐요 적금'이 출시 3일 만에 10만좌를 돌파했다고 17일 밝혔다.'키워봐요 적금'은 토스뱅크의 출범 후 첫 적금 상품으로 6개월 만기 시 최고 3%의 금리 혜택을 제공한다. 납입한도는 월 최대 100만원이며, 매주 1천원부터 20만원까지 납입 가능하다.키워봐요 적금 10만좌 돌파 이미지. [사진=토스뱅크]또 가입 시 지급된 동물의 알이 이튿날 부화되면서 6개월 동안 열 단계에 거처 자란다. 동물은 유령, 거북이, 문어, 망아지 네 종으로 랜덤 지급되며, 매주 적금 자동이체 달성하면 최종 만기 시 전설의 동물로 진화한다.더불어 출시 후 고객들이 소셜네트워크서비스(SNS) 상에서 서로 지급된 동물의 알과 알을 깨고 나온 동물 친구들의 모습들을 공유하며 인기를 끌었다.토스뱅크 관계자는 "이번 '키워봐요 적금'을 출시한 후 보객들이 보다 즐겁게  금융 서비스를 이용하고 싶다는 니즈를 확인할 수 있었다"라고 전하며 "앞으로도 고객들에게 보다 즐겁게 금융을 이용하고 유용한 혜택을 받아가실 수 있도록 노력하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2022.06.29.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>토스뱅크, '360만 고객 확보·여신잔액 4조 돌파'…홍민택 대표 "수익성 개선에 집중"</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/076/0003886728?sid=101</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>◇지난 28일 서울 중구 커뮤니티하우스에서 열린 토스뱅크 미디어데이 행사에서 발언하고 있는 홍민택 대표.'카드 누적발급률 84%, 중저신용자 대출 비중 36%…' 토스뱅크가 지난해 10월 출범 이후 세운 기록이다.토스뱅크는 지난 28일 서울 중구 커뮤니티하우스에서 미디어데이 행사를 열고 출범 후 지금까지 약 9개월 간의 성과를 발표했다.토스뱅크에 따르면 가입고객은 6월 27일 기준 360만명을 돌파했다. 지난해 말 110만명 대비 250만명이 증가했다. 6개월 만에 고객 수가 세 배가 넘는 빠른 성장세를 보였다.가입 고객 중 10명 중 9명은 실제 뱅킹서비스를 이용하고 있다. 토스뱅크는 지점이 없어 모든 서비스가 모바일 앱으로만 제공됨에도 20대에서 50대 이상에 이르기까지 고른 분포를 보인다고 말했다. 토스뱅크 고객 중 40대는 23.8%, 50대 이상은 19.2%나 차지한다. 홍민택 토스뱅크 대표는 "전체 고객 중 체크카드의 누적발급률은 84%다. 토스뱅크 계좌고객 중 1원 이상 잔액을 넣고 있는 고객이 83.2%나 된다"며 "타은행과 비교해 깡통계좌 비율이 매우 낮다는 점에서 주목된다"고 말했다.홍 대표는 중저신용 대출 목표 달성에도 자신감을 드러냈다. 토스뱅크는 지난해 10월 출범 이후 대출 총량 규제로 인해 9일 만에 대출 한도를 소진하면서 여신영업을 중단한 바 있다. 올해 1월부터 본격적인 여신영업을 재개, 여신영업 중단이라는 위기를 겪고도 6월 현재 기준 대출 잔액 4조원을 돌파했다. 이 중 중저신용자 대출 비중은 36%로 출범 당시 약속했던 34.9% 약속을 지켰다. 홍 대표는 중저신용고객 포용 성과에 대해 "중저신용 고객을 위해 자체 개발한 신용평가모형인 토스 스코어링 시스템(TSS)를 적용하고 있다"며 "이를 통해 중저신용고객 4명 중 1명이 고신용자로 재평가되는 크레딧 빌딩 효과를 누릴 수 있는 기회를 드릴 수 있었다"고 설명했다.그는 현재 서비스 중인 연 2% 금리를 주는 수시입출금 통장과 지금 이자받기 서비스, 비대면 무보증·무담보 개인사업자 대출상품을 소개하기도 했다.이와 함께 향후 출시를 앞둔 상품에 대해서도 언급했다.홍 대표는 "내달 1일부터 토스뱅크 체크카드 에피소드3과 씨티은행 대환대출 서비스가 시작될 예정이다. '토스뱅크 모임통장' 상품도 곧 선보일 계획"이라고 말했다.이어 "고객들이 더욱 많은 상품을 만나볼 수 있도록 다양한 금융사와 제휴를 맺을 예정이다. 실제로 제안도 많이 왔다"면서 "다양한 금융상품 추천 서비스를 시작으로 포트폴리오를 단계별로 확장해나가겠다"고 덧붙였다.한편 홍 대표는 향후 목표를 묻는 질문에 대해 "지난달 기준 예대사업에서 흑자를 내고 있다. 수익성이 개선되는 트랙에 올라섰다"라며 "향후 가입자 성장과 함께 지속가능성을 확보할 수 있도록 수익성 개선에 집중할 계획"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2022.06.28.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>[미리보는 이데일리 신문]청약한파에 수도권마저 할인 분양</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005254308?sid=101</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>[이데일리 김윤지 기자] 다음은 6월 29일자 이데일리 신문 주요 뉴스다. △1면-청약한파에 수도권마저 할인 분양-‘토레스’로 희망 키운 쌍용차 KG그룹 날개 달고 새출발-규제·비리 내우외환에 추락하는 코스닥-“세계는 부채의 덫, 한국은 규제의 덫…최악 경기침체 온다”-[사설] 연례행사 된 최저임금 갈등, 일자리 지키는 게 먼저다-[사설] 전기·가스요금 인상, 물가와의 전쟁 다짐 잊어선 안 돼△종합-수상한 외환거래 8000억…중국계 자본 세탁용이었나-4년 만에 공식석상 선 조현민 “물류, 쉽고 재밌고 섹시해질 것”-법인세 최저세율 대상 늘려 中企 부담 완화한다△‘개미 무덤’ 코스닥-툭하면 횡령·배임에 바닥까지 떨어진 신뢰도…올해 시총 100조 증발-테마주 기승에…주가 요동에 추격 매수자 손실 쑥-‘새 얼굴’ 보기 힘든 코스닥…상반기 신규 상장사 수 19% 뚝△종합-올해 초 청약 경쟁률 22대 1 서울 아파트, 당첨자 10명 중 3명 계약 포기-재계, 노동개혁·세제개편 요청에…추경호 “규제 혁파” 화답-여당과 합의 없이…민주당 ‘국회 단독 원구성’ 강행 나서△KG그룹, 쌍용차 인수-토레스 이을 KR10·U100 출격 앞당겨…연타석 흥행몰이로 조기 정상화-자금 조달력·기업회생 경험 등 적임자 확신 줘-KG그룹, 채권변제율 상향 적극 검토…협상 여지 넓어져 △종합-법인세, 가장 낮은 ‘10% 구간’ 확대…상속·증여세, 공제금액 더 올려야-헷갈리는 ‘총수 일가 사익편취’ 판결-제조업체 경기전망 1년 반 만에 최악△정치-尹대통령, 호주 정상회담 이어 나토 사무총장 면담…다자 외교전 돌입-여야 ‘은행 이자장사’ 압박…예대마진 정조준 -MB 형집행정지 3개월 일시 석방△경제-서학개미 붐에…작년에 대미투자 첫 6000억弗 돌파-‘빈 일자리’ 4년 만에 최대 임금發 인플레 악순환 빠지나-28년 뒤…다섯 집 중 두 집은 ‘1인가구’△금융-홍민택 ‘대출 강화’ 승부수 통했다…토스뱅크, 예대사업 흑자-4세대 실손보험 ‘반값 할인’ 연말까지 연장-농협·신협 대출자도 당당하게 금리인하 요구하세요 △글로벌-서방에 맞서 세력 불리는 中·러…이란·아르헨도 브릭스 합류-전략개념에 포함, 불법어업 감시 연일 대중 압박수위 높여가는 美-G7 보란듯…러, 1000명 모인 우크라 쇼핑몰 폭격△이데일리가 만났습니다-“물가 폭등 한번 시작하면 잡기 어려워…정부, 중앙은행에 전권 줘야”-“한국, 중국보다 규제 심해…국경·무역 적극 개방을”△산업-국제선 조기 정상화…최고 실적 또 갈아치운다-미래사업 선봉장 허용수號 수소 등 4대 사업 속도낸다-AI·체온풍 에어컨으로…삼성 ‘무풍 생태계’ 확대한다△ICT-국가R&amp;D 예산 ‘다이어트’…우주 분야는 ‘벌크업’ -KT, RE100 가입…탄소중립 박차-NHN클라우드 “올해 매출 1600억 넘어설 것”△소비자생활-삽겹살은 말일 노리고, 전복은 수산대전 찾아요-롯데제과·롯데푸드 합병 목전 종합식품기업 도약 고삐 죈다-“세계시장서 통하는 ‘한국의 슈프림’ 만들고파”△증권-떨어질땐 ‘확’ 오를땐 ‘찔끔’ 고개 못 드는 대형株-“공매도 전담반 설치해 조사 강화” 이복현 금감원장 투자자 보호 강조-“대통령이 민다”…국내 첫 원자력 ETF 첫날 3%대 ‘환호’△부동산-규제지역 해제 ‘물망’…대구·세종 ‘매수세’ 붙나-회장 이어 수석부회장 직무정지 전문건설협 ‘지도부 공백’ 우려-고금리에 이자 눈덩이…‘전세의 월세화’ 가속△엔터테인먼트-더 야하게, 더 독하게…요즘 예능, 연애 한번 ‘찐하게’ 하네-할리우드 톱스타 뭉친 ‘토르4’…‘여름 성수기 대전’ 화려한 포문 여나△건강-치명적 합병증 유발 ‘전신성 아밀로이드증’…다학제 진료로 맞춤 치료-홍삼, 항바이러스 효과 입증 논문 국내외서 잇따라-치료해도 호전 없는 척추질환에 ‘양방향 내시경술’ 도움△Book-물고기 잡는 법 없는 그물책에 女心 푹 빠졌다-이어령 마지막 육필원고 ‘눈물 한 방울’ 공개 -일본은 어쩌다 ‘싸구려 나라’가 됐나△오피니언-[목멱칼럼] ‘경찰국 신설’ 논란에 관하여-[전문기자 칼럼] 다들 해도 되는데 ‘간송’만은 안 된다?-[기자 수첩] 민생 내팽개치고…필리핀 특사로 간 與 원내대표 △피플-“송해, ‘노래자랑’ 이후 삶 준비…후배들 위한 공연장도 알아봐”-‘한산’서 이순신역 박해일 “내면의 군자 같은 모습 끌어내”-존 리 메리츠운용 대표 위법 투자 의혹에 사의△사회 -수사팀 수장으로 ‘특수통’ 전면 배치…전 정권 권력 사건 수사 탄력 받나-장애인 자리는 찬밥신세-수장 사퇴에 술렁이는 경찰 ‘고행길’ 차기 청장 후보군은</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2022.06.16.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>"가상자산업 하겠다" 족쇄 풀라는 은행들... 금산분리 완화 괜찮을까</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/047/0002356762?sid=101</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>정부 규제 완화 예고에 시중은행들 역차별 해소 요구... 다시 불붙은 금산분리 논란        ▲  금융위원장 후보자로 지명된 김주현 여신금융협회 회장이 지난 7일 오후 서울 중구 여신금융협회에서 열린 소감 발표 및 출입기자 간담회에서 취재진 질문에 답하고 있다.             ⓒ 연합뉴스   '금산분리 완화' 논쟁에 다시 불이 붙었다. 윤석열 정부 초대 금융위원장으로 지명된 김주현 후보자가 지난 8일 혁신을 가로막는 규제를 완화하겠다면서 금산분리를 언급하면서다. 14일에는 금융당국이 금융협회들과 규제 완화를 위한 태스크포스(TF)를 꾸렸다는 사실이 알려졌다.금산분리란 금융자본인 은행과 산업자본인 기업이 서로의 업종을 소유하거나 일정 지분 이상 지배할 수 없도록 한 제도다. 산업자본이 금융산업을 지배하게 될 경우 생길 수 있는 시장 경쟁 제한 등 부작용을 막기 위한 장치다. 예를 들어 특정 대기업이 시중 은행을 지배하게 될 경우 고객이 맡겨놓은 예금인 은행 돈을 쉽게 동원해 투자에 나설 수 있고, 이는 은행을 가지고 있지 않은 기업들보다 자본 조달에서 우위를 점할 수 있는 요소가 될 수 있다. 특히 투자 부실이 생길 경우 은행에 돈을 맡긴 국민들에게도 큰 피해가 돌아갈 수 있다. 때문에 우리나라에서는 금산분리 원칙에 따라 산업자본의 금융회사 소유를 엄격하게 제한해 왔다. 하지만 그동안 산업계에서는 기술 발전 및 사업 환경 변화를 이유로 금산분리 완화를 요구해 왔다. 특히 인터넷전문은행 설립에 일부 대기업 등이 적극적으로 나서면서 금산분리 완화 필요성을 둘러싼 논쟁이 벌어져 왔다. 그런데 최근 금산분리 완화를 외치는 이들은 오히려 시중은행이다. 이들은 네이버,카카오 등 빅테크 기업에 역차별을 당하고 있다며 은행 또한 산업 영역에 진출할 수 있도록 활로를 열어줘야 한다고 주장한다. 시중은행들이 입장을 바꾸게 된 계기는 무엇일까. "플랫폼 사업, 우리도 하겠다"는 시중은행들              ▲  신한은행은 지난해 12월 금융업계 최초로 배달앱 '땡겨요'를 출시해 배달앱 시장에 도전장을 내밀었다.            ⓒ 땡겨요 웹페이지 갈무리   "땡기는 건 다 이유가 있다. 점주님을 위한 상생 배달앱"지난해 12월 배달앱 시장에 등장한 신한은행의 배달 플랫폼 '땡겨요'의 홍보 문구다. 땡겨요는 낮은 중개 수수료를 앞세워 스스로를 소상공인들을 위한 상생 배달앱이라고 소개한다. 땡겨요는 금융업계가 배달앱 시장에 진출한 첫 사례다.다른 업종 진출을 선언한 건 신한은행뿐 아니다. 국민은행 또한 지난 2019년 10월 '리브엠' 서비스를 선보이면서 금융권 최초 알뜰폰 사업자로 변신했다. 저렴한 통신 요금과 금융 서비스와의 결합 혜택을 선보이면서 리브엠의 가입자 수는 지난달 30만명을 돌파했다.이처럼 시중은행이 고유 업무인 금융업이 아닌 다른 산업으로 눈길을 돌리는 데는 그 만한 이유가 있다. 인터넷전문은행의 출현으로 비대면·모바일 금융거래가 각광받으면서 오프라인 위주 서비스를 제공해온 은행권으로선 수익 다변화가 절실해졌기 때문이다.비즈니스 환경 변화로 시중은행은 예금·대출 등 고유업무 보다 부수업무에 더 공을 들여야 하는 처지다. 하지만 은행이 수행할 수 있는 부수업무는 은행법에 적힌 몇 가지 분야로 제한된다.때문에 은행업계에선 역차별 논란이 수그러들지 않고 있다. 카카오뱅크나 케이뱅크, 토스뱅크 등 인터넷전문은행과 비교하면 시중은행에 대한 제약이 과도하다는 것. 불만의 핵심에는 금산분리제가 있다.  실제 금산분리에 따라, 특정 회사의 전체 자본 총액의 25% 이상을 계열사인 비금융회사의 자본이 차지하고 있거나 비금융회사의 자산 총액 합계액이 2조원 이상인 '비금융주력자'는 시중은행 주식을 4%까지만 보유할 수 있다. 의결권이 없는 주식이라면 최대 10%까지도 가능하다.  인터넷전문은행이 쏘아올린 '금산분리 완화'              ▲   카카오 뱅크 모바일 및 PC 화면.             ⓒ 연합뉴스   반면 인터넷전문은행에 적용되는 기준은 보다 넉넉하다. 2018년 제정된 인터넷전문은행법에 따라 산업자본은 의결권 있는 인터넷전문은행 지분을 최대 34%까지 보유할 수 있다. 인터넷은행이라는 혁신 기술과 중·저신용자들에게 중금리 가계대출 공급을 확대하겠다는 취지로 금산분리를 일부 완화해준 까닭이다. 다만 지분을 보유할 수 있는 산업자본은 정보통신업(ICT) 그룹으로 제한했다.실제 금융감독원 전자공시시스템에 따르면, '비금융주력자'에 해당하는 카카오는 현재 27.2%에 달하는 카카오뱅크 지분을 갖고 있다. 국내 최초로 탄생한 인터넷전문은행 케이뱅크의 최대주주는 비씨카드로 34%의 지분을, 토스를 운영하는 비바리퍼블리카는 토스뱅크 보통주의 34%를 보유하고 있다.한 시중은행 관계자는 "부수업무 규제와 금산분리 제도로 은행권이 비금융사업으로 진출하기가 쉽지 않다"며 "금산분리가 완화되면 더 자유로운 시장 진출이 가능할 것"이라며 기대감을 내비쳤다. 인터넷전문은행에만 적용되는 특혜는 이뿐만이 아니다. 인터넷전문은행은 시중은행(1000억원) 기준보다 적은 250억원의 자본으로 은행을 세우고 여신업무를 할 수 있다. 이 또한 특례에 따라 최저자본금 기준을 완화해준 덕이다. 설립 초기, 인터넷전문은행들은 자본비율 관련 특혜도 받았다. 시중은행이 지켜야 할 각종 자본비율을 촘촘하게 정해둔 '바젤Ⅲ'이 아닌 총자본비율 기준만을 정해둔 '바젤Ⅰ'을 적용받았기 때문이다.게다가 금융위원회는 올 초 은행법 감독규정 개정안을 통해 인터넷전문은행도 기업 대출 시 시중은행과 동일한 '예대율 규제'를 받도록 했다. 기업대출 심사에 필요한 현장 실사, 기업인 대면 거래도 허용했다. 기업대출이 가능하도록 물꼬를 터준 셈이다. '중·저신용자들을 향한 중금리 가계대출'이라는 당초 인터넷전문은행의 설립 목적이 무색해진 셈이다. 물론 원칙적으론 대면 영업을 할 수 없다거나 대주주에 대한 신용공여를 금지한 점 등 인터넷전문은행에만 적용되는 별도 규제도 있다. 그럼에도 불구하고 금산분리 제도상 지분이나 자본금 기준 등 '수치'만 놓고 보면 시중은행과 비슷한 업무를 하면서 상대적으로 적은 규제를 받고 있는 것 또한 사실이다.  은행권에서 '기울어진 운동장'이라는 비판과 함께 금산분리 완화에 대한 요구가 나오게 된 배경이다. 최근 은행권은 내친 김에 부동산·유통·헬스 등 비금융 업종뿐만 아니라 가상자산 서비스까지 하게 해달라고 요구하고 나섰다.지난 3월 은행연합회는 '은행업계 제언'이라는 제목의 대통령직 인수위원회 제출용 보고서를 통해 "공신력 있는 은행이 가상자산 관련 사업에 진출할 수 있도록 은행법상 은행의 부수업무에 가상자산업을 추가해달라"고 요구했다. 금산분리 완화를 둘러싼 우려들전문가들 역시 시중은행과 인터넷전문은행이 '동일 기능 동일 규제' 원칙에 어긋나는 기준을 적용받고 있다는 데 공감하고 있었다. 하지만 금산분리를 완화해 시중은행이 다른 산업군으로 자유롭게 진출할 수 있도록 하자는 주장에는 '은행 부실'을 이유로 우려의 목소리를 냈다. 전성인 홍익대학교 경제학부 교수는 "시중은행과 인터넷전문은행은 다른 규제를 받고 있는 게 사실"이라면서 "규제를 풀어 시중은행이 가상자산 등 다른 업종으로 진출한다면 은행의 부실 위험은 커진다"고 우려했다. 이어 "(이 경우) 자기자본 비율을 높이는 등 새로운 규제를 추가할 수밖에 없다"고 말했다. 전 교수는 "은행예금으로 물건을 살 수 있도록 결제 수단으로 인정해주는 등 시중은행은 그동안 은행으로서의 특권을 충분히 누려왔고 은행은 그 자체로 엄청난 수익을 내는 사업"이라며 "시중은행이 금산분리 규제를 피하겠다고 한다면 그간 받아온 특권까지 내려놓아야 할 것"이라고 지적했다. 실제 KB·신한·하나·우리 등 4대 금융그룹의 당기순이익은 지난해에만 15조원에 육박한다.익명을 요구한 한 전문가 역시 "(금산분리 완화는) 우려가 크다. 은행의 건전성이 흔들릴 수 있기 때문"이라며 "금산분리 완화로 위험한 투자나 자금 운용이 이뤄져 저축은행 사태처럼 은행 또한 부실해질 수 있다"고 지적했다.저축은행 사태란 지난 2011년 부산저축은행 등 상호저축은행이 부동산 프로젝트파이낸싱(PF)에 분별없는 대출을 감행했다가 부실이 발생하면서, 투자자들에 막대한 손실을 입힌 사건이다. 예금자 보호 대상인 5000만원 이하 예금의 손실을 메우기 위해 예금보험공사는 27조원이라는 천문학적인 공적자금을 투입하기도 했다.'동일 기능 동일 규제' 원칙을 지키기 위해선 시중은행의 규제를 풀어줄 게 아니라 오히려 인터넷전문은행에게 주어졌던 특혜를 거둬들여야 한다는 주장도 나왔다.황세운 자본시장 연구원은 "빅테크가 지배하는 인터넷전문은행의 출현으로 금융 건전성은 오히려 느슨해지고 있다"며 "점차 인터넷전문은행이 빅테크를 기반으로 독점적인 지위를 누릴 가능성도 커지고 있는 만큼 그동안의 혜택을 거둬들이고 인터넷전문은행쪽 규제를 강화해야 한다"고 주장했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2022.06.17.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>토스뱅크, ‘키워봐요 적금’ 출시 3일 만에 10만좌 돌파</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002004167?sid=101</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>6개월 만기 적금에 최고 3% 금리 혜택[헤럴드경제=서정은 기자] 토스뱅크는 지난 14일 내놓은 '키워봐요 적금'이 출시 3일 만에 누적 계좌개설 10만좌를 돌파했다고 17일 밝혔다.‘키워봐요 적금’은 토스뱅크의 출범 후 첫 적금 상품으로 6개월 만기 시 최고 3%의 금리 혜택을 제공한다. 납입한도는 월 최대 100만원이며, 매주 1천원부터 20만원까지 납입 가능하다.‘키워봐요 적금’은 가입 시 지급된 동물의 알이 이튿날 부화되면서 6개월 동안 열 단계에 거처 자란다. 동물은 유령, 거북이, 문어, 망아지 네 종으로 랜덤 지급되며, 매주 적금 자동이체 달성하면 최종 만기 시 전설의 동물로 진화한다.토스뱅크는 ‘키워봐요 적금’에 친구와 함께 적금할 수 있는 기능을 추가해 긴 시간 인내하며 목돈을 만들어 가는 시간을 즐거움과 재미로 전환하는 등 고객 친화적으로 상품을 기획했다.또한 출시 후 고객들이 SNS 상에서 서로 지급된 동물의 알과 알을 깨고 나온 동물 친구들의 모습들을 공유하며 인기를 끌었다.토스뱅크 관계자는 “이번 ‘키워봐요 적금’을 출시한 후 보객들이 보다 즐겁게 금융 서비스를 이용하고 싶다는 니즈를 확인할 수 있었다”며 “앞으로도 고객들에게 보다 즐겁게 금융을 이용하고 유용한 혜택을 받아가실 수 있도록 노력하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2022.06.28.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>하나저축은행, 인터넷뱅킹 및 모바일뱅킹 앱 전면 개편</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002127441?sid=105</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이상일기자] 하나저축은행(대표이사 정민식)은 비대면채널 이용자의 편의성과 접근성을 향상시키기 위해 인터넷뱅킹과 모바일뱅킹 앱을 전면 개편했다고 밝혔다. 이번 개편을 통해 디지털채널의 UI/UX를 사용자 친화적으로 개선하고 인터넷뱅킹과 모바일뱅킹 서비스의 심리스(Seamless)한 호환으로 채널 간의 간극을 좁힘으로써 ‘손님 중심’의 서비스로 탈바꿈했다. 우선 인터넷뱅킹 리뉴얼을 통해 그동안 모바일 앱에서만 가능했던 ▲비대면 계좌개설 ▲사설인증(네이버, 카카오, 토스, 패스 등) ▲통합한도조회 ▲대출 이어가기 서비스 등을 인터넷뱅킹에서도 이용할 수 있게 됐다. 하나저축은행의 대표 모바일 앱 ‘하나원큐 저축은행’에는 챗봇 서비스인 ▲하니봇을 도입해 24시간 실시간 비대면 상담을 제공하고 ▲오픈뱅킹 서비스를 확장해 ‘카드 사용내역’, ‘핀테크사(핀크, 카카오페이 등) 잔액조회’ 등 다양한 기능을 추가했다. 특히, 인터넷뱅킹과 모바일뱅킹 간 호환성을 높여 대출신청 시 중도에 중단했던 단계를 다른 채널에서도 이어갈 수 있도록 개선했다. 이를 통해 손님 불편사항을 해소하고 대출신청 소요시간을 줄임으로써 이용자 편의성을 한층 향상시켰다. 하나저축은행은 이번 개편을 기념해 인터넷뱅킹 또는 모바일뱅킹 가입 손님을 대상으로 ‘룰렛 돌리기’ 이벤트를 경품 소진 시까지 진행한다. ‘룰렛 돌리기’는 ‘하나원큐 저축은행’을 통해 매일 1회 참여 가능하며, 당첨 시 ▲아이패드 에어 ▲CU 상품권 ▲스타벅스 아메리카노 쿠폰 ▲이마트 상품권 3만원 등의 다양한 경품을 제공한다. 하나저축은행 디지털금융본부 관계자는 “이번 개편은 보다 빠르고 편리한 디지털채널을 구축해 차별화된 손님 경험을 제공하고자 마련됐다”며, “지속적인 서비스 고도화를 통해 ‘손님 중심’의 금융에 한발 더 나아가겠다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2022.06.27.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>[DD 퇴근길] 애플이 초격차 유지하는 비결은 뭐?</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002127369?sid=105</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>디지털데일리가 퇴근 즈음해서 읽을 수 있는 [DD퇴근길] 코너를 마련했습니다. 혹시 오늘 디지털데일리 기사를 놓치지는 않으셨나요? 퇴근 앞두고 저희가 요약 정리한 주요 기사를 가벼운 마음으로 읽어주시기 바랍니다. 전체 기사는 ‘디지털데일리 기사 하단의 관련뉴스(아웃링크)’에서 확인할 수 있습니다.  애플, M2 라인업 확장…'익스트림' 추가 전망블룸버그테크놀로지스에 따르면 애플이 2022년 가을과 2023년 상반기 사이 자체 시스템온칩(SoC) M2를 탑재한 제품 라인업을 선보인다고 합니다. 최근 애플은 '세계개발자대회(WWDC) 2022'에서 M2를 공개했죠. M2는 중앙처리장치(CPU) 그래픽처리장치(GPU) 신경망처리장치(NPU) 등을 통합한 SoC입니다. TSMC 5나노미터(nm) 공정으로 생산됩니다. 가장 먼저 M2를 적용하는 제품은 13.6인치 '맥북에어'와 13인치 '맥북프로'로 알려졌습니다. 두 제품은 오는 7월 미국 등 1차 출시국에서 가장 먼저 출시될 예정이지만 국내 출시 일정은 공개 전입니다. 올 가을부터 내년 상반기에 걸쳐서는 ▲M2프로 ▲M2맥스 ▲M2울트라 ▲M2익스트림 등이 공개될 것으로 보입니다. M2를 적용한 제품도 늘어나는데요, ▲맥미니 ▲14인치·16인치 맥북프로 ▲맥프로 등이 대상으로 꼽힙니다. 아울러 블룸버그테크놀로지스는 애플은 이미 차차세대 애플실리콘 'M3' 개발을 진행 중이라고 했습니다. M3는 ▲13인치 맥북에어 ▲15인치 맥북에어 ▲아이맥 등으로 예측됩니다.SKT, 서울시 자율주행차 길 넓힌다SK텔레콤이 서울시 상암지역 자율주행차 시범운행지구 확대 구축을 성공적으로 마무리했습니다. 차세대 지능형 교통 시스템인 ‘C-ITS’ 실증사업 일환으로 진행된 것인데요. 이로써 상암 일대 자율주행차 운행이 가능한 도로는 기존 상업 및 주거 지역에서 월드컵 경기장을 비롯해 난지한강공원, 하늘공원 등 주변까지 대폭 확대됩니다. 확대된 도로에는 자율주행차량 운행 가능 지역임을 알려주는 노면 표시와 안내 표지판 등도 설치됐습니다.SK텔레콤은 디지털 트윈 기술을 활용해 상암 자율주행 시범운영지구를 3D로 구현했는데요. 이를 ‘서울 미래 모빌리티 센터’에 있는 자율주행 관제 시스템과 연동해 여러 대의 차량 및 신호 정보, 위험 알림 등 정보를 통합적으로 관제할 수 있도록 구축했습니다. 또 상암 지역 총 24개 도로 32.3㎞에 달하는 구간에 신호제어기, 불법주정차 카메라, 어린이보호구역 감지카메라 등 인프라도 대폭 확대했다고 합니다.통신3사 뛰어든 新먹거리 'NFT'…5G 킬러콘텐츠로도대체불가능토큰(NFT·Non-Fungible Token)이 국내외 통신업계의 새로운 먹거리로 부상했습니다. 국내에선 SK텔레콤이 지난해 3사 가운데 처음으로 NFT를 발행한데 이어 KT와 LG유플러스도 최근 그 행렬에 함께했습니다. NFT 활용 전략은 서로 다릅니다. SK텔레콤과 LG유플러스는 메타버스 생태계와 연계해 시너지를 모색하고, KT는 자사가 보유한 자산의 가치를 극대화한다는 목표인데요. 해외 통신업계는 5세대이동통신(5G) 가입자를 유치할 킬러콘텐츠로 NFT에 주목했습니다. 가까운 미래 단순 이미지 파일를 넘어, 증강현실(AR) 등의 기술과 결합한 NFT가 많이 등장할 것으로 전망되는 가운데 이런 고용량 콘텐츠를 끊김없이 주고받기 위해선 5G의 발달이 필수적이기 때문입니다. 다만 전문가들은 단순히 흐름을 쫓기 위해 NFT 사업에 뛰어드는 것은 위험하다고 조언합니다. 김승주 고려대 정보보호대학원 교수는 “특정 지적재산권(IP)을 NFT와 연결시키는 건 팬덤을 강화하기 위한 목적이 크다. 원본 콘텐츠를 가진 사람과 그렇지 않은 사람의 차별성을 부각시켜 디지털 콘텐츠의 가치를 강화하겠다는 전략”이라며 “강력한 콘텐츠를 가지고 있지 못한 통신사의 경우 자사가 보유한 IP를 가지고 어떠한 수익모델(BM)을 가져갈지에 대한 고민이 필요해 보인다”고 조언했습니다. “탈TV 속도 높이자”...투자자로 변신한 홈쇼핑 업계TV 시청자 수 감소와 송출수수료 부담이 계속되면서 홈쇼핑 업계 위기가 이어지고 있습니다. TV 의존도를 벗어나 미래 성장 동력 확보를 위해 새 먹거리를 찾아야 하는 상황인데요. 홈쇼핑사들은 외부로 눈을 돌려 벤처·스타트업에 직간접적 투자에 나서는 모습입니다. 상품력 강화 등 기존 사업과 연관된 업종에 투자하기도 하지만, 신규 사업 모색을 위해 메타버스 등 신기술 관련 투자에도 적극적입니다.롯데홈쇼핑은 ‘탈 홈쇼핑’을 추구하며 미디어커머스 회사로 도약을 꾀하고 있는데요. 이날 가상모델 ‘루시’를 콘텐츠 제작사 초록뱀미디어 소속 아티스트로 전속 계약을 체결했다고 밝혔습니다. 지난해 롯데홈쇼핑이 초록뱀미디어에 250억원을 투자해 2대 주주가 된 후 협업을 이어가고 있습니다. 메타버스 스타트업 '포바이포'에도 투자한 바 있죠. CJ온스타일은 지난해 170억원 직간접 투자를 진행한 CJ온스타일은 올해 350억원 이상으로 규모를 2배 이상 늘리겠다는 전략입니다. 투자 핵심 키워드는 ‘상품력’입니다. 리빙·패션이나 주얼리, 명품 강화를 위해 관련 스타트업에 투자한다는 전략입니다. GS샵 역시 지난해 GS리테일에 흡수합병된 이후 요기요·어바웃펫 등 퀵커머스·반려동물 관련 스타트업에 대규모 투자를 단행하고 있습니다. 이미 특정 카테고리에서 강점을 보이고 있는 플랫폼을 투자해 빠르게 시장에 대응한다는 계획입니다. 티몬, 큐텐 인수설에 ‘사실무근’…“전략적 투자 유치 논의”티몬이 해외직구 플랫폼 ‘큐텐(Qoo10)’에 경영권 매각 협상 중이라는 내용에 대해 ‘사실무근’이라고 답했습니다. 이날 일부 보도에 따르면 티몬이 큐텐에 경영권 매각을 놓고 막판 협상을 벌이고 있다고 전했는데요. 토스 자회사 토스페이먼츠와 큐텐이 경합을 벌이다, 토스페이먼츠가 인수 의사를 철회했다는 내용입니다.다만 티몬은 이에 대해 “큐텐과 토스페이먼츠 관련 매각 협상 이야기는 사실과 다르다”며 “두 회사 모두 티몬과 전략적 투자를 논의하는 대상 중 하나”라고 반박했습니다. 티몬 매각 가격이 2000억원대라는 소식에 대해서도 “매각 협상이 아니므로 2000억원 가치가 어디서 나온 이야기인지 모르겠다”며 “누차 강조했듯 티몬은 투자 유치 중이고, 여러 곳과 투자에 대해 협의하고 있다”고 덧붙였습니다.물론 티몬 경영권 매각 가능성이 아예 닫혀있는 건 아닙니다. 티몬 최대주주가 사모펀드(PEF)인만큼, 엑시트(투자금 회수)를 위해선 기업공개(IPO)든 매각이든 그 수단은 크게 중요하지 않기 때문입니다. 장윤석 대표 역시 지난해 10월 기자간담회에서 “내년(2022년) IPO를 목표로 하고 있다”면서도 “더 좋은 회사와의 인수·합병(M&amp;A)도 열려 있다”며 매각 추진 가능성을 시사했었습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2022.06.29.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>[빙하기 재테크] Part2 만기 짧은 예금 가입 후 갈아타기 전략</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004984349?sid=004</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>전 세계에 몰아치고 있는 물가 상승(인플레이션)으로 가만히 있으면 돈이 녹는 시대가 됐다. 가장 안전한 재테크 수단인 은행 예금에 돈을 넣어놔도 실제로는 비싼 물가 때문에 예·적금 금리가 낮은 상품에 가입했다간 손실이 나는 셈이다. 지난 4월 기준 실질 예금금리는 연 -2.7%로 집계돼 관련 통계를 작성한 이후 가장 낮은 수준을 기록했다. 5월 역시도 비슷한 흐름이 이어지고 있다. 실질금리는 해당 월(4월) 신규 취급액 기준으로 국내 은행 1년 정기 예금금리의 가중 평균(연 2.1%)에서 같은 달 물가 상승률(4.8%)을 뺀 수치다. 은행 예금을 통해 돈을 1년간 불린 후에도 실질 구매력은 100에서 97.3으로 감소한다는 의미다.  서울의 한 시중은행 창구	 실질금리는 미중 무역전쟁으로 불확실성이 높았던 2018년 9월(-0.09%) 이후 꾸준히 양의 값(+)을 나타냈다. 코로나19가 덮친 2020년 2월에도 예금금리는 지금보다 낮았지만 당시 낮은 물가 상승률(0.9%) 덕분에 실질금리는 0.61%를 기록해 그나마 나은 편이었다. 2021년 8월 이후 정부가 기준금리를 올리면서 예금금리는 조금씩 상승했지만 인플레이션이 가파르게 진행돼 실질금리가 갈수록 떨어졌다. 급기야 올 4월에는 -2.7%까지 추락했다. 한국은행은 당분간 물가 상승률이 5%에 달할 것으로 전망하고 있어 실질금리 하락 속도는 더 가파를 것으로 보인다. 이에 따라 예금 이자에 의지하면서 낮은 금리의 상품에 가입한 금융 소비자들은 지갑이 얇아지는 독특한 경험을 할 수밖에 없다는 것이다. 이에 따라 고금리 예·적금에 다시 돈이 몰리는 ‘역의 머니무브’가 나타나고 있다. 그동안 유동성의 힘으로 주식 부동산 등 고위험 상품에 쏠렸던 막대한 돈이 금리 인상기를 맞아 원금이 보장되는 예·적금으로 다시 몰리고 있는 것이다. 작년까지만 해도 은행 예금이나 적금에 가입했다간 ‘바보’ 소리를 들었는데, 1년도 안 돼 상황이 역전됐다.  ▶고금리 예·적금에 돈 몰려 KB국민·신한·하나·우리·NH농협 등 시중 5대 은행 정기예금은 지난 5월 말 679조7768억원의 잔액이 쌓였다. 이는 전월(4월 말) 대비 19조1369억원(2.9%), 지난해 말 대비 24조8408억원(3.79%) 늘어난 수치다. 정기적금도 마찬가지로 늘고 있다. 5월 말 5대 은행 합산으로 36조7597억원의 잔액을 기록했는데, 이는 전월과 비교해서 8006억원(2.23%), 작년 말 대비 1조6590억원(4.73%) 증가했다. 이처럼 은행에 돈이 몰리는 것은 기준금리 인상 때문이다. 미국이 급격한 인플레이션을 잡기 위해 금리를 계속 올리고 있고, 한국은행 역시 이 기조를 따라가지 않는다면 국내에서 해외로 돈이 빠져나갈까봐 금리를 따라 올리고 있는 실정이다. 기준금리 인상은 은행의 예·적금 금리를 올리기 때문에 이자 소득이 증가한다. 물론 대출금리도 오르기 때문에 이를 방어할 금리 상품 가입이 절실한 것이다. 금융 소비자 입장에선 이 같은 금리 인상기를 기회 삼아 고객을 늘리려는 금융사의 주력 상품을 잡는 것이 중요하다.   이처럼 고객을 유인할 이유가 많은 곳 중 하나가 케이뱅크다. 올 들어 처음으로 정기예금 3% 시대를 연 곳도 이 은행이다. 케이뱅크는 6월부터 ‘코드K정기예금’ 금리를 기간별로 최대 연 0.7%포인트 올렸다. 기준금리 인상 폭인 0.2%포인트를 훌쩍 웃돈다. 이에 따라 ‘코드K정기예금’에 1년 이상~2년 미만 돈을 맡기면 연 3%의 금리가 붙는다. 2년 이상~3년 미만의 경우 연 3.2%, 3년의 경우 연 3.5%로 금리가 상향 조정됐다. 케이뱅크가 ‘코드K자유적금’ 상품에 최대 연 5%(가입 기간 3년 기준)의 금리를 적용하자 이틀 만에 10만 고객이 몰리는 상황까지 벌어졌다. 가입 기간에 따라 1년은 4.6%, 2년은 4.7%, 3년은 5%의 금리가 각각 적용된다. 금리가 높은 대신 ‘코드K자유적금’의 경우 가입금액이 월 최대 30만원으로 제한된다는 점은 유의해야 한다. 시중은행에서도 고금리 상품이 속속 등장했다. 인플레이션이 5%대에 이르며 이 정도는 돼야 실질 소득이 줄어들지 않는다는 판단하에 5%대 금리를 제공하는 상품도 속속 나오고 있다.   신한은행은 6월 들어 연 5% 금리를 제공하는 ‘신한쏠만해 적금’ 상품을 내놨다. 신한 모바일 플랫폼 ‘쏠(SOL)’을 이용하는 고객에게 우대금리를 제공하는 비대면 전용 상품으로, 1인 1계좌 가입이 가능하고 30만 좌 한도로 출시했다. 기본금리는 연 1.5%에 우대금리 연 3.5%포인트를 적용해 최고 연 5%의 금리를 제공하는 구조다. 우대금리는 ▲신한 쏠(SOL) 신규 가입 또는 2022년 1월부터 4월 말까지 미로그인 고객이 적금 가입 및 로그인 시 연 2%포인트 ▲매월 신한 쏠(SOL) 로그인 시 연 0.1%포인트(최고 연 1%포인트) ▲상품·서비스 마케팅 동의 시 연 0.5%포인트를 제공한다.농협은행의 ‘NH1934월복리적금’은 오픈뱅킹 도입에 맞춰 간편결제와 비대면 거래를 주로 이용하는 MZ세대(밀레니얼+Z세대)를 대상으로 한 상품이다. 조건을 충족하기 쉬운 비대면 이체 거래 횟수를 기본 우대조건으로 부여하면서 MZ세대들이 선호하는 높은 우대금리와 금융수수료 면제 등 다양한 혜택을 제공하고 있어 호평을 받고 있다. NH1934월복리적금은 청년들의 취·창업을 지원하는 상품으로 가입 기간은 최소 6개월에서 최대 24개월까지 가능하다. 월 1만원에서 50만원까지 자유롭게 입금이 가능하다. 금리는 12개월 가입 기준 기본금리 1.85%에 급여 실적, 개인사업자 계좌 실적, 비대면 채널 이체 실적, 마케팅 동의 등의 우대조건을 충족하면 최고 1.5%포인트의 우대금리를 제공한다. 추가로 농업계고와 청년농부사관학교 졸업자의 경우 2.0%포인트의 우대금리를 더 받을 수 있어 1년 기준으로 5.35%까지 금리가 나오는데 시중은행 기준으로는 가장 높은 수준이다.   또 다른 시중은행 5%대 가능 상품으로는 하나은행의 ‘내집마련 더블업 적금’을 꼽을 수 있다. 이 상품은 하나은행이 내 집 마련의 꿈을 응원하기 위해 복잡한 우대요건 없이 두 배의 금리를 제공하는 등 성격이 분명한 상품이다. 하나은행에서 주택청약종합저축을 신규 가입한 날, 단 하루 가입할 수 있는 특별한 적금이라는 콘셉트다. 적금 만기 시 주택청약종합저축을 보유하고 있다면 금리가 두 배가 되는 상품이다. ‘내집마련 더블업 적금’의 6월 1일 기준 기본금리는 세전 연1.5%다. 여기에 적금 만기 시점에 본인 명의 하나은행 주택청약종합저축을 보유한 금융소비자는 기본금리만큼의 우대금리 1.5%가 더해져 최종 세전 연 3.0%의 금리가 제공되는 식이다. 또 6월 한 달간 가입 이벤트 진행 중으로 이벤트 기간 내 1년제 적금을 가입하고, 예금 만기 시점에 본인명의의 당행 주택청약종합저축을 보유하고 있는 경우 우대금리 2.0%포인트가 추가 적용돼 최대 5.0%의 금리를 적용받을 수 있는 것이다. 가입 기간은 1년 또는 2년 중 선택할 수 있으며, 기간과 상관없이 동일한 금리가 제공된다. 5만원 이상 20만원 이하의 금액을 정하여 매월 정액 적립하는 방식의 상품이다.이 적금은 하나은행에서 주택청약종합저축을 신규 가입한 당일에 한해 개인과 개인사업자를 대상으로 1인 1계좌 가입이 가능하다. 영업점뿐만 아니라 인터넷뱅킹과 모바일뱅킹을 통해서도 가입할 수 있다.또 특별중도해지서비스도 제공된다. 주택청약 예치금이 부족한 금융소비자가 본인 명의의 주택청약종합저축에 납입할 목적으로 ‘내집마련 더블업 적금’을 중도해지할 경우 중도해지금리가 아닌 가입일의 계약기간별 기본금리가 제공돼 손실을 최소화할 수 있어 호평이 나오고 있다. 토스뱅크는 수신상품 일원화 전략을 잠시 미루고 새로운 적금 상품을 출시했다. 이 은행은 무조건 2% 금리를 제공하는 수시입출금식 상품으로 초기에 인기를 끌었다. 일단 은행 입장에서 손해를 감수하고 과감한 금리 정책을 폈는데, 그새 인플레이션이 급등하며 2%대 금리로는 성이 차지 않는 상황이 됐다. 토스뱅크는 이에 따라 연 최고 3% 금리를 제공하는 ‘키워봐요 적금’을 출시했다. 이 상품은 6개월 만기 자유적립식 정기적금으로 최초 가입금액과 일주일에 납입할 수 있는 이체 한도는 1000~20만원까지다. 이후 월 최대 100만원까지 납입할 수 있다. 기본금리는 1.0%로 매주 자동이체를 통해 납입할 경우 우대금리 2.0%가 적용돼 최대 3% 금리를 제공한다. 키워봐요 적금	  ▶저축은행 5% 금리상품 대세저축은행업계에서도 5% 금리 상품이 주목받으면서 대세로 자리 잡고 있다. 인플레이션 상승률 정도는 돼야 고객 유치가 가능하다는 판단에서다. KB저축은행은 가입 기간 100일 동안 최대 2000만원까지 넣고 최대 연 5% 금리를 받을 수 있는 ‘KB꿀적금’ 특판을 진행 중이다. 기본금리는 연 2.2%, 해당 은행 첫 가입 고객에 우대금리 2.8%포인트를 적용해 연 5% 금리를 제공한다.NH저축은행의 ‘NH FIC 올바른지구 정기적금’도 최고 연 5% 금리를 제공한다. 기본금리 연 2.5%에 친환경 실천 서약서 작성 시 0.3%포인트, 마케팅 동의 시 0.2%포인트, FIC뱅크 체크카드 발급과 적금 신규일로부터 3개월 내 10만원 이상 결제 이용 시 2%포인트 우대금리를 제공한다. 적금뿐만 아니라 예금으로도 돈이 몰리고 있는데 만기가 짧은 예금이 인기다. 매일매일 더 높은 금리를 제공하는 금융사의 예금 상품이 나오고 있기 때문이다. 예금은 한꺼번에 돈을 맡기는 식이어서 적금보다 낮은 금리가 제공되지만 3%대 상품이 늘고 있다. 애큐온저축은행은 최고 연 3.30% 금리를 제공하는 ‘찾아쓰는 정기예금’을 출시했다. 웰컴저축은행은 정기예금 금리를 연 3.35%까지 끌어올리면서 맞불을 놨다. OK저축은행의 경우 하루만 맡겨도 연 2.5% 금리를 보장하는 ‘중도해지OK정기예금’ 특판을 진행 중이다.은행 업계 관계자는 “조건이 지나치게 까다롭거나 한도가 낮은 상품은 피하는 게 낫다”며 “만기가 짧은 예금에 가입 후 금리가 오르면 갈아타는 식으로 이자를 늘려가는 전략도 유효하다”고 말했다.[본 기사는 매경LUXMEN 제142호 (2022년 7월) 기사입니다]</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2022.06.22.</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>뮤직카우, '정보관리본부' 조직 확대…이용자 보호 강화</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003024993?sid=101</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>음악 저작권료 참여 청구권 투자 플랫폼 뮤직카우는 한층 더 강화된 정보보호체계 구축과 함께 보안 관련 이슈에 선제적으로 대응하고자 '정보관리본부'에 핵심 인력을 대거 영입했다고 22일 밝혔다.최근 신설된 정보관리본부는 △정보보호체계 구축 및 보안 시스템 고도화 △서비스 보안 기능 및 모니터링 역량 강화 △안정적인 서비스 제공 및 사업 확장을 위한 IT 인프라 기반 마련 등 이용자 보호 강화를 위한 업무를 중점적으로 수행한다.정보관리본부 수장은 카카오페이, 토스증권, 골드만삭스 등 국내외 규모급 기업 출신의 금융 보안 전문가 김남진 CISO(정보보호최고책임자)가 맡는다. 또한 국내 유수의 핀테크 기업에서 근무하며 실력을 검증받은 인재들을 대거 영입, 본격적으로 조직을 가동한다.먼저 최용호, 유충완 시니어 매니저의 경우, 카카오페이, 토스증권 등 주요 핀테크 기업에서 근무한 이력을 보유하고 있다. 한정진 시니어 매니저도 쿠팡, 토스증권 등 주요 IT기업 및 금융권 분야에서 금융 정보 및 개인정보보호 관련 업무를 담당했다.구대훈 시니어 매니저의 경우, 정보통신부 주관 제4회 해킹방어대회 정보통신부 장관상, KISA 해킹방어대회 대상(4회) 및 은상(7회) 등 주요 해킹방어대회에서 다수의 수상 경력을 보유한 화이트해커로 카카오페이, NC소프트 등 국내 대표 핀테크사와 게임사에서 근무했다.양태산 시니어 매니저 또한 카카오페이, 쿠팡, SK플래닛, NHN커머스 등 주요 IT 및 커머스 기업을 거쳤으며 '네트워크 환경에서의 운영체제 자동설치 및 방법에 관한 특허'를 보유했다.뮤직카우 정보관리본부 구성원(왼쪽부터 구대훈 시니어 매니저, 한정진 시니어 매니저, 김남진 CISO, 양태산 시니어 매니저, 최용호 시니어 매니저, 유충완 시니어 매니저)신설된 뮤직카우 정보관리본부 전문가들은 그 동안 금융은 물론, 커머스, 게임 등 업계를 대표하는 다양한 기업에서 쌓아온 IT 인프라 및 보안 솔루션 구축, 운영 경험을 바탕으로 뮤직카우를 더욱 안전하고 신뢰할 수 있는 서비스로 만들어 나간다는 계획이다.김남진 CISO는 “문화금융 시장을 선도해 나가는 대표 기업으로서, 안정적인 보안 체계를 갖춘 모범 사례가 될 수 있도록 실무 경험이 풍부한 보안 베테랑 전문가들로 조직을 구성했다”며, “앞으로도 이용자 분들이 믿고 이용할 수 있는 안전하고 편리한 서비스가 될 수 있도록 IT 인프라 및 보안 역량을 함께 강화해 나갈 것”이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2022.06.26.</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>美 경기침체 조짐 노동시장서 나타났다</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002740761?sid=101</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>테슬라·넷플릭스·JP모건 직원 해고미국 향하는 해상운임지수 하락세IMF, 올해 美성장률 3.7%→2.9%그간 견고했던 미국 고용시장이 흔들리고 있다. 국제통화기금(IMF)이 올해 미국의 경제성장률 전망치를 대폭 낮춘 가운데, 경기침체의 조짐이 고용시장에서부터 나타나고 있다는 분석이다.25일(현지시간) 블룸버그통신에 따르면 지난 몇 주 동안 미국 내 기술·부동산 기업들은 직원을 잇달아 해고하고 있다. 대표적으로 테슬라는 전체 직원의 3.5%에 달하는 인원을 줄이기로 했고, 넷플릭스도 직원 300명을 감축했다. JP모건체이스의 경우 부동산 대출 관련 인원 수백여명을 내보냈다. 미국에서 두 번째로 큰 알루미늄 생산업체인 센추리 알루미늄도 최근 직원 600명을 해고한다는 소식을 전했다.이는 40년 만에 최악의 인플레이션과 연방준비제도(Fed)의 기준금리 인상 등이 맞물린 결과로 풀이된다. 옥스포드 이코노믹스의 밥 슈워츠 수석 이코노미스트는 "근로자들은 노동시장에서 교섭력을 잃어가고 있다"며 "우리는 전환점에 서 있고, 연준의 행보는 이를 가속화할 것"이라고 진단했다.인플레이션으로 인한 소비둔화 양상도 감지되고 있다. 화물운송 가격 서비스 업체 프레이토스가 집계하는 해상 운임지수(FBX)에 따르면 아시아에서 로스앤젤레스와 롱비치 등 미국 서부해안으로 가는 컨테이너 2TEU(40피트짜리 표준 컨테이너 1대)의 현물운임은 전주 대비 3% 하락한 8934달러를 기록하고 있다. 아시아에서 미국 동부해안으로 가는 컨테이너 2TEU의 현물운임도 1만1589달러로 1% 내렸다.앞서 IMF는 올해 미국의 경제성장률 전망치를 종전 3.7%에서 2.9%로 0.8%포인트 하향 조정했다. 내년도 성장률 전망치 역시 2.3%에서 1.7%로 수정했다. IMF는 "정책의 우선 순위는 경기후퇴를 촉발하지 않고, 신속하게 임금과 물가상승 속도를 완화하는 것"이라며 "힘든 과업"이라고 분석했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2022.06.30.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>애플, 한국 앱들 모두에 제3자결제 허용…수수료 26%(종합)</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013281382?sid=105</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>구글 시행중인 정책과 수수료 수준은 비슷애플인앱결제·제3자결제 중 한 쪽만 선택 가능애플 앱스토어[연합뉴스TV 제공](서울=연합뉴스) 애플이 '앱 스토어'(애플의 앱 마켓)에서 모든 한국 앱에 대해 제3자 결제를 허용키로 했다.    애플이 국가별 앱스토어에서 모든 앱에 제3자 결제를 허용한 것은 이번이 처음이지만, 구글 플레이스토어가 국내에서 이미 시행중인 것과 비슷한 수준의 조치에 그쳐 실망스럽다는 반응이 콘텐츠 앱 업계 관계자들로부터 나온다.    30일 정보기술(IT)업계와 관계당국 등에 따르면 애플은 한국의 개정 전기통신사업법(통칭 '인앱결제 강제 금지법')을 준수하기 위해 한국 앱들에 대해 제3자결제를 허용한다고 웹사이트에 공지했다.    공지는 영문(https://developer.apple.com/news/?id=q0feipe4)으로 이뤄졌으며, 국문으로도 내용 요약(https://developer.apple.com/kr/news/?id=q0feipe4)이 나왔다.        애플은 개발사가 외부 구입 권한(StoreKit External Purchase Entitlement)을 사용할 수 있다며, 이 권한을 통해 대한민국에서만 배포되는 앱스토어의 앱에 대체 앱 내 결제 처리 옵션을 제공할 수 있다고 설명했다.     애플은 KCP, 이니시스(Inicis), 토스(Toss), 나이스(NICE) 등 국내에서 인증된 4곳 중 한 곳을 제3자결제를 위한 전자결제대행업체(PG)로 우선적으로 선정토록 앱 개발업체들에 요구했다.    애플 앱 스토어의 제3자결제는 앱 내에서 이뤄지고 수수료율이 플랫폼 자체 인앱결제(최고 30%)보다 4%포인트 낮은 26%로 책정됐다.     이는 작년 12월 18일 제3자결제를 허용한 구글플레이스토어와 같은 수준이다.     앱 개발사가 앱 내에서 애플 인앱결제와 제3자 결제방식 인앱결제 중 하나만 선택해서 제공하도록 한 점은 구글이 플레이 스토어 인앱결제와 제3자 결제방식 인앱결제를 동시에 제공토록 한 점과 차이가 있다.    또 '외부 구입 권한'을 사용할 경우 앱스토어의 안전한 보안 지불 시스템 외부에서 이뤄지는 지불을 검증할 수 없기 때문에 '구입 요청', '가족 공유'와 같은 일부 앱스토어 기능을 사용자에게 제공할 수 없게 된다고 애플은 설명했다.    애플은 환불, 구입 내역, 구독 관리를 비롯해 대체 결제 방식을 통해 디지털 상품 및 서비스를 구입한 경우에 발생하는 그 밖의 문제와 관련해 사용자를 지원할 수 없다며 이러한 문제를 지원할 책임은 개발사에게 있다고 덧붙였다.    제3자결제를 적용하는 앱 개발사들은 '이 앱은 앱스토어의 안전한 비공개 지불 시스템을 지원하지 않습니다'라는 제목 아래 이러한 내용을 표시해야 한다.     전과 똑같이 애플 앱 내 구입 시스템을 계속 사용하려는 개발사는 추가 조치 없이 계속 사용할 수 있다.    이번 조치는 애플이 3월 말 방통위에 인앱결제 강제 금지법 관련 이행계획을 제출하면서 6월 중 제3자결제를 허용할 것이라고 보고한 내용에 따른 것으로 보인다.    애플코리아 측은 별도로 회사 입장을 설명하지 않았다.    국내 앱 업계 관계자들은 이번 조치에 대해 대체로 예상했던 대로이며 별다른 변화는 없을 것이라고 봤다. 한 관계자는 "해당 영문 링크에 보면 수수료 26%에 부가가치세가 붙기 때문에 큰 의미는 없어 보인다"고 평했다.    방통위 등 우리나라 규제당국은 애플이 제3자결제 관련 공지를 게시함에 따라 인앱결제 강제 등 위법 행위가 있는지를 본격적으로 점검할 방침이다.    전혜선 방통위 통신시장조사과장은 "애플이 개정 전기통신사업법에 따라 우리나라 앱들에 제3자결제를 적용해 한발 더 나아간 것"이라며 "현재 앱마켓을 점검 중이므로 이런 조치가 앱 개발사들에 실질적인 선택권을 부여했는지를 살펴볼 것"이라고 말했다.     (최현석 임은진 임성호 오규진 기자)제3자결제 적용 앱 게시문[애플 웹사이트 캡처]    harrison@yna.co.kr, engine@yna.co.kr, sh@yna.co.kr, acdc@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2022.06.16.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>금리 인상에 불붙는 대출 비교 시장…"고객 뺏길라" 은행권과 기싸움</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006160519?sid=101</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>금리 인상기 '손품풀이' 수요 높아지자 플랫폼 봇물플랫폼 종속 우려…주담대 금리 비교선 5대 은행 불참25일 서울시내 한 은행에서 대출 관련 창구가 운영되고 있다. 2022.4.25/뉴스1 © News1 황기선 기자(서울=뉴스1) 김상훈 기자 = 미국의 기준금리 인상 기조 여파로 국내 대출 금리 역시 뛸 것으로 예상되는 가운데 대출 비교 서비스 플랫폼 수요도 덩달아 주목받고 있다. 대출 상품을 비교해 조금이라도 금리가 낮은 상품으로 갈아타려는 수요가 높아진 영향이다. 15일 금융감독원에 따르면 국내 대출비교 서비스로 등록한 온라인대출모집법인은 총 21곳이다.업계에 따르면 이 중 대형 대출 비교 플랫폼으로 분류되는 토스, 카카오페이, 핀다 등 주요 업체들에는 50~60개 안팎의 금융사들이 입점해 있다. 2금융권은 물론 지방은행들과 KB국민·농협은행을 제외한 시중은행 일부도 포함된 상태다.현재 해당 서비스를 제공하는 플랫폼들은 호황을 누리는 모습이다. 토스의 경우 지난달 대출 비교 서비스 실행액이 1조원을 넘었다. 올해 1~5월 월평균 대출 실행액은 7920억원으로 지난해 월평균 대출 실행액(4380억원) 보다 약 81% 증가했다.이는 본격적인 금리 인상기를 맞아 해당 서비스를 이용하는 고객들이 점차 늘고 있기 때문으로 풀이된다. 그간 장기간 저금리 기조와 증시 활황으로 차주의 금리 민감도가 높지 않았는데 최근 들어 기준금리가 거듭 오르면서 0.1%포인트(p)에도 아쉬운 이들이 많아졌다는 게 업계 안팎의 설명이다. 실제 한국은행은 지난해 8월부터 지난달까지 5차례 기준금리를 올렸다. 이 기간 인상폭만 1.25%에 달한다. 여기에 최근 물가상승으로 인해 미국 연방준비제도(Fed)가 기준금리 인상에 속도를 내면서 한은의 기준금리가 추가 인상될 가능성이 높은 상황이다. 이에 따라 대출금리가 치솟는 현실에 금리를 깎아보려 '손품팔이'에 나서는 고객들이 점차 확대될 것으로 예상된다. 늘어나는 수요에 업체들도 서비스를 강화하거나 입점 금융사를 늘리고 있다. 사업 영역도 주력인 신용대출을 넘어 전월세, 주택담보대출, 사업자 대출 등으로 영역이 바르게 확장 중이다. 이 같은 흐름에 최근 네이버파이낸셜도 올해 하반기 중 개인사업자대출 비교 서비스 출시를 예고했다. 서래호 네이버파이낸셜 금융사업총괄은 지난 13일 미디어 간담회를 통해 "제휴업체를 일일이 말하기는 어렵지만, 선두권 대출비교업체들과 비교해 손색없는 수준의 제휴업체를 확보할 수 있을 것으로 보고 있다"고 밝혔다.하지만 전반적인 성장세에도 시중은행과의 제휴를 늘려야하는 점은 업계의 여전한 고민으로 남아 있다. 수요가 절대적으로 높은 주요 시중은행과의 제휴 없이는 서비스 제공에 한계가 있을 수밖에 없기 때문이다.이같은 모습은 주담대 상품 비교 서비스에서 더욱 두드러진다. 실제 주담대 상품 비교가 가능한 플랫폼 중에선 KB국민·신한·하나·우리·농협 등 5대 시중은행의 모습은 찾아볼 수 없다. 높은 브랜드파워로 아직까지 고객들이 오프라인 채널을 선호하고 있는 만큼 굳이 플랫폼에 종속돼 핀테크에 주도권을 내줄 필요가 없다는 기류가 기저에 깔린 것으로 보인다. 금융권 한 관계자는 "이제 주거래 은행에서 우대금리를 따져가며 대출을 받기보다 더 낮은 금리를 찾아 발품을 파는 차주들이 늘고 있다"며 "점차 시장 규모가 확대되는 상황에서 경쟁력을 높이기 위해선 1금융권 상품 라인업 강화 여부가 중요 승부수가 될 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2022.06.28.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>인뱅 3000만명 시대…홍민택 토스뱅크 대표 "가장 선호하는 은행으로 만들 것"(종합)</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005109871?sid=101</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>토스뱅크 가입자 360만명·여신 4조원 돌파모임통장, 금융상품추천 서비스 등 출시홍민택 토스뱅크 대표토스뱅크가 가입자 360만명, 여신 잔액 4조원을 돌파했다고 28일 밝혔다. 토스뱅크는 모임통장과 금융상품 추천 서비스 등도 새롭게 선보인다.홍민택 토스뱅크 대표는 이날 서울 명동 커뮤니티 '마실'에서 미디어데이를 열고 "9개월 동안 360만명을 모았다는 것은 하루로 환산하면 1만4000명이 매일 토스뱅크에 가입하고 있다는 의미"라며 "(토스뱅크의) 서비스들이 금융서비스 결핍을 해결하고 있다는 것을 증명한다"고 말했다.토스뱅크 가입자의 연령대도 다양한 분포를 보였다. 토스뱅크의 연령별 고객 비중을 살펴보면 20대(25.1%), 30대(25.4%)만큼, 40대(23.8%)와 50대 이상(19.2%) 고객들이 많았다.토스뱅크는 영업 재개 후 6개월 만에 여신 잔액 4조2000억원을 달성했다. 지난해 대출 영업을 중단했던 토스뱅크는 올해 1월부터 여신영업을 재개했다. 홍 대표는 "이 중 36%는 중저신용자에게 공급되고 있고, 이 부분을 자랑스럽게 생각하고 있다"며 "실사용자에게 대출을 공급하자는 스스로 세운 목표를 잘 달성하고 있기 때문이고, 다른 인터넷전문은행보다 압도적으로 높은 숫자"라고 설명했다.홍 대표는 이날 연 2%대의 수시입출금 통장, 매일 이자받기 서비스, '키워봐요 적금' 등의 상품도 소개했다. 이자받기 서비스의 경우 약 150만명의 이용자가 사용하고 있고 이자로 총 667억원이 지급됐다. 토스뱅크가 인터넷전문은행 최초로 선보인 비대면 무보증·무담보 개인사업자 대출상품은 출시 4개월여 만에 5300억원을 달성했다.토스뱅크는 모임통장 등 신상품에 대한 계획도 공개했다. 홍 대표는 '토스뱅크 모임통장' 상품을 곧 선보인다고 밝혔다. 카카오뱅크의 모임통장과 비슷하다는 지적에 대해서는 "출시가 되면 유사성에 대한 우려는 없을 것이라고 생각한다"고 말했다. 토스뱅크는 금융상품 추천 서비스인 '웰스 매니지먼트'도  다음달 시작할 예정이다. 홍 대표는 "여러 참여자들과 함께 토스뱅크 고객에게 다양한 금융상품 소개하는 제휴·협력을 진행할 것"이라고 밝혔다. 토스뱅크는 향후 전세자금대출, 주택담보대출 등의 여신 상품도 출시할 예정이다. 그는 "토스뱅크 상품과 서비스 포트폴리오를 단계별로 확장해나가며 고객들이 가장 선호하는 은행으로 만들어 나갈 것"이라고 강조했다.토스뱅크는 다음달 1일에는 '토스뱅크 체크카드 에피소드 3'를 출시하고 씨티은행 대환대출을 시작한다. 기존 씨티은행 고객이 모바일로 편리하게 대환대출 할 수 있도록 가능여부 조회부터 실행까지 자체 개발했다. 기존 씨티은행 금리 대비 0.3%포인트 할인 혜택을 제공한다.홍 대표는 일각에서 이자비용이 과도하다고 지적하는 점에 대해서는 "지난 5월 예대 부분에서 적자가 해소 됐다"며 "빠르게 원하는 규모와 속도로 수익성이 개선되는 궤도에 올라갔다"고 덧붙였다.한편 토스뱅크 가입자 360만명을 포함해 인터넷전문은행 가입자는 3000만 시대를 열었다. 카카오뱅크 가입자는 1913만명, 케이뱅크는 780만명이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2022.06.28.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>"모임통장·상품 추천 서비스…고객 경험 새롭게 확장할것"</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004984111?sid=101</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>홍민택 토스뱅크 대표 간담회토스 대출 3조 5천억원 증가중저신용자 비율도 36% 달해 "현재 토스뱅크 가입자 수가 360만명입니다. 앞으로 모임통장과 다른 금융사 추천 서비스 등을 제공해 고객 층을 넓힐 계획입니다."28일 홍민택 토스뱅크 대표가 서울 중구 커뮤니티하우스에서 간담회를 열어 "토스뱅크가 성장할 수 있는 여지는 여전히 많다"며 "토스뱅크 상품과 서비스 포트폴리오를 단계별로 확장해가며 고객들이 가장 선호하는 은행으로 만들어 나가겠다"고 말했다.가입자가 늘며 토스뱅크 대출 잔액도 대폭 증가했다. 지난해 말 5320억원에서 지난 27일 기준 4조2000억원으로 약 3조6000억원 늘었다. 지난 2월 출시한 개인사업자 대출 상품도 4개월여 만에 5300억원이 나가며 여신 성장에 기여했다. 사업구조가 비슷한 케이뱅크 여신 증가액과 비교해도 2배 이상의 성장세다. KB국민·신한·하나·우리·NH농협 등 시중은행 가계대출 잔액은 금리 인상 여파로 같은 기간 약 9조원이 줄었다.중저신용자 대출 비율도 36%로, 20%대 초중반인 카카오뱅크·케이뱅크보다 높다. 홍 대표는 이를 자체 신용평가 시스템 덕분이라고 분석했다. 그는 "그동안 평가가 어려워 제대로 된 권리를 누릴 수 없었던 중저신용 고객을 위해 제2금융권 데이터와 대안 데이터까지 동원해 자체 개발한 신용평가모형을 적용하고 있다"며 "이를 통해 중저신용 고객 4명 중 1명이 고신용자로 재평가돼 좋은 조건에서 대출을 받을 수 있었다"고 설명했다. 연령별로는 20대가 25.1%, 30대가 25.4%로 2030 MZ세대가 절반 이상이지만 4050 고객도 적지 않다. 40대 비중은 23.8%, 50대 이상은 19.2%였다. 홍 대표는 "토스뱅크는 디지털에 특화된 세대뿐 아니라 전 국민을 위한 금융 서비스를 만드는 게 목표"라며 "40대 이상 고객 비중이 높은 것을 매우 좋게 본다"고 말했다. 토스뱅크는 앞으로도 사용자를 늘리기 위해 새로운 서비스와 상품을 출시한다. 홍 대표는 "고객 관점에서 새롭게 해석한 '토스뱅크 모임통장' 상품을 곧 선보이겠다"면서 "기존에 출시된 상품과 비교해 다양한 부분에서 차별성을 가질 것이며, 모임통장을 바라보는 고객들의 경험을 새롭게 확장시킬 것"이라고 전했다. 다음달엔 금융 플랫폼으로서 증권사 등 다른 금융사 금융상품 추천 서비스 '웰스 매니지먼트'도 시작한다. 그는 "실질적으로 고객에게 가장 좋은 혜택을 주는 상품들을 한눈에 볼 수 있도록 모아둘 예정"이라며 "시장에 있는 좋은 상품을 발굴해 토스뱅크 고객들이 더욱 현명하게 투자하거나 더 좋은 상품에 예치할 수 있도록 준비하고 있다"고 말했다. 이날 높은 수신 잔액으로 인한 수익성 악화와 관련된 질문에 홍 대표는 "대출 자산이 빠르게 성장하고 기준금리도 오르며 수익성이 개선되고 있다"면서 "5월부터는 예대 사업에서 흑자가 나고 있다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2022.06.27.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>"마이너스통장 연장하려면 빨리하세요"…만기 앞둔 직장인들 속탄다</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004983270?sid=101</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>은행 마통 금리 최고 연 6%대신용대출 금리 4개월째 오름세[사진 제공 = 연합뉴스] #40대 직장인 A씨는 지난주 우리은행에서 보낸 마이너스통장(이하 마통, 한도 대출) 대출 만기를 미리 알리는 우편을 받았다. A씨는 현재 연 4.1% 금리로 마통을 7000만원 한도로 이용해 오고 있다. 최근 2년 사이 A씨의 마통 금리는 연 2%대에 시작해 3%대, 이어 올해 4%대까지 올랐다. 단순 계산으로 마통을 처음 개설할 때 연간 이자가 140만원이었다면 현재는 280만원으로 불어난 셈이다. A씨의 마통은 변동금리 상품으로 6개월 도래 시점에 새로운 금리가 적용된다. 만기를 연장할 때 금리가 얼마나 오를지 A씨는 걱정이다.지난해 이맘때 마통을 뚫어 놓은 직장인들이 은행에서 보낸 대출 만기를 알리는 안내장을 속속 받고 있다. 여윳돈이 있다면 상환하면 그만이지만 그렇지 않은 경우 만기를 연장해야 하는데 금리가 걱정이다.27일 금융권에 따르면 이날 기준 A씨가 한도 대출을 받은 우리은행의 '우리 WON하는 직장인대출'의 변동금리(6개월) 기준 최저금리는 우대금리 적용 시 연 4.02%이다. 기본금리는 연 4.92%이다. 최저금리는 우리은행이 내부적으로 산출한 신용등급 1등급 고객에게 적용된다.금융감독원이 운영하는 금융상품통합비교 공시사이트 '금융상품 한눈에'를 보면 주요 시중은행이 최근 취급한 마통 대출 평균 금리는 대부분 연 5%에 육박한다.지난달 신규취급액 기준 평균 마통 금리는 하나은행 연 4.52%, 우리은행 연 4.68%, 신한은행 연 4.83%, 국민은행 연 4.92%, NH농협은행 연 4.94%, 케이뱅크 연 4.80%, 카카오뱅크 연 6.70%, 토스뱅크 연 4.87%로, 최고 연 6%대를 나타냈다. 카카오뱅크의 경우 중신용자 대출을 많이 취급하는 특성상 마통 평균 금리가 다른 은행 대비 높다.  마통을 포함한 일반 신용대출 금리는 한국은행의 기준금리 인상과 방향을 같이하며 오름세다. 한은의 가장 최근 통계인 '2022년 4월 금융기관 가중평균금리'에 따르면 신규취급액 기준 예금은행의 일반 신용대출 금리는 지난해 11월 연 5.16%로 5%대 진입 후 올해 1월(연 5.28%)부터 4월(연 5.62%)까지 4개월째 오름세를 보이고 있다. 한은은 지난해 8월과 11월, 올해 1월과 4월, 5월 등 다섯 차례에 걸쳐 0.25%포인트씩 기준금리를 인상해 현재 연 1.75%까지 도달했다. 연내 한은의 기준금리가 연 3%에 달할 것이란 전망도 나온다.시중은행 관계자는 "대출 금리가 오르는 추세인 만큼 마통 만기를 연장하려면 연장 가능 시점에 하루라도 빨리 연장하는 것이 조금이라도 이자를 아낄 수 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2022.06.30.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>한여름 대출시장 꽁꽁…장사 망한 은행 '치트키'는?</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004764864?sid=101</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>가계대출 잔액 추이/그래픽=이지혜 디자인기자상반기 가계대출 감소로 타격을 입은 은행이 하반기 전망도 어둡게 본다. 금리가 더 오르는 데다 DSR(총부채원리금상환비율) 규제 벽에 부딪혀서다. 이 때문에 은행권 대출 영업 경쟁이 좀더 치열해질 전망이다. 29일 은행권에 따르면 KB국민·신한·하나·우리·NH농협 5대 은행에서는 상반기를 지나며 가계대출 규모가 8조원 넘게 줄어든 것으로 나타났다. 1~6월 매월 전월대비 감소세를 보였기 때문이다. 하반기에 가계대출 시장이 살아날 여지는 적다. 기준금리 추가 인상 등으로 대출 금리가 더 오를 뿐만 아니라 DSR 규제가 강화되기에 대출을 제한적으로 내줄 수밖에 없어서다. 특히 총 대출액 1억원 초과를 대상으로 하는 DSR 규제는 대출 소비자 3명 중 1명 꼴로 걸리기에 타격이 크다. 부동산 시장에 관망세가 이어지는 것도 가계대출에 부정적이다. 이에 은행들은 대출을 늘릴 기회를 만나면 영업력을 끌어올리며 경쟁을 벌인다. 가계대출 감소는 이자이익 감소로 이어질 가능성이 있어서다. 은행권엔 수익성이 지난해에 못 미칠 수 있다는 위기감이 돈다. 다만 상반기까지 이자이익에 큰 타격은 없는 것으로 파악된다. 당장 7월1일부터는 한국씨티은행 신용대출 대환을 유치하는 일에 은행마다 열을 올린다. 씨티은행 우량 고객을 유입할 기회인 데다 신용대출 대환 규모가 8조원대에 달해서다. DSR 규제 예외인 것도 장점이다. 대환 경쟁은 금리 경쟁으로 번졌다. 씨티은행과 대환대출 제휴협약을 맺은 은행은 KB국민은행, 토스뱅크 두 곳이지만 다른 은행들은 이 협약이 무색하게 금리 혜택을 끌어올리며 고객 확보에 주력한다. 하나은행은 전용 상품을 출시하면서 최대 3%포인트의 우대금리 혜택을 내세웠다. 제휴은행의 금리 할인 폭이 0.3~0.4%포인트인 것에 비하면 큰 편이다. 우대금리가 모두 적용되면 최저 3%대 초반의 금리가 적용된다. 현재 은행권 신용대출 최저 금리가 3%대 중후반인 것을 감안하면 최저 수준이다. 우리은행도 최대 1.5%포인트의 우대금리를 제공하면서 최저 3%대 초반 수준으로 대출을 이용하도록 상품을 설계했다. 씨티은행 신용대출은 한도가 많이 나오는 대신 대형은행보다는 금리가 다소 높은 편이어서 하나은행, 우리은행의 금리 장점은 두드러질 것으로 보인다. 한도 혜택도 넉넉하게 부여했다. 우리은행은 대환금액 범위 안에서 연소득의 최대 230%까지 최대 3억원 한도로 내준다. 하나은행은 대환금액 범위 안에서 최대 2억2000만원을 한도로 삼았다. DSR 규제 예외여서 가능한 한도다. 신한은행 등 다른 은행도 씨티은행 대환 전용 상품을 준비 중이다. 주요 은행이 모두 7월1일자로 전용 상품을 선보이면서 '씨티 고객 모시기' 영업 경쟁이 뜨거워질 것으로 보인다. 시중은행 관계자는 "대출 성장 동력을 찾는 동시에 씨티의 우량 고객을 모실 기회"라고 말했다. 8월부터는 전세자금대출 유치 경쟁이 달아오를 전망이다. 전세자금대출 수요는 가계대출 중에서 그나마 꾸준한 편인데 8월부터는 임대차보호법 적용이 만료된 매물이 시장에 풀리면서 전세대출 수요가 좀더 늘어날 여지가 있다. 전셋값이 오를 가능성 때문이다. 은행들은 전세자금대출 금리를 깎으며 수요에 대비하고 있다. 실수요자에 원활하게 자금을 공급한다는 명분은 덤이다. 농협은행은 전세대출 우대금리를 최근 0.1%포인트 확대했는데 7월1일부터 추가로 0.1%포인트를 얹어 총 0.2%포인트의 금리 할인 효과를 적용할 방침이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2022.06.24.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>[S머니]강달러·엔저에 주목받는 환테크…자칫 수수료에 배보다 배꼽이 더 커질수도</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004068978?sid=101</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>은행 환전수수료율 3~4%로 높아100엔 샀다가 팔면 33.7원 내야은행마다 우대환율 조건·제한 달라꼼꼼하게 확인한 뒤 선택할 필요장기투자땐  2~3% 이자수익 가능한MMDA상품·외화 예·적금이 유리사진 제공=이미지투데이[서울경제] 원·달러 환율이 약 13년 만에 1300원을 넘기고 엔·달러 환율은 24년 만에 최저 수준을 기록하는 등 환율이 요동치고 있다. 유례없는 ‘강(强)달러 엔저(低)’에 환율 등락으로 차익을 얻을 수 있는 ‘환테크’에도 관심이 모이는 가운데 금융권에서는 환테크 수단별 수수료를 잘 따져야 한다고 조언했다.24일 한국은행 ‘2022년 5월 중 거주자 외화예금 동향’에 따르면 5월 말 기준 국내 거주자 외화예금 잔액은 891억 7000만 달러(약 116조 원)를 기록했다. 이중 엔화 예금 규모는 총 54억 8000만 달러로 전월 대비 소폭 감소했지만 지난해 말과 비교하면 집계 통화 중 유일하게 잔액이 늘었다. 비싸진 달러는 팔고 저렴해진 엔화를 저가 매수한 것이다.하지만 환테크에는 수수료라는 함정이 있다는 점을 잊지 말아야 한다. 달러가 매수 당시보다 올랐다고 해서 무조건 환차익을 볼 수 있는 것은 아니다. ‘언젠가 오르면 큰 이익을 볼 수 있을 것’이라는 기대감에 잔액이 몰리는 엔화도 마찬가지다. 은행 환전 수수료는 살 때와 팔 때를 합쳐 통상 3~4%대로 높은 편인 데다 금융사, 외화 관련 금융 상품마다 우대 환율 조건 등도 다르기 때문이다. 환테크도 수수료와 우대 환율, 금리 등을 꼼꼼히 따져보고 들어가야 한다.A 은행을 통해 1만 엔을 산다고 가정해보자. 현재 엔화 매매 기준율은 100엔당 963원 8전이지만 살 때 환전 수수료율이 약 1.75% 붙기 때문에 1만 엔을 사려면 9만 6308원이 아닌 9만 7993원이 필요하다. 그렇게 산 1만 엔을 다시 파는 경우도 살 때와 비슷한 수준의 수수료가 붙는다. 매수·매도 수수료를 합치면 100엔당 약 33원 70전이 붙는 셈이다. 따라서 단순 계산을 해도 원·엔 환율이 996원 78전 이상 올라야 환차익을 기대할 수 있다.수수료를 줄이기 위해 가장 간편하게 이용할 수 있는 수단은 5대 시중은행(KB국민·신한·하나·우리·NH농협) 등이 제공하고 있는 간편 환전 서비스다. 환전 수수료 우대 환율은 은행이나 통화마다 조금씩 다르지만 보통 달러는 최대 90%, 엔화·유로화는 80%까지 우대 받을 수 있다. 또 금융 상품 가입 없이도 환테크를 할 수 있다. 다만 은행들이 제공하는 최대 우대 환율이 하루 100만 원이나 애플리케이션 이용 등 제한이 있는 경우가 대부분이라는 점은 유의해야 한다. KB국민은행은 1일 최대 100만 원까지만 90% 우대를 적용한다. 100만 원을 초과하면 우대 환율은 80%로 떨어진다. NH농협은행도 500달러 이하는 50%, 3000달러 이하는 60%, 1만 달러 이하는 70% 등 환전 금액에 비례해 우대 환율을 적용하고 있다. 핀테크 업체들이 제공하는 틈새 ‘우대 환율 100%’ 환전 서비스도 눈여겨볼 만하다. 토스는 달러·엔·유로화 환전 고객에게 1인 1회에 한해 우대 환율 100%를 적용하고 있다. 하나은행 우대 환율 최대 90%에 나머지 10%는 토스가 지원하는 식이다. 스타트업 최초로 환테크 플랫폼을 출시한 ‘스위치원’은 블록체인을 활용해 횟수 제한 없이 환전 수수료를 100% 우대하고 있다.꾸준히 외화를 모으고자 한다면 예금자보호법에 따라 5000만 원까지 보호를 받을 수 있고 조금이라도 이자를 주는 외화 예·적금 상품이 유리할 수 있다. 은행별 외화보통예금 금리는 0%대에 불과해 사실상 이자가 없는 수준이지만 수시 입출금이 가능하면서 잔액 규모별로 금리가 차등 적용되는 MMDA(money market deposit account) 상품이나 정기예금·적금 상품은 환차익과 별도로 2~3%대 이자 수익도 얻을 수 있기 때문이다. 이날 기준 KB국민은행의 KB국민UP외화정기예금과 적금 금리는 달러 12개월 기준 각각 연 3.25%, 2.58%다. 개인이 달러MMDA 상품에 가입해 50만 달러 이상을 예치하면 7일 미만 외화 정기예금 지급 이자율에 105%를 곱해 연 0.83%의 금리를 적용 받을 수 있다. 신한은행은 외화 정기예금에 대해 12개월 기준 연 2.32%를 제공하고 있다.한편 최근 환테크 및 해외여행 수요가 늘면서 은행들은 앞다퉈 이벤트를 진행 중이다. 신한은행은 이달 말까지 외화예금 신규 고객에게 우대 환율과 각종 경품을 제공하는 이벤트를 진행하고 있다. 우리은행도 이달 30일까지 환전 서비스인 ‘환전주머니’나 ‘우리더(The)달러외화적립예금’ 신규 고객을 대상으로 다양한 경품을 제공한다. 이외 KB국민은행·하나은행·NH농협은행 등도 환전 고객 유치를 위한 이벤트를 내놓고 있다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2022.06.16~2022.06.30).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.06.16~2022.06.30).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,1256 +1705,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2022.06.25.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>취준생 70% ″금융권 취업 희망″…1위 '카카오뱅크'</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004857475?sid=101</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>[파이낸셜뉴스] 신입 취업을 준비하는 취업준비생 10명 중 7명이 금융권 기업에 취업할 의사가 있는 것으로 나타났다.   25일 취업 플랫폼 잡코리아가 신입직 취업을 준비하는 취준생 569명을 대상으로 금융권 취업 선호도에 대해 조사한 결과 전체 응답자 중 72.6%가 '금융권 기업에 취업할 의사가 있다'고 답했다.   취준생들은 은행업계 취업을 선호했다. 가장 취업하고 싶은 업계에 '은행'이라고 답한 취준생이 55.7%로 가장 많았다. 이어 증권 업계에 취업하고 싶다는 취준생이 19.6%로 다음으로 많았다.   가장 취업하고 싶은 금융회사는 '카카오뱅크'가 1위에 올랐다. 가장 취업하고 싶은 금융회사를 조사한 결과 '카카오뱅크'를 꼽은 취준생이 33.9%로 가장 많았다. 카카오뱅크는 지난해 동일 조사 결과에서 가장 취업하고 싶은 금융회사 1위에 랭크된 이래 2년 연속 1위를 차지했다.   다음으로 △신한은행 25.4% △KB국민은행 24.0% △우리은행 18.6% △NH농협은행 18.6% 순으로 취업하고 싶은 금융회사를 꼽았다.   성별로 보면 남성은 카카오뱅크(34.4%)에 이어 KB국민은행(21.9%), 신한은행(18.8%), 토스뱅크(16.3%), 우리은행(15.6%) 순으로 취업 선호도가 높았다.   여성은 카카오뱅크(33.6%)를 취업 선호 기업으로 꼽은 응답자가 가장 많았고, 이어 신한은행(29.6%), KB국민은행(25.3%) 순이었다.   취업 선호도에 영향을 미치는 요인 1위는 '직원 복지'였다. 이들 기업에 취업하고 싶은 가장 큰 이유 한 가지를 꼽아보게 한 결과 '직원 복지가 우수할 것 같아서'라는 답변이 19.1%로 가장 높았다.   다음으로 △연봉이 높을 것 같아서 12.3% △오래전부터 이용해온 회사라서 12.1% △오랫동안 일할 수 있을 것 같아서 10.9% 순으로 답변이 높았다.   금융권 취업을 위해 취준생들은 '금융 분야 자격증 취득(42.6%)'을 가장 많이 준비하는 것으로 나타났다. 이어 '전공 자격증 취득' 34.6%, '학점 향상' 34.6% 등 자격증 취득이나 전공 지식 향상을 준비하는 취준생들이 많은 것으로 조사됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2022.06.23.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>토스뱅크, 내달부터 체크카드 캐시백 확대…하루 최대 3천500원</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013265188?sid=101</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>[토스뱅크 제공. 재판매 및 DB 금지]    (서울=연합뉴스) 오주현 기자 = 토스뱅크가 제공하는 체크카드 캐시백이 다음 달부터 확대된다.    토스뱅크는 매일 최대 3천500원까지 캐시백 혜택을 받을 수 있는 체크카드 에피소드3를 다음 달 1일부터 시작한다고 23일 밝혔다. 혜택은 올해 말까지 제공된다.    에피소드2에서는 5개 영역에서 매일 최대 1천300원까지 캐시백을 받을 수 있었다면 에피소드3에서는 7개 영역에서 매일 최대 3천500원까지 혜택을 받을 수 있다.    기존 5대 캐시백 영역(커피·편의점·택시·패스트푸드·대중교통)에 결제 횟수가 높은 영화(CGV·롯데시네마·메가박스), 디저트(던킨도너츠·배스킨라빈스) 등 2개 영역을 추가했다.     하루에 영역별 한 번씩, 매일 최대 일곱 번 혜택을 받을 수 있다.    내달부터 캐시백 금액은 1만원 이상 결제 건에 대해 500원 혜택을 제공하며, 1만원 미만 결제 건에 대해서는 100원 혜택을 제공한다. 기존 3천원 이상 결제해야만 캐시백을 지급하던 조건은 삭제했다.     해외이용금액 무제한 3% 캐시백 혜택도 지속해서 제공한다.    토스뱅크 관계자는 "체크카드 에피소드3을 시작하며 고객들의 혜택을 더욱 강화하고 불편함은 없애도록 상품 구성을 변경했다"고 말했다.     viva5@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2022.06.20.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>개발자 구인난에 채용 플랫폼 출시…팀스파르타 '포트99'</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011256467?sid=101</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>기사내용 요약복잡한 절차 없이 지원자 관리…면접일정 조욜 [서울=뉴시스] 개발자 채용 전문 플랫폼 'Port99'. (이미지=팀스파르타 제공) 2022.06.20. photo@newsis.com[서울=뉴시스] 배민욱 기자 = 코딩 교육 스타트업 팀스파르타는 개발자 전문 채용 플랫폼 '포트99(Port99)'를 정식 출시한다고 20일 밝혔다.포트99는 복잡한 절차 없이 개발 직군의 지원자를 간편하게 관리하고 면접 일정을 조율할 수 있는 채용 플랫폼이다. 개발자들의 이력서를 별도 다운로드 없이 개발 직무와 기술 스택 별로 간편하게 조회하고 여러 명의 구직자에게 한번에 면접을 제안할 수도 있다.포트99에는 현재 카카오벤처스 패밀리사를 비롯해 토스, 오늘의집, 우아한형제들 등 350개의 기업이 협력사로 등록돼 있다. 협력사에게는 2개월에 1회씩 사전 동의를 받은 항해99 수료생들의 이력서가 제공된다. 최종 프로젝트 발표회에서는 인재들과 직접 네트워킹 할 수 있는 기회도 열린다. 협력사 등록에는 별도 참여 비용이나 채용 의무는 없다. 개발자가 필요한 기업이라면 어디든지 신청이 가능하다.팀스파르타 이범규 대표는 "포트99 서비스가 완성되면서 개발 인재 양성부터 채용까지 원스톱으로 연계할 수 있는 인프라를 구축하게 됐다"며 "기업에게는 인재를 확보해주고 구직자에게는 일자리를 제공해 함께 성장할 수 있도록 돕는다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2022.06.22.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>[이슈진단+] 개발자 모시려면 일·비전·문화 다 바꿔라</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002260348?sid=105</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>[개발자 연봉 전쟁, 그 1년 후-1부]②개발자 잘 모시는 회사들의 특징연봉이 개발자를 끌어들이는 절대 무기는 아니다. 적정 수준의 연봉은 당연한 조건이고, 회사에 일하고 싶게 만드는 또다른 무언가를 고민해야 한다.개발자를 필요로 하는 기업의 유형은 크게 두 그룹으로 나눌 수 있다. 먼저, 태생적으로 IT 기술을 기반으로 한 기업이다. 오늘날 대부분의 스타트업, 빅테크 기업이 여기에 해당한다. 다른 하나는 전통적인 굴뚝산업에 바탕을 두면서 디지털 전환에 나선 기업이다. 두 그룹의 출발점은 완전히 다르지만, 개발자를 필요로 한다. 개발자 구인난과 연봉 전쟁은 두 그룹 공히 동일하게 나타나는 현상이지만, 개발자 확보를 위해 구사해야 할 전략은 달라진다.우수한 개발자를 고용하려는 기업은 비전과 문화란 두가지 요소에 주목해야 한다. 연봉이란 구체적 요소에 비해 비전, 문화란 요소는 너무 추상적이고, 허황돼 보일 수 있다. 그러나 자금 여력이 부족한 중소기업, 중견 기업, 스타트업이 좋은 개발자를 확보할 틈은 비전과, 문화에 있다. 오히려, 연봉만 높고 비전과 문화 중 하나에 중대한 결함을 가진 회사라면 기업 규모나 성격, 위상에 상관없이 좋은 개발자를 유치하기 불가능하다.(사진=픽사베이)■일의 의미, 명확한 비전을 제시하라개발자는 성장에 목마른 존재다. '도태'되는 것에 공포감을 갖는다고도 표현할 수 있다. 타 업종에 비해 개발자의 이직이 많은 이유는 '성장' 혹은 '도태'란 극단적 선택지에 언제나 노출돼 있기 때문이다.당근마켓의 '무너진 지역 커뮤니티 재건', 우아한형제들의 '행복을 배달한다' 같은 거창한 비전도 있을 수 있다. 우아한형제들의 마광휘 커머스웹프론트개발팀 개발자는 “입사를 고민하던 당시 우아한형제는 퀵커머스라는 비전아래 다양한 도전을 시도하려 했다”며 “이러한 도전과 비전에 대해 공감하고 매력적으로 느껴져 입사를 결정했다”고 밝혔다.단, 비전이 거창하고 두루뭉실하면 많은 사람을 세밀하게 설득하기 힘들어진다. 소박하더라도 구체적이고 도전 가치를 확실히 드러내는 비전이 좋다. 회사에 취업하려는 개발자가 그 비전에 공감하기 쉬워지기 때문이다.황리건 원티드랩 엔지니어링 총괄은 “개발자들이 연봉만 보고 이직을 했을 때 적응하지 못하는 이유 중 하나가 내가 정말 이 비전에 공감하는지 혼란을 겪기 때문”이라며 “회사들은 자신들의 문제나 비전을 최대한 많이 알리고 그걸 정말 하고 싶은 사람들을 모으는 게 제일 중요하다"고 말했다.황리건 총괄은 "최근 채용 브랜딩이라는 얘기도 많이 하는데, 우리 같은 회사가 있다는 것을 알리고 전파하는 노력이 매우 중요해졌다"며 "우리 회사에 들어오면 어떻게 성장할 수 있는지 알리는 것도 회사가 가져야 하는 중요한 숙제"라고 강조했다.스타트업이나 중소기업은 빅테크 등 대기업에 비해 새로운 것에 대한 도전과 성취감을 강조하기 용이하다. 0에서 시작해 폭발적인 서비스 성장을 경험하며 자신의 성과가 회사 전체의 성과로 직결되는 기회를 매력으로 내세울 수 있다.최근 스타트업으로 이직한 한 개발자는 “대기업에서 수년간 일하면서 너무 반복적인 업무만 한다는 생각이 들었다”며 “이왕이면 힘들어도 다양한 경험을 하기 위해 스타트업을 선택했는데, 이직 후 생각보다 나와 비슷한 사례가 많은 것을 알게 됐다”고 말했다.■개발자 친화적 문화, '일하는 방식'을 고민하라'개발자 친화적 문화를 조성하라'는 조언은 매우 쉬워보이지만, 달성하기 매우 까다로운 목표다.일단, '개발자 친화적'이란 말은 회사의 권한을 개발자에게 몰아주라는 의미가 아니다. '친화적'을 제외한 '개발 문화' 측면부터 보면, '개발 문화'란 개발자가 일하는 방식, 어떻게 일을 하는가를 뜻한다. 대표적으로 개발방법론을 떠올리면 되는데 '폭포수(워터폴)', '애자일' 등이 많이 언급된다.보편적인 개발방법론은 '폭포수' 방식이다. 기획이 정해지고, 개발과 디자인을 진행하는 과정이 폭포수처럼 위에서 아래로 밀려내려오는 형태다. 애자일 방법론은 짧은 주기로 프로젝트를 운영하고, 그 주기를 반복하면서 빠르게 개선해 나가는 형태다.상황에 따라 달라지지만, 보통 '폭포수' 방식은 최근 지양하는 추세다. 상명하복의 업무 흐름 속에서 개발자는 자율성이나 성취감보다 종속과 정체를 느끼기 쉽다.황리건 원티드랩 엔지니어링 총괄은 "이직을 했는데 폭포수식으로 개발하고 이메일로 커뮤니케이션 한다면, '현타' 오는 일이고, 그 환경에서 오래 못 버티고, 벗어나고 싶어 한다"며 "새로운 기술을 접할 수 없고, 그런식으로 일을 하면 생산성도 안 나오니까 뒤처지는 것 같고 그럼 빨리 탈출해야겠다는 생각이 드는 것"이라고 설명했다.IT에서 개발이란 한사람의 힘으로 이뤄지지 않는다. 팀을 이루게 되고, 동료·상사와 소통하며 협업해 '제안, 구현, 피드백, 수정, 배포'의 업무를 반복한다. 이런 협업성의 업무가 매끄럽게 돌아가고, 그 흐름 속에서 성장과 성취에 대한 만족감을 느끼게 하는 것이 '개발자 친화적 문화'다.때문에 '개발자 친화적 문화'란 말은 '좋은 조직'으로 바꿔도 된다. 같이 일하는 동료가 좋으면 곧 '좋은 조직'일 수 있다. 혹은 훌륭한 멘토가 있거나 배울 점 많은 사람이 있어 적극적으로 소통할 수 있다면 '좋은 조직'이다. 재택근무, 무제한 휴가, 성과금 등의 복지 제도도 '개발자 문화'의 일부일 수 있지만, 본질은 '좋은 조직'에 있다.이민석 이노베이션아카데미 학장은 "복지 제도는 사실 어느 회사나 다 비슷하고 누리기도 쉽지 않으며, 호불호도 갈리기 때문에 결정적 이직의 요인으로 보기 힘들다"며 "좋은 조직을 능가하는 매력은 없다"고 말했다.이민석 학장은 "개발자는 그 회사의 개발 조직이 엉망이다 싶을 때 나간다"며 "좋은 동료와 집단을 유지하는 노력이 필요하고, 회사가 개발자를 도와주는 느낌을 줘야지, 세간에서 스크럼 같은게 유행한다고 무작정 따라하는 식의 개발 조직은 최악으로 평가받는다"고 덧붙였다.개발자 친화적 문화는 굴뚝산업 기업에서 연봉이나 비전보다 더 신경서야 하는 요소다. 가장 비근한 예가 제조기업이 소프트웨어 개발자를 채용하면서, 시간 단위 노동 관리, 제품 개발 사양 지정, 고정된 생산 양식 등 제조 산업적 문화를 유지하면 100% 개발자 유치에 실패한다.이민석 학장은 "제조업과 달리 소프트웨어는 실패하는게 일"이라며 "실패를 허용하지 않는 프로세스로 개발하는 문화를 자체적으로 타파할 수 있는 제조회사는 거의 없고, 손에 꼽힌다"고 말했다.김명신 NHN클라우드 CTO는 "개발자에게 주도적으로 업무를 주는 것, 즉 실패를 허용해 그들이 의사결정을 할 수 있도록 해주는 게 필요하다"며 "소위 말하는 공포의 구간을 넘어야 성장을 하는데, 공포를 없애주는 방법이 실패를 인정하는 것"이라고 설명했다. 그는 "이거 해봐 실패해도 괜찮아’라고 해서 계속 기회를 주는, 일종의 피플 매니지먼트 차원의 노력들이 반드시 필요하다"고 덧붙였다.성장에 목마른 개발자에게 성장의 기회를 지속적으로 제공하는 것도 매력을 쌓는 좋은 방법이다. 전문가를 초청하는 사내 스터디나 세미나, 컨퍼런스 등을 열거나, 글로벌 개발자 컨퍼런스 참여 기회를 제공하는 게 대표적인 예다.NHN클라우드 김명신 CTO는 “개발자는 자기 계발을 하지 못하는 환경에 대한 두려움을 가장 크게 갖는다"며 “세계는 엄청나게 빨리 변하는데, 이를 배울 수 있는 기회를 박탈당하면 불안할 것 같다”고 말했다.출처=이미지투데이■어떻게 무엇으로 일하는지 '알려라'개발자가 어느 기업의 매력을 평가할 때 간과할 수 없는 게 어떤 기술을 쓰고, 어떤 프레임워크와 도구를 쓰는지 등에 대한 정보다. 예를 들어 개발 언어와 플랫폼은 주로 어떤 것인지를 보는데, 앞서 언급된 '성장'의 연장선에 있다. 그 언어나 프레임워크가 인기있고 유망한지, 합리적인지 등을 따지는 것이다.황리건 총괄은 "어떤 기술을 쓰는지에 따라 일하는 방식이 달라진다"며 "예를 들어 협업할 때 슬랙을 쓰는지 이메일로 하는지조차 사실은 개발 문화의 일부로 여겨진다"고 말했다.코볼, C++, 자바 같은 성숙한 개발언어를 쓴다고 해서 구식이라거나 가망없는 회사라 하긴 힘들다. 파이썬, 고, 코틀린 같은 언어를 쓴다고 반드시 유망하고 좋은 회사 평하기도 어렵다. 문제는 변화를 거부하고 유연함을 버렸을 때다.황 총괄은 "만약 IDE로 이클립스를 쓰는 회사가 있고, 새로 나온 더 생산성 높은 도구를 쓰자고 제안했을 때 바꿀 수 있다면 문제 없다"며 "제안을 해도 받아들여지지 않은다면 개발자는 답답함을 느끼고 할 수 있는 게 없다는 생각을 갖게 된다"고 말했다. 그는 "유연한 조직 문화인지 아닌지가 반영된 결과이므로, 새로운 개발도구를 쓰는지 아닌지 여부가 회사를 판단하는 중요한 단서가 되는 것"이라고 덧붙였다.최근 '개발자 컨퍼런스'가 유행이다. 애플, 구글, 마이크로소프트 같은 빅테크 기업이 하던 개발자 대상 행사가 네이버나 카카오 같은 대형 인터넷 기업 외에도 토스, 업비트, 현대자동차 같은 기업 주최로 열린다.개발자 행사를 대외적으로 적극적으로 개최하는 게 추천된다. 회사가 원하는 기술, 하고자 하는 바, 지금까지 성취 히스토리를 구체적이고 직접적으로 알릴 수 있는 기회기 때문이다.개발자 컨퍼런스의 목적은 당연히 '채용'이다. 황리건 총괄이 언급했던 '채용 브랜딩'의 일부다. 컨퍼런스의 발표 내용은 회사에서 원하는 인재의 역량과 풀고자 하는 문제를 알려주는 '모집 요강'이며, 발표자는 입사를 결정하는 '멘토', '좋은 동료'다.'기술 블로그'도 회사의 개발문화를 알리는 좋은 수단이다. 기술 블로그는 자칫 평범하고 당연한 이야기로 채울 수 있고, 기업의 기밀을 누설할 수 있어 회사마다 호불호가 갈린다. 그러나 개발자 채용에 있어 기술 블로그 같은 콘텐츠는 구직자를 설득하기 위한 사전 참고자료 역할을 한다.이민석 학장은 "기술블로그는 구직자에게 해당 회사가 무엇에 신경쓰는지 알 수 있는 콘텐츠"라며 "잘 유지되는 기술 블로그의 경우 아무나 쓰지 않고, 전략적으로 집중 영역을 다루는데, 회사의 가는 방향이나 기술 자체를 설명하기도 하지만 특정한 문제를 해결하는 방식을 쓴다"고 설명했다.그는 "서버가 죽었을 때 어떻게 한다거나 식의 서술은 그 회사의 조직 문화를 볼 수 있는 결정적인 문서"라며 "이슈 발생했을 때 누가 달려나가는지 써 있고, 이 회사의 기술적 자산이 어떻게 관리 돼 있는지 적혀 있다면 구직자 입장에서 삽질은 안 하겠구나 싶은 생각이 드는 것"이라고 덧붙였다.황리건 총괄은 "많은 기업에서 블로그, 유튜브 등을 통해 어떤 개발활동을 하는지 알린다”며 “이는 개발자가 그 회사에서 무엇을 배울 수 있는 지 느끼고 지원하도록 유도하는 채용 활동의 연장선”이라고 설명했다.■개발자 채용과 유지를 전담하는 '데브렐'을 만들어라개발자 채용 수요가 먼저 늘어났던 미국의 경우 '개발자 릴레이션', '데브렐(DevRel)'이란 용어가 일반화됐다. 개발자를 채용하는 것부터, 개발자의 경력 관리를 돕고, 지속적인 동기부여를 제공하며, 내부 개발자의 콘텐츠를 외부에 알려 새로운 인재를 끌어들이는 인사 직책이다. 기술 블로그 운영, 개발자 채용, 컨퍼런스 개최, 교육 프로그램 운영 등이 그의 업무다. 개발자 인사관리(HR)만 전담하는 '테크 HRBP'란 역할로도 불린다.황리건 총괄은 "프로 운동 선수에게 전담 코치가 있어서 전문적으로 훈련을 돕고 역량 수준을 높이는 것처럼, 개발자를 위한 애자일 코치 같은 걸 회사가 직접 채용하는 것"이라고 설명했다.그는 "대기업과 인재 경쟁을 해야하는 규모 있는 스타트업이 테크HR 같은 것을 매우 적극적으로 하고 있는데, 예를 들어 우아한형제들, 야놀자, 쿠팡 등은 테크 리쿠르트, 테크HR, 데브렐 같은 테크 HR을 팀 단위로 하고 있다"고 덧붙였다.일반적인 HR과 테크 HR은 뭐가 다를까. 기존 회사의 HR과 개발자 HR은 '커리어 트랙'이나, '경력 면담' 등에서 특수성을 갖고 있다. HR 조직이 개발자의 특성을 이해하지 못하고 일률적인 정책으로 대응할 때 개발자 이탈이 벌어지는 것으로 IT업계에선 분석한다.한국은 기업 전반의 인사(HR) 조직도 대중적이지 않다. 하물며 테크HR도 드물다. 이민석 학장은 "우리나라의 전통적 HR조직은 직원을 관리하고 평가하는 조직이지, 직원의 행복한 삶을 돕는 조직이 아니"라며 "테크 HR이란 명목이 있어도 HR의 하위 조직으로 변모해서 돈만 쓰는 조직으로 질책이나 당한다"고 말했다.그는 "미국 기업의 HR조직은 도와주는 조직이기 때문에 사람들을 자주 만나면서 문제를 듣는 것을  잘 한다"며 "HR과 테크 HR이 인재 채용, 개발자 채용을 더 잘하게 하는 조직으로 바뀌어야 하고, 비IT 기업일수록 관리를 위한 데이터가 아니라, 왜 개발자에게 선호되지 않는 기업인지 데이터로 생각할 수 있는 HR 노력이 필요하다"고 강조했다.■마음을 보듬는 '케어', 개인 관리에 신경써라테크HR은 개발자 채용에 큰 역할을 하면서, 한편으로 개발자와 소통하는 과정에서 발생하는 이질적 조직 간의 트러블을 최소화하는 역할도 한다. 그리고 개발자 조직의 실질적 운영과 관리를 수행하는 중간 관리자, 팀장의 인력 관리 역량을 키우는 게 필요하다.조직 구성원 한명 한명의 불만을 해소하는 역할은 중간 관리자의 몫이다. 퇴사의 결정적 요인 가운데 중간관리자의 비중이 큰 게 현실이지만, 대부분의 기업이 중간 관리자를 키우는데 신경쓰지 않는다. 중간관리자가 타인과 소통에 서툴고, 권위적이라면 개발 조직의 와해는 불보듯 뻔하다.재택근무처럼 서로 떨어져 소통하는 게 많아진 요즘 중간관리자의 사람관리 스킬은 더욱 부각되고 있다.김명신 NHN클라우드 CTO는 "NHN클라우드는 지금 주 1회 출근, 나머지 재택근무인데, 재택근무가 인력 관리 측면에서 중간관리자의 인력 관리에 들어가는 비용을 두배 정도 높이는 모델"이라며 "중간 관리자는 자기 소속의 개발자를 지키면서도 일을 시켜야 하는 부담을 엄청 가중시키는데, 지금 있는 개발자를 지키는 피플 매니지먼트 근육이 시급하다"고 말했다.김명신 CTO는 "반드시 재택근무 때문이랄 수는 없지만, 작은 불만들이 쌓이고 쌓이다가 어느 순간 빵 터져린다"며 "연봉이든 어떤 조건을 걸어도 이미 마음이 상한 사람은 결국 퇴사하게 되므로, 이 마음이 상하지 않게 하는 매니지먼트 스킬이 엄청 필요하다"고 강조했다.재택근무는 한 예일 뿐이다. 개발자 개인이 회사 조직 속에서 소외감을 느끼지 않게, 불만을 해소할 수 있는 창구를 마련하는 게 중요하다. '자율성'과 '성장'에 민감한 개발자를 끌어오는 건 시스템으로 가능하지만 유지하는 건 결국 사람의 몫이다.☞다음 편에 계속…[글 싣는 순서]①IT 개발자 몸값 더 오를 수밖에 없다②개발자 모시려면 일·비전·문화 다 바꿔라③모든 기업이 '개발자 사관학교'로 변신해야^^</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2022.06.30.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>상장→매각→상장→또 매각?…티몬, 앞날 어찌되나</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006188025?sid=101</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>전략적투자자(SI)로 큐텐·토스페이먼츠 지목달라진 기업가치…"제 값 받기 쉽지 않네"© News1 윤주희 디자이너(서울=뉴스1) 한지명 기자 = 티몬 매각설이 3년 만에 다시 수면 위로 떠 올랐다. 티몬은 이번 매각설에 대해 "사실무근"이라고 강력히 부인한 상태다.일각에서는 티몬이 인수 의향을 보이는 전략적투자자(SI) 및 재무적 투자자(FI)를 찾고 있고 대주주 콜버그크래비스로버츠(KKR), 앵커에쿼티파트너스가 엑시트를 노리는 만큼,실제로 매각이 진행될 가능성도 제기하고 있다.변수는 달라진 '기업가치'다. e커머스 시장이 쿠팡·네이버·SSG닷컴 등 '빅3'로 재편되고 투자심리가 위축된 상황에서 실적 악화를 걷는 티몬이 원매자를 찾기 어려울 것이라는 분석도 나온다.30일 IB·유통업계에 따르면 큐텐과 토스페이먼츠 등 복수의 SI가 티몬에 대한 투자를 검토 중이다. 중장기적으로 원매자들을 대상으로 투자유치 혹은 경영권 매각을 타진 중이라는 얘기도 거론된다.앞서 업계에서는 큐텐은 몬스터홀딩스(81.74%)와 티몬글로벌(16.91%)가 보유한 티몬 지분 전량에 대해 인수를 추진한다는 소식이 전해졌다. 큐텐과 토스 자회사인 토스페이먼츠가 경합을 벌였으나, 토스페이먼츠가 인수 의사를 철회했다고 알려졌다.한 이커머스 업계 관계자는 "지난달 큐텐 담당자가 티몬 본사를 방문해 매각을 염두로 실사를 진행한 것으로 알려졌다"고 전했다.본사는 "사실과 다르다"고 부인했지만, 궁극적인 목표는 '매각'을 위한 과정이라는 해석에 무게가 실리고 있다. 쿠팡, SSG닷컴, 11번가 등 국내 주요 이커머스업계 중 티몬만이 유일하게 최대주주를 사모펀드로 두기 때문이다.투자자들이 평가한 티몬의 기업가치는 2000억원대 규모로 전해졌다. 3년 전인 지난 2019년 롯데그룹과의 '빅 딜'설이 나왔을 때 1조원대로 추정됐던 몸값과 비교했을 때 상당한 격차다. 여러번의 기업공개(IPO), 매각설 과정에서 모회사인 몬스터홀딩스의 주주들이 기대하는 적정 벨류에이션은 2조원 내외로 알려졌다. 이와 비교했을 때는 10분의 1 수준이다. 이렇다보니 매각 금액이 전체 지분의 일부인 30~35%에 해당하는 금액이라는 이야기도 나온다.이를 두고 시장에서는 티몬이 과거와 달리 제값을 받을 수 없는 환경에 처했기 때문이라는 반응이다. 티몬은 2015년 KKR과 앵커에쿼티 파트너스 등이 4000억가량을 들여 인수한 이후 줄곧 적자를 기록하고 있다.티몬은 2019년 1192억원, 2020년 711억원, 2021년 793억원 등 수년째 순손실을 내고 있다. 이로인해 지난해 말 티몬의 누적 결손금은 1조981억원에 달한다. 결손금을 당장 해소할 묘수가 없고, 투자를 통해 자금이 유입돼도 쉽게 자본 정상화를 이루기 어렵다는 분석이 나온다.티몬은 지난 2017년 삼성증권을 주간사로 선정, 첫 상장을 추진한 바 있다. 당시에도 흑자 전환에 실패하며 상장이 무산됐다. 2021년 하반기 상장을 목표로 PSA 컨소시엄과 해외투자자 등으로 3050억원의 신규 투자를 유치하면서 IPO를 추진했으나, 같은 해 목표를 철회했다.업계에서는 차별화된 경쟁력이 없으면 시장에서 영향력을 발휘하지 못할 수 있다고 지적한다. 쿠팡의 '로켓배송', 컬리의 '샛별배송' 등 쟁쟁한 e커머스 업체들이 시장에 포진하고 있어서다. 이들과 경쟁에서 살아남기 위해서는 티몬만의 전략이 부족하다는 것이다.업계 관계자는 "과거와 달리 시장 상황이 재편되면서 티몬의 기업가치가 저평가된 것으로 보인다"며 "여기에 사모펀드가 최대주주다 보니까 결국 엑시트를 위해 여러 가지 사업을 한 것이 티몬만의 정체성을 모호하게 만들어 몸값에 영향을 끼쳤을 것"이라고 분석했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2022.06.21.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>하이證 "인터넷은행, 금리인상기 중저신용대출 연체율 살펴야"</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006168984?sid=101</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>"시중은행 대비 자본효율성 낮아"© 뉴스1(서울=뉴스1) 황두현 기자 = 하이투자증권은 인터넷전문은행 3사(카카오뱅크·토스뱅크·케이뱅크)에 대해 중저신용자 위주 대출 영업으로 마진은 개선됐으나 금리인상기에 접어든 만큼 연체율 등 건전성 관리 추이를 살펴봐야 한다고 진단했다.시중은행 대비 예대율(예금잔액 대비 대출잔액 비율)이 낮아 자본효율성이 낮다는 점도 지적했다. 김현기 하이투자증권 연구원은 21일 보고서에서 "인터넷전문은행은 분기 대출 성장률 10% 내외로 고성장을 이어가고 있는데 예대율은 시중은행 대비 낮은 편"이라며 "카카오뱅크는 80% 중반까지 상승하여 높아지고 있으나 아직 시중은행(100%)보다 낮은 수준"이라고 설명했다.그러면서 "예대율이 낮게 되면 이자수익보다 이자비용이 상대적으로 많이 발생할 수 없다"며 "토스뱅크는 2% 이자의 파킹 통장을 출범하며 가입자가 몰렸지만 대출 잔액이 적어 조달 비용 측면에서 부담으로 돌아오고 있다"고 덧붙였다.중저신용자 대출 성장에 대해서는 마진 개선에는 도움이 되지만 높은 수익에 따른 비용 부담 문제를 언급했다.김 연구원은 "1~2등급 신용대출 금리는 3%대이나 중저신용자는 7~14%로 순이자마진(NIM) 개선에 긍정적 영향을 미칠 것"이라면서도 "건전성은 상대적으로 낮을 수밖에 없다"고 평가했다.이어 "현재와 같이 금리가 상승하는 국면에서는 이자 부담이 증가한다"며 "가계 이자 부담은 이미 2008년, 2018년 고점을 상회하고 있다"며 "중금리대출이 본격적으로 증가한 시기는 2021년 하반기였기 때문에 연체율 관리 추이를 살펴야 한다"고 조언했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2022.06.22.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>씨티은행 대출자산 8조, KB국민·토스뱅크가 맡는다</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005249027?sid=101</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>내달 1일부터 실시…DSR 등 가계대출 규제 비적용KB국민 0.4%p·토뱅 0.3%p 금리 혜택…인지세·중도상환수수료 면제(사진= 연합뉴스)[이데일리 박철근 기자] 국내에서 소비자금융 사업을 철수하는 한국씨티은행의 개인신용대출잔액 8조원 대환업무를 KB국민은행과 토스뱅크가 담당하게 됐다. 한국씨티은행의 개인신용대출잔액(3월말 기준)은 8조409억원 수준이다.한국씨티은행은 22일 “KB국민은행, 토스뱅크와 업무제휴계약을 체결하고 내달 1일부터 ‘개인신용대출 대환 제휴 프로그램’을 시행한다”고 밝혔다.이에 따라 기존에 한국씨티은행에서 개인신용대출을 받은 고객은 ‘차주별 총부채원리금분할상환비율(DSR)’ 및 ‘연소득 100% 이내 대출한도 제한’과 관계없이 기존 신용대출 잔액 범위 내에서 KB국민은행과 토스뱅크의 신용대출 상품으로 갈아탈 수 있다. 특히 금리우대뿐만 아니라 대출시 발생하는 중도상환수수료와 대환 과정에서 부담하는 인지세는 KB국민은행과 토스뱅크가 부담할 예정이다.KB국민은행은 대환 전 대출 금리 대비 최대 0.4%포인트의 우대금리를 지원할 예정이다. ‘웰컴 우대금리(0.2%포인트)’는 일괄적용하고 KB국민은행 자체 신용평가 결과 6등급 이내 고객에게는 우대금리 최대 0.2%포인트를 추가 적용해 최대 0.4%포인트의 혜택을 받을 수 있다.토스뱅크는 대환 고객을 대상으로 0.3%포인트 금리를 할인해준다. 한국씨티은행에서 연 3.8% 금리로 대출을 받은 고객은 토스뱅크에서 대환대출을 하게 될 경우 연 3.5% 금리로 대출서비스를 이용하게 된다.토스뱅크 관계자는 “대환고객을 위한 대환대출 시스템을 별도로 구축했다”며 “토스 애플리케이션 미설치 및 토스뱅크 미가입 고객도 한국씨티은행의 모바일 앱과 홈페이지를 통해서도 클릭 한 번으로 대환 대출을 할 수 있도록 했다”고 설명했다. 이어 “대환고객은 기존 한국씨티은행에서의 같은 조건으로 최소 5년 간 대출 만기 연장이 가능하다”며 “이후에는 토스뱅크가 정한 조건에 따라 추가로 5년 더 연장이 가능하다”고 덧붙였다.한국씨티은행은 소비자금융 사업의 안정적인 철수를 위해 개인신용대출상품에 대해 2026년말까지 기존과 동일하게 은행이 정한 심사 기준에 따라 만기를 연장해준다. 2027년 이후에도 전액 상환 또는 다른 금융기관을 통한 대환이 어려운 고객의 경우 분할 상환을 지원할 계획이다.한국씨티은행 관계자는 “제휴를 통한 개인신용대출 대환대출은 한국씨티은행의 대출 잔액과 같은 금액으로만 가능하다”며 “대환을 원하는 금융회사의 심사 결과에 따라 대환이 거절될 수 있으므로 대환 가능 여부와 구체적인 대출 조건 등은 개별 확인이 필요하다”고 설명했다.한편 한국씨티은행 개인신용대출 고객의 타행 대환은 제휴 은행뿐 아니라 비제휴 은행 및 타 금융회사에서도 신청할 수 있다. 비제휴 은행이나 다른 금융회사로 대환을 원하는 고객은 해당 금융회사에 문의하면 상세한 내용과 절차를 알 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2022.06.20.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>요동치는 환율…은행 '간편환전'으로 수수료 아끼는 팁 [송영찬의 핀테크 짠테크]</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004713675?sid=101</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>주식투자 인구 1400만 시대. 투자하면서 나도 모르게 나가는 '새는 돈'을 잡기 위한 짠테크 수단에 대해 설명합니다. 자세한 내용은 유튜브 &lt;주코노미TV&gt; 채널에서 확인하실 수 있습니다.연일 원·달러 환율은 치솟고 원·엔 환율은 떨어지고 있습니다. 실제로 지난달 23일 한국은행이 발표한 4월 중 거주자외화예금 동향을 보면, 4월 한 달 동안에만 달러예금 잔액은 731억8000만 달러로 전월대비 53억7000만 달러가 감소했습니다. 같은 기간 엔화예금 잔액도 소폭 줄었지만, 지난해 말 이후 계속해서 감소추세에 있는 달러예금과는 달리 5대 은행의 엔화예금 잔액은 지난해 말 이후 22% 늘었습니다. 환율이 오른 달러는 팔고, 환율이 떨어진 엔화는 사는 움직임을 보이고 있는 겁니다.  복잡한 환율의 세계 요즘 환전 방식 정말 많아졌습니다. 해외여행 경비 마련을 위해 현금을 환전하시는 분들도 있으실거고, 외화예금에 가입하시거나, 은행의 모바일 앱이나 핀테크 앱을 이용해 환전하시는 분들도 있으실 겁니다.환테크는 환율 변동폭이 클 때 단기 차익을 기대할 수 있고 세금이 붙지 않는다는 장점이 있지만, 살 때와 팔 때의 환율이 다른 탓에 이 갭에 해당하는 만큼의 수수료를 내야 한다는 단점도 있습니다. 당연히 환테크 수익을 극대화하려면 외화를 사고팔 때 발생하는 환전수수료를 최대한 아끼는 게 중요합니다. 최근 사는 데 더 관심 많으실 엔화 기준으로 얘기해보려 합니다. 20일 현재 원-엔 기준환율은 100엔 당 약 956원입니다. 하지만 현찰 살 때의 환율은 약 973원입니다. 환전수수료라는 것은 간단히 말하면 바로 기준 환율에서 추가되는 17원을 말합니다. 환율 우대가 100% 된다는 것은 간단히 말하면 이 17원이 면제된다는 걸 의미하고, 우대환율이 80% 제공된다는 걸 가정하면 17원의 80%인 13.6원이 면제되고 100엔당 3.4원의 수수료만 붙는다는 걸 의미합니다. 그렇게 되면 100엔 당 기준환율 956원에 수수료 3.4원을 더한 964.4원에 사게 되는 것이죠.송금 보낼 때의 환율은 전신환매도율이라고도 부릅니다. 전신환매도율이란 단어는 어렵지만 쉽게 말하면 은행이 나에게 외화를 파는 환율이라고 생각하면 쉽습니다. 최근엔 송금 보낼 때 환율이라고 많이 말하지만, 정작 외화예금 약정서 등엔 이 단어가 들어있어서 헷갈릴 때가 많습니. 오늘 엔화의 전신환매도율은 966원입니다. 현찰 살 때 환율보다는 싸고, 기준환율보다는 비싸죠? 우리가 원화를 외화예금에 입금하는 방식으로 환전하거나 해외에서 신용카드를 결제한다면 이 환율이 적용됩니다. 송금 받을 때의 환율, 즉 전신환매입율은 거꾸로 생각해서 은행이 나로부터 외화를 사는 환율을 말합니다. 마찬가지로 외화예금을 해지하고 우리가 원화로 돈을 받을 때 적용되는 환율 등이 여기에 포함됩니다. 20일 현재 946원으로 기준환율보다 쌉니다. 현찰 팔 때의 환율은 100엔 당 939원으로 이보다 더 쌉니다. 아무런 환율 우대 없다는 조건하에 현찰 살 때 환율과 현찰 팔 때 환율 간 차이가 32원에 달합니다. 다시 말하면 환테크로 손해보지 않으려면 엔화가 최소 32원은 올라야 한다는 걸 의미합니다. 그래서 사고 팔 때의 수수료 아끼는 게 정말 중요합니다.  환테크 할 땐 무조건 외화계좌가 유리?전날 직전 거래일 대비 원달러 환율이 15.1원 급등한 지난 15일 오전 한 시민이 서울 명동 환전소 앞을 지나가고 있다./ 뉴스1최근 은행들은 외화 고객 유치에 두 팔 걷고 나섰습니다. 특히 시중은행들은 최근 금융상품에 가입해야 하고 입금 방식도 까다로웠던 외화예금 상품들 대신 앞다퉈 간편 환전 서비스도 출시했습니다. 국민은행의 경우 '외화머니박스', 신한은행은 '쏠편한환전', 하나은행은 '환전지갑', 우리은행은 '환전주머니'란 이름으로 간편 환전 서비스를 운영하고 있습니다. 대부분 달러의 경우 우대환율 90%, 엔화와 유로 등이 80% 적용됩니다.외화예금과 이런 간편 환전 서비스는 적용되는 환율의 종류가 다릅니다. 간편 환전 서비스는 우리가 환테크 용도로도 사용할 수 있지만 실제로 환율이 낮을 때 환전을 미리 해놓고 해당 은행 지점에서 현찰을 수령할 수 있도록 한 서비스인 만큼 현찰 살 때의 환율이 적용됩니다.많은 분들은 현찰 살 때 환율보다 전신환매도율이 더 낮으니 전신환매도율이 적용되는 외화예금이 더 유리할 것이라 생각할 수 있지만, 꼭 그렇지는 않습니다. 우대환율이 적용되기 때문입니다. 80~90%의 우대환율이 적용되면 기준환율과 매우 근접해지기 때문에 우대환율이 적용되지 않은 전신환매도율보다 낮은 게 일반적입니다.비교를 위해 직접 환전을 해봤습니다. 국민은행의 간편 환전 서비스인 외화머니박스와 일반 외화정기예금 계좌를 놓고 비교해봤습니다. 100엔당 기준환율 961원을 가정해 국민은행 외화머니박스와 일반 외화정기예금 계좌를 비교해봤습니다. 외화머니박스는 현찰을 살 때 환율에 우대환율 80%가 적용돼 100엔당 966.44원이었습니다. 반면 외화정기예금은 100엔당 969.69원으로 3원가량 비쌌습니다. 외화머니박스의 경우 갖고 있던 외화를 현금으로 되팔 때도 같은 환율우대가 적용되기 때문에 환테크 용도로는 오히려 외화머니박스가 유리하단 걸 알 수 있습니다. 각 은행들의 간편환전 서비스는 주로 해외여행자를 겨냥해 출시된 만큼 환율이 낮을 때 미리 온라인으로 환전해두고 출국 전 현찰로 찾을 수 있다는 장점도 있습니다.다만 큰 액수의 외화를 안전자산으로 장기간 보유할 계획이라면 이자가 붙는 외화정기예금이 더 유리할 수 있습니다. 이 경우 간편 환전을 통해 환전한 돈을 외화예금 상품에 넣어둘 수도 있습니다. 현재 1년 만기 달러 예금 기준 5대 은행의 외화정기예금 금리는 연 1~2% 수준입니다. 단 외화예금에 돈을 넣은 뒤 현찰로 인출할 때는 약 1~1.5%의 수수료가 발생할 수 있다는 점에 유의해야 합니다. 환율우대 100%가 있다고?환전 수수료를 아끼기 위해선 외화 고객들을 대상으로 한 다양한 이벤트를 눈여겨보는 것도 중요합니다.토스는 달러, 엔, 유로화 등 3대 통화를 환전할 때 1인 1회에 한해 환율우대 100%를 적용하고 있습니다. 은행 대부분 90%까지 우대환율를 적용해주는 달러보다는 엔이나 유로가 필요하신 분들이라면 더욱 유용할 수 있습니다. 단 환전은 1일 최대 100만원까지밖에 안 되기 때문에 올 여름에 해외로 휴가를 계획하고 있다면 여행 경비 정도라면 유리할 수 있습니다. 두 번째부터는 달러 90%, 엔 유로 80% 등의 우대환율이 적용됩니다. 토스 외에도 페이코, 카카오페이, 네이버페이 등에서 환전해도 자동으로 하나은행을 통해서 이뤄집니다.국민은행은 다음달 29일까지 'KB 투테크 외화정기예금'이라는 상품에 신규 가입하면 환율우대 100%를 적용해줍니다. 이 상품 같은 경우엔 목표환율을 지정해서 매일 고시되는 첫 번 째 환율이 목표환율 이상이면 자동해지되게 해서 일정한 환차익을 노리는 사람들을 겨냥했습니다. 단 미국 달러만 가능합니다.주식 거래를 신한금융투자로 하시는 분들이라면 신한은행의 '외화체인지업' 예금 상품도 눈여겨볼 만 합니다. 입출금이 자유롭고 해외주식 거래를 이 계좌를 통해서 바로 진행이 가능하다는 게 장점인데요. 현재 신규 가입 고객을 대상으로 KT로밍에그 1일 무료쿠폰하고 롯데면세점 제휴머니 지급 등의 이벤트를 진행하고 있습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2022.06.16.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>[알림] 헤럴드금융포럼 2022 ‘금융, 플랫폼이 되다’</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002003772?sid=101</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>23일 ‘더플라자호텔’에서헤럴드경제가 주관하는 ‘헤럴드금융포럼 2022’가 23일 열립니다. 올해 주제는 ‘금융, 플랫폼이 되다’ 입니다.산업 간 경계가 무너지는 ‘빅블러(Big Blur)’ 시대가 열리면서, 전통 금융사와 기술 기업의 경쟁이 치열합니다. ‘마이데이터’가 본격화되며 기술로 무장한 혁신 서비스와 신뢰를 바탕으로 한 위험관리 능력을 동시에 갖춰야 하는 도전의 시간이기도 합니다.이번 포럼에서는 김소영 금융위원회 부위원장과 윤창현 국민의힘 의원이 축사를 하고, 전광우 초대 금융위원회 위원장(現 세계경제연구원 이사장)이 ‘금융, 혁신의 중심에 서다’는 주제로 기조연설을 합니다. 기조연설 후 이어지는 1세션에서는 이형주 금융위원회 금융산업국장이 금융사의 플랫폼 변화에 대해 이야기합니다. 주제 발표 후에는 홍민택 토스뱅크 대표, 서래호 네이버파이낸셜 금융 총괄과 김명희 신한금융지주 CDO(최고디지털책임자), 조영서 KB금융지주 CDPO(디지털플랫폼총괄)가 함께 토론에 나섭니다.2세션에서는 정윤호 해빗팩토리 대표가 보험업계 디지털 전환을 위한 키워드를 제시합니다. 속속 주요 보험사가 디지털 또는 헬스케어 플랫폼을 구축하고 있는 이때, 차별화된 전략 등을 논의하는 자리가 될 것입니다.금융권의 ‘플랫폼 혁신’에 대해 깊이 있는 지식과 다양한 의견을 논의하는 ‘헤럴드 금융포럼’에 많은 관심과 참여를 바랍니다.▶포럼명: ‘헤럴드금융포럼 2022’▶주제: 금융, 플랫폼이 되다▶ 일시: 2022년 6월 23일(목) 8:00~13:00(중식 및 휴식 간 간식제공)▶ 장소: 서울 중구 소공동 더플라자호텔 그랜드볼룸▶ 진행방식: 세션1, 2별 주제발표 및 토론▶문의: 헤럴드금융포럼 운영사무국▶주관: 헤럴드경제▶후원: 금융위원회, 금융감독원, 전국은행연합회, 생명보험협회, 손해보험협회, 여신금융협회, 저축은행중앙회 등</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2022.06.23.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>내달부터 시중은행서 신용대출 연소득 2배 이상도 받는다(종합2보)</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013265848?sid=101</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>5대 은행·인터넷은행 '연봉이내' 제한 풀기로…농협 최대 2.7배(서울=연합뉴스) 신호경 오주현 김유아 기자 = 다음 달 1일부터 주요 시중은행에서 금융 소비자는 자신의 연소득(연봉)보다 많은 신용대출을 받을 수 있다.    23일 금융권에 따르면 5대 시중은행(KB·신한·하나·우리·NH농협)과 인터넷 전문은행 케이뱅크와 토스뱅크 등은 7월 1일자로 신용대출 최대 한도를 대출자의 '연봉 이내'로 제한하는 규정을 없애기로 했다.은행권, 다음달 1일부터 신용대출 연소득 2배이상도 가능 (서울=연합뉴스) 홍해인 기자. 2022.6.12 hihong@yna.co.kr    이에 따라 KB국민은행의 경우 신용등급·소득 등을 종합적으로 판단해 최대 연봉의 2배까지 신용대출을 내줄 예정이다.    NH농협은행은 다음달 1일부터 개인 신용대출의 한도를 기존 10∼100%에서 30∼270%로 변경한다고 밝혔다. 대출자에 따라서는 연봉의 최대 2.7배까지 신용대출을 받을 수 있다는 얘기다.    농협은행은 개인사업자 신용대출(소호대출) 한도도 '연봉의 305%'까지 상향조정했다. 다만 개인 신용대출과 소호 신용대출이 각 2억5천만원, 1억6천만원을 넘을 수는 없다.    신한은행도 내부적으로 7월 1일부터 '연봉 이내' 한도 규제를 폐지하기로 방침을 정했다.    한도는 아직 확정되지 않았지만 직장인에게 연봉의 1.5∼2배, 전문직에게 2배 이상의 신용대출을 허용하는 방안 등이 논의되고 있는 것으로 알려졌다.    우리은행과 하나은행, 인터넷 은행 케이뱅크와 토스뱅크도 같은 날부터 신용대출 관련 연소득 규제를 풀기로 했다.    카카오뱅크는 "대출한도 규제 변화 시기에 맞춰 대응할 예정"이라며 연소득 규제 해제 여부를 검토 중이라고 밝혔다.    앞서 지난해 8월 금융당국은 시중은행 여신 담당 임원들과의 회의에서 "개인 신용대출 한도를 연 소득 수준으로 줄여달라"고 요청했고, 실제로 은행들은 8∼9월에 걸쳐 순차적으로 이 구두 지침을 이행했다.    작년 12월에는 금융위원회가 아예 신용대출 연 소득 이내 취급 제한 규정을 금융행정지도로서 '가계대출에 대한 리스크 관리기준'에 명시하고 효력 기한을 올해 6월 30일로 뒀다.    이에 따라 은행들은 작년 8월 이후 지금까지 약 10개월 동안 신용대출을 철저하게 연 소득 범위에서 묶어왔다.    하지만 이 규정이 오는 6월 말 이후로 연장되지 않았기 때문에, 다음 달부터는 금융 소비자가 총부채원리금상환비율(DSR) 기준만 충족하면 은행권에서 다시 연봉보다 많은 신용대출을 받을 수 있게 됐다.    다만 시스템을 규제 이전으로 복원하는데 점검 시간이 필요한만큼, 개별 은행에 따라 신용대출 한도 확대 시점은 다를 것으로 예상된다.    kua@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2022.06.28.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>1인당 국가채무 2000만원…눈 앞으로 다가온 ‘인플레 악순환’ [한강로 경제브리핑]</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003709544?sid=101</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>국민 1인당 국가채무가 2000만원을 돌파했다. 한국의 국가채무가 1000조원을 넘어서면서 국민 한 명이 짊어져야 하는 채무 부담도 커진 것이다. 법인세 최고세율 인하 등 각종 감세 정책으로 세수 감소가 예상되는 상황에서 재정 건전성 확보를 위한 사회적 논의가 하루빨리 시작돼야 한다는 지적이 나온다.   엎친 데 덮친 격으로 인플레이션(물가 상승)의 여파가 글로벌 공급망과 기업을 지나 소비자까지 미치는 ‘악순환의 고리’가 현실로 다가왔다. 원자재 가격이 오르면서 국내 기업 10곳 중 7곳이 제품·서비스 가격을 인상했다는 조사 결과가 나왔다. 대다수 기업은 올 하반기에도 물가 상승세가 이어질 것으로 보고 가격 인상이나 고용 조정으로 대응하겠다고 답했다.     ◆1인당 나랏빚 2000만원↑…“재정 건전성 확보 필요”   국회예산정책처가 제공하는 ‘국가채무시계’를 보면 27일 오후 3시30분 기준 국민 1인당 국가채무는 2013만8530원으로 집계됐다. 이날 같은 시각 기준 중앙정부와 지방정부 순채무를 합친 국가채무(1039조3억원)를 지난 4월 말 주민등록인구(5159만3000명)로 나눈 수치다.   1인당 채무의 증가 속도는 점점 빨라지고 있다. 외환위기 당시인 1997년 131만원에 불과했던 1인당 채무는 17년 뒤인 2014년 1039만원을 기록, 1000만원을 돌파했다. 이후 1인당 채무는 2017년 1275만원을 기록한 뒤 2019년 1395만원, 2020년 1633만원을 찍으며 급증했다. 지난해 1869만원을 기록하며 가파른 증가세가 이어졌는데 올해 말에는 2071만원을 기록할 것이란 전망이다.   국가채무는 문재인정부 들어 증가 폭이 커졌다. 기획재정부에 따르면 문재인정부 출범 첫해인 2017년 660조2000억원이었던 국가채무는 2차 추가경정예산(추경) 기준 올해 말 1068조8000억원을 기록할 것으로 예측된다. 최근 5년간 국가채무가 400조원 이상 증가한 셈이다.   문재인정부는 신종 코로나바이러스 감염증(코로나19) 발생 이전부터 재정을 적극 활용했다. 2017년 일자리 창출 등을 위한 추경에 11조원을 편성했고, 2018년에도 청년일자리 대책 등을 위해 3조8000억원의 추경을 집행했다. 이후 2020년 코로나19 팬데믹(세계적 대유행)이 발생, 정부 지출이 늘면서 국가채무가 급증했다. 이에 따라 통합재정수지(총수입-총지출)에서 4대 보장성 기금을 차감해 정부의 실질적인 나라살림을 보여 주는 관리재정수지는 2018년 ?10조6000억원, 2019년 ?54조4000억원, 2020년 ?112조원, 지난해 ?90조6000억원을 기록했다.   코로나19 팬데믹 기간 정부의 적극적 재정 정책은 불가피한 측면이 있었지만 이제부터라도 재정 건전성 확보를 위한 종합적인 청사진이 제시돼야 한다는 지적이 나온다. 앞서 기재부는 2020년 10월 재정준칙을 법제화하는 법안을 국회에 제출했지만 논의가 이뤄지지 않으면서 입법이 무산됐다. 윤석열정부는 새 정부 경제정책방향을 통해 올 하반기에 단순하고 구속력 있는 재정준칙의 법제화를 추진하겠다고 밝힌 상황이다.      27일 오후 서울 시내의 한 대형카트에서 시민들이 장을 보고 있다. 뉴스1    ◆물가 상승 계속되면 기업은 가격 올리고, 고용 줄인다   한국은행이 27일 발표한 ‘지역경제보고서’에 따르면 전체 기업의 69%가 원재료 가격 상승을 반영해 제품이나 서비스 가격을 올렸고, 아직 판매가격을 인상하지 않은 기업 중 53%가 올해 안에 인상할 계획이다. 한은은 지난달 12일부터 이달 2일까지 전국 570개 업체를 대상으로 이번 설문을 진행했다.   설문에 응한 모든 업체는 원재료 가격이 상승했다고 답했다. 주원인으로는 우크라이나 사태와 중국 일부 도시 봉쇄 등이 꼽혔다. 특히 40.3%가 ‘원재료 가격이 지난해보다 20% 이상 뛰었다’고 했고, 상승률이 50% 이상이라는 기업도 8.1%였다. 특히 건설업의 경우 ‘20% 이상 상승했다’고 답한 기업이 66.7%에 달했다.   물가가 오르면서 평균임금은 지난해보다 2∼5% 오른 것으로 조사됐다. 임금인상률이 2% 미만으로 낮은 업체들의 73%는 내년에 임금을 인상할 계획이 있는 것으로 나타났다. 고물가 현상이 임금 상승 압력으로 이어지고, 다시 소비자가격이 연쇄적으로 상승하는 ‘인플레이션 악순환’이 예상되는 지점이다.   실제로 기업들은 재료비와 인건비를 제품 가격에 전가하거나 고용을 줄이는 방식으로 물가 상승에 대응할 전망이다. 전체 기업의 86%가 올해 하반기에도 물가가 오를 것으로 예상했다. 향후 물가 상승 대응 방안(복수 응답)으로는 ‘가격 인상’이 60.9%로 가장 많았다. 또 관망(23.6%), 고용 조정(22.7%), 신규 투자 축소(22.7%) 등이 뒤를 이었다. 서비스업에서는 가격 인상(45.4%)과 함께 고용 조정(32.0%)으로 대응하겠다는 응답도 높은 비율을 보였다.      토스뱅크 본사 모습. 연합뉴스    ◆토스뱅크, 카드론 대환대출 확대…금융권 파문 확산   토스뱅크가 다음 달 초 카드론 대환대출을 본격 확대한다. 자체적으로 개발한 신용평가모델(CSS) 등 핀테크 기술이 중저신용자들을 공격적으로 끌어안을 수 있을 정도로 고도화했다는 의미로 풀이된다. 금융권 전반으로 중저신용자를 대상으로 한 본격적인 금리 인하 경쟁이 예고되는 만큼 고객 입장에서는 금리 인하·대출한도 확대 등의 편익이 커질 전망이다. 반면, 그만큼 고객 및 대출 수요를 뺏기는 기존 금융권의 위기의식은 커지고 있다.   27일 금융권에 따르면 토스뱅크는 이달 초 시범 출시한 ‘카드론 대환대출’ 서비스를 이르면 다음 달 초 확대할 예정이다. 카드사 한 곳을 대상으로 시범 출시한 해당 서비스를 세 곳 이상의 복수 카드사로 늘릴 것으로 전해진다. 전 세계적으로 인플레이션(금리 인상)이 본격화함에 따라 금융 취약계층을 중심으로 이자 상환 부담이 급격히 커진 상황에서 이들의 부담을 줄이려는 금융당국의 정책 기조와도 맞아떨어지는 서비스라는 평가가 나온다.   카드론을 이용하는 고객은 중신용 이하인 경우가 대부분이다. 이 때문에 10%대 후반의 금리 적용이 일반적이다. 하지만, 토스뱅크의 대환대출을 하게 되면 10% 내외의 중금리로 갈아탈 수 있다. 원리금 상환 부담이 줄어드는 만큼 총대출 한도가 증가하는 효과도 기대된다.   당장 카드론 고객을 뺏기게 된 카드업계는 발등의 불이 떨어졌다. 핀테크 기업들이 사업 초기에 “카드(여신전문금융)업에는 진출하지 않겠다”며 카드사들의 페이 서비스를 끌어들였던 만큼, ‘상도의’나 ‘배신감’까지 운운하고 있다. 금융당국이 보안 강화 등의 이유로 API(애플리케이션 프로그래밍 인터페이스) 방식의 마이데이터 서비스를 표준화한 상황에서 스크래핑(크롤링) 방식으로 카드론 고객의 정보를 가져가는 것에 대한 우려도 나온다.   보험업계도 상황을 예의주시하고 있다. 이미 카카오와 토스 등이 보험업에 발을 내디딘 상황에서 추가 타격이 불가피하기 때문이다. 주택담보대출이나 보험계약대출(계약인출) 등 위주인 손해보험업계보다 상대적으로 신용대출의 비중이 큰 생명보험업계의 위기감이 더 커 보인다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2022.06.22.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>1000억 유상증자 토스뱅크, 자본금 1兆 눈앞</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005106801?sid=101</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>출범 당시 제시한 5년치 목표 1년 만에 달성 눈앞5일 출범 예정인 세 번째 인터넷은행 토스뱅크에 은행권의 관심이 쏠리고 있다. 연 2% 은행권 최대 예금금리와 연 2% 후반 최소 대출금리 등 출범 전부터 파격적인 금리 상품 출시를 밝혀 같은 인터넷은행뿐 아니라 시중은행들까지 긴장하는 모양새다. 특히 금융당국의 가계대출 규제가 더욱 거세지면서 대출 금리 상승, 대출 한도 제한이 이어지는 가운데 최대 한도 2억 7000만 원에 달하는 신용대출을 예고하면서 ‘대출 난민’들의 수요가 몰릴 것이라는 전망도 나온다. 사진은 4일 서울 강남구 토스뱅크 본사 모습./김현민 기자 kimhyun81@토스뱅크가 1000억원 규모의 유상증자를 결정했다. 출범 이후 세 차례 증자로 납입 자본금이 1조원에 육박하게 됐다.22일 토스뱅크는 전날 이사회를 열고 1000억원 규모의 유상증자 추진을 결의했다고 밝혔다. 지난 2월 두 번째 유상증자 이후 4개월 만에 또 다시 진행된 것이다.이번 증자를 통해 총 2000만주가 신규 발행되며 주당 발행가는 5000원이다. 2000만주 중 보통주는 1500만주, 전환주는 500만주다. 유상증자 납입일은 오는 29일이다.이로써 출범 이후 총 세 차례에 걸쳐 7000억원을 확보, 총 자본금이 9500억원에 이르게 됐다. 출범 당시 내세운 5년 간 1조원, 매년 최대 3000억원 추가 증자라는 목표를 1년도 안 돼 대부분 달성한 셈이다.이를 통해 여력이 생긴 만큼 토스뱅크의 대출 영업이 더욱 속도를 붙을 것으로 전망된다. 수시입출식 예금에 연 2% 이자를 주는 전략으로 단기간에 예금을 17조원 넘게 조달했지만 이자 비용이 큰 만큼 대출 확대가 절실하기 때문이다. 앞서 토스뱅크는 지난해 가계대출 총량 규제로 막혔던 여신 영업을 올해 1월에서야 재개했다. 당국의 요구대로 개인 신용대출 상품 중 중저신용자 대출에 힘 쓰며 비중을 35.2%까지 늘렸다. 인터넷전문은행 중 유일하게 30%대다.토스뱅크 관계자는 "주주사의 적극적인 지원으로 여수신 영업을 확대할 수 있는 추가 자본금을 확보할 수 있게 됐다"며 "이를 바탕으로 자본건전성을 강화하고 혁신적인 서비스를 선보여 은행에 대한 고객 경험을 바꿔 나갈 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2022.06.29.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>업스테이지 "미주투자공사 '지속가능성 주간' 행사 참여"</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013275676?sid=101</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>업스테이지, 미주투자공사 '지속가능성 주간 2022' 행사 참여[업스테이지 제공. 재판매 및 DB 금지]    (서울=연합뉴스) 임성호 기자 = 인공지능(AI) 스타트업 업스테이지는 이달 28일(현지시간)부터 다음 달 1일까지 미국 플로리다주 마이애미 힐튼호텔에서 열리는 '지속가능성 주간 2022' 행사에서 온라인 부스를 운영한다고 29일 밝혔다.    업스테이지는 '광학문자판독장치(OCR) 팩' 등 금융권에서 활용 가능한 AI 기술을 선보인다.     이 행사는 미주개발은행(IDB)의 민간산업 담당 자매기구인 미주투자공사(IDB Invest)가 1999년부터 매년 개최하는 행사로 글로벌 금융기업과 중남미 고위 인사들이 다수 참여한다. 국내 AI 스타트업이 참여한 사례는 처음이라고 업스테이지는 강조했다.    올해 행사에는 쿠팡페이, 토스, 센트비 등 국내 핀테크(금융과 디지털 기술의 결합) 회사 8곳도 함께 참여한다.    김성훈 업스테이지 대표는 "금융 고객 등 다양한 글로벌 기업들을 대상으로 AI를 통한 혁신을 지속해서 알릴 것"이라고 말했다.지속가능성 주간 2022[미주투자공사 홈페이지 캡처. 재판매 및 DB 금지]    sh@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2022.06.27.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>티몬, 큐텐 인수설에 ‘사실무근’…“전략적 투자 유치 논의”</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002127349?sid=105</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이안나 기자] 티몬이 해외직구 플랫폼 ‘큐텐(Qoo10)’에 경영권 매각 협상 중이라는 내용에 대해 ‘사실무근’이라고 답했다. 오히려 여러 기업들과 전략적 투자를 논의하는 상황이라며 경영권 매각설에 대해 일축했다.    27일 일부 보도에 따르면 티몬이 큐텐에 경영권 매각을 놓고 막판 협상을 벌이고 있다고 전했다. 인수 대상은 최대주주 몬스터홀딩스(81.74%), 티몬글로벌(16.91%) 등 지분 전량이며, 토스 자회사 토스페이먼츠와 큐텐이 경합 벌이다, 토스페이먼츠가 인수 의사를 철회했다는 내용이다.    다만 티몬은 이에 대해 “큐텐과 토스페이먼츠 관련 매각 협상 이야기는 사실과 다르다”며 “두 회사 모두 티몬과 전략적 투자를 논의하는 대상 중 하나”라고 반박했다.   티몬 매각 가격이 2000억원대라는 소식에 대해서도 “매각 협상이 아니므로 2000억원 가치가 어디서 나온 이야기인지 모르겠다”며 “누차 강조했듯 티몬은 투자 유치 중이고, 여러 곳과 투자에 대해 협의하고 있다”고 덧붙였다.    큐텐은 국내 시장에서 인지도는 높지 않지만 싱가포르·일본·홍콩 등에 6개 국가에서 사업을 운영하는 해외직구 플랫폼이다. 연이은 적자로 완전자본 상태인 티몬은 현재 수익성 개선이 시급한 과제다. 지난해 티몬은 매출 1299억원, 영업손실 760억원을 실현했다. 티몬과 큐텐이 티몬에 전략적 투자 유치 후 다양한 협력을 이어갈 경우 티몬 해외직구 경쟁력이 강화될 수 있다.    티몬은 지난해 6월 장윤석 대표를 새 수장으로 선임하고 ‘이커머스 3.0’으로 도약을 선언한 바 있다. 장 대표는 티몬을 소셜 커머스에서 중소상공인 브랜드 성장을 견인하는 ‘브랜드 풀필먼트’로의 전환을 추진하고 있다. 이외에도 성과에 따라 월급이 달라지는 ‘게이미피케이션’ 제도와 어디서나 근무 가능한 ‘스마트워크’ 제도 도입 등 조직 문화도 개편했다.    물론 티몬 경영권 매각 가능성이 아예 닫혀있는 건 아니다. 티몬 최대주주는 사모펀드(PEF) 콜버그크래비스로버츠(KKR)와 앵커에쿼티파트너스다. 사모펀드 특성상 티몬을 평생 보유하고 있을 수 없다. 기업가치를 높여야 할 필요성은 분명하지만 이후 투자금 회수를 위해서라면 기업공개(IPO)든 매각이든 사모펀드 입장에선 크게 중요치 않다.   장 대표 역시 지난해 10월 기자간담회에서 “내년(2022년) 상반기 프리 IPO(상장 전 투자 유치)에 이어 내년 중 IPO를 목표로 하고 있다”면서도 “더 좋은 회사와의 인수·합병(M&amp;A)도 다 열려 있다”며 매각 추진 가능성도 시사한 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2022.06.29.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>티몬 "큐텐 매각설 사실 아냐…전략적 투자 논의"</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002261053?sid=105</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>매출 감소·영업적자 심화 과제 직면…새 동력 필요티몬은 최근 불거진 해외직구 플랫폼 ‘큐텐’에 경영권 매각을 협상 중이라는 보도에 사실과 다르다고 반박했다. 대신 티몬은 큐텐, 토스 등과 전략적 투자를 논의하고 있다는 입장이다.티몬은 2년 전 미래에셋대우를 주관사를 선정하고 기업공개(IPO)를 추진해왔지만, 지난해 10월 기자간담회를 열고 IPO가 아닌 인수합병(M&amp;A) 가능성도 열려있다고 시사한 바 있다.매출 감소, 영업적자 심화 등 과제를 직면하고 있는 회사는 지난해 6월 장윤석 대표 부임과 함께 새로운 전략 ‘브랜드풀필먼트’로 사업을 재정비 중이다.티몬 장윤석 대표■ 티몬 “매각설 사실과 달라…전략적 투자 유치 중”27일 한 언론매체는 티몬이 큐텐에 경영권 매각을 추진 중이라며, 매각 가격으로는 2천억원대가 거론되고 있다고 보도했다. 토스 자회사 토스페이먼츠와 큐텐이 경합해왔고, 최근 토스페이먼츠가 인수 의사를 철회해 큐텐이 막판 협상을 벌이고 있다는 내용이다.티몬은 이에 사실과 다르다며 적극 부인하는 태도다. 티몬 관계자는 “토스페이먼츠, 큐텐과의 매각 협상 이야기는 사실과 다르다”라며 “전략적 투자를 논의하는 대상”이라고 일축했다.또 그는 2천억원 대로 언급된 매각 가격에 대해서도 “매각 협상이 아니므로 2천억원 밸류도 어디서 나온 이야기인지 모르겠다”고 말했다. 아울러 “티몬은 투자 유치 중이고, 여러 곳과 투자에 대해 협의 중”이라고 덧붙였다.다만 장윤석 티몬 대표는 지난해 10월 자사 라이브커머스 채널 티비온에서 진행된 간담회에서 “내년 상반기 프리IPO(상장 전 투자 유치)에 이어 내년 중 IPO를 목표로 하고 있다”라면서도 “더 좋은 회사와의 M&amp;A도 다 열려 있다”고 밝힌 바 있다.티몬, 작년 매출 1290억원·영업손실 760억원 기록 (출처=지디넷코리아)■ 매출 감소·영업적자 심화 과제 직면…새 동력 필요지속되는 연매출 감소와 영업적자 심화는 티몬이 해결해야 하는 과제로 남아있다.실제로 티몬의 매출은 2019년 1천721억원, 2020년 1천512억원, 지난해 1천290억원으로 점차 줄었다. 영업적자는 2019년 762억원에서 2020년 631억원으로 감소했다가, 지난해 760억원으로 적자폭이 커졌다.이에 장윤석 대표는 D2C(Direct to Customer)를 기반 브랜드풀필먼트를 새 비전으로 제시, 하반기 홈 화면 개편, 입점 브랜드 토큰 연계 등을 실행할 계획이다.한 업계 관계자는 “수년 전 롯데 매각 불발, 지난해 상장 철회 등을 겪은 티몬의 현 상황은 위기일수밖에 없다”며 “사모펀드가 대주주로 있는 만큼, 투자금 회수 시기를 고려해야 하는 상황”이라고 분석했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2022.06.26.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>잠깐만 맡겨도 이자…年 3% 파킹통장 만들어볼까</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004716745?sid=101</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>짠테크 &amp; 핀테크내게 맞는 상품은웰컴 직장인사랑 예금최대 5000만원까지 적용전업주부도 가입 가능조건 없이 年 2.8%OK읏통장 500만원 제한본격적인 금리 상승기가 시작됐다. 잠깐 주차하듯 단기간 맡겨도 이자를 주는 ‘파킹통장’의 금리도 덩달아 오르고 있다. 지난해 조건 없이 연 2% 금리를 지급하는 파킹통장이 등장해 큰 인기를 끌더니, 이에 질세라 최근엔 최대 연 3% 금리를 주는 상품까지 등장했다. 하지만 상품마다 최대 금리를 받을 수 있는 조건과 예치 상한에 차이가 있어 자신의 상황에 맞춰 면밀히 따져보고 판단하는 게 좋다.‘파킹통장 붐’의 주인공 격인 저축은행들은 최근 예금 금리를 크게 높이고 있다. 웰컴저축은행은 자사 파킹통장인 ‘웰컴 직장인사랑 보통예금’ 금리를 기존 최대 연 2%에서 3%로 올렸다. 다소 까다로웠던 가입 조건도 변경했다. 기존엔 상품 이름처럼 직장인만 가입 가능했지만 해당 조건을 없애 전업주부도 가입할 수 있도록 했다. 최대 금리인 연 3% 이자는 최대 5000만원까지만 적용된다. 5000만원이 넘으면 금리가 연 2%로 떨어진다. 최근 파킹통장 최강자로 불리던 ‘토스뱅크통장’의 경우 1억원까지 연 2% 금리가 적용된다는 점에서 5000만원까지는 ‘웰컴 직장인사랑 보통예금’이 유리하다.다만 이 상품은 조건 없이 일복리로 이자를 지급하는 토스뱅크 통장과 달리 우대금리를 받기 위한 요건을 충족해야 하고 이자도 월복리로 지급된다는 점에서 5000만원 이상 1억원 미만의 금액이라면 토스뱅크 통장이 더 유리할 수 있다. 금액 구간별 최대 금리를 받기 위해선 △100만원 이상 급여이체 실적 △자동이체(CMS) 또는 지로 자동납부 한 건 이상의 실적 △개인정보 수집 및 멤버십 가입 이용 동의 등 조건이 붙는다. 첫 번째 조건이 다소 까다롭지만 급여계좌를 이 계좌로 등록할 필요는 없고 매달 ‘급여’ ‘월급’ ‘상여금’ 등 이름으로 100만원 이상 입금하기만 하면 된다.OK저축은행도 지난달 말부터 수시입출식 파킹통장 상품인 ‘OK읏통장’의 최고 금리를 연 3%로 인상했다. 아무 조건 없이 받을 수 있는 기본 금리도 연 2.8%로 높고, 우대금리 요건도 이 계좌에 대해 다른 시중은행 앱에서 오픈뱅킹 동의만 하면 되기 때문에 훨씬 수월하다. 다만 최고 금리를 받을 수 있는 예치액 상한이 500만원뿐이라는 점은 아쉬운 대목이다. 500만원을 초과하는 금액부터는 최고 연 1% 금리가 적용된다. 하나저축은행 ‘하이 하나 보통예금’은 3000만원까지 연 2.5% 금리를 지급한다. 기본금리는 연 1.5%지만 △마케팅 동의 0.3%포인트 △종이통장 없는 계좌 개설 0.1%포인트 △매달 잔액 200만원 이상 연 0.6%포인트 등으로 우대금리가 주어진다. 3000만원이 넘는 금액부터는 연 1.5% 금리를 준다.파킹통장도 상품별로 최대 납입 금액 조건에 따라 여러 개 만들어서 쓰는 게 가장 좋다. 하지만 각 금융회사가 보이스피싱 방지 등을 이유로 20영업일 이내에 또 다른 신규 계좌 개설을 막고 있다는 게 걸림돌이다. 물론 좋은 계좌 하나가 별로인 계좌 열 개보다 나을 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2022.06.24.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>IPO '장기전' 뛰는 토스, 매출 성장세 지속 가능할까?</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000039557?sid=105</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>이승건 토스 대표.(사진=비바리퍼블리카)토스(비바리퍼블리카)의 IPO(기업공개) 작업이 중장기 레이스가 되면서 부담이 더 커지게 됐다는 평이다. 당초 상장 계획 시점은 오는 2023년이었지만 2025년까지 연장됐다. 원하는 기업가치를 인정받고 상장하기 위해서는 연장된 기간 동안에도 꾸준한 매출 성장률을 입증해야 한다. 그러나 동종업에 있는 빅테크뿐 아니라 전통 금융권과의 경쟁이 심화하고 있는 상황이다.24일 &lt;이데일리&gt; 보도에 따르면 토스 경영진은 증시 침체가 장기화될 가능성을 고려해 당초 예정했던 2023년에서 최대 2~3년가량 IPO를 연기하는 방안을 논의 중이다. 토스에 대한 투심이 저조한 것도 확인했다. 15~20조원의 기업가치를 기대하고 최대 1조원 규모의 프리IPO(상장 전 투자유치)를 2분기 내에 끝내려고 했으나 아직까지 딜 클로징이 이뤄지지 않은 것으로 알려졌다.이와 관련해 토스 관계자는 &lt;블로터&gt;에 "저희는 공식적으로 2023년에 IPO를 하겠다고 확정짓거나 계획을 세운 바 없다. 분위기가 안 좋으니까 연기를 결정한 것은 아니다"라며 "2025년 이전에는 하지 않겠느냐고 말씀을 드렸던 것이고, 여건이 되면 빠르게 할 수도 있는 것"이라고 해명했다.결과적으로 토스는 IPO의 마지노선을 2025년으로 보고 있는 것이다. 왜 2025년일까? 토스의 IPO가 성공하려면 우선 증시 환경이 좋아져야 한다. 즉 금리가 안정화돼야 한다. 토스는 플랫폼 기업으로 기술주로 분류할 수 있다. 금리 인상은 기술주의 미래 이익을 덜 매력적으로 보이게 한다.미국 연방준비제도(연준)의 점도표에 따르면 미국 기준금리는 올해 말 3.4%에서 내년 3.8%로 오르다가 2024년은 3.4%로 하락할 것으로 예상했다. 이는 한국의 기준금리에도 동조화되는 영향을 줄 전망이다. 한미 금리가 역전될 경우 외국인 투자금이 유출되기 때문이다. 2023년까지는 금리 인상 국면이 지속되고, 2024년에는 소폭의 금리 인하가 이뤄지면서 2025년에는 보다 긍정적인 시장 환경을 기대할 수 있게 된다.토스가 할 일은 증시 환경의 개선을 기다리는 것뿐만이 아니다. 플랫폼 기업의 중요지표인 매출성장률을 2025년까지 지속적으로 입증해야 한다. '고성장'을 무기로 하는 기술주인 만큼 매출 성장이 둔화될 경우 이는 기업가치의 하락으로 이어질 수 있다. 이경은·정동익 KB증권 연구원은 올 초 내놓은 보고서에서 "플랫폼 기업의 경우 성숙단계 이전까지는 매출 성장과 미래의 성장 가능성이 기업가치를 결정하는 중요한 요소"라며 "대개 초기에는 성장을 통해 많은 고객과 시장 점유율을 확보하고 이를 바탕으로 사업을 다각화해 수익성을 증가시키는 전략을 구사하기 때문"이라고 분석했다.그동안 토스는 고고한 성장세를 이어왔다. 토스의 영업수익(매출)은 2019년 1187억원, 2020년 3898억원, 2021년 7808억원을 기록해 최근 3개년간 누적성장률(CAGR)이 연 142%에 달한다. 지난해만 놓고보면 영업수익이 100% 올랐지만 영업손실은 147% 확대됐다.토스가 토스뱅크의 2% 입출금통장 이자, 토스증권의 예탁금 이자 1% 지급 등 '선의의 금융'을 실현하기 위해 수익성 개선이 아직은 요원한 상황에서(내부에서는 수익성 확보를 하고자 한다면 불가능하지 않다는 분위기다), 매출 성장률이 그대로 이어질 수 있을지 우려된다는 지적이다.2020년 당시 매출이 228% 성장할 수 있었던 건 그해 인수한 LG유플러스 PG사업부문(현 토스페이먼츠)를 통한 비유기적 성장(인수합병 등의 외부적 요인을 통해 회사를 확장 및 성장시키는 것)의 영향이 지대했다.본업에서 우열을 겨뤄야 될 경쟁사는 더욱 많아졌다. 예컨대 삼성카드, 삼성증권, 삼성생명, 삼성화재로 구성된 삼성금융네트워크는 각사 서비스를 한데 이용할 수 있도록 모니모(monimo)라는 ‘원 앱’으로 뭉쳤다. 토스와 빼닮은 뉴모피즘 디자인을 적용했다. 이런 점에서부터 디지털금융 시장에서 토스와 경쟁하겠다는 의도가 강하게 읽힌다는 분석이다.네이버파이낸셜(네이버페이)과 카카오페이 등 빅테크들도 토스가 먹거리로 노리는 간편결제와 후불결제(BNPL) 등을 손쉽게 허용하지 않을 기세다. 이런 시장 환경에서 토스가 2022년, 2023년에도 매출 성장세를 꿋꿋이 이어나갈 수 있을지 주목된다. 토스는 현재로선 매출 규모를 배가시킬 수 있는 인수합병 계획도 없다는 게 관계자 전언이다. 토스뱅크, 토스증권을 주축으로 성장세를 이어나가겠다는 의지로 해석된다. 토스 관계자는 "현재까지 사업은 정상적으로 진행되고 있다"고 말했다.한편 비상장주식 거래시장의 개인투자자들에게도 토스의 인기는 예전같지 않다. 서울거래 비상장에 따르면 지난해 12월 27일 14만4000원이었던 토스 주가는 이날 6만7000원까지 내려왔다. 이에 따른 기업가치는 10조9777억원으로 평가됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2022.06.20.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>대출비교플랫폼 통한 은행 가계대출 3조원대…전체 대출의 1.7%</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002613742?sid=101</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>카카오페이, 토스 로고 ⓒ각 사[데일리안 = 김효숙 기자] 지난해 온라인 대출 비교·중개 등 서비스를 제공하는 플랫폼을 통해 은행에서 실행된 가계대출 규모가 약 3조원이었던 것으로 나타났다.20일 금융권에 따르면 금융감독원이 최근 국내은행의 온라인 대출 플랫폼 활용 실태를 점검한 결과, 지난해 온라인 대출 플랫폼을 통한 가계대출 모집규모는 총 3조1000억원이었다. 이는 전체 신규 대출(181조8000천억원)의 1.7% 수준이다.올해 3월 말 기준으로 국내 은행 13곳이 온라인 대출 플랫폼과 위탁계약을 체결한 것으로 나타났다.KB국민·NH농협은행을 제외한 대부분의 주요 은행은 최근 대출모집 채널을 다변화하기 위해 플랫폼들과 위탁계약을 체결하는 추세다.특히 상대적으로 영업망에 제약이 큰 지방은행에서 실행된 대출이 2조3000억원으로, 시중은행(7000천억원)보다 3배 이상 많았다.플랫폼별로는 온라인 대출 플랫폼 14곳 가운데 카카오페이와 비바리퍼블리카(토스)가 차지하는 비중이 전체 모집규모의 86.8%에 달했다.지난해 4월 금융위원회가 발표한 '중금리대출 제도개선방안'에 따르면 비대면 대출 플랫폼을 통한 대출 조회 건수와 차주 수는 2020년 이후 꾸준히 증가하고 있다. 특히 중·저신용층이 대출 플랫폼을 이용해 비교적 낮은 금리로 대출을 실행하는 현상이 관측됐다.온라인 플랫폼을 통한 대출 조회·비교 서비스는 초기에는 금융 샌드박스 형태로 허용됐으나, 작년 9월 금융소비자보호법 시행으로 정식 도입됐다. 금소법에 따라 대출상품에 대한 판매대리 중개업자로 등록하면 영업할 수 있어, 향후 후발주자의 진출도 이어질 것이란 전망이 나온다.금감원은 지방은행을 중심으로 대출 플랫폼을 통한 대출이 증가세를 보이는 점, 플랫폼을 통해 대출을 실행하는 차주 가운데 중금리로 대출을 받는 20∼30대 비중이 높은 점 등을 고려해 잠재리스크를 관리하고 관련 모니터링을 강화해나갈 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2022.06.27.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>[김태형의 디자인 싱킹Ⅱ]&lt;33&gt;메타 사피엔스의 시대(1)</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003026257?sid=110</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>게티이미지코로나19 이후 우리는 이제 과거와 달리 기존과 다른 삶을 살고 있다. 과거 언어와 방식으로는 이러한 위기를 이겨내기 어려웠을 것이라는 자성과 더불어 인터넷이라는 사이버 혁명에 이어 이제는 디지털 세계와 얽혀진 메타버스라는 또 다른 혁명 및 새로운 현실을 마주하고 있다.인간사회에서 기술 혁명은 1915년 미국에 있던 2200만 마리의 말이 자동차로 대체되고 공장에서 일하는 노동자들이 로봇으로 대체되고 있는 것처럼 주로 인간의 노동력을 대체하는 것이었다. 그러나 지금 인류는 기술 사용을 통해 인간의 사고(Thinking)에서부터 행동, 새로운 삶의 방식까지 새롭게 진화하고 있다.한 예로 2000년대 초반에 택시·은행·마트·학교가 각각 교통·금융·제조·교육의 핵심 키워드였다면 이제는 우버·토스·아마존·유튜브로 바뀌었다. 디지털 기술을 통해 인터넷이라는 새로운 세계와 상상의 공간을 만들고 새로운 비즈니스 모델로 진화하는 과정을 경험함으로써 우리의 생각과 물리적 육체, 생활 방식 전반이 변화하고 있기 때문이다. 가상세계를 통해 확장된 초현실 세계를 의미하는 메타버스까지 가시화되고 있는 지금 우리는 무엇을 준비해야 할까.2015년 영국 경제주간지 이코노미스트는 처음으로 생물학적 기반이 아닌 새로운 인류라는 개념으로 '포노 사피엔스'(Phono Sapiens)를 언급했다. '스마트폰을 신체의 일부인 뇌처럼 자유자재로 사용하는 새로운 인류'라는 의미로 사용한 포노 사피엔스는 스마트폰 등장 이후 인류 삶에 변화를 주도한 디지털전환의 핵심으로 꼽힌다. 이는 디지털전환이 단순히 기술적 혁신만을 의미하는 것이 아님을 뜻한다. 즉 중요한 것은 디지털 기술을 통해 변화하는 우리(사용자)의 진화 방식이다.1990년대 중반~2000년대 초반에 태어난 일명 Z세대는 어릴 적부터 스마트폰과 디지털 환경에서 자라난 최초 세대다. 이들은 스마트폰(기술)으로 시공간 제약 없이 소통하고, 쉽고 빠르게 정보를 전달하며 새로운 생활 방식을 만들었다. 이를 기반으로 35만년 이상을 살아온 '지혜 있는 사람'인 '호모 사피엔스'(Homo Sapiens)가 2007년 아이폰 탄생 이후 10년도 채 되지 않아 '포노 사피엔스'로 진화했다.이러한 맥락에서 최근 코로나 팬데믹을 통해 새롭게 재편된 세상에서 살아가고 앞으로도 살아갈 신인류는 '메타 사피엔스'(Meta Sapiens)라고 할 수 있다. '세계미래보고서 2022'는 메타버스라는 가상과 현실이 융합된 새로운 세계를 살아갈 현인류(Sapiens)라는 상징적 개념을 메타 사피엔스로 표현했다. 초기의 기술적 사용자를 넘어 일반 대중이 메타버스를 삶의 필수적인 일부분으로 사용하며 새로운 생활 방식을 만들어 가는 새로운 인류로 요즘 세대를 정의했다.메타 사피엔스는 이미 많은 곳에서 활동하고 있다. 로블록스에는 2억명의 활성 사용자가 있다. 일일 활성 사용자 수는 무려 5040만명, 그들이 활동한 시간은 약 36억시간에 달한다(2022년 5월 기준). 로블록스 최고 비즈니스 책임자인 크레이그 도나토는 “메타버스를 만드는 것은 사용자이며, 우리는 단순히 그들이 사용할 인프라를 만드는 것 뿐”이라고 했다. 즉 메타버스에서 발생하는 모든 경험과 장소, 장비, 아바타 등 현실 세계에서 구매할 수 있을 만한 메타버스의 모든 것은 모두 사용자에 의해 생겨난다는 것이다.따라서 로블록스는 '인간의 공동경험(Human Co-Experience)'을 더 나은 형태로 할 수 있도록 지원하는 것뿐이라고 말한다.메타버스 사용자와 경험에 대한 이해와 개념은 인간 중심적인 접근 방식이자 문제 재정의 및 프로토타입, 테스트라는 비선형 반복 프로세스를 통해 혁신적인 솔루션을 만들어 내는 디자인 싱킹과 유사하다. 2018년 하버드비즈니스리뷰는 '디자인 싱킹이 효과적인 이유'라는 내용을 통해 디자인 싱킹을 사용자 경험에 대한 몰입을 통해 다양한 데이터를 생성하고 이를 깊은 통찰력으로 변환해서 더 나은 결과로 만들어 내는 '소셜 테크놀로지'로 소개했다. 이는 디자인 싱킹이 특히 디지털과 더불어 최근 왜 혁신을 끌어내는 새로운 방식으로 각광받는지를 짐작하게 한다. 디지털로 '연결된 우리(인류)'와 우리 주변을 둘러싼 현실 및 가상의 융합된 세계를 의미하는 메타버스와의 관계 속에서 메타 사피엔스로서 오늘 당신은 무엇을 하고 있는가. 우리가 인간으로서(인간 중심적으로) 더 나은 새로운 우리(메타 사피엔스)의 삶을 살 수 있도록 디자인 싱킹을 해보자.김태형 단국대 교수(SW디자인융합센터장) kimtoja@dankook.ac.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2022.06.22.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>토스뱅크, 1천억 유상증자 '빠르게' 나선 이유</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000008673?sid=101</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>토뱅 출범 후 세번째 유상증자…납입자본금 9천5백억중·저신용자 대출 확대·씨티은행 대출 인수 영향 풀이/사진=이명근 기자 qwe123@토스뱅크가 1000억원 규모의 자금을 추가로 조달한다. 리스크가 높은 중저신용자 대출을 적극 취급한데다가 곧 씨티은행에서 취급한 대출자산이 토스뱅크로 흘러들어올 예정이라 자본비율을 맞추기 위한 조치로 풀이된다.토스뱅크는 지난 21일 이사회를 열고 1000억원 규모의 유상증자를 추진하기로 결의했다고 22일 밝혔다. 올해 2월에 이은 2번째 유상증자다. 이번 유상증자가 마무리 되면 토스뱅크는 총 세차례에 걸쳐 7000억원의 자본을 확보하게 된다.이번 증자를 위해 토스뱅크는 2000만주를 신규 발행하게 된다. 주당 발행가는 5000원이다. 2000만주 가운데 보통주는 1500만주, 전환주는 500만주로 발행된다. 유상증자 납입일은 오는 29일이며 증자가 마무리 되면 토스뱅크의 납입자본금은 9500억원으로 늘어나게 된다.토스뱅크 관계자는 "주주사의 지원으로 여수신 영업을 확대할 수 있는 추가 자본금을 확보할 수 있게 됐다"라고 설명했다.금융권 일각에서는 토스뱅크가 발빠르게 추가 증자에 나선 것은 최근 중·저신용자 대출취급액이 급증하고 있는 가운데 소매금융 사업을 접는 씨티은행의 대출중 일부를 가져오기로 했기 때문으로 분석하고 있다. 은행은 보유하고 있는 대출자산 등에 위험가중치를 부여해 위험가중자산으로 따로 분류한다. 그리고 이를 국제결제은행(BIS)가 정한대로 △보통주 대비 △기본자본 대비 △총자본 대비 △단순기본자본 대비 비율 등을 산출해야 하며 일정 수준 이상을 맞추도록 돼 있다.토스뱅크는 5월말까지 취급한 가계신용대출중 35.2%가 중·저신용자 대출이다. 중·저신용자 대출은 은행의 주고객층에 비해 부실률이 높기 때문에 은행입장에서는 언제든 부실이 발생할 가능성을 염두에 둬야 한다. 위험가중치를 더 높게 잡을 필요가 있다는 얘기다.아울러 토스뱅크가 소매금융사업에서 철수키로 한 씨티은행의 가계 신용 대출채권 8조원중 상당부분을 인수하기로 한 것으로 알려졌다.씨티뱅크 대출자산을 끌어오면서 여신규모가 빠르게 증가하는 동시에 부실률이 높을 것으로 추산되는 중·저신용자 대출을 꾸준히 늘려야 하는 토스뱅크 입장에서 자본비율을 맞추기 위해 빠르게 증자에 나선 것이란 해석이다.은행 관계자는 "토스는 현재 수신고가 여신고 대비 많기 때문에 여신 대출여력은 충분한 상황이라고 본다"라며 "전체적으로 여신자산의 한번에 크게 늘어날 것으로 예상되면서 동시에 위험가중자산이 크게 늘어날 수 있기 때문에 은행의 건전성을 선제적으로 맞추기 위한 조치라고 본다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2022.06.27.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>자고 나면 오르는 전세대출 금리…“차라리 월세가 나을 판”</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/021/0002519530?sid=101</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>6%대 돌파 후 세입자 ‘곡소리’ 한달새 0.6%P 이상 오른데다 내달엔 추가상승 가능성 ‘공포’직장인 황모(32) 씨는 최근 만료된 전세대출 연장을 위해 기존 거래 은행을 방문했다. 지난달 전화로 미리 상담을 받을 때만 해도 우대금리를 적용하면 연 3.36%대가 예상된다고 들었는데, 한 달 만에 다시 들은 금리는 연 4%였다. 심지어 실제 계약일인 7월이 되면 금리는 더 오를 수 있다고도 했다. 황 씨는 “한 달 만에 금리가 0.6%포인트 이상 오른 것도 황당한데, 앞으로 더 오를 거라고 하니 이렇게 되면 월세가 더 낫겠다는 마음이 든다”고 토로했다. 전세대출 금리가 6%를 넘어 상승세를 보이면서 세입자들의 이자 부담도 갈수록 커질 전망이다. 27일 신한은행의 ‘신한전세대출’ 금리는 지난 24일 기준 연 3.85∼6.01%로 이달 최고금리가 6%를 넘어섰다. NH농협은행의 ‘NH전세대출’도 연 3.79∼6.08%였다. 하나은행의 ‘주택신보 전세자금대출’은 연 4.386∼5.786%로 6% 돌파를 목전에 둔 상황이다. KB국민은행의 ‘KB플러스 전세자금대출’은 연 금리가 3.28∼5.74%로 비슷했다. 우리은행의 ‘전세금안심대출’의 최고금리는 연 4.25%(신규코픽스 12개월)로 상대적으로 낮은 편이다.전세대출 금리 상승은 금리 산정 때 연동되는 코픽스(COFIX·자금조달비용지수)와 금융채 금리가 급등했기 때문으로 분석된다. 6월 신규 취급액 코픽스는 연 1.98%로 3년 4개월 만에 최고치를 기록했다. 미국 연방준비제도(Fed)의 ‘자이언트 스텝(기준금리 0.75%포인트 인상)’에 따른 여파로 주택담보대출과 전세대출 금리의 기준이 되는 금융채 5년물의 6월 연 금리는 10년 2개월 만에 4%를 돌파했다.한편 토스뱅크가 ‘카드론 대환대출 서비스’에 본격 나서면서 카드업계가 고객 이탈 가능성에 긴장하고 있다. 금융권에서는 은행권이 고금리의 카드론을 은행 신용대출로 바꿔주는 서비스에 나서는 것을 파격으로 보고 있다. 토스뱅크는 삼성카드에 대해서만 시범적으로 해온 대환대출 서비스를 내달부턴 다수의 카드사로 확대할 계획이다. 토스뱅크에 따르면 카드론 이용 시와 비교하면 금리가 평균 6.83%포인트 인하된다. 카드론 이용 고객 중 상당수는 중간 수준의 신용도와 리스크를 가진 경우가 대부분인데, 토스뱅크는 이들을 1금융권의 테두리 안으로 들여와 중·저신용 고객으로 포용하겠다는 취지다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2022.06.22.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>청와대 개방 43일만에 100만번째 관람객…대통령 기념품 전달</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006173663?sid=100</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>문화재청, 이달 새로운 관람 예약 시스템 마련청와대 개방 44일째인 22일 오후 청와대 대정원에서 열린 ‘100만 번째 관람객’ 기념행사에서 주인공으로 선정된 김영순 씨가 축하 홍보물을 들고 기념 촬영을 하고 있다. (문화재청 제공) 2022.6.22/뉴스1(서울=뉴스1) 이호승 기자 = '청와대 개방' 44일째인 22일 오후 1시 19분, 100만번째 관람객이 청와대에 입장했다.대통령실 측에 따르면 100만번째 관람객은 충북 충주에 거주하는 김영순(72)씨로 윤석열 대통령 기념품인 손목시계가 전달됐다고 한다.대통령실 관리비서관실은 "지난 5월10일 청와대를 개방한 이후, 국민의 많은 관심과 성원으로 100만 번째 관람객을 맞이하게 됐다"며 "국민의 품으로 온전히 돌아간 청와대가 역사와 문화 그리고 미래를 담아내는 국민 공간이 될 수 있도록 앞으로도 끊임없는 노력을 다하겠다"고 밝혔다.문화재청 청와대국민개방추진단은 이달 새로운 관람 예약 시스템을 마련하는 등 보다 수월한 관람객 맞이를 위한 준비를 마쳤다.추진단은 우선 네이버, 카카오, 토스 등 여러 민간 플랫폼으로 나뉘어 있던 신청 창구를 청와대 개방 누리집으로 단일화했고, 경복궁과 마찬가지로 화요일에 휴관하기로 했다.추진단은 이와 함께 일일 관람 인원을 3만9000명에서 4만9000명(현장발급 1000명 포함)으로 확대했다. 관람 시간은 오전 7시~오후 7시에서 오전 9시~오후 6시로 조정했다.관람자 선정 방식도 추첨제에서 선착순으로 바꾸고, 1명이 예약할 수 있는 인원도 4명에서 6명으로 늘렸다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2022.06.17.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>산은, 새싹기업 700여곳 투자연계…'넥스트라이즈' 개최</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013253055?sid=101</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>(서울=연합뉴스) 이지헌 기자 = 산업은행과 무역협회는 16∼17일 서울 코엑스에서 열린 국내 최대 새싹기업(스타트업) 박람회 '넥스트라이즈 2022, 서울'에서 700여개 스타트업이 175개 대·중견기업 및 기관투자자들을 만나 사업협력과 투자상담을 벌였다고 17일 밝혔다.    올해 4회차인 넥스트라이즈는 유망 스타트업의 투자유치와 국내외 대·중견기업과의 사업협력 확대를 목적으로 하는 스타트업 지원행사다. 국가과학기술연구회, 벤처기업협회, 벤처캐피탈협회가 공동 주최기관으로 참여했다.    이번 행사에선 310개의 스타트업 부스와 함게 대·중견기업과 협회 독립부스 16곳이 설치됐다.    9개 대학이 참여하는 대학관과 미국 등 11개국 스타트업이 참여하는 글로벌 존에도 각각 30개의 부스가 마련돼 이목을 끌었다.    콘퍼런스 행사에선 송창현 현대차 사장이 '자율주행 모빌리티의 미래'를 주제로 기조연설에 나섰고, 이어 이광형 KAIST 총장이 '세상은 넓다'를 주제로 강연했다.    이밖에 이승건 비바리퍼블리카(토스) 대표가 스타트업의 생존전략을 발표하는 등 다양한 주제를 대상으로 52개의 강연이 이어졌다.    산은 관계자는 "앞으로도 스타트업들의 도전을 응원하고 벤처생태계 발전에 기여하는 스타트업 행사를 개최하기 위해 최선을 다하겠다"고 말했다.새싹기업 700여곳 투자연계…'넥스트라이즈' 성황리 개최(서울=연합뉴스) 산업은행과 무역협회는 16∼17일 서울 코엑스에서 열린 국내 최대 새싹기업(스타트업) 박람회 '넥스트라이즈 2022, 서울'에서 700여개 스타트업이 175개 대·중견기업 및 기관투자자들을 만나 사업협력 및 투자상담을 벌였다고 17일 밝혔다. 16일 개막행사 후 참석자들이 기념촬영을 하고 있다. 2022.6.17 [산업은행 제공. 재판매 및 DB 금지] photo@yna.co.kr    pan@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2022.06.17.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>인터넷銀, 조건 없는 고금리 적금 인기</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004712877?sid=101</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>케이뱅크, 선착순 10만좌 한정年 5% 이자 주는 이벤트 열어토스뱅크, 年 3%대 상품 출시인터넷전문은행이 까다로운 조건 없이 연 3~5% 이자를 주는 정기적금으로 인기몰이를 하고 있다. 금리 인상, 자산 시장 급락으로 투자 열풍이 사그라들면서 예·적금으로 몰리는 수요를 빠르게 흡수하고 있다. 고금리를 내거는 대신 우대 조건이 복잡하거나 납입 한도가 낮은 기존 상품들의 단점도 보완했다.케이뱅크는 17일 자유적립식 정기적금 상품인 ‘코드K자유적금’ 가입자에게 연 5% 이자를 주는 이벤트를 선착순 10만좌 한정으로 시작했다. 앞서 지난 1일 같은 내용으로 벌인 이벤트가 호응을 얻으면서 이틀 만에 10만4229명이 가입하자 보름 만에 ‘앵콜’ 이벤트에 나선 것이다.가입 기간은 3년이며 매달 최대 30만원까지 납입할 수 있다. 기본 금리는 연 3%지만 2% 금리 우대 쿠폰을 쓰면 최고 연 5%가 적용된다. 케이뱅크 앱의 혜택존 페이지에서 쿠폰을 내려받은 뒤 적금에 가입할 때 쿠폰번호를 입력하면 된다. 선착순 10만좌가 소진되면 이벤트는 자동 종료된다.토스뱅크가 지난 14일 선보인 ‘키워봐요 적금’도 출시된 지 3일 만에 10만 명이 가입했다. 이 적금은 만기 6개월을 채우면 연 3% 이자를 주는 상품이다. 현재 은행권 적금 가운데 아무 조건 없이 연 3% 금리를 적용하는 적금은 이 상품이 유일하다.매주 최소 1000원, 최대 20만원까지 자유롭게 넣을 수 있고 월 최대 한도인 100만원 안에서 추가 적금도 가능하다. 가입 기간 6개월 동안 최대 금액인 600만원을 부으면 만기 때 세후 약 4만4400원의 이자를 받을 수 있다.이 상품은 가입 기간 동안 최대 여섯 번까지 긴급 출금도 가능하다. 토스뱅크는 소비자가 긴급 출금을 할 경우 가장 나중에 입금한 돈부터 출금되도록 해 만기 때 받을 수 있는 이자를 최대한 보전할 수 있게 했다. 오래 쌓아둔 돈일수록 더 많은 이자가 쌓이는 적금의 구조를 고려한 것이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2022.06.20.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>“고객님, 석달간 안 쓴 넷플 해지할게요” 누군가 실시간 추천해준다면…</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002595308?sid=101</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>국내 ‘마이데이터뱅킹’ 어디까지 왔나아직 금융정보 통합 안내인 기초 단계 해외는 상품 갈아타기 등 방법 안내해유료 서비스 등 구독 취합하고 해지도소비자의 구독료를 관리해주는 네덜란드 은행 에이비엔암로는 넷플릭스·유튜브 등 불필요하다고 생각되는 서비스를 은행 앱에서 바로 해지해주고 있다. 자료 사진 : 언스플래시“현재 평균 대출 금리가 연 4.7%네요. ㅇㅇ은행 상품으로 갈아타는 건 어떨까요?”최근 자고 일어나면 치솟아 있는 대출 금리. 은행에 직접 방문하지 않아도 누군가 실시간으로 관리 방법을 알려준다면 어떨까.‘손 안의 금융비서’라고 불리는 초개인화 뱅킹이 전 세계적으로 주목을 받고 있다. 초개인화 뱅킹은 스마트폰 앱 등을 통해 여러 회사에 흩어져 있는 금융 정보를 모아 소비 분석, 자산 관리, 맞춤형 상품 추천 등을 해주는 디지털 서비스다.국내에서도 올 초부터 마이데이터 사업이 시작됐다. 그러나 아직은 각 기관의 금융 정보를 통합해 알려주는 정도의 걸음마 단계다. 반면 해외는 통합된 금융 정보를 기반으로 부채 부담을 줄이는 구체적인 방법을 알려주거나, 매월 결제해야 하는 구독료(넷플릭스·유튜브 등)의 안내 및 해지 서비스까지 제공하는 등 조금 더 세밀한 사업으로 발전해 나가는 모습이다. ※ 이미지를 누르면 크게 볼 수 있습니다._______ 아직은 ‘초보’ 금융비서“이번 달 지출의 35.9%는 온라인쇼핑, 17.6%는 교통비네요.”19일 기자가 케이비(KB)스타뱅킹 앱의 마이데이터 서비스에 가입하자, 이 달 지출액이 스마트폰 화면에 떴다. 가입 시 개인정보 제공에 동의한 은행, 카드사, 네이버페이 등의 지출 내역이 통합돼 ‘가계부’ 형태로 제공됐다. 최근 택시 이용과 네이버페이를 통한 온라인쇼핑이 잦다고 느꼈는데, 마이데이터는 이 같은 소비 행태를 지출 종류별 비중으로 알려줬다. 다가오는 정기지출 항목에는 이달 말 결제해야 하는 통신요금 내역이 정리돼 있었다. 개인정보 제공 동의에 통신사를 추가해 서비스가 제공된 것으로 보인다. 자산 항목으로 가니, 각 금융기관에 있는 예·적금, 대출 내역 등이 나왔다. 대출 상세 분석을 누르자, 대출 금액과 종류, 가중평균금리, 예상 월 이자, 신용 점수 등을 볼 수 있었다. 스마트폰에는 “지난달과 대출금액이 같네요. 대출은 소소익선, 적을수록 좋아요”라는 문구가 떴다.국내 마이데이터 사업은 지난 1월부터 본격 시작됐다. 마이데이터 서비스를 제공하는 업체는 33곳이다. 은행은 케이비국민·신한은행 등 10곳, 카드사는 비씨·하나카드 등 6곳, 증권사는 미래에셋·키움증권 등 4곳이다. 네이버파이낸셜·카카오페이·토스 등 핀테크 업체도 10곳이 참여하고, 저축은행·상호금융·신용평가사도 서비스를 제공하고 있다. 고객의 정보를 제공하는 회사는 은행·보험·증권·카드·저축은행·통신사·전자금융업체 등 총 417곳이다.은행은 예·적금 계좌 잔액, 거래내역, 대출잔액·금리 및 상환정보 등을 제공한다. 보험사는 주계약·특약사항, 보험료 납입내역 등을 공유하고 있다. 카드사에서는 결제내역, 포인트 현황, 카드론 내역 등의 정보를 받을 수 있다. 통신사의 통신료 정보, 소액결제 이용내역, 국세청의 국세 납세증명도 정보 제공 대상이다.KB금융 마이데이터 앱 화면 갈무리_______대환대출 알려주는 ‘웰스파고’, 구독료 한 번에 조회 및 해지 ‘에이비엔암로’ 국내 마이데이터 사업은 아직 금융정보를 통합해 제공하는 초기 단계다. 흩어진 금융정보를 한눈에 보고 관리할 수 있도록 정리해주지만, 여기서 더 나아간 맞춤형 서비스는 제공하지 못하고 있다. 예를 들어, 대출은 개인 상황에 맞는 대환대출, 금리 인하 요구 등을 알려주는 게 아니라 기존 금융상품을 단순히 소개해주는 수준에 그치고 있었다. 초개인화 뱅킹에 일찍 뛰어든 일부 해외 금융기관은 통합한 금융정보를 2차적으로 분석·가공한 서비스를 내놓는 모습이다. 미국 은행 웰스파고(Wells Fargo)는 수집한 소비자의 모든 대출 정보를 바탕으로 부담을 줄일 수 있는 구체적인 방안을 제시하고 있다. 은행 앱에서 금리인하, 조기상환, 기간 연장, 상품 갈아타기(대환대출) 등 실시간으로 개인에 맞는 최적의 방안을 알려준다. 또한 매월 개인의 금융 활동 정보를 분석해, 구체적인 신용등급 개선 방안까지 맞춤형으로 제공한다.작지만 쏠쏠한 서비스도 있다. 네덜란드 은행 에이비엔암로(ABN AMRO)는 소비자의 구독료를 관리해준다. 넷플릭스·유튜브 등 소비자가 구독 중인 서비스를 모두 모아 정리해주며, 결제금액을 월·분기별로 집계해준다. 또한 구독이 불필요하다고 생각되면 은행 앱에서 바로 해지하는 것도 가능하다. 국내에서도 우리은행이 최근 업계 최초로 구독(바디프랜드·빨간펜·한국야쿠르트 등)을 한번에 조회할 수 있는 마이데이터 서비스를 출시했으나, 에이비엔암로와 다르게 구독 조회만 가능할 뿐 은행 앱에서 해지하는 것은 불가능하다.‘넷플릭스 온 뱅킹’(Netflix on Banking)을 내세운 은행도 있다. 아일랜드 은행 뱅크오브아일랜드(Bank of Ireland)는 넷플릭스 서비스를 차용해 이용료를 받고 고객에게 통합 서비스를 제공한다. 금융 상품을 단순히 나열하는 방식에서 벗어나 실시간으로 소비자 정보를 업데이트한 후 상품을 추천하는 것이다. 넷플릭스 앱을 열면 나의 성향에 맞는 드라마 및 영화가 맨 앞에 추천으로 뜨는 것처럼, 은행 앱을 키면 신규 가입 때 좋은 금융 상품, 지금보다 혜택이 좋은 금융 상품이 매 순간 제공된다. 실직 등 위기 상황이 발생했을 때도 은행 앱에서 자산 관리 방법을 안내받을 수 있다. 뱅크오브아일랜드는 월별 필수 생활비, 예비비로 저축 가능한 금액, 예상 자금 준비기간 등을 분석해 제공한다. 금융권 관계자는 “국내 마이데이터 사업은 시행 초기인 까닭에 금융정보 취합과 맞춤형 상품 추천을 위주로 초개인화 뱅킹이 이루어지고 있으며, 글로벌 은행과 같은 세밀한 관리, 실시간 추천·고객 응대, 금융 행동 예측 등은 부족한 상태다”라고 짚었다.자료:우리금융그룹_______마이데이터 발전 관건은 ‘데이터 확보’ 국내 마이데이터 사업이 해외처럼 발전하려면 데이터 수집이 관건이 될 전망이다. 마이데이터는 이용자의 계좌·결제내역 등 정보를 모아 자산관리·상품추천 등을 해주는 서비스다. 데이터가 많으면 많을수록 이용자의 소비·저축·투자 습관을 정확히 파악해 질 좋은 서비스를 제공할 수 있다.그런데 데이터 확보에는 개인정보 침해라는 위험이 존재한다. 이에 마이데이터 사업은 데이터 수집과 개인정보 보호 사이에서 균형을 찾는 게 매우 중요하다. 우리나라는 해외보다 마이데이터 사업을 늦게 시행했는데, 그만큼 개인정보 보호 장치는 신경을 많이 쓴 상태다. 해외 초개인화 뱅킹 사업자들은 주로 고객 정보를 스크래핑(긁어오기)해 데이터를 모은다. 스크래핑은 사업자가 고객 아이디와 비밀번호로 금융회사 누리집에 접속해 화면에 보이는 정보를 긁어오는 방법이다. 아이디·비밀번호 유출 우려가 있고, 사업자가 과도하게 개인정보를 수집할 수 있다는 게 단점이다.이에 비해 국내는 ‘어플리케이션 프로그래밍 인터페이스’(API) 방식으로만 데이터를 주고받는다. 에이피아이는 프로그램끼리 데이터를 주고받는 규칙인데, 이용자가 정보 제공 회사에 ‘마이데이터 사업자에게 정보를 전송하라’고 요구하면, 정보 제공자는 고객이 허용한 정보를 마이데이터 사업자 쪽에 보내는 절차를 거친다. 스크래핑 방식보다는 개인정보가 더 안전하게 공유된다.금융권 관계자는 “마이데이터 사업에는 소비자에게 편리한 서비스를 제공하면서도 개인정보 보호 기준과 금융 관련 규제 등을 지켜야 하는, 두 마리 토끼를 모두 잡아야 하는 어려움이 존재한다”며 “앞으로 금융당국과 금융기관이 발전 방향에 대해 많은 논의를 해야 할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2022.06.20.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>토스뱅크 '카드론 대환 서비스' 논란…카드사 반발, 왜?</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002005029?sid=101</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>스크래핑 방식으로 대환 시행허위광고 논란·보안 우려 제기토스뱅크가 최근 내놓은 카드론 대환대출 서비스가 논란이 되고 있다. 이 서비스는 지난해 추진됐던 대환대출 플랫폼이 잠정 중단되자 토스뱅크가 들고 나온 서비스인데, 일부 카드사를 타깃으로 고객을 끌어가는 형태로 진행되면서 카드업계의 반발을 사고 있는 것.20일 금융권에 따르면 토스뱅크는 지난달 말부터 카드론 대환대출 서비스를 시작했다. 카드론 보유 차주 중 조건이 맞는 일부 대출을 토스뱅크 신용대출로 대환해주는 서비스다. 토스뱅크 관계자는 “토스뱅크 신용대출 상품에 대환 프로세스만 적용한 것”이라며 “금리 인하, 신용점수 상승 등 금융소비자 편익 증진 차원에서 서비스를 고안했다”고 설명했다.통상 카드론은 중·저신용자가 많이 이용하기 때문에 중·저신용자 대출 비중을 높여야 하는 토스뱅크 입장에서는 ‘필요한’ 수단이기도 했다. 현재 대환이 가능한 카드사는 소수지만 토스뱅크는 이를 점차 확대할 예정이다.하지만, 서비스를 제공하는 과정에서 논란이 일고 있다. 토스뱅크는 서비스 출시 후 카드론 대환을 문의했을 때 고객센터를 통해 ‘카드사와 제휴/협약 관계’라는 표현을 사용했다. 해당 카드사 관계자는 “제휴 등을 체결한 적이 없는데 토스뱅크가 이같이 안내하는 행위는 허위광고에 해당된다”고 말했다.카드론 정보를 수집하는 과정에서 사용된 ‘웹 스크래핑’ 방식도 또다시 도마 위에 올랐다. 스크래핑 방식은 시장에서 널리 쓰이고 있지만 마이데이터에 적용된 API 방식에 비해 보안 등이 취약한 편이다. 홈페이지를 그대로 따와 아이디·비밀번호를 입력하는 방식이라 개인정보 유출이 발생할 경우 책임 소재도 불분명하다. 한 업계 관계자는 “스크래핑을 통한 개인정보 유출 우려는 업권에 널리 알려진 문제이지만, 마이데이터 라이선스가 없는 업체의 스크래핑을 규제할 근거는 없는 상황”이라고 말했다.토스뱅크가 ‘꼼수 영업’을 하고 있다는 주장도 나왔다. 한 카드업계 관계자는 “스크래핑은 정보제공자가 고객인지 플랫폼인지조차 인지하기 어려운데 이를 대환 영업에 활용하는 것은 상도덕에 어긋난다”고 비판했다. 한 핀테크 업계 관계자도 “지난해 정부가 검토하던 대환 대출 플랫폼의 경우 ‘열린 경쟁’을 지향했는데 특정 카드사 정보를 스크래핑해 자사 대출로만 대환하는 것은 ‘닫힌 경쟁’으로 보인다”고 말했다.카드 업계에서는 토스뱅크 서비스가 토스 앱에서 제공되는 만큼, 카드론 대환 과정의 스크래핑 주체가 토스뱅크가 맞는지, 또 마이데이터 정보가 활용되지 않았는지도 확인할 필요가 있다고 주장하고 있다. 금융당국은 이같은 의혹 제기에 대해 관련 자료 등을 검토할 예정인 것으로 알려졌다. 앞서 토스는 보험설계사에게 중개수수료 명목으로 고객 데이터를 판매했다는 의혹을 받았으나 법적 문제는 없는 것으로 판단됐다. 토스는 기존 개인정보 제3자 정보제공 동의를 보완하겠다고 밝힌 상황이다.이경호 고려대 정보보호대학원 교수는 “토스같은 원앱 플랫폼의 경우 그 안에 여러 금융기관이 있고, 제공하는 서비스도 다양하기 때문에 정보 제공 주체가 약관 동의를 할 때 주의 깊게 살펴볼 필요가 있다”고 제언했다.박자연 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2022.06.28.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>홍민택 토스뱅크 대표 "주담대, 전세대출 출시할 것"</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011272984?sid=101</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>기사내용 요약하반기 고액자산가 '웰스매니지먼트' 서비스홍민택 토스뱅크 대표가 28일 서울 중구 커뮤니티하우스에서 기자간담회를 열고 질문에 답하고 있다. *재판매 및 DB 금지[서울=뉴시스] 이정필 기자 = 토스뱅크가 주택담보대출과 전세대출 상품을 출시할 계획이다. 고액자산가를 위한 웰스매니지먼트 서비스도 올해 하반기 시작한다.홍민택 토스뱅크 대표는 28일 서울 중구 커뮤니티하우스 마실에서 출범 후 첫 기자간담회를 열고 이 같은 구상을 밝혔다.홍 대표는 그동안의 실적과 하반기 신상품 출시 계획 발표 후 이어진 질의응답에서 "전세대출이나 주담대는 신용대출과는 필요성이 다른 필수적인 여신 상품"이라며 "토스도 관련 상품을 출시할 예정"이라고 설명했다.이어 "(상품 출시가)하반기 일정으로는 확정되지 않았다"면서 "주담대나 전세대출은 사이즈가 크기 때문에 자본 확충과 수익성 등을 복합적으로 검토해야 한다"고 부연했다.올 하반기에는 주담대 상품에 앞서 고액자산가를 위한 웰스매니지먼트 서비스가 출시될 예정이다.홍 대표는 "현재 연 2% 금리의 수시입출금 통장은 모두에게 혜택을 주고 싶어 만들었지만 1억원 한도라는 숙제가 있다"며 "한도를 없애거나 금리 상승 등의 사업 여건이 만들어지면 검토할 내용"이라고 언급했다.그는 "하반기에는 고액자산가를 위한 웰스매니지먼트 서비스를 할 것"이라며 "회사가 자체적으로 상품을 내기보다 시장의 좋은 상품을 소싱하거나 소개하면서 고객들에게 편의성을 제공하고자 한다. 타사와 제휴 협력하는 서비스 솔루션으로 출시를 준비 중"이라고 덧붙였다.회사의 적자 지속으로 인한 지속가능성 우려에 대해서는 "예대사업에서 적자은행이 우리밖에 없어서 부끄럽지만, 5월에 예대사업 적자부분이 해소됐다"며 "고객이 돈을 맡길 때 불안감 없이 안심할 수 있도록 내적인 수익성 개선에 중점을 둘 것"이라고 강조했다.추가적인 증자 계획과 관련해서는 "애초보다 훨씬 빠르게 자산성장이 일어나 자본 확충이 돼야 해서 주주들과 긴밀히 협의 중"이라며 "자본계획이 수립되는 상황으로 하반기 추가적으로 필요한 부분을 협의하고 있다. 앞으로 변동성이 있지만 더 확장하는 계획으로 실행할 수 있다"고 밝혔다.카드론 대환대출 서비스 확장에 대해서는 "시범적인 출시 상품이고, 대환대출을 비대면으로 출시한 이후 업계 우려와 여러 의견을 듣고 있다"며 "여러 사항들을 신중히 종합적으로 고려해 진행하겠다"고 말했다.가상화폐나 통합거래소 시장 진출 가능성에 대해서는 아직은 시기상조라는 입장이다.홍 대표는 "신생 은행으로 기본적인 서비스들의 숙제를 푸는 데 집중하고 있다"면서 "현재 인력이나 사업 확장 추진에 큰 여력은 없다. 실명계좌 계획이나 진행 상황은 아니다. 통합거래소도 유사한 맥락으로 참여 계획은 없다"고 선을 그었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2022.06.22.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>대출비교 플랫폼 발길 늘어나는데…어? 시중은행은 없네?</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000291294?sid=101</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>[앵커] 영업점을 방문하지 않고도 금리나 한도 조회가 가능한 대출비교 플랫폼 이용하는 분들 많을 겁니다. 하지만 유심히 살펴보면 주요 은행 상품은 찾아보기 어려운 데다 이름이 생소한 상품도 많은데요. 점점 커지는 대출비교 플랫폼 시장에 비해 시중은행들의 참여가 적은 이유는 무엇인지 오정인 기자가 취재했습니다. [기자] 카카오페이와 토스를 비롯해 핀다와 핀크, 담비 등 다양한 플랫폼들이 대출비교 서비스를 제공하고 있습니다. 대출 상품 조회가 가능한 금융사는 핀다가 62개로 가장 많고 카카오페이와 토스는 50개가 넘습니다. 5대 시중은행도 포함돼 있지만 일부에 불과합니다. [시중은행 관계자 : 자체 플랫폼 경쟁력을 높이려는 노력을 하고 있어요. 외부 플랫폼에 상품 연계해서 판매하면 자체 플랫폼 경쟁력은 도태될 수밖에 없거든요.] 지난해 전체 신용대출과 주택담보대출에서 5대 은행이 차지하는 비중은 각각 73%, 82%에 달합니다. 판매 채널은 다변화되고 있지만 점유율은 여전히 압도적입니다. [주은영 / 담비 대표 (22일, 기자간담회) : '앞으로 판매 채널이 바뀔 것이다'라는 방향성은 다 인정하세요. (그런데) 5대 은행을 빼면 현재 반쪽짜리 시장이잖아요. 시장 확대되려면 5대 은행이 참여를 해야겠죠.] 하지만 앞으로도 대출비교 플랫폼에 5대 은행 상품을 유치하기는 쉽지 않아 보입니다. [정도진 / 중앙대 경영학부 교수 : 5대 은행 입장에서 '우리 상품이 밀리는 게 없고 브랜드도 훨씬 낫다'라고 생각하면 굳이 돈 주고 (외부 플랫폼을) 쓸 필요는 없는 거죠. (2금융권은) 비용 대비 이득이 크니까 의사결정을 하는 거죠.] 아직까진 대출비교 플랫폼에서 보험사나 저축은행 상품 비중이 큰 상황. 주요 플랫폼사들이 5대 은행과의 제휴를 얼마나 이끌어내는지가 성패를 좌우할 것으로 보입니다. SBS Biz 오정인입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2022.06.29.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>서금원, 국민비서 '구삐' 통해 휴면예금 알림서비스 시작</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004984543?sid=101</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>서민금융진흥원(서금원)이 행정안전부의 국민비서 알림서비스 '구삐' 이용자를 대상으로 휴면예금 보유 여부 확인 및 지급 신청 안내 서비스를 제공한다고 29일 밝혔다.구삐는 네이버앱, 카카오톡, 토스 등 민간 앱에서 개인 맞춤형 행정정보를 알려주는 서비스로 현재 약 1485만명이 이용 중이다. 서금원은 구삐 이용자 및 신규 이용자 중 휴면예금 조회 동의를 신청한 약 73만명을 대상으로 휴면예금 보유 여부를 확인하고, 휴면예금 보유자에 대해 이달 말부터 순차적으로 알림메세지를 발송한다.휴면예금 1000만원 이하 보유 고객은 별도의 영업점 방문 없이 '서금원 모바일 앱' 또는 '휴면예금 찾아줌', '어카운트인포', '정부24' 사이트 등에서 온라인으로 휴면예금을 찾을 수 있다. 온라인 이용이 어려운 경우 평일 9~18시 서민금융콜센터를 통해 지급신청을 할 수 있다. 서금원은 이번 신청 이후에도 구삐를 통해 지속적으로 휴면예금 조회 동의 신청을 받아 휴면예금 알림서비스를 제공할 예정이다.이재연 서금원 원장은 "휴면예금 지급을 확대하기 위해 온·오프라인을 통해 적극적인 홍보를 진행하고 금융회사 등과 협업해 다양한 플랫폼과 휴면예금 지급서비스 연계를 추진하고 있다"며 "국민들이 자신의 소중한 재산을 쉽고 편리하게 찾을 수 있도록 지속적으로 노력할 계획"이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2022.06.22.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>[비즈&amp;] 삼성중공업, 카타르 LNG선 3조9천억원 수주 外</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/422/0000547760?sid=101</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>경제계 뉴스 알아보는 비즈&amp;(앤) 시간입니다. 오늘은 어떤 소식들이 있는지 살펴보겠습니다.▶ 삼성중공업, 카타르 LNG선 3조9천억원 수주 삼성중공업이 17만 4천 입방미터급 액화천연가스 운반선 열두 척을 수주했다고 공시했습니다. 수주 금액은 총 3조 3천310억 원입니다. 이번 수주는 카타르 정부가 2020년 국내 조선 빅3와 체결한 백 여척 건조 계약의 일환인 것으로 전해졌습니다.▶ 국적선사, 화물연대 파업 피해 중소기업에 비용 감면중소기업중앙회와 한국해운협회는 화물연대의 파업으로 중소기업들이 15개 국적선사에 물게 된 인수 지체에 따른 체화료와 반환지연료를 감면해주기로 했다고 밝혔습니다.이번 조치를 통해 파업 기간 항만 내 화물 반출입 지연으로 추가 비용을 내야했던 중소기업은 부담이 줄 것으로 보입니다.▶ LG전자-카카오모빌리티, 자율주행 로봇 배송 실증사업 추진LG전자가 자율주행 로봇 배송 서비스 등 모빌리티 분야 사업 확대를 위해 카카오모빌리티와 서비스 공동개발에 착수합니다. 양사는 LG전자의 자율주행 로봇과 카카오모빌리티의 관제 플랫폼을 결합해 실내외에서 물건을 배송하는 서비스 개발에 나설 예정입니다.▶ LH, 고령자·다자녀가구 전세임대주택 4,500호 공급LH는 이달 29일부터 다음 달 8일까지 고령자용 전세임대 2,500호에 대한 신청을 받는다고 밝혔습니다. 또한 다음 달 1일까지 다자녀가구 전세임대주택 2,000가구에 대한 신청도 진행 중이라고 덧붙였습니다.▶ 토스뱅크, 1,000억원 규모 유상증자 추진토스뱅크가 이사회를 열고 1,000억 원 규모의 유상증자를 추진하기로 결의했다고 밝혔습니다. 이번 증자의 주당 발행가격은 5,000원이며, 증가를 마치면 토스뱅크의 납입자본금은 9,500억 원으로 늘어납니다.#LG전자 #카카오모빌리티 #토스뱅크연합뉴스TV 기사문의 및 제보 : 카톡/라인 jebo23</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2022.06.22.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>‘소비자금융 철수‘ 씨티은행 8조 신용대출, 국민은행·토스뱅크로</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003281907?sid=101</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>국내에서 소비자금융 부문을 철수하기로 결정한 한국씨티은행의 약 8조원대 규모의 개인신용대출 대환(대출 갈아타기) 업무를 KB국민은행과 토스뱅크가 맡게 됐다. 한국씨티은행은 다음달부터 대환 제휴 프로그램을 실시한다.한국씨티은행은 22일 KB국민은행, 토스뱅크와의 업무 제휴 협약을 체결하고 다음달 1일부터 ‘개인신용대출 대환 제휴 프로그램’을 시행한다고 밝혔다.한국씨티은행의 개인신용대출 잔액은 지난 3월말 기준 약 8조 409억원 수준이다.이에 따라 기존에 한국씨티은행에서 개인신용대출을 받은 고객은 다음달부터 제휴 프로그램을 통해 KB국민은행과 토스뱅크의 신용대출 상품으로 갈아탈 수 있다. 대출시 발생하는 중도상환수수료와 대환 과정에서 부담하는 인지세 등은 KB국민은행과 토스뱅크가 부담할 예정이다.금융당국의 소비자보호 계획에 따라 다음달부터 씨티은행 신용대출 고객은 대출금액의 증액이 없다면 차주별 총부채원리금상환 비율(DSR), 연소득 100% 이내 대출한도 제한 등 가계대출 규제가 적용되지 않는다.제휴를 통한 개인신용대출 대환대출은 한국씨티은행의 대출 잔액(한도 대출의 경우 대출한도)과 동일한 금액으로만 가능하다. 고객이 원할 경우 제휴 은행뿐 아니라 다른 금융회사에서도 대환을 신청할 수 있다.다만 각 금융회사의 심사 결과에 따라 대환이 거절될 수 있으므로 대환 가능 여부와 구체적인 대출 조건 등은 개별 확인이 필요하다.KB국민은행은 기존 대출 금리 대비 최대 0.4%포인트의 우대금리를 지원할 예정이다. ‘웰컴 우대금리’ 0.2%포인트를 일괄 적용하고, 은행 자체 신용평가 결과 6등급 이내 고객에게는 우대금리를 최대 0.2%포인트를 추가 제공하는 방식이다. 토스뱅크도 대환 고객을 대상으로 금리를 0.3%포인트 할인해준다는 계획이다.씨티은행은 고객의 개인 신용대출상품에 대해 2026년 말까지는 기존과 동일하게 은행이 정한 심사 기준(신용도와 채무 상환능력을 재평가)에 따라 만기를 연장해준다는 방침이다. 또 2027년 이후에도 전액 상환 또는 타 금융기관을 통한 대환이 어려운 고객의 경우 분할 상환을 지원한다.이번 대환 제휴 프로그램은 KB국민은행 앱(애플리케이션) 또는 영업점, 토스뱅크 앱에서 신청할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2022.06.29.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>[단독] 토스, 기업가치 9.5조원에 시리즈G브릿지 투자 유치…5000억 모였다</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000824012?sid=101</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>글로벌 핀테크 투자사, 1000억대 베팅 검토내년 하반기 중 상장 목표        핀테크 서비스 ‘토스’를 운영하는 비바리퍼블리카가 기업가치 9조5000억원에 후속 투자를 유치 중이다. 현재까지 주요 기관 5개가 5000억원을 투자하기로 결정한 상태이며, 글로벌 핀테크 전문 투자사 한 곳이 추가로 1000억원대 투자를 진지하게 검토 중이다./비바리퍼블리카 제공        29일 투자은행(IB) 업계에 따르면, 비바리퍼블리카는 현재 시리즈G 브릿지 투자 유치를 진행하고 있다. 회사는 당초 프리(pre)IPO 투자를 받을 계획이었으나, 시장 변동성이 확대되며 빠른 시일 내에 상장하는 것이 어려워지자 시리즈G 이후 브릿지 단계로 진행하기로 했다.이번 투자 단계에서 비바리퍼블리카는 기업가치 8조5000억원(투자 전 기준)을 인정 받았다. 투자 목표 금액 5000억~1조원을 반영하면 투자 후(포스트) 기업가치는 9조~9조5000억원이 될 전망이다. 기존 주요 주주들이 대부분 후속 투자에 참여하기로 했으며, 현재까지 5000억원이 모인 상태다.글로벌 핀테크 전문 투자사 한 곳도 1000억원 이상을 투자하는 방안을 검토 중이다. 기관 투자자들의 납입(클로징)은 오는 7월 말에서 8월 초 사이에 완료될 전망이다.업계 일각에서는 비바리퍼블리카의 기업가치가 종전 밸류에이션을 크게 밑돌 것이라는 우려가 나오기도 했다. 비바리퍼블리카는 지난해 6월 기업가치 8조2000억원을 인정 받고 시리즈G 투자를 받은 바 있다. 그러나 이번에 인터넷 은행 토스뱅크의 사업성 등을 높게 평가한 기존 투자사들이 기업가치를 종전 대비 상향 조정해줬다.비바리퍼블리카는 앞서 알토스벤처스, 굿워터캐피탈, 베세머벤처파트너스, 세콰이어차이나, 싱가포르투자청(GIC) 등 외국계 기관과 KDB산업은행, 다올인베스트먼트(옛 KTB네트워크) 등으로부터 1조원 이상을 투자 받았다. 내년 하반기 중 상장하는 것을 목표로 하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2022.06.17.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>토스뱅크 “‘키워봐요 적금’ 출시 3일 만에 10만좌 돌파”</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000821674?sid=101</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>토스뱅크는 지난 14일 출시한 ‘키워봐요 적금’이 출시 3일 만인 17일 누적 계좌개설 10만좌를 돌파했다고 밝혔다.‘키워봐요 적금’은 토스뱅크의 출범 후 첫 적금 상품으로, 6개월 만기 시 최고 3%의 금리 혜택을 제공한다. 납입한도는 월 최대 100만원이며, 매주 1000원부터 20만원까지 납입 가능하다.토스뱅크 제공        ‘키워봐요 적금’은 가입 시 지급된 동물의 알이 이튿날 부화되면서 6개월 동안 열 단계에 거처 자란다. 동물은 유령·거북이·문어·망아지 네 종으로 랜덤 지급되며, 매주 적금 자동이체 달성하면 최종 만기 시 전설의 동물로 진화한다.토스뱅크는 ‘키워봐요 적금’에 친구와 함께 적금할 수 있는 기능을 추가해 긴 시간 인내하며 목돈을 만들어 가는 시간을 즐거움과 재미로 전환하는 등 고객 친화적으로 상품을 기획했다. 또한 출시 후 고객들이 소셜미디어(SNS) 상에서 서로 지급된 동물의 알과 알을 깨고 나온 동물 친구들의 모습들을 공유하며 인기를 끌었다는 게 토스뱅크 측의 설명이다.토스뱅크 관계자는 “이번 ‘키워봐요 적금’을 출시한 후 보객들이 보다 즐겁게  금융 서비스를 이용하고 싶다는 니즈를 확인할 수 있었다”라고 전하며 “앞으로도 고객들에게 보다 즐겁게 금융을 이용하고 유용한 혜택을 받아가실 수 있도록 노력하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2022.06.27.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>토스뱅크, 내달부터 카드론 대환대출 대상 카드사 확대</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013270220?sid=101</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>삼성카드 카드론에서 카드사 더 늘릴 계획 "기존 카드론 이용 중저신용 고객 포용"…카드업계 반발 토스뱅크[토스뱅크 제공]    (서울=연합뉴스) 오주현 기자 = 개인 신용점수가 710점(KCB 기준)인 중소기업 직장인 A(39)씨는 급전이 필요해 카드론으로 1천500만원을 연 19.9% 금리에 빌렸다.     하지만 최근 인터넷 전문은행 토스뱅크에서 대환대출을 신청한 결과, 연 4.43% 금리의 신용대출로 갈아타기에 성공했다. 한도도 1천100만원 추가된 2천600만원으로 늘었다.    27일 금융권에 따르면 토스뱅크는 이러한 '카드론 대환대출 서비스'를 이달 초부터 시범적으로 출시했으며, 이르면 다음 달 초부터 확장할 예정이다.     은행권에서 대환대출 서비스 자체는 새롭지 않지만, 카드론을 은행 신용대출로 바꿔주는 서비스를 내놓은 것은 토스뱅크가 최초다.     현재는 삼성카드사의 카드론에 대한 대환대출만 가능하지만, 토스뱅크는 내달부터 대상 카드사를 늘려 본격적으로 서비스를 확장할 계획이다.    카드론 이용 고객 중 상당수는 중간 수준의 신용도와 리스크를 가진 경우가 대부분인데, 토스뱅크는 이들을 1금융권의 테두리 안으로 들여와 중·저신용 고객으로 포용하겠다는 것이다.    토스뱅크 관계자는 "인터넷 전문은행은 중·저신용 고객의 포용과 혁신을 위해 설립됐다"며 "이번 카드론 대환 대출 상품은 중·저신용 고객의 금융이자 부담을 덜고 금융소비자의 선택 기회를 확장하기 위한 상품"이라고 밝혔다.    토스뱅크에 따르면 카드론 대환대출 서비스 이용 고객은 평균 7.75% 금리로 대출을 받았으며, 카드론 이용 시와 비교하면 금리가 평균 6.83%포인트(p) 인하됐다.    평균 대출 한도는 약 1천470만원으로, 평균적으로 750만원 늘어나는 효과가 있었다.카드론(CG)[연합뉴스TV 제공]    최근 본격적인 금리 상승기에 들어서며 취약 차주의 이자 상환 부담이 커진 상황에서, 금융권에 취약 차주의 부담 경감을 주문한 금융당국의 정책 기조에도 걸맞은 상품이라는 평가가 나온다.    최근 금융당국은 고금리 대출의 저금리 대환 프로그램을 추진하고 있다. 이에 더해 지난 20일 이복현 금융감독원장은 은행장들과의 간담회에서 "은행 자체적으로도 대출금리의 급격한 인상 조정 시 연체가 우려되는 차주 등에 대해서는 여타 저금리 대출로 전환해주거나 금리조정 폭과 속도를 완화해 주는 방안도 강구해 볼 필요가 있다"고 강조한 바 있다.    이 서비스는 토스뱅크가 중·저신용자 신용대출 비중을 끌어올리는 데도 도움이 될 전망이다. 토스뱅크는 올해 연말까지 중·저신용자 신용대출 비중을 42%까지 높이겠다는 계획을 금융당국에 제출했다. 지난 3월 말 기준 이 비중은 31.4%였다.    카드사들은 기존 고객의 이탈이 우려돼 반발하고 있다.     카드업계에서는 토스뱅크가 카드론 정보를 수집하는 과정에서 사용하는 '웹 스크래핑' 방식이 보안상 취약할 수 있다는 점 등을 문제 삼고 있다.    이에 대해 토스뱅크 관계자는 "스크래핑 시 로그인 정보를 사용자가 직접 입력하고 사용 즉시 폐기되기 때문에 보안에 위협이 될 여지는 적다"면서 "통신은 암호화된 방식을 사용하기 때문에 중요 정보가 안전하게 전송된다"고 설명했다.    같은 은행권에서도 토스뱅크의 이런 서비스는 다소 파격적이라는 평이 나온다.     은행권의 한 관계자는 "보수적인 기성 은행권에서는 고려하기 어려운 서비스"라며 "특히 다른 사업에서의 카드사와의 제휴 관계 등을 고려하면 시도하기 어렵다"고 말했다.    viva5@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2022.06.30.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>토스뱅크, 씨티은행 대환 0.3%p 우대금리</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011276580?sid=101</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 이정필 기자 = 토스뱅크는 다음달 1일부터 한국씨티은행의 개인신용대출 고객을 대상으로 대환 서비스를 개시한다고 30일 밝혔다. 대상은 씨티은행의 개인신용대출과 마이너스대출 이용 고객이다. 씨티은행의 개인신용대출을 보유한 개인 고객들이 토스뱅크에서 대환 대출을 이용할 경우 0.3%포인트(p) 금리 할인 혜택을 받을 수 있다.대환 과정에서 발생하는 인지세는 토스뱅크가 전액 부담한다. 중도 상환 시 발생하는 수수료도 전액 면제된다.대출 기간은 기존 씨티은행에서의 동일한 조건에 따라 최소 5년 간 대출 만기 연장이 가능하다. 이후에는 토스뱅크가 정한 조건에 따라 추가로 5년 더 연장(최대 10년)할 수 있다.연체가 발생하거나 채권 추심 절차가 진행 중인 고객은 제외된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2022.06.28.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>[기고]業의 경계 종말에 대한 대응 시급</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003026545?sid=110</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>'코로나19' 팬데믹을 겪으면서 비대면을 기반으로 하는 디지털전환과 4차 산업혁명 기술 확산에 따라 업 간 경계가 무너지는 현상이 가속되고 있다. 산업 간 경계가 허물어지면서 '융합'과 '초연결'을 기반으로 한 새로운 비즈니스 모델이 속출하고 있다. 정부의 산업정책과 우리 기업의 전략적 대응이 시급한 상황이다.온라인 쇼핑기업 아마존과 포털기업 네이버 간 정체성은 이미 모호해졌다. 핀테크, 사물인터넷(IoT), 자율주행, 인공지능(AI) 비서 등 금융·제조·자동차 및 각종 서비스 분야에서 업종 구분을 넘어서는 상품과 서비스가 출현하고 있다. 업종 간 경계가 종말을 향해 빠르게 돌진하고 있다고 해도 과언이 아니다.이런 변화에 대해 기업들의 대응도 빠르게 진행되고 있다. 전자와 엔터테인먼트 회사 소니가 기존의 기업 강점을 활용해 전기차 사업에 진출하고 있다. 자율주행차로의 전환이 빠르게 진행되면서 자동차 산업의 경계, 전자산업과 엔터테인먼트 산업 경계가 모호해지는 상황이다.업의 경계 종말 현상은 코로나 이전부터 예견됐다. 2016년에 출간된 딜로이트 컨설팅의 '경계의 종말'이라는 책에서 전 세계 산업은 디지털전환으로 인간과 기계, 생산자와 소비자, 물리적 세계와 디지털 세계 등 세 가지 경계가 와해할 것으로 예측했다. 이러한 경계의 와해는 새로운 산업의 역동성을 가져다줄 것이라고 주장했다.산업 간 경계가 사라지는 혁명은 과거 20여 년 전의 인터넷 혁명과 10여 년 전의 모바일 혁명에 이어 현재 진행형인 4차 산업혁명의 파괴적 변화만큼이나 큰 변화를 초래할 것으로 예측된다.빅블러(Big Blur)는 '경계융화가 일어나는 현상'을 의미한다. 좀더 구체적인 정의는 소비자 역할, 기업 관심사, 서비스 역할, 비즈니스 모델, 산업 장벽, 경쟁 범위의 6가지 측면에서 동시다발적인 힘이 작용하며 생산자-소비자, 소기업-대기업, 온오프라인, 제품 서비스간 경계융화를 중심으로 산업·업종간 경계가 급속하게 사라지는 현상을 의미한다. 2013년 '당신이 알던 모든 경계가 사라진다(조용호 저)'에서 최초로 제시됐으며 4차 산업혁명 시대, 비즈니스모델 대충돌을 일으키는 현상이라는 맥락으로 설명되고 있다.필자는 지금이 바로 역동적 변화의 가속도가 증가하는 시점이고, 산업의 체제 전환 시대에는 거대한 위협과 기회가 동시에 제공될 수 있다는 점에 주목하기를 제안한다. 변화에 적응하지 못하면 강자 기업의 경우라도 빠르게 입지가 약화할 것이기 때문에 후발주자나 신생 기업에는 추격을 위한 '기회의 창'이 열릴 수 있을 것이다. 카카오뱅크, 토스와 같은 인터넷 기반 신흥 핀테크 기업의 급성장은 전통 금융업에 큰 도전이 되는 동시에 기존 금융 산업과 관련 기업에 디지털전환에 따른 새로운 큰 도약의 기회를 제공하기도 한다.한편 국가적인 차원에서도 '업의 종말' 시대에 대응하는 산업정책이 필요하다. 전통적인 업종 중심의 정책 패러다임을 고수할 경우 이러한 변화에 선제적으로 대응하지 못하거나 오히려 변화의 걸림돌로 작동할 가능성이 존재한다.국내외 업의 경계 종말 현황에 대한 면밀한 분석을 토대로 관련 법·제도 한계 및 정부 지원 정책의 문제점을 분석하고, 특히 기술개발 지원 정책과 규제 관련 현황을 조사해서 산업 변화를 선제적으로 대응해 나가는 정책적 방안을 모색해야 한다.다시 말해 업의 경계가 무너지는 현 상황에서 전통 업종 중심으로 추진되는 산업기술 연구개발 지원 정책의 대응 역량에 한계가 없는지를 살펴보고 변화에 효과적으로 대응할 수 있는 산업 및 기술 진흥 정책 거버넌스에 대한 고민이 필요하다. 또한 정부는 융합돼 발생하는 새로운 업종에 대한 기준과 규제에 선제적 또는 신속한 대응이 필요하고, 이를 통해 산업의 역동적 변화를 제도나 규제가 발목을 잡지 않을 수 있도록 해야 할 것이다.이규택 산업통상자원 R&amp;D 전략기획단 신산업 투자관리자(MD) gtlee@osp.go.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2022.06.29.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>비상장 주식 투자 ‘선학개미’ 6개월 만에 45% 늘어</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003205879?sid=101</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>국내외 주식 시장의 약세 속 동학 개미와 서학 개미의 비명이 커지고 있지만, 주식 시장에 아직 이름을 올리지 않은 기업의 가능성과 잠재력에 주목해 이들을 ‘먼저’ 알아보고 비상장 주식 투자에 나서는 ‘선(先)학 개미’가 늘고 있다.      비상장 주식 안전 거래 플랫폼 ‘증권플러스 비상장’에 따르면 지난해 11월 기준 90만 명이었던 회원 수가 지난 5월 130만 명으로 늘며 6개월 만에 45% 급증했다. 거래 건수도 지난해 6월 10만 건에서 지난 27일 30만4000건으로 3배 넘게 늘었다.      ‘증권플러스 비상장’ 관계자는 “MZ세대에게 익숙한 비바리퍼블리카(토스)와 야놀자, 우아한형제들 등 유망 핀테크 기업과 유니콘 기업 등도 비상장 상태”라며 “이런 기업에 투자하고 싶다는 MZ세대의 요구와 모바일 비상장 주식거래 플랫폼 등장 등이 맞물리며 시장이 커졌다”고 설명했다.      MZ세대 관심이 몰리며 비상장 주식 시장의 성장 속도도 빨라지고 있다. 금융투자협회에서 운영하는 비상장주식 거래시장 K-OTC의 연간 누적 거래대금은 지난 2018년 3월 처음으로 1조원을 돌파한 뒤 1년 6개월 만인 2019년 9월에 2조원을 넘어섰다. 이처럼 시장이 커지고 투자자도 늘고 있지만, 비상장 주식은 거래 플랫폼마다 거래 방식이 다르다. K-OTC의 경우 비상장 주식은 시장가 주문이 아닌 지정가로만 사고팔 수 있다. 사거나 팔고자 하는 정확한 주가로 주문을 내야 한다는 의미다.      예약주문도 불가능하다. 증권플러스 비상장에서는 1대1 협의 주문, 예약 주문 등 서비스를 제공한다. 상장 기업을 거래할 때 일반적으로 위탁 증거금이 40% 수준이지만 비상장 주식을 거래할 땐 위탁증거금 100%가 필요하다.　김영규 K-OTC 부장은 “투자하려는 비상장 기업이 사업보고서를 제출하는 곳이라면 금융감독원 전자공시 시스템 등으로 일부 확인할 수 있으나 이를 제출하지 않는 곳도 많다”며 “‘곧 상장한다’는 식의 ‘카더라’만 믿고 투자할 경우 큰 손실을 볼 수 있다”고 말했다.      안전 거래도 신경 써야 한다. 비상장 주식의 시중 가격을 속여 사고팔거나, 매수자에게 돈을 받고 매도자에게 전달하지 않는 사건 등이 발생할 수 있어서다. 이런 문제를 막기 위해 증권플러스 비상장은 업계 최초로 증권사 안전 거래 서비스를 연계하고, 실제 매도자가 해당 주식을 소유했는지 확인할 수 있는 ‘확인 매물’ 기능을 도입했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2022.06.22.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>토스뱅크, 1000억원대 유상증자… 자본금 총 9500억원 확보</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000822475?sid=101</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>토스뱅크는 지난 21일 이사회를 열고 1000억원 규모의 유상증자를 추진하기로 결의했다고 22일 밝혔다. 이는 이 회사 출범 이래 세 번째 유상증자로, 대출을 늘리려는 게 주 목적이다.토스뱅크에 따르면 이번 1000억원 증자로 총 2000만주를 신규 발행한다. 주당 발행가는 5000원이다. 2000만주 가운데 보통주는 1500만주, 전환주는 500만주로 발행된다. 유상증자 납입일은 이달 29일이며, 증자를 마치면 토스뱅크의 납입자본금은 총 9500억원으로 늘어난다.홍민택 토스뱅크 대표. /토스뱅크 제공        유상증자로 확보한 자본을 기반으로 대출 영업을 확대하려는 게 이 회사의 계획이다. 자본 확충이 제대로 이뤄지지 않으면 여신사업에 제약이 생긴다. 같은 취지에서 이 회사는 지난해 10월과 올해 2월에 각각 유상증자를 진행했다. 토스뱅크 관계자는 “여수신 영업을 확대할 수 있는 추가 자본금을 확보할 수 있게 됐다”면서 “이를 바탕으로 자본건전성을 강화하고 혁신적인 서비스를 선보여 은행에 대한 고객 경험을 바꿔가겠다”고 말했다.올해 1월 여신영업 재개와 함께 뚜렷한 성장세를 그리고 있다는 게 회사 측 얘기다. 토스뱅크의 개인 신용대출 상품의 중저신용자 대출 비중은 35.2%(5월말 기준)를 달성했고, 인터넷은행 3사 중에서 유일하게 30%대를 기록 중이다.토스 운영사인 비바리퍼블리카가 토스뱅크의 34.91% 지분을 보유한 최대주주다. 그 다음 하나은행(10%), 한화투자증권(10%), 이랜드월드(10%), 중소기업중앙회(9.99%), SC제일은행(7.91%), 알토스벤처스(5.33%), 굿워터캐피탈(3.61%), 웰컴저축은행(3.24%), 한국전자인증(2.59%), 웰컴캐피탈(1.76%), 리빗캐피탈(0.66%) 등이 주주로 참여해 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2022.06.19.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>강달러·엔저에 바빠진 '환테크족'…환전수수료 아끼려면</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004713289?sid=101</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>짠테크 &amp; 핀테크은행 간편 환전서비스국민銀 '외화머니박스'신한銀 '쏠편한환전' 등달러 90% 우대환율토스는 1인 1회에 한해달러·엔·유로 환전할때환율우대 100% 적용여름 해외여행 때 추천원·달러 환율은 치솟고 반대로 원·엔 환율은 떨어지면서 환차익을 노리는 ‘환테크족’의 움직임도 빨라지고 있다. 환테크는 환율 변동폭이 클 때 단기 차익을 기대할 수 있고 세금이 붙지 않는다는 장점이 있지만, 살 때와 팔 때의 환율이 다른 탓에 이 갭에 해당하는 만큼의 수수료를 내야 한다는 단점이 있다. 그래서 환테크 수익을 극대화하려면 외화를 사고팔 때 발생하는 환전수수료를 최대한 아끼는 게 중요하다. 이런 관점에서 시중은행들이 최근 앞다퉈 출시하고 있는 간편 환전 서비스를 눈여겨볼 만하다.국민은행은 ‘외화머니박스’, 신한은행은 ‘쏠편한환전’, 하나은행은 ‘환전지갑’, 우리은행은 ‘환전주머니’란 이름으로 간편 환전 서비스를 선보이고 있다. 대부분 달러는 90%, 엔화와 유로 등은 80% 우대환율을 적용한다. 이 같은 간편 환전 서비스는 전신환매도율이 적용되는 외화예금과 달리 ‘현찰 살 때’ 환율이 적용된다. 외화예금에 적용되는 전신환매도율은 일반적으로 현찰을 살 때 환율보다 낮아 유리하지만, 80% 이상 우대환율이 적용되면 얘기가 달라진다.100엔당 기준환율 961원을 가정해 국민은행 외화머니박스와 일반 외화정기예금 계좌를 비교해보자. 외화머니박스는 현찰을 살 때 환율에 우대환율 80%가 적용돼 100엔당 966.44원이다. 반면 외화정기예금은 100엔당 969.69원으로 3원가량 비싸다. 간편환전 서비스가 주로 해외여행자를 겨냥해 출시된 만큼 환율이 낮을 때 미리 온라인으로 환전해두고 출국 전 현찰로 찾을 수 있다는 장점도 있다.다만 큰 액수의 외화를 안전자산으로 장기간 보유할 계획이라면 이자가 붙는 외화정기예금이 더 유리할 수 있다. 이 경우 간편 환전을 통해 환전한 돈을 외화예금 상품에 넣어둘 수도 있다. 현재 1년 만기 달러 예금 기준 5대 은행의 외화정기예금 금리는 연 1~2% 수준이다. 단 외화예금에 돈을 넣은 뒤 현찰로 인출할 때는 약 1~1.5%의 수수료가 발생할 수 있다는 점에 유의해야 한다.각 은행과 핀테크 업체는 환테크족을 겨냥한 이벤트도 속속 내놓고 있다. 국민은행은 다음달 29일까지 ‘KB 투테크 외화정기예금’에 신규 가입하면 100% 우대환율을 적용해준다. 이 상품은 매일 고시되는 첫 번째 환율이 가입할 때 지정해둔 목표환율을 넘어가면 자동 해지된다. 단 달러만 가입할 수 있다.토스는 달러, 엔, 유로 등 3대 통화를 환전할 때 1인 1회에 한해 환율우대 100%를 적용해주고 있다. 1일 최대 100만원까지밖에 안 되기 때문에 올여름 해외여행을 간다면 여행 경비 정도를 환전하기에 좋다. 토스를 비롯해 카카오페이와 페이코 등 많은 핀테크 앱은 하나은행과 제휴해 환전 서비스를 제공하는데, 하나은행과 마찬가지로 모두 달러는 90%, 엔·유로는 80% 우대환율을 적용한다. 신한은행 ‘외화체인지업 예금’은 신규 가입자를 대상으로 KT 로밍에그 1일 무료쿠폰과 롯데면세점 제휴머니 등을 지급하는 이벤트를 하고 있다.송영찬 기자‘송영찬의 짠코노미’의 풀 영상은 매주 월요일 오후 6시 유튜브 채널 주코노미TV에서 공개됩니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2022.06.22.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>대출 가뭄에 목마른 인뱅 3사 "금리 깎아드려요"</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004761843?sid=101</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>인터넷전문은행 가계대출 잔액 추이/그래픽=김현정 디자인기자가계대출 시장이 녹록지 않지만 고객과 여신 규모를 늘려야 하는 인터넷전문은행은 대출자산 확대에 주력하고 있다. 시중은행 금리 인상에 놀란 고객에 '금리 할인'을 해주는 식으로 유인에 나선다. 22일 은행권에 따르면 인터넷전문은행 후발주자인 토스뱅크는 한국씨티은행의 신용대출 대환 제휴은행으로 선정됐다. 한국씨티은행이 국내에서 소매금융을 철수하는 데 따른 조치다. 한국씨티은행이 보유한 신용대출 규모가 8조원 이상이라 토스뱅크가 대출자산을 늘리는 데 큰 역할을 할 것으로 전망된다. 이번 대환은 0.3%포인트가량 금리를 깎아주는 데다 총부채원리금상환비율(DSR) 등 가계대출 규제에서도 자유로워 고객이 몰릴 것으로 보인다. 토스뱅크는 대환 제휴은행으로 선정되기 위해 비대면 대환이 용이한 시스템을 구축하는 등 일찍부터 공을 들였다. 대출 고객을 늘려야 이익 방어가 가능해서다. 지난해 10월 출범한 토스뱅크는 '2% 금리 통장' 등으로 수신 고객을 단숨에 끌어모았지만 가계대출 규제에 막혀 대출 영업은 포기해야 했다.  그러다보니 수신, 여신 잔액이 큰 차이를 보인다. 1분기 말 기준으로 수신 잔액은 21조원이나 여신 잔액은 2조5900억원에 불과했다. 다른 인터넷전문은행도 대출자산 확대에 힘쓴다. 케이뱅크는 은행권에서 금리 인하에 가장 적극적으로 나서고 있다. 케이뱅크는 신용대출에 이어 아파트담보대출, 전세자금대출 금리를 전날부터 최대 0.41%포인트 낮췄다. 아파트담보대출 금리 범위는 3~5%대, 전세대출의 경우 2~4%대로 타행 대비 낮은 편이다. 신용대출 금리도 1등급의 경우 3%대로 은행권 최저 수준이다. 케이뱅크도  여신 규모를 늘릴 필요가 크다. 1분기 말 기준 여신 잔액은 7조8100억원, 수신 잔액은 11조5400억원으로 나타났다. 수신은 가상자산 거래소 업비트 제휴 효과를 톡톡히 봤지만 여신은 그에 미치지 못해서다. 카카오뱅크는 한동안 중단했던 고신용자 대출을 부활시켰다. 가계대출 총량 규제를 받은 데다 중저신용자 대출 비중을 늘려야 하는 과제 때문에 지난해 10월부터 한시적으로 중단했는데 지난 14일 재개했다. 최저금리는 3%대 초반으로 저렴한 편이다. 아울러 인터넷전문은행은 대출 신상품에 영업력을 집중한다. 고객을 유입할 기회여서다. 카카오뱅크는 지난 2월 처음으로 내놓은 주택담보대출을 성장시키고자 최근 대상을 늘리고 금리를 낮췄다. 수도권에서만 가능했지만 이달부터 5대 광역시와 세종·창원시로 확대했다. 금리는 1조원 한도에서 최대 0.5%포인트 인하했다. 인터넷전문은행 관계자는 "인터넷전문은행은 대출 포트폴리오를 이제 막 다양화하면서 성장을 꾀할 시기여서 시중은행과 상황이 다르다"며 "오프라인 점포가 따로 없어 아낄 수 있는 비용을 고객에 돌려준다면 금리 인하 등이 가능하다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2022.06.22.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>씨티은행 신용대출 고객, 국민銀·토뱅으로 '환승'</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004981466?sid=101</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>총 8조원에 달하는 한국씨티은행 신용대출 대환 제휴 은행으로 KB국민은행과 토스뱅크가 선정됐다. 이들 은행으로 신용대출을 옮기는 고객은 금리 혜택을 받을 수 있다.KB국민은행은 한국씨티은행과 '개인신용대출 대환 제휴 협약'을 체결했다고 22일 밝혔다. 한국씨티은행이 소비자금융 업무를 단계적으로 폐지하면서 개인신용대출을 다른 은행으로 이관하는 조치다. 한국씨티은행 개인신용대출 이용 고객은 '차주별 총부채원리금상환비율(DSR)' 및 '연 소득 100% 이내 대출 한도 제한'과 관계없이 기존 신용대출 잔액 범위에서 전환할 수 있다.KB국민은행은 고객의 금융 비용 부담을 완화하기 위해 금융 지원도 한다. 대환 전 대출금리 대비 최대 0.4%포인트 우대금리를 지원한다. 'Welcome 우대금리'(0.2%포인트)는 별도 조건 없이 일괄 적용되며, KB국민은행 자체 신용평가 결과 6등급 이내 고객에게는 우대금리가 최대 0.2%포인트 추가 적용된다. 대환 시 발생하는 인지세는 은행이 전액 부담한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2022.06.23.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>토스 운영 비바리퍼블리카, 초록우산어린이재단과 업무협약</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013265139?sid=102</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>'토스 운영사' 비바리퍼블리카, 초록우산어린이재단과 업무협약[비바리퍼블리카 제공. 재판매 및 DB 금지]    (서울=연합뉴스) 오규진 기자 = 모바일 금융플랫폼 '토스'를 운영하는 비바리퍼블리카는 초록우산어린이재단과 업무협약(MOU)을 체결했다고 23일 밝혔다.    비바리퍼블리카에 따르면 핀테크 회사가 비정부기구(NGO)와 업무협약을 맺은 것은 이번이 처음이다.    비바리퍼블리카는 머니알림, 브랜드 캐시백 등 MZ세대 이용 빈도가 높은 서비스 영역에 초록우산어린이재단 활동을 소개할 예정이다.    초록우산 어린이재단은 토스의 간편결제 서비스인 '토스페이'를 재단 홈페이지 등에 연동할 계획이다.    이승건 비바리퍼블리카 대표는 "이번 협약이 어린이·청소년에 대한 사회적 관심을 촉진하는 데 이바지할 수 있길 바란다"고 말했다.    이제훈 초록우산어린이재단 회장은 "이번 업무협약이 미래형 아동복지 서비스 모델을 만드는 데 큰 도움이 될 것으로 기대한다"고 덧붙였다.     acdc@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2022.06.16.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>[데이바이데이] 얇아지는 지갑… '짠테크족' 될까</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/656/0000015895?sid=102</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>♣고물가 시대 짠돌이 재테크13년 9개월 만에 물가 상승률 최고치에 짠테크족 증가소액적금 상품부터 편의점 구독.라스트오더 서비스 등[그래픽=게티이미지뱅크]대전 중구에 사는 20대 직장인 김모 씨는 최근 짠테크(짠돌이+재테크)에 빠져 있다. 경제지표뿐 아니라 체감상으로도 물가 상승 폭이 너무 큰 탓에 지갑 사정이 나날이 안 좋아져서다. 여기저기 투자를 하고 싶어도 여윳돈은 없으니 소액이라도 모으는 잔돈 재테크에 눈길을 돌린 셈이다. 김 씨는 "요즘 돈 쓰는 것도 무섭고 투자할 돈도 넉넉지 않은 만큼 소액 재테크에 집중하고 있다"며 "아무 것도 안 하는 것보다 적은 돈이라도 차곡차곡 모이면 조금은 힘이 나지 않을까 싶어 짠테크에 대해 이것저것 공부 중"이라고 말했다. 16일 통계청에 따르면 지난달 소비자물가는 1년 전보다 5.4%나 치솟았다. 이는 2008년 5월(5.6%) 이후 13년 9개월 만에 최고치다. 지난해 1월 0.9%에 불과했던 소비자물가 상승률이 1년 6개월여 만에 5%대까지 돌파한 것이다. 이처럼 물가 오름세가 심상치 않은 만큼 김 씨처럼 짠테크에 관심을 두는 소비자들이 많아지고 있다. 소액 적금, 편의점 구독서비스와 마감 할인 서비스 등 종류도 다양하다. 금융권에선 이 같은 짠테크족을 겨냥해 소액적금 상품을 속속 내놓고 있다. 인터넷전문은행 중에서도 카카오뱅크의 '26주 적금'이 대표적인 관련 상품이라 할 수 있다. 26주 적금은 최초 가입 금액 만큼 매주 증액해 자동이체하는 적금 상품이다. 가입 금액은 1000원, 2000원, 3000원, 5000원, 1만 원 중 하나를 선택할 수 있다. 첫 금액으로 1000원을 선택하면 2주차 2000원, 3주차 3000원 등으로 늘려가며 마지막 26주 차에는 2만 6000원을 내는 식이다. 케이뱅크의 자동 목돈 모으기 상품인 '챌린지박스'도 있다. 챌린지박스는 20일 이상 200일 이하 중 원하는 짧은 기간에 500만 원 이내 목표 금액을 설정하면 매주 모아야 되는 돈이 자동으로 계산돼 이체된다. 기본금리는 연 1.5%로 복잡한 조건 없이 목표일까지 목표액을 유지하면 인상된 우대금리 연 1.0%가 적용돼 최고 연 2.5%의 금리를 받을 수 있다. 이 상품은 지난해 12월 출시 후 10만 계좌를 돌파했다. 모바일 금융 플랫폼 토스는 만보기 서비스를 통해 짠테크족 수요 흡수에 나섰다. 토스 만보기는 사용자 휴대폰에서 측정된 걸음 수와 위치 정보를 통해 걷기 보상 혜택을 주는 서비스다. 걷기 미션과 방문 미션 등을 통해 하루 최대 140원의 토스포인트를 수령할 수 있다. 토스가 지정한 특정 장소에 사용자가 방문할 경우 한 곳당 20원, 하루 최대 100원 상당의 토스포인트를 지급하며 제휴사 일부 매장에서 즉시 사용 가능한 결제 쿠폰을 제공하기도 한다. 편의점 구독 서비스부터 소액 할인도 수요가 늘고 있다. BGF리테일은 편의점CU에서 사용할 수 있는 'CU 구독 쿠폰 서비스'를 운영 중이다. 해당 서비스는 월 구독료를 내고 평소 자주 이용하는 품목을 정하면 한 달 내내 해당 품목을 할인해주는 서비스다. GS25도 구독경제서비스 '더팝플러스'를 출시, 월 2500원을 지불하면 원두커피 전 메뉴를 매달 60잔 이내 25% 할인해 구매할 수 있는 서비스를 이어가고 있다. 유통기한 마감 할인 판매 서비스인 라스트오더도 있다. 현재 편의점CU, 세븐일레븐, 이마트24 등 주요 편의점 업체들이 라스트오더 서비스를 시행 중이다. 라스트오더는 매장에서 할인 상품을 앱에 등록하면 구매를 원하는 고객이 앱에서 수령 시간을 정하고 결제 후 직접 찾아가면 된다. 소비자들은 라스트오더를 통해 상품을 보다 저렴하게 사고 가맹점주는 유통기한을 넘겨 폐기해야 하는 상품을 줄일 수 있다는 점이 장점이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2022.06.22.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>토스뱅크, 1000억 원 규모 유상증자 결의</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002127013?sid=105</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이상일기자] 토스뱅크(대표이사 홍민택)는 21일 이사회를 열고 1000억 원 규모의 유상증자를 추진하기로 결의했다. 올해 2월 두 번째 유상증자 이후 4개월 만에 진행됐으며, 출범 후 지금까지 총 세 차례에 걸쳐 7000억원의 자본을 추가 확보했다.이번 1000억 원 증자를 통해 총 2000만 주가 신규 발행되며 주당 발행가는 5000원이다. 2000만 주 가운데 보통주는 1500만 주, 전환주는 500만 주로 발행된다. 유상증자 납입일은 6월 29일이며, 증자를 마치면 토스뱅크의 납입자본금은 총 9500억원으로 늘어난다. 토스뱅크는 올해 1월 여신영업 재개와 함께 뚜렷한 성장세를 보이고 있다. 개인 신용대출 상품의 중저신용자 대출 비중은 35.2%(5월말 기준)를 달성했으며, 인터넷은행 3사 중에서 유일하게 30%대를 기록하고 있다. 인터넷은행 설립 본연의 취지인 중저신용고객의 포용금융에 가장 집중하고 있다는 평가를 받고 있다. 토스뱅크 관계자는 “주주사의 적극적인 지원으로 여수신 영업을 확대할 수 있는 추가 자본금을 확보할 수 있게 됐다”며, “이를 바탕으로 자본건전성을 강화하고 혁신적인 서비스를 선보여 은행에 대한 고객 경험을 바꾸어 나갈 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2022.06.23.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>토스, 초록우산어린이재단과 맞손…"MZ세대 기부 활동 촉진"</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000680813?sid=101</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>핀테크사와 NGO 업무협약 첫 사례토스가 초록우산 어린이재단과 업무 협약을 체결했다고 23일 밝혔다.23일 업무협약식에서 이제훈 초록우산어린이재단 회장(왼쪽) 이승건 토스 대표(오른쪽)가 기념촬영을 하고 있다. [사진=토스]이번 협약은 초록우산 어린이재단과 함께 MZ세대의 기부 활동을 촉진하고 다양한 서비스를 선보이기 위해 마련되었다. 핀테크사와 비정부기구(NGO)가 업무협약을 체결한 건 이번이 처음이다.협약을 통해 양측은 ▲사회적 가치를 실현하기 위해 상호 추진하는 사업 분야·서비스 협력 ▲각 기관의 디지털 플랫폼 서비스 확대를 위한 협력·상호 지원 등을 진행한다.이에 따라 토스는 머니알림, 브랜드 캐시백 등 MZ세대의 이용 빈도가 높은 '혜택' 서비스 영역에 초록우산 어린이재단의 활동을 소개하고, 재단은 운영 결과를 토대로 아동복지 서비스를 고도화할 계획이다. 또 보다 쉽고 편리한 정기 기부 활성화를 위해 토스의 간편결제 서비스인 '토스페이'가 재단 홈페이지 등에 연동될 예정이다.이승건 토스 대표는 "토스는 어린이·청소년을 위한 금융 활동을 지원하기 위해 토스 유스 서비스를 운영하는 등 다양한 노력을 지속해 오고 있다"며 "이번 협약이 어린이와 청소년에 대한 사회적 관심을 촉진하는데 기여할 수 있기를 바란다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2022.06.28.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>'명함 3억 장' 입력한 리멤버가 채용 시장 뛰어든 이유 [긱스]</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004717485?sid=101</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>이 기사는 프리미엄 스타트업 미디어 플랫폼 한경 긱스에 게재된 기사입니다.명함 관리 앱의 대명사 '리멤버'(회사명 드라마앤컴퍼니)는 2014년 서비스를 시작한 이래 지금까지 누적 3억 장 이상의 명함을 입력했다. 지상에서 쌓아 올리면 30㎞ 이상 되는 높이라고 한다. 리멤버는 직장인 프로필 정보를 바탕으로 최근 사업 다각화에 나서고 있다. 경력직 채용을 도와주는 '리멤버 채용 솔루션' 사업을 적극적으로 키우고 있고, 각 분야의 전문가들을 연결해 주는 서비스도 강화하고 있다. 한경 긱스(Geeks)가 최재호 드라마앤컴퍼니 대표와의 인터뷰를 통해 리멤버의 '변신'을 살펴봤다. 최재호 드라마앤컴퍼니(리멤버) 대표가 '리멤버 스카웃' 서비스를 소개하고 있다. 고은이 기자"요즘 리멤버 광고가 이곳저곳에 꽤 나오더라고요. 경력직 채용 서비스에 대한 광고던데 이 사업을 집중적으로 키우시려는 건가요?"기자의 질문에 최재호 드라마앤컴퍼니(리멤버) 대표가 설명을 시작했다. "저희가 개인 이용자들 데이터로 열심히 기반 만들어 놨고, 이제는 기업 대상으로 돈 버는 것을 지향하고 있거든요. 과거에 이용자들 모으는 핵심 도구가 저희 명함 관리 서비스였고, 지금 가장 중요하다고 보고 있는 것은 이용자들이 프로필 등록하게 만들어 그게 자연스럽게 채용 솔루션으로 맞물려 가게 하는 것입니다."최 대표는 이미 리멤버에 자신의 프로필을 등록한 이용자가 100만 명 이상이라고 설명했다. 기업들이 리멤버 채용 솔루션을 이용하면 국내 직장인 100만 명의 프로필 정보를 살펴볼 수 있게 된 셈이다. "저희 채용 솔루션을 이용하면 프로필을 등록한 사람에게 메시지도 보낼 수도 있죠. 물론 같은 회사에서는 열람할 수 없게 해놨습니다." 예컨대 삼성전자 인사팀은 이직을 시도하는 삼성전자 직원 정보를 열람할 수 없다는 뜻이다. 또 이용자가 전 직장 등 정보를 공개하고 싶지 않은 회사를 선택해 정보를 막아놓을 수도 있다고 한다.최 대표가 서비스를 시연해 보였다. "자, 보세요. 이렇게 '마케팅'이라고 검색하면 마케팅 하시는 분들 6만 명 정도가 나오는 거예요. 지금은 뭘 하고 있고, 과거엔 어떤 직장 다녔고, 본인들이 등록해 놓은 정보가 다 나오죠. 요즘 개발자 채용에 힘쓰는 스타트업들도 많이 이용해요. 좀 큰 회사들은 계정을 수십 개씩 사서 경력직 채용에 적극적으로 나서기도 하죠." 기업들이 이용하는 계정 하나당 연 500만원 정도의 비용을 받고 있다고 한다. 리멤버는 그동안 제대로 된 수익 모델이 없다는 지적을 받아왔지만, 채용 시장에서 돈 버는 구조를 만들어가고 있다는 게 최 대표의 설명이다. 올해부터 본격적으로 리멤버 채용 솔루션에서 매출이 크게 늘어날 것으로 회사 측은 기대하고 있다. 채용 시장이 뜨거워지면서 사업도 커지고 있고, 지금이 기회라고 생각해서 광고 캠페인도 강화하고 있다고 한다. 리멤버 스카웃 광고_침실편. 드라마앤컴퍼니 제공(리멤버 광고는 경력직 채용 제안이 온 것을 확인하는 순간, 환희를 상징하는 컬러 가루가 폭발하고, 가루를 뒤집어쓴 주인공들이 ‘스카웃 받는 것만큼 짜릿한 건 없어’라는 내레이션과 함께 기쁨의 댄스를 추는 장면을 보여준다.)리멤버에 따르면 누적 경력 채용 제안 건수는 200만 건을 넘었다. 기업에서 가장 수요가 많은 ‘5~8년 차’ 인재 한 명이 리멤버를 통해 받는 평균 스카우트 제안 건수는 약 12건에 이르는 것으로 조사됐다. 평균을 훨씬 상회하는 기록도 있다. 역대 최다 스카우트 제안을 받은 인재는 인사담당자 또는 헤드헌터로부터 총 600건 이상의 러브콜을 받기도 했다고 한다.  맞춤형 '배너 광고' 사업도 강화리멤버는 요즘 '배너 광고' 사업에도 힘쓰고 있다. 최 대표는 "광고 트래픽이 높아서라기보다는 타깃에 맞춘 광고를 잘할 수 있는 게 리멤버의 최대 강점"이라며 "비즈니스 프로필에 맞춤형 광고가 가능하기 때문"이라고 설명했다. 예컨대 사무용 가구를 판매하는 퍼시스가 총무 담당자들에 맞춤형으로 광고를 한다든지, 고객관계관리(CRM) 전사적자원관리(ERP) 서비스로 유명한 세일즈포스가 관련 영업팀 상대로 맞춤형 광고를 하는 식이다."토스(비바리퍼블리카)도 저희 채용 솔루션을 쓰고 있기도 하지만 개발자 컨퍼런스 광고 등도 하고 있죠. 아마존웹서비스(AWS) 같은 곳도 최고기술책임자(CTO) 등을 대상으로 광고를 할 수도 있겠죠. 그 회사가 아마존 서비스 하나를 도입한다면 버는 돈이 몇백만 원 수준이 아니겠죠. 그런 사람을 타게팅해서 광고하려면 우리 서비스를 이용할 수밖에 없는 거죠."창업 초기 '세바시' 행사에서 발표 중인 최재호 대표. 드라마앤컴퍼니 제공최 대표는 채용 솔루션과 광고 매출 비중은 2 대 1 정도라고 설명했다.리멤버는 전문가들을 연결해 주는 서비스도 시작했다. 최근 전문가 네트워크 서비스 기업인 이안손앤컴퍼니를 인수한 이유이기도 하다. 이안손앤컴퍼니는 기업에서 시장조사, 벤치마킹, 기업실사 등을 위해 필요한 전문가를 연결해주는 플랫폼이다. 3만여 명의 산업별 전문가 정보를 보유하고 있다. 다수의 글로벌 파트너십을 활용해 국내외 기업 고객을 대상으로 전문가 자문 연결, 인터뷰 대행 등을 해준다."리멤버 안에서 기업들은 이제 이런 서비스를 할 수 있는 거죠. 누구는 인재를 채용하는 공간으로, 누구는 내 제품을 사줄 고객을 찾는 공간으로, 누구는 또 인사이트를 가진 전문가를 연결하는 공간으로 이용하는 겁니다. 그 앵글로 저희가 지금 수익화하고 있는 거고, 각각 하나씩 이제 만들어 나가는 분야인데 잘 크고 있습니다."  네이버 품 벗어나 다시 '스타트업' 정신으로 무장리멤버는 지난해 1600억원 규모의 시리즈D 투자를 받으면서 네이버에서 독립했다. 시리즈D 투자에는 사모펀드 아크앤파트너스와 인력관리업체 사람인HR 등이 참여했다. 리멤버의 최대 주주는 아크앤파트너스로 바뀌었고, 기존 주주인 라인플러스는 2대 주주, 사람인HR은 3대 주주가 됐다. 네이버는 지분 매각을 통해 빠졌다.네이버가 리멤버 지분을 팔게 된 과정이 궁금했다. 최 대표는 "라인플러스는 여전히 남아 있다"며 "우리는 항상 성장을 더욱 가속할 수 있는 좋은 파트너들이 있으면 함께한다는 관점을 갖고 있다"고 말했다. "지금 단계에서 돈의 힘으로 시간을 좀 살 수 있는 플레이가 필요하다고 생각했거든요. 지금은 자금을 많이 유치해서 더 공격적으로 속도를 낼 때다. 시장의 '파이'를 빨리 키우기 위해서는 가속화가 중요하다는 생각이 있었죠. 일본 등 해외 사업도 강화할 계획입니다."최재호 드라마앤컴퍼니(리멤버) 대표가 인터뷰 중 활짝 웃고 있다. 고은이 기자리멤버는 일본에서도 명함 관리 서비스를 내놔 100만 명의 가입자를 확보했다. 등록된 명함 데이터만 1억 장이 넘어가면서 빠른 속도로 이용자가 늘고 있다. 개인들의 프로필을 공개해 인재 채용 등에 활용하는 서비스도 시험 중이다. 매일 뉴스를 전하며 전문가들이 멘트를 달아주는 '리멤버 나우'라는 서비스를 하는 이유는 무엇일까. "뉴스를 아침마다 공급하는 이유는 사람들이 리멤버 안에서 활동을 좀 더 많이 할 수 있게 하기 위한 것입니다. 우리 앱에 좀 더 자주 오게 만드는 거죠. 그리고 오래 머물게 하겠다는 생각으로 지금 하고 있고요. 리멤버 나우는 돈 버는 목적이 아예 없어요. 전문가들의 인사이트를 보여줄 수 있는 서비스로 자리를 잡은 거 같습니다."  '아날로그' 역발상으로 성공한 리멤버리멤버는 디지털 시대에 '아날로그' 역발상으로 성공한 스타트업이다. 과거 명함 하나하나를 모두 사람이 손으로 타이핑해서 입력해줬다. 사진 판독 등을 통해 자동으로 입력하는 방식은 오류가 많았기 때문이다."저희가 당시 조사를 해봤어요. 명함 앱을 안 쓰는 이유가 뭘까. 대부분의 사람이 처음에는 내려받아서 써보는데, 오류가 많아 그걸 다시 일일이 고쳐야 했어요. 더 귀찮은 거죠. 그래서 우리는 '명함 관리 비서'가 돼야겠다고 생각했죠. 기업 사장님들은 비서가 다 입력해주잖아요. 우리가 그런 비서 역할을 하면 되겠다고 생각했죠."창업 초기 명함을 입력해달라고 고객들이 보낸 박스들. 드라마앤컴퍼니 제공명함 수와 관계없이 모두 무료로 입력해 주겠다고 하자 한 500장씩 보내는 사람들도 많아졌다고 한다. "어떤 분은 사과박스 두 박스를 직접 가져오신 분도 있었어요. 갑자기 저희에게 내려오라고 하시는 거예요. 그래서 무슨 일인가 갔더니 자동차 트렁크를 열더니 여기 사과박스에 명함 만 장 있다고 하더라고요. 그래, 뭐 우리도 어디까지 할 수 있는지 해보자 했죠. 만 장을 넣어 드리고, 앱에서 만 장까지 감당되는지도 확인했죠. 그런 테스트 정신으로 했던 거 같아요."심지어는 명함 속 책자 그대로 보내는 사람들도 있었다고 한다. 그러면 그걸 일일이 다 빼서 입력하고, 그대로 다시 다 넣어서 돌려줬다고 한다. "고객님에게 전화해서 '이거 안 꽂고 그냥 드려도 되죠'라고 물어봤죠. 그랬더니 '혹시 꽂아줄 수 있느냐'고 하시는 거예요. 그래, 한번 해보자, 뭐 이런 맘이었습니다. 한 5년 정도는 정말 그렇게 했죠. 저희에게 고맙다는 맘을 전하는 고객들도 많았습니다."창업 초기 명함 수기 입력에 대한 고객들의 감사 편지들. 드라마앤컴퍼니 제공이런 오프라인 서비스는 이제 더 이상 운영하진 않는다. 2년여 전쯤부터는 명함 입력을 온라인 입력 방식만으로 운영하고 있다고 했다. 최근에는 이미 쌓인 데이터가 많아 자동으로 입력되는 게 95% 이상이라고 한다. 과거 입력했던 것과 똑같은 명함이라고 인식되면 다시 사람이 확인할 필요가 없기 때문이다. 최근 리멤버의 명함 입력 속도가 매우 빨라진 것도 이 같은 이유에서다.개인 정보를 관리하는 업체인 만큼 명함 입력 방식도 한 사람이 모든 것을 입력하지 않고, 쪼개서 입력하도록 하고 있다. 예컨대 이름은 A가, 전화번호는 B가, 이메일 주소 앞부분과 뒷부분은 C와 D가 입력하게 하는 방식이다. 그러면 어떤 사람 정보인지 알 수 없기 때문에 장난을 친다거나 개인정보가 유출될 염려가 줄어든다.리멤버는 궁극적으로는 처음 입력하는 명함도 자동 입력 시스템으로 구현하려 하고 있다. 하지만 명함 사진이 흐릴 경우 컴퓨터가 자동으로 처리하기에는 쉽지 않다고 한다. 명함 관리에서 새로운 분야로 사업을 다각화하는 리멤버가 추가로 고려하는 인수합병(M&amp;A)은 없을까. 최 대표에게 마지막 질문을 던져봤다. 그는 "현재 서비스를 주력으로 하면서 앞으로 인적자원(HR) 솔루션을 개발하는 회사를 인수할 수도 있을 것"이라고 했다.[영상] 리멤버가 고객에게 제공하는 가치는 무엇이라고 생각하십니까?참, 한가지 더최재호 대표는 누구?최재호 드라마앤컴퍼니 대표는 대학(KAIST 전자공학과) 시절 서울 동대문에서 넥타이, 와이셔츠 등의 물건을 가져다 파는 일을 2년가량 했다고 한다. 이후 외국계 컨설팅 회사에서 사회생활을 시작했다. 딜로이트컨설팅과 보스턴컨설팅그룹(BCG) 등에서 6년가량 지낸 뒤 창업을 결심했다. 최재호 대표 보스턴컨설팅그룹(BCG) 컨설턴트로 근무하던 시절 사진. 드라마앤컴퍼니 제공최 대표는 "컨설팅이란 업무가 기업 최고경영자(CEO)들의 어젠다를 같이 고민하고, 의견을 나누는 것이다 보니 뭔가 새로운 사업을 만들어내는 고민도 같이하게 됐다"고 했다. 그러다 '남들에게 조언만 하지 말고 나도 뭔가 내 걸 만들어 볼까'라는 생각이 창업으로 이어졌다고 한다. 그는 "컨설팅 업무가 경영자적 마인드를 갖는 데도 도움이 됐다"고 말했다. 최 대표가 컨설팅 회사를 나와 드라마앤컴퍼니를 세운 것은 2013년 6월이다.사업에 대해 아무것도 모르는 상태였지만 창업 2개월 만인 2013년 8월 ‘프로필 미’라는 모바일 명함 서비스를 선보였다. 명함을 전자화한 형태였지만 인기를 끌지 못했고, 지금의 리멤버 서비스를 2014년 1월에 내놨다. 처음에 시장 반응은 그리 좋지 못했다고 한다. 하지만 사람이 직접 입력해 주는 방식이 '신선하다'는 입소문이 퍼지면서 사용자가 대폭 늘어나기 시작했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2022.06.30.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>[최민규의 야구라는 프리즘]야구에는 '희생주루'도 있다</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005110980?sid=110</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>세인트루이스 vs 피츠버그 평범한 포스아웃 상황서 전력질주전례 없던 고먼 주루에 홈 밟은 몰리나 득점 인정美야구 통계분석기법 발달로 확률 높은 쪽으로 선택공식 이름 없어 기록상으론 '야수선택으로 인한 2루 진루'미국 메이저리그에서 전에 없었던 주루가 나왔다. 지난 15일(한국시간) 부시스타디움에서 열린 홈 팀 세인트루이스 카디널스와 피츠버그 파이어리츠의 더블헤더 1차전에서다. 세인트루이스는 3회말 폴 골드슈미트의 투런 홈런으로 2-0 리드를 잡았다. 선수들은 4회말 상대 실책 두 개와 볼넷으로 2사 만루 추가 득점 기회를 잡았다. 놀란 고먼과 에드문도 소사, 야디에르 몰리나가 각각 1루와 2루, 3루에서 뛸 준비를 했다.타석에 들어선 골드슈미트는 피츠버그 유격수 디에고 카스티요 앞으로 평범한 땅볼 타구를 날렸다. 카스티요는 공을 잡아채 왼손으로 2루를 밟고 있던 대만 출신 2루수 장위청에게 느리게 던졌다. 평범한 포스아웃 상황. 1루 주자는 슬라이딩으로 2루를 파고드는 게 야구 상식이다. 하지만 스물두 살 루키 고먼은 전력 질주했다. 카스티요의 토스가 느렸던 탓에 판정은 세이프.슬라이딩하지 않은 고먼은 2루에서 멈출 수가 없었다. 무리해서 정지하면 자칫 부상할 수 있다. 당황한 장위청은 침착하게 고먼을 3루 쪽으로 몰았다. 3루에 있던 소사는 고먼이 달려와 홈으로 향할 수밖에 없었다. 장위청이 포수 제이슨 딜레이에게 송구하자 길이 막힌 소사는 3루에 헤드퍼스트 슬라이딩으로 귀루했다. 그러자 고먼이 협살에 걸렸고, 소사는 이 틈을 타서 다시 홈으로 내달렸다. 공을 쥐고 고먼을 3루 쪽으로 몰던 카스티요는 다시 홈으로 송구했고, 딜레이가 소사를 태그아웃해 이닝은 종료됐다.혼잡한 런다운 플레이만 보면 세인트루이스의 실패로 보인다. 하지만 더그아웃으로 들어가는 주자들의 표정은 밟았다. 소기의 목적을 달성했기 때문이다. 고먼은 매우 영리하게 플레이했다. 골드슈미트의 땅볼 타구 때 2루에 슬라이딩했다면 아웃을 당할 확률이 높았다. 슬라이딩은 주루 속도를 떨어뜨린다. 토스를 한 카스티요는 아웃 타이밍을 확신했을 것이다. 2루에서 포스아웃이 일어나면 3루 주자 몰리나는 아웃 전에 홈을 밟더라도 야구 규칙에 따라 득점에 실패한다.고먼은 거포 유망주다. 주력이 대단하지 않다. 2루가 가까워지는 시점에서 선택지는 두 가지였다. 첫 번째는 슬라이딩. 세이프되면 몰리나의 득점이 인정되고 2사 만루 기회가 이어진다. 아웃이 되면 득점 없이 이닝이 끝난다. 두 번째는 전력 질주. 세이프 확률은 조금이라도 높아진다. 대신 2루에서 멈출 수가 없다. 상대 실수가 나오지 않는 이상 오버런으로 아웃이 될 가능성이 커진다. 고먼은 ‘전부 아니면 전무’인 슬라이딩보다 한 점이라도 낼 확률이 높은 전력 질주를 택했다. 세이프 판정과 함께 몰리나의 득점이 인정돼 그의 판단은 보답을 받았다.경기 상황도 대량 득점보다는 한 점이 필요했다. 마운드에서 루키 왼손 선발투수 매튜 리버라토리가 호투하고 있었다. 피츠버그는 타선이 약한 팀이라 2점과 3점의 리드 차이는 크다. 상대 선발투수 JT 브루베이커도 주무기 슬라이더를 앞세워 호투하고 있었다. 최근 메이저리그는 투고타저 환경이다. 두 팀이 속한 내셔널리그는 올해 지명타자제도를 도입했다. 그러나 평균자책점은 지난해 4.21에서 올해 4.16으로 떨어졌다. 몰리나의 득점으로 세인트루이스의 승리확률은 58.9%에서 64.1%로 올랐다. 끝까지 우세를 이어가 3-1로 이겼다.이 플레이를 영상으로 확인한 전준호 롯데 2군 주루 코치는 "내 경험으론 한국 프로야구에서 한 번도 없었던 플레이다. 예외 없이 저 상황에서 1루 주자는 슬라이딩을 한다"고 밝혔다. 그는 "정상적으로 슬라이딩을 했다면 아웃 타이밍으로 봤다. 팀에 한 점을 벌어준 스마트한 플레이였다. 이어진 협살 상황에서 상대 실수가 나오면 추가 득점도 가능하다. 우리 팀 내부적으로도 토론해보겠다"고 했다.[이미지출처=로이터연합뉴스]프로야구 도루왕 출신인 전 코치의 눈에 고먼의 플레이는 훈련의 결과로 보였다. "2루를 밟은 뒤 몸을 트는 턴 동작이 좋았다. 자칫하면 3피트 라인을 벗어나 아웃이 된다." 그의 눈은 정확했다. 경기 뒤 올리버 마몰 세인트루이스 감독은 "우리 구단은 마이너리그에서부터 전력 질주로 2루 포스아웃을 깨뜨리는 전술을 가르쳐왔다"고 밝혔다. 골드슈미트가 타석에 들어서기 전 스터비 클랩 1루 코치는 고먼에게 전력 질주를 해야 할 상황이 올 수 있음을 상기시켰다.미국 야구는 통계분석기법의 발달과 확산으로 가장 확률이 높은 선택을 하는 쪽으로 변해왔다. 그러다 보니 구단 운영뿐 아니라 경기 스타일도 비슷해졌다. 반대로 경기에서 의외성은 줄었다. 미국 스포츠전문지 스포팅뉴스는 최근 야구를 "상대를 서로 너무 잘 알고 있는 카드게임과 같다"고 비유했다. 이런 흐름에서 나온 고먼과 세인트루이스의 전례 없는 플레이는 찬사를 듣기에 충분했다.유감스러운 점도 있다. 2루 포스아웃을 깨뜨린 고먼의 전력 질주는 공식 야구 기록상으로 ‘야수선택으로 인한 2루 진루’다. 너무 밋밋하다. 전례가 없었던 만큼 이런 플레이를 따로 부르는 이름이 없다. 고먼은 자신의 아웃을 감수하면서 팀에 한 점을 안겨주는 이타적인 플레이를 했다. 야구에는 이미 ‘희생(Sacrifice)’이라는 이름이 붙은 플레이가 있다. 희생번트와 희생플라이에 이어 ‘희생주루’라는 용어가 새로 생겨도 좋을 것이다.한국야구학회 이사</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2022.06.24.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>'간편결제 수수료' 공시 도입한다지만…난항 예상</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011266735?sid=101</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>기사내용 요약PG사·오픈마켓 등 가격 공개 이번이 처음"간편결제 수수료, 단순 비교하기 어려워""우리가 왜…카드사한테 배신감마저 느껴"카드사 자체 쇼핑몰도 공시 대상인지 논란[서울=뉴시스] 박은비 기자 = 간편결제 수수료 공시 도입을 두고 간편결제 업체들의 불만이 팽배하다. 특히 그동안 한 번도 수수료를 공개한 적이 없는 간편결제(PG)사들과 오픈마켓의 반발이 거세다. 관련 수수료만 해도 종류가 여러가지라 단순 비교를 위해 발라내기가 쉽지 않을 것이라는 지적이다.24일 업계에 따르면 금융당국은 지난 5월19일 결제수수료 공시 작업반(TF) 킥오프 회의 이후 지난주까지 업태별로 관계자들을 불러 2차 회의를 진행했다.당국은 관계 부처, 업계와 논의를 거쳐 올해 안으로 최종 공시방안을 확정할 예정이다. 일단은 킥오프 회의 당시 가맹점 수수료를 결제 관련 수수료와 기타 수수료(일반 상거래 관련)로 구분 관리하도록 했다. 이에 대해 업계에서는 당국 방침대로 따르겠지만 일률적으로 통일된 양식의 공시를 할 수 있을지 의문을 갖고 있다. 일률적으로 공시하지 않으면 공시하는 게 의미가 없고, 통일된 양식을 만들자니 업권별로 수수료 기능이 너무 다양해서다. 앞서 TF에 참여한 업체들만 해도 종류가 여럿이다. 빅테크(대형기술기업) 네이버파이낸셜, 카카오페이, 비바리퍼블리카(토스) 등을 비롯해 결제대행업체(NHN한국사이버결제, KG이니시스, 제이티넷), 선불업자(SSG닷컴, NH페이코, 롯데멤버스, 종합쇼핑몰 지마켓, 11번가, 우아한형제들(배달의민족)) 등이 첫 회의에 참석했다. 간편결제를 다루는 업체들은 카드사가 받는 신용카드 가맹점 수수료는 오프라인에서의 단순 결제기능에만 해당한다고 말한다. 오프라인에는 없고 온라인에만 존재하는 PG 수수료는 카드사를 대신해 온라인가맹점과 거래하는 대행료, 리스크 부담 등이 포함된다. 또 쇼핑몰 구성·유지 관련 호스팅 수수료와 오프라인의 임대료에 해당하는 입점 수수료 개념도 있다. 이런 기능 자체를 무시해서는 안 된다는 지적이다.한 전자금융업 관계자는 "기타 수수료라는 게 입점·판매 수수료가 들어가 있기 때문에 결제 수수료보다 민감한 영역"이라며 "이게 영업 경쟁력이기도 해서 대형 PG사도 마찬가지겠지만 중소 PG사들의 반발이 심한 걸로 알고 있다"고 말했다.이번 논의는 간편결제 수수료 공시 배경에 주목할 필요가 있다는 게 업계 설명이다. 당초 카드업계는 금융시장에 진입한 빅테크를 견제하기 위해 이들 회사들이 제공하는 온라인결제 수수료 구성도 공개해야 한다고 지적했다. 빅테크가 과도한 이익을 챙긴다는 비판이 일자 대통령직인수위원회는 간편결제 수수료 공시를 110대 국정과제에 포함시켰다.PG업계 관계자는 "간편결제 수수료가 과도하게 높다고 주장했던 카드업계 주장이 사실로 받아들여져 가격 공시로 이어질 줄은 몰랐다"며 "카드사가 직접하지 업무를 대행하면서 온라인상에서 결제서비스를 제공하는 PG사들 입장에서는 협력관계인 카드사에 일종의 배신감마저 드는 상황"이라고 언급했다. 오픈마켓 관계자는 "카드사들도 자체 쇼핑몰을 운영하며 입점업체에 수수료를 받고 있는데 오픈마켓과 유사한 구조"라며 "TF에 참여하지 않았는데 공시 대상에는 포함되는지 궁금하다"고 지적했다.금융권 관계자는 "과거 정부 때도 그랬고 분양원가공개와 같은 게 있을 때마다 경쟁하던 시장 질서가 왜곡되고 풍선 효과가 일어나고 이런 것 때문에 좌초되지 않았냐"며 "서로 다른 업권에 대해 무리하게 비교하다가 소비자들이 필요한 정보를 얻기 어려운 방향으로 흘러갈까 우려된다"고 말했다. 그러면서 "이번 간편결제 수수료 공시도 타금융권 공시와의 형평성, 공시 대상업체 선정 등과 맞물려 도입에 상당한 시일이 걸리고 난항이 예상된다"고 덧붙였다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2022.06.30.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>[오!머니] 승진했는데… 대출금리 내려주나요?</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000827556?sid=101</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>사진은 서울시내 한 은행에서 대출 관련 창구가 운영되는 모습./사진=뉴스1 한국은행의 기준금리 인상으로 은행의 대출금리가 상승세를 타면서 대출자들의 이자 상환부담이 커지고 있다. 금리 0.1% 인하가 아쉬운 대출자들은 신용도가 개선됐을 때 대출이자를 내려달라고 신청하는 금리인하요구권에 몰리고 있다. 30일 금융권에 따르면 최근 시중은행에 대출금리를 내려달라는 금리인하요구권 신청이 늘고 있다. 4대 시중은행(KB국민·신한·하나·우리은행)의 지난해 가계대출 금리인하요구권 수용률은 37.3%로 조사됐다. 1년 전과 비교해 5.1%포인트 가량 하락했다.반면 이들 은행에 들어온 금리인하요구 신청건수는 지난해 가파르게 늘었다. 4대 시중은행이 작년 고객들로부터 받은 금리인하요구 신청 건수는 17만824건, 수용 건수는 6만3741건이다. 한 시중은행의 경우 금리인하요구권 신청건수가 지난해 12만9398건으로 전년(1만6350건) 대비 8배 가까이 급증했다. 이 기간 수용 건수는 7063건에서 4만3071건으로 6배 넘게 늘어났다.수용대출금액은 5006억원에서 2조2216억원으로 4.4배 증가했다. 수용률은 43.2%에서 33.3%로 10%포인트 가까이 내려갔다.━모르면 손해, 신용 오르면 적극 활용해야━금리인하요구권은 신용상태에 변동이 있는 경우 사용 중인 대출에 대해 금리변경을 요구할 수 있는 권리다. 신용평가결과에 따라 금리가 차등 적용되는 대출을 보유한 차주 중 소득 상승, 신용점수 상향, 부채감소의 사유로 본인의 신용상태에 현저한 변동이 있을 것으로 판단되면 적용받을 수 있다.금리인하요구권은 은행권뿐만 아니라 보험사, 카드사 등에서도 신청할 수 있다. 예를 들어 신용카드 '리볼빙 서비스'에 대해서도 금리인하요구권을 활용할 수 있다. 다만 신용등급이 가장 높은 1등급 차주들은 이미 최저의 금리를 적용받고 있어 받아들여질 가능성이 낮은 것으로 알려졌다.금융당국은 은행들이 보다 적극적으로 금리인하요구권을 수용해야 한다는 입장이다. 앞서 이복현 금융감독원장도 은행권에 금리인하요구권 확대를 요구하고 나섰다. 이 금감원장은 지난 20일 17개 은행장 간담회에서 "예대금리차 산정체계·공시 개선방안과 함께 금리인하요구권 제도 운영을 지속적으로 활성화해달라"고 요청했다.시중은행들은 금리인하요구권 제도 활성화를 위해 적극적으로 안내하고 신청 절차를 간소화하는 등 편의성을 높인다는 방침이다. 토스뱅크는 상시 금리인하권 서비스를 도입해 운영하고 있다. 정기적으로 신용도가 오른 고객을 평가하고 이를 자동으로 알리는 시스템이다.은행 관계자는 "금리인하요구권을 신청이 몰리면서 수용률은 내려가는 추세"라면서도 "본인의 소득이나 재산의 증가나 영업실적 개선, 부채 감소 등의 자료를 제출할 경우 신용등급이 재산정돼 금리가 인하될 가능성이 크다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2022.06.19.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>[ET단상]100세 인생 시대, 경력 단절 IT 전공자의 재도전</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003024330?sid=110</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>디지털전환(DX) 속도가 더 빨라지고 있다. 4차 산업혁명이라고 불리는 디지털전환은 IT 분야는 물론 기존의 전통 금융과 서비스업을 통째로 뒤흔들고 있다. 향후 제조업은 물론 공공 서비스, 교육과 국방, 문화 등 모든 분야에서 큰 변화를 몰고 올 것으로 예상된다. 이제 창업 6년을 맞은 카카오뱅크는 시가총액에서 창업 100년을 자랑하는 우리은행의 거의 2배에 도달해 있고, 배달앱 플랫폼과 인공지능 기반 자율주행 자동차의 약진은 엄청난 규모의 공장과 화려한 점포를 갖춘 전통적인 기업들의 가치에 의문을 던지고 있다.빠르게 진행되고 있는 디지털전환에 힘입어 '더럽고 치사한' 3D 업종으로 분류되던 IT업계에서 인력 부족이 심화하고 있다. 기존 산업들이 업의 본질을 디지털로 재정의하고 새로운 플랫폼 기업들이 영역을 확장하면서 IT 인력 부족이 더욱 심해진 것이다. 네카라쿠배당토(네이버·카카오·라인·쿠팡·배민·당근·토스)에 의해 주도되고 있는 과격한 연봉 인상이나 스타트업에 의한 과도한 스톡옵션 역시 IT 인력 부족 현상을 잘 반영하고 있다.이러한 인력 부족 문제 해결 방안으로 경력 단절 IT 전공자가 주목받고 있다. 마크애니는 40~55세 경력 단절자들을 모집해 코딩 전문기관 비트컴퓨터에서의 3개월 훈련 후 전원 채용하겠다는 사업을 진행하고 있다. 이는 한국 사회를 효율화하고 디지털전환을 촉진할 수 있다는 점에서 중요한 의미가 있다. IT업계에서 일하다 결혼으로 가사에 전념하고 있든지 코딩이 싫어 타 직종에 종사하고 있는 인력들을 디지털전환의 장으로 다시 끌어들여서 활용한다면 우리 사회의 생산성 향상에 한몫을 담당할 수 있을 것이다.IT 전문교육을 받고 이수 후 타 직종으로 바꾸는 경우는 대부분 코딩의 어려움 때문이지만 지금은 플로차트(flow chart)만 그려도 프로그램이 자동으로 생성되는 로코드(Low code) 기술도 나와 있고, 오픈소스 프로그램도 쉽게 찾을 수 있다. 100세 인생 시대에 IT 전공자라면 제2의 인생으로 도전해 볼 만하다. 경력 단절 전공자에게 IT를 다시 가르쳐서 활용한다면 프로그래머가 아니더라도 교사, 창업자로서 새로운 인생을 시작할 수 있을 것이다. 현재 초·중·고등학교에서는 컴퓨터 프로그램을 가르칠 교사 부족으로 어려움을 겪고 있다.우리나라는 모두가 부러워하는 IT 인프라를 갖추고 있다. 코로나 소동의 와중에도 우리나라 생산력은 별로 떨어지지 않았고, 수출은 지속적으로 역대 최고를 기록하고 있다. 이러한 경쟁력 뒤에는 신속하고 정확하게 확진자를 추적하고, 일사불란하게 백신 통보와 집계를 해낸 IT 인프라가 큰 역할을 한 것이다. 그러나 이러한 인프라는 IT 인력의 뒷받침 없이는 불가능하다. 이제 의료, 금융, 교통, 교육 등 모든 분야가 IT 인프라에 의해 움직인다는 점을 감안하면 IT 인력 확충과 활용은 사회적으로도 중요한 과제다. 더구나 중국과 미국의 치열한 경쟁도 인공지능, 로봇, 블록체인, 메타버스 등 4차 산업혁명 기술에 집중돼 있음을 생각하면 이들의 재교육과 활용은 국가적으로도 중요하다.IT 경력 단절 전공자의 활용은 최근의 IT 개발자 부족 현상을 극복하는 동시에 새로운 형태의 고용 매칭을 통해 제2, 제3의 인생에 도전할 수 있는 사회적 기반 마련에도 크게 기여할 것으로 기대된다.최종욱 마크애니 대표 juchoi@markany.com</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
